--- a/Stocks/SNAP/HighLow.xlsx
+++ b/Stocks/SNAP/HighLow.xlsx
@@ -417,2562 +417,2562 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>75.81999969482422</v>
+        <v>76.37999725341797</v>
       </c>
       <c r="B2">
-        <v>78.11000061035156</v>
+        <v>76.87999725341797</v>
       </c>
       <c r="C2">
-        <v>74.55000305175781</v>
+        <v>75.01000213623047</v>
       </c>
       <c r="D2">
-        <v>77.31999969482422</v>
+        <v>75.26000213623047</v>
       </c>
       <c r="E2">
-        <v>77.31999969482422</v>
+        <v>75.26000213623047</v>
       </c>
       <c r="F2">
-        <v>17294000</v>
+        <v>8031200</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>76.38999938964844</v>
+        <v>75.29000091552734</v>
       </c>
       <c r="B3">
-        <v>78.55000305175781</v>
+        <v>75.84999847412109</v>
       </c>
       <c r="C3">
-        <v>75.59999847412109</v>
+        <v>74.05999755859375</v>
       </c>
       <c r="D3">
-        <v>75.98000335693359</v>
+        <v>74.62000274658203</v>
       </c>
       <c r="E3">
-        <v>75.98000335693359</v>
+        <v>74.62000274658203</v>
       </c>
       <c r="F3">
-        <v>10719400</v>
+        <v>7144500</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>75.69999694824219</v>
+        <v>74.02999877929688</v>
       </c>
       <c r="B4">
-        <v>78.27999877929688</v>
+        <v>74.79000091552734</v>
       </c>
       <c r="C4">
-        <v>74.79000091552734</v>
+        <v>69.90000152587891</v>
       </c>
       <c r="D4">
-        <v>78.15000152587891</v>
+        <v>72.44000244140625</v>
       </c>
       <c r="E4">
-        <v>78.15000152587891</v>
+        <v>72.44000244140625</v>
       </c>
       <c r="F4">
-        <v>12419000</v>
+        <v>19347300</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>78.34999847412109</v>
+        <v>71.08999633789062</v>
       </c>
       <c r="B5">
-        <v>80.84999847412109</v>
+        <v>72.61000061035156</v>
       </c>
       <c r="C5">
-        <v>75.5</v>
+        <v>70.05000305175781</v>
       </c>
       <c r="D5">
-        <v>75.80000305175781</v>
+        <v>71.80999755859375</v>
       </c>
       <c r="E5">
-        <v>75.80000305175781</v>
+        <v>71.80999755859375</v>
       </c>
       <c r="F5">
-        <v>19735500</v>
+        <v>12077400</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>76.41000366210938</v>
+        <v>71.29000091552734</v>
       </c>
       <c r="B6">
-        <v>77.77999877929688</v>
+        <v>73.37999725341797</v>
       </c>
       <c r="C6">
-        <v>75.66999816894531</v>
+        <v>71</v>
       </c>
       <c r="D6">
-        <v>76.52999877929688</v>
+        <v>71.95999908447266</v>
       </c>
       <c r="E6">
-        <v>76.52999877929688</v>
+        <v>71.95999908447266</v>
       </c>
       <c r="F6">
-        <v>10099100</v>
+        <v>8067600</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>76.37999725341797</v>
+        <v>70.5</v>
       </c>
       <c r="B7">
-        <v>76.87999725341797</v>
+        <v>72.54499816894531</v>
       </c>
       <c r="C7">
-        <v>75.01000213623047</v>
+        <v>70.40000152587891</v>
       </c>
       <c r="D7">
-        <v>75.26000213623047</v>
+        <v>70.86000061035156</v>
       </c>
       <c r="E7">
-        <v>75.26000213623047</v>
+        <v>70.86000061035156</v>
       </c>
       <c r="F7">
-        <v>8031200</v>
+        <v>8874500</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>75.29000091552734</v>
+        <v>71.19999694824219</v>
       </c>
       <c r="B8">
-        <v>75.84999847412109</v>
+        <v>72.97000122070312</v>
       </c>
       <c r="C8">
-        <v>74.05999755859375</v>
+        <v>70.80000305175781</v>
       </c>
       <c r="D8">
-        <v>74.62000274658203</v>
+        <v>72.72000122070312</v>
       </c>
       <c r="E8">
-        <v>74.62000274658203</v>
+        <v>72.72000122070312</v>
       </c>
       <c r="F8">
-        <v>7144500</v>
+        <v>8607700</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>74.02999877929688</v>
+        <v>74.01000213623047</v>
       </c>
       <c r="B9">
-        <v>74.79000091552734</v>
+        <v>75.93000030517578</v>
       </c>
       <c r="C9">
-        <v>69.90000152587891</v>
+        <v>73.66999816894531</v>
       </c>
       <c r="D9">
-        <v>72.44000244140625</v>
+        <v>75.5</v>
       </c>
       <c r="E9">
-        <v>72.44000244140625</v>
+        <v>75.5</v>
       </c>
       <c r="F9">
-        <v>19347300</v>
+        <v>11055900</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>71.08999633789062</v>
+        <v>75.81999969482422</v>
       </c>
       <c r="B10">
-        <v>72.61000061035156</v>
+        <v>76.37000274658203</v>
       </c>
       <c r="C10">
-        <v>70.05000305175781</v>
+        <v>73.72000122070312</v>
       </c>
       <c r="D10">
-        <v>71.80999755859375</v>
+        <v>74.62999725341797</v>
       </c>
       <c r="E10">
-        <v>71.80999755859375</v>
+        <v>74.62999725341797</v>
       </c>
       <c r="F10">
-        <v>12077400</v>
+        <v>9663800</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>71.29000091552734</v>
+        <v>74.30999755859375</v>
       </c>
       <c r="B11">
-        <v>73.37999725341797</v>
+        <v>74.97599792480469</v>
       </c>
       <c r="C11">
-        <v>71</v>
+        <v>73.48999786376953</v>
       </c>
       <c r="D11">
-        <v>71.95999908447266</v>
+        <v>74.69000244140625</v>
       </c>
       <c r="E11">
-        <v>71.95999908447266</v>
+        <v>74.69000244140625</v>
       </c>
       <c r="F11">
-        <v>8067600</v>
+        <v>7901400</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>70.5</v>
+        <v>74.72000122070312</v>
       </c>
       <c r="B12">
-        <v>72.54499816894531</v>
+        <v>74.94999694824219</v>
       </c>
       <c r="C12">
-        <v>70.40000152587891</v>
+        <v>71.51200103759766</v>
       </c>
       <c r="D12">
-        <v>70.86000061035156</v>
+        <v>71.61000061035156</v>
       </c>
       <c r="E12">
-        <v>70.86000061035156</v>
+        <v>71.61000061035156</v>
       </c>
       <c r="F12">
-        <v>8874500</v>
+        <v>19872400</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>71.19999694824219</v>
+        <v>72.18000030517578</v>
       </c>
       <c r="B13">
-        <v>72.97000122070312</v>
+        <v>73.87999725341797</v>
       </c>
       <c r="C13">
-        <v>70.80000305175781</v>
+        <v>71.66000366210938</v>
       </c>
       <c r="D13">
-        <v>72.72000122070312</v>
+        <v>73.12000274658203</v>
       </c>
       <c r="E13">
-        <v>72.72000122070312</v>
+        <v>73.12000274658203</v>
       </c>
       <c r="F13">
-        <v>8607700</v>
+        <v>10115800</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>74.01000213623047</v>
+        <v>73.30000305175781</v>
       </c>
       <c r="B14">
-        <v>75.93000030517578</v>
+        <v>75</v>
       </c>
       <c r="C14">
-        <v>73.66999816894531</v>
+        <v>71.77999877929688</v>
       </c>
       <c r="D14">
-        <v>75.5</v>
+        <v>74.51000213623047</v>
       </c>
       <c r="E14">
-        <v>75.5</v>
+        <v>74.51000213623047</v>
       </c>
       <c r="F14">
-        <v>11055900</v>
+        <v>8825300</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>75.81999969482422</v>
+        <v>74.86000061035156</v>
       </c>
       <c r="B15">
-        <v>76.37000274658203</v>
+        <v>77.87999725341797</v>
       </c>
       <c r="C15">
-        <v>73.72000122070312</v>
+        <v>74.09999847412109</v>
       </c>
       <c r="D15">
-        <v>74.62999725341797</v>
+        <v>76.11000061035156</v>
       </c>
       <c r="E15">
-        <v>74.62999725341797</v>
+        <v>76.11000061035156</v>
       </c>
       <c r="F15">
-        <v>9663800</v>
+        <v>18475200</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>74.30999755859375</v>
+        <v>75.98000335693359</v>
       </c>
       <c r="B16">
-        <v>74.97599792480469</v>
+        <v>77.25</v>
       </c>
       <c r="C16">
-        <v>73.48999786376953</v>
+        <v>73.69000244140625</v>
       </c>
       <c r="D16">
-        <v>74.69000244140625</v>
+        <v>74.16999816894531</v>
       </c>
       <c r="E16">
-        <v>74.69000244140625</v>
+        <v>74.16999816894531</v>
       </c>
       <c r="F16">
-        <v>7901400</v>
+        <v>15642300</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>74.72000122070312</v>
+        <v>74.59999847412109</v>
       </c>
       <c r="B17">
-        <v>74.94999694824219</v>
+        <v>76.19999694824219</v>
       </c>
       <c r="C17">
-        <v>71.51200103759766</v>
+        <v>73.59999847412109</v>
       </c>
       <c r="D17">
-        <v>71.61000061035156</v>
+        <v>73.91999816894531</v>
       </c>
       <c r="E17">
-        <v>71.61000061035156</v>
+        <v>73.91999816894531</v>
       </c>
       <c r="F17">
-        <v>19872400</v>
+        <v>12178500</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>72.18000030517578</v>
+        <v>73.91999816894531</v>
       </c>
       <c r="B18">
-        <v>73.87999725341797</v>
+        <v>75.47000122070312</v>
       </c>
       <c r="C18">
-        <v>71.66000366210938</v>
+        <v>72.93000030517578</v>
       </c>
       <c r="D18">
-        <v>73.12000274658203</v>
+        <v>75.08000183105469</v>
       </c>
       <c r="E18">
-        <v>73.12000274658203</v>
+        <v>75.08000183105469</v>
       </c>
       <c r="F18">
-        <v>10115800</v>
+        <v>9237100</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>73.30000305175781</v>
+        <v>75.83000183105469</v>
       </c>
       <c r="B19">
-        <v>75</v>
+        <v>76.83999633789062</v>
       </c>
       <c r="C19">
-        <v>71.77999877929688</v>
+        <v>74.052001953125</v>
       </c>
       <c r="D19">
-        <v>74.51000213623047</v>
+        <v>76.48999786376953</v>
       </c>
       <c r="E19">
-        <v>74.51000213623047</v>
+        <v>76.48999786376953</v>
       </c>
       <c r="F19">
-        <v>8825300</v>
+        <v>11735200</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>74.86000061035156</v>
+        <v>76.22000122070312</v>
       </c>
       <c r="B20">
-        <v>77.87999725341797</v>
+        <v>76.69999694824219</v>
       </c>
       <c r="C20">
-        <v>74.09999847412109</v>
+        <v>73.23000335693359</v>
       </c>
       <c r="D20">
-        <v>76.11000061035156</v>
+        <v>74.12999725341797</v>
       </c>
       <c r="E20">
-        <v>76.11000061035156</v>
+        <v>74.12999725341797</v>
       </c>
       <c r="F20">
-        <v>18475200</v>
+        <v>11538900</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>75.98000335693359</v>
+        <v>74.11000061035156</v>
       </c>
       <c r="B21">
-        <v>77.25</v>
+        <v>75.66600036621094</v>
       </c>
       <c r="C21">
-        <v>73.69000244140625</v>
+        <v>73.54000091552734</v>
       </c>
       <c r="D21">
-        <v>74.16999816894531</v>
+        <v>74.62000274658203</v>
       </c>
       <c r="E21">
-        <v>74.16999816894531</v>
+        <v>74.62000274658203</v>
       </c>
       <c r="F21">
-        <v>15642300</v>
+        <v>10564300</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>74.59999847412109</v>
+        <v>75.25</v>
       </c>
       <c r="B22">
-        <v>76.19999694824219</v>
+        <v>75.98999786376953</v>
       </c>
       <c r="C22">
-        <v>73.59999847412109</v>
+        <v>74.27500152587891</v>
       </c>
       <c r="D22">
-        <v>73.91999816894531</v>
+        <v>74.5</v>
       </c>
       <c r="E22">
-        <v>73.91999816894531</v>
+        <v>74.5</v>
       </c>
       <c r="F22">
-        <v>12178500</v>
+        <v>9209900</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>73.91999816894531</v>
+        <v>75.61000061035156</v>
       </c>
       <c r="B23">
-        <v>75.47000122070312</v>
+        <v>75.61000061035156</v>
       </c>
       <c r="C23">
-        <v>72.93000030517578</v>
+        <v>69.81999969482422</v>
       </c>
       <c r="D23">
-        <v>75.08000183105469</v>
+        <v>71.26000213623047</v>
       </c>
       <c r="E23">
-        <v>75.08000183105469</v>
+        <v>71.26000213623047</v>
       </c>
       <c r="F23">
-        <v>9237100</v>
+        <v>19913400</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>75.83000183105469</v>
+        <v>71.69000244140625</v>
       </c>
       <c r="B24">
-        <v>76.83999633789062</v>
+        <v>72.79000091552734</v>
       </c>
       <c r="C24">
-        <v>74.052001953125</v>
+        <v>70.80999755859375</v>
       </c>
       <c r="D24">
-        <v>76.48999786376953</v>
+        <v>71.30999755859375</v>
       </c>
       <c r="E24">
-        <v>76.48999786376953</v>
+        <v>71.30999755859375</v>
       </c>
       <c r="F24">
-        <v>11735200</v>
+        <v>11083000</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>76.22000122070312</v>
+        <v>71.33000183105469</v>
       </c>
       <c r="B25">
-        <v>76.69999694824219</v>
+        <v>73.62000274658203</v>
       </c>
       <c r="C25">
-        <v>73.23000335693359</v>
+        <v>70.37000274658203</v>
       </c>
       <c r="D25">
-        <v>74.12999725341797</v>
+        <v>73.62000274658203</v>
       </c>
       <c r="E25">
-        <v>74.12999725341797</v>
+        <v>73.62000274658203</v>
       </c>
       <c r="F25">
-        <v>11538900</v>
+        <v>10890100</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>74.11000061035156</v>
+        <v>73.29000091552734</v>
       </c>
       <c r="B26">
-        <v>75.66600036621094</v>
+        <v>73.41000366210938</v>
       </c>
       <c r="C26">
-        <v>73.54000091552734</v>
+        <v>71.51999664306641</v>
       </c>
       <c r="D26">
-        <v>74.62000274658203</v>
+        <v>72.48000335693359</v>
       </c>
       <c r="E26">
-        <v>74.62000274658203</v>
+        <v>72.48000335693359</v>
       </c>
       <c r="F26">
-        <v>10564300</v>
+        <v>16878500</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>75.25</v>
+        <v>72.41999816894531</v>
       </c>
       <c r="B27">
-        <v>75.98999786376953</v>
+        <v>75.62999725341797</v>
       </c>
       <c r="C27">
-        <v>74.27500152587891</v>
+        <v>72.40000152587891</v>
       </c>
       <c r="D27">
-        <v>74.5</v>
+        <v>74.76000213623047</v>
       </c>
       <c r="E27">
-        <v>74.5</v>
+        <v>74.76000213623047</v>
       </c>
       <c r="F27">
-        <v>9209900</v>
+        <v>20858800</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>75.61000061035156</v>
+        <v>72.375</v>
       </c>
       <c r="B28">
-        <v>75.61000061035156</v>
+        <v>73.13999938964844</v>
       </c>
       <c r="C28">
-        <v>69.81999969482422</v>
+        <v>70.10900115966797</v>
       </c>
       <c r="D28">
-        <v>71.26000213623047</v>
+        <v>71.73000335693359</v>
       </c>
       <c r="E28">
-        <v>71.26000213623047</v>
+        <v>71.73000335693359</v>
       </c>
       <c r="F28">
-        <v>19913400</v>
+        <v>13834900</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>71.69000244140625</v>
+        <v>72.76000213623047</v>
       </c>
       <c r="B29">
-        <v>72.79000091552734</v>
+        <v>76.37000274658203</v>
       </c>
       <c r="C29">
-        <v>70.80999755859375</v>
+        <v>72.59999847412109</v>
       </c>
       <c r="D29">
-        <v>71.30999755859375</v>
+        <v>76.08999633789062</v>
       </c>
       <c r="E29">
-        <v>71.30999755859375</v>
+        <v>76.08999633789062</v>
       </c>
       <c r="F29">
-        <v>11083000</v>
+        <v>18129600</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>71.33000183105469</v>
+        <v>74.37000274658203</v>
       </c>
       <c r="B30">
-        <v>73.62000274658203</v>
+        <v>79.63999938964844</v>
       </c>
       <c r="C30">
-        <v>70.37000274658203</v>
+        <v>74.01999664306641</v>
       </c>
       <c r="D30">
-        <v>73.62000274658203</v>
+        <v>78.59999847412109</v>
       </c>
       <c r="E30">
-        <v>73.62000274658203</v>
+        <v>78.59999847412109</v>
       </c>
       <c r="F30">
-        <v>10890100</v>
+        <v>26999200</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>73.29000091552734</v>
+        <v>78.97000122070312</v>
       </c>
       <c r="B31">
-        <v>73.41000366210938</v>
+        <v>80.09999847412109</v>
       </c>
       <c r="C31">
-        <v>71.51999664306641</v>
+        <v>77.45999908447266</v>
       </c>
       <c r="D31">
-        <v>72.48000335693359</v>
+        <v>79.37000274658203</v>
       </c>
       <c r="E31">
-        <v>72.48000335693359</v>
+        <v>79.37000274658203</v>
       </c>
       <c r="F31">
-        <v>16878500</v>
+        <v>20944600</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>72.41999816894531</v>
+        <v>78.94000244140625</v>
       </c>
       <c r="B32">
-        <v>75.62999725341797</v>
+        <v>83.33999633789062</v>
       </c>
       <c r="C32">
-        <v>72.40000152587891</v>
+        <v>78.11000061035156</v>
       </c>
       <c r="D32">
-        <v>74.76000213623047</v>
+        <v>83.11000061035156</v>
       </c>
       <c r="E32">
-        <v>74.76000213623047</v>
+        <v>83.11000061035156</v>
       </c>
       <c r="F32">
-        <v>20858800</v>
+        <v>29039000</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>72.375</v>
+        <v>82</v>
       </c>
       <c r="B33">
-        <v>73.13999938964844</v>
+        <v>82.61000061035156</v>
       </c>
       <c r="C33">
-        <v>70.10900115966797</v>
+        <v>79.31999969482422</v>
       </c>
       <c r="D33">
-        <v>71.73000335693359</v>
+        <v>80.08000183105469</v>
       </c>
       <c r="E33">
-        <v>71.73000335693359</v>
+        <v>80.08000183105469</v>
       </c>
       <c r="F33">
-        <v>13834900</v>
+        <v>18493300</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>72.76000213623047</v>
+        <v>78.54000091552734</v>
       </c>
       <c r="B34">
-        <v>76.37000274658203</v>
+        <v>79.41000366210938</v>
       </c>
       <c r="C34">
-        <v>72.59999847412109</v>
+        <v>73.88999938964844</v>
       </c>
       <c r="D34">
-        <v>76.08999633789062</v>
+        <v>74.41999816894531</v>
       </c>
       <c r="E34">
-        <v>76.08999633789062</v>
+        <v>74.41999816894531</v>
       </c>
       <c r="F34">
-        <v>18129600</v>
+        <v>23531900</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>74.37000274658203</v>
+        <v>75.30000305175781</v>
       </c>
       <c r="B35">
-        <v>79.63999938964844</v>
+        <v>76.08999633789062</v>
       </c>
       <c r="C35">
-        <v>74.01999664306641</v>
+        <v>71.55999755859375</v>
       </c>
       <c r="D35">
-        <v>78.59999847412109</v>
+        <v>71.76000213623047</v>
       </c>
       <c r="E35">
-        <v>78.59999847412109</v>
+        <v>71.76000213623047</v>
       </c>
       <c r="F35">
-        <v>26999200</v>
+        <v>18633700</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>78.97000122070312</v>
+        <v>72.91999816894531</v>
       </c>
       <c r="B36">
-        <v>80.09999847412109</v>
+        <v>75.24700164794922</v>
       </c>
       <c r="C36">
-        <v>77.45999908447266</v>
+        <v>72.23999786376953</v>
       </c>
       <c r="D36">
-        <v>79.37000274658203</v>
+        <v>73.87000274658203</v>
       </c>
       <c r="E36">
-        <v>79.37000274658203</v>
+        <v>73.87000274658203</v>
       </c>
       <c r="F36">
-        <v>20944600</v>
+        <v>17166400</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>78.94000244140625</v>
+        <v>74.81999969482422</v>
       </c>
       <c r="B37">
-        <v>83.33999633789062</v>
+        <v>75.88999938964844</v>
       </c>
       <c r="C37">
-        <v>78.11000061035156</v>
+        <v>73.44000244140625</v>
       </c>
       <c r="D37">
-        <v>83.11000061035156</v>
+        <v>75.25</v>
       </c>
       <c r="E37">
-        <v>83.11000061035156</v>
+        <v>75.25</v>
       </c>
       <c r="F37">
-        <v>29039000</v>
+        <v>11689700</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>82</v>
+        <v>74.02999877929688</v>
       </c>
       <c r="B38">
-        <v>82.61000061035156</v>
+        <v>74.19999694824219</v>
       </c>
       <c r="C38">
-        <v>79.31999969482422</v>
+        <v>69.97000122070312</v>
       </c>
       <c r="D38">
-        <v>80.08000183105469</v>
+        <v>71.23000335693359</v>
       </c>
       <c r="E38">
-        <v>80.08000183105469</v>
+        <v>71.23000335693359</v>
       </c>
       <c r="F38">
-        <v>18493300</v>
+        <v>18142600</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>78.54000091552734</v>
+        <v>72.18000030517578</v>
       </c>
       <c r="B39">
-        <v>79.41000366210938</v>
+        <v>73.91000366210938</v>
       </c>
       <c r="C39">
-        <v>73.88999938964844</v>
+        <v>71.79000091552734</v>
       </c>
       <c r="D39">
-        <v>74.41999816894531</v>
+        <v>73.41000366210938</v>
       </c>
       <c r="E39">
-        <v>74.41999816894531</v>
+        <v>73.41000366210938</v>
       </c>
       <c r="F39">
-        <v>23531900</v>
+        <v>11896500</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>75.30000305175781</v>
+        <v>72.37000274658203</v>
       </c>
       <c r="B40">
-        <v>76.08999633789062</v>
+        <v>74.5</v>
       </c>
       <c r="C40">
-        <v>71.55999755859375</v>
+        <v>71.31999969482422</v>
       </c>
       <c r="D40">
-        <v>71.76000213623047</v>
+        <v>73.12999725341797</v>
       </c>
       <c r="E40">
-        <v>71.76000213623047</v>
+        <v>73.12999725341797</v>
       </c>
       <c r="F40">
-        <v>18633700</v>
+        <v>10927300</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>72.91999816894531</v>
+        <v>74.36000061035156</v>
       </c>
       <c r="B41">
-        <v>75.24700164794922</v>
+        <v>77.41000366210938</v>
       </c>
       <c r="C41">
-        <v>72.23999786376953</v>
+        <v>74.09999847412109</v>
       </c>
       <c r="D41">
-        <v>73.87000274658203</v>
+        <v>76.27999877929688</v>
       </c>
       <c r="E41">
-        <v>73.87000274658203</v>
+        <v>76.27999877929688</v>
       </c>
       <c r="F41">
-        <v>17166400</v>
+        <v>15547400</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>74.81999969482422</v>
+        <v>76.91000366210938</v>
       </c>
       <c r="B42">
-        <v>75.88999938964844</v>
+        <v>77.41000366210938</v>
       </c>
       <c r="C42">
-        <v>73.44000244140625</v>
+        <v>74.73999786376953</v>
       </c>
       <c r="D42">
-        <v>75.25</v>
+        <v>75</v>
       </c>
       <c r="E42">
-        <v>75.25</v>
+        <v>75</v>
       </c>
       <c r="F42">
-        <v>11689700</v>
+        <v>8906100</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>74.02999877929688</v>
+        <v>74.65000152587891</v>
       </c>
       <c r="B43">
-        <v>74.19999694824219</v>
+        <v>75.59999847412109</v>
       </c>
       <c r="C43">
-        <v>69.97000122070312</v>
+        <v>73.5</v>
       </c>
       <c r="D43">
-        <v>71.23000335693359</v>
+        <v>73.52999877929688</v>
       </c>
       <c r="E43">
-        <v>71.23000335693359</v>
+        <v>73.52999877929688</v>
       </c>
       <c r="F43">
-        <v>18142600</v>
+        <v>8990800</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>72.18000030517578</v>
+        <v>74.12000274658203</v>
       </c>
       <c r="B44">
-        <v>73.91000366210938</v>
+        <v>75.98000335693359</v>
       </c>
       <c r="C44">
-        <v>71.79000091552734</v>
+        <v>73.52999877929688</v>
       </c>
       <c r="D44">
-        <v>73.41000366210938</v>
+        <v>75.26000213623047</v>
       </c>
       <c r="E44">
-        <v>73.41000366210938</v>
+        <v>75.26000213623047</v>
       </c>
       <c r="F44">
-        <v>11896500</v>
+        <v>13691100</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>72.37000274658203</v>
+        <v>76.15000152587891</v>
       </c>
       <c r="B45">
-        <v>74.5</v>
+        <v>76.30899810791016</v>
       </c>
       <c r="C45">
-        <v>71.31999969482422</v>
+        <v>74.30000305175781</v>
       </c>
       <c r="D45">
-        <v>73.12999725341797</v>
+        <v>74.94999694824219</v>
       </c>
       <c r="E45">
-        <v>73.12999725341797</v>
+        <v>74.94999694824219</v>
       </c>
       <c r="F45">
-        <v>10927300</v>
+        <v>9998900</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>74.36000061035156</v>
+        <v>77.05999755859375</v>
       </c>
       <c r="B46">
-        <v>77.41000366210938</v>
+        <v>77.23000335693359</v>
       </c>
       <c r="C46">
-        <v>74.09999847412109</v>
+        <v>75.72499847412109</v>
       </c>
       <c r="D46">
-        <v>76.27999877929688</v>
+        <v>76.63999938964844</v>
       </c>
       <c r="E46">
-        <v>76.27999877929688</v>
+        <v>76.63999938964844</v>
       </c>
       <c r="F46">
-        <v>15547400</v>
+        <v>12948800</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>76.91000366210938</v>
+        <v>76.80999755859375</v>
       </c>
       <c r="B47">
-        <v>77.41000366210938</v>
+        <v>78.73500061035156</v>
       </c>
       <c r="C47">
-        <v>74.73999786376953</v>
+        <v>75.87000274658203</v>
       </c>
       <c r="D47">
-        <v>75</v>
+        <v>77.33999633789062</v>
       </c>
       <c r="E47">
-        <v>75</v>
+        <v>77.33999633789062</v>
       </c>
       <c r="F47">
-        <v>8906100</v>
+        <v>20404200</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>74.65000152587891</v>
+        <v>78.59999847412109</v>
       </c>
       <c r="B48">
-        <v>75.59999847412109</v>
+        <v>79.30000305175781</v>
       </c>
       <c r="C48">
-        <v>73.5</v>
+        <v>72.61000061035156</v>
       </c>
       <c r="D48">
-        <v>73.52999877929688</v>
+        <v>75.80000305175781</v>
       </c>
       <c r="E48">
-        <v>73.52999877929688</v>
+        <v>75.80000305175781</v>
       </c>
       <c r="F48">
-        <v>8990800</v>
+        <v>33053900</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>74.12000274658203</v>
+        <v>75.12000274658203</v>
       </c>
       <c r="B49">
-        <v>75.98000335693359</v>
+        <v>78.18000030517578</v>
       </c>
       <c r="C49">
-        <v>73.52999877929688</v>
+        <v>73.90000152587891</v>
       </c>
       <c r="D49">
-        <v>75.26000213623047</v>
+        <v>76.43000030517578</v>
       </c>
       <c r="E49">
-        <v>75.26000213623047</v>
+        <v>76.43000030517578</v>
       </c>
       <c r="F49">
-        <v>13691100</v>
+        <v>18720700</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>76.15000152587891</v>
+        <v>76.56999969482422</v>
       </c>
       <c r="B50">
-        <v>76.30899810791016</v>
+        <v>77.51999664306641</v>
       </c>
       <c r="C50">
-        <v>74.30000305175781</v>
+        <v>74.66999816894531</v>
       </c>
       <c r="D50">
-        <v>74.94999694824219</v>
+        <v>75.65000152587891</v>
       </c>
       <c r="E50">
-        <v>74.94999694824219</v>
+        <v>75.65000152587891</v>
       </c>
       <c r="F50">
-        <v>9998900</v>
+        <v>15739300</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>77.05999755859375</v>
+        <v>74.80999755859375</v>
       </c>
       <c r="B51">
-        <v>77.23000335693359</v>
+        <v>75.94999694824219</v>
       </c>
       <c r="C51">
-        <v>75.72499847412109</v>
+        <v>73.88999938964844</v>
       </c>
       <c r="D51">
-        <v>76.63999938964844</v>
+        <v>75.11000061035156</v>
       </c>
       <c r="E51">
-        <v>76.63999938964844</v>
+        <v>75.11000061035156</v>
       </c>
       <c r="F51">
-        <v>12948800</v>
+        <v>44450900</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>76.80999755859375</v>
+        <v>58.75</v>
       </c>
       <c r="B52">
-        <v>78.73500061035156</v>
+        <v>60.77999877929688</v>
       </c>
       <c r="C52">
-        <v>75.87000274658203</v>
+        <v>55.02999877929688</v>
       </c>
       <c r="D52">
-        <v>77.33999633789062</v>
+        <v>55.13999938964844</v>
       </c>
       <c r="E52">
-        <v>77.33999633789062</v>
+        <v>55.13999938964844</v>
       </c>
       <c r="F52">
-        <v>20404200</v>
+        <v>153827500</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>78.59999847412109</v>
+        <v>55.95999908447266</v>
       </c>
       <c r="B53">
-        <v>79.30000305175781</v>
+        <v>56.15000152587891</v>
       </c>
       <c r="C53">
-        <v>72.61000061035156</v>
+        <v>53.77000045776367</v>
       </c>
       <c r="D53">
-        <v>75.80000305175781</v>
+        <v>54.5</v>
       </c>
       <c r="E53">
-        <v>75.80000305175781</v>
+        <v>54.5</v>
       </c>
       <c r="F53">
-        <v>33053900</v>
+        <v>62506800</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>75.12000274658203</v>
+        <v>55.2400016784668</v>
       </c>
       <c r="B54">
-        <v>78.18000030517578</v>
+        <v>57.18000030517578</v>
       </c>
       <c r="C54">
-        <v>73.90000152587891</v>
+        <v>54.88000106811523</v>
       </c>
       <c r="D54">
-        <v>76.43000030517578</v>
+        <v>55.38999938964844</v>
       </c>
       <c r="E54">
-        <v>76.43000030517578</v>
+        <v>55.38999938964844</v>
       </c>
       <c r="F54">
-        <v>18720700</v>
+        <v>52905700</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>76.56999969482422</v>
+        <v>55.04999923706055</v>
       </c>
       <c r="B55">
-        <v>77.51999664306641</v>
+        <v>55.22999954223633</v>
       </c>
       <c r="C55">
-        <v>74.66999816894531</v>
+        <v>51.65999984741211</v>
       </c>
       <c r="D55">
-        <v>75.65000152587891</v>
+        <v>52.02000045776367</v>
       </c>
       <c r="E55">
-        <v>75.65000152587891</v>
+        <v>52.02000045776367</v>
       </c>
       <c r="F55">
-        <v>15739300</v>
+        <v>52581300</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>74.80999755859375</v>
+        <v>52.68000030517578</v>
       </c>
       <c r="B56">
-        <v>75.94999694824219</v>
+        <v>54.95999908447266</v>
       </c>
       <c r="C56">
-        <v>73.88999938964844</v>
+        <v>51.9900016784668</v>
       </c>
       <c r="D56">
-        <v>75.11000061035156</v>
+        <v>54.38999938964844</v>
       </c>
       <c r="E56">
-        <v>75.11000061035156</v>
+        <v>54.38999938964844</v>
       </c>
       <c r="F56">
-        <v>44450900</v>
+        <v>34748800</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>58.75</v>
+        <v>53.97000122070312</v>
       </c>
       <c r="B57">
-        <v>60.77999877929688</v>
+        <v>53.9900016784668</v>
       </c>
       <c r="C57">
-        <v>55.02999877929688</v>
+        <v>52.20999908447266</v>
       </c>
       <c r="D57">
-        <v>55.13999938964844</v>
+        <v>52.58000183105469</v>
       </c>
       <c r="E57">
-        <v>55.13999938964844</v>
+        <v>52.58000183105469</v>
       </c>
       <c r="F57">
-        <v>153827500</v>
+        <v>32465500</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>55.95999908447266</v>
+        <v>52.9900016784668</v>
       </c>
       <c r="B58">
-        <v>56.15000152587891</v>
+        <v>54.11000061035156</v>
       </c>
       <c r="C58">
-        <v>53.77000045776367</v>
+        <v>52.25</v>
       </c>
       <c r="D58">
-        <v>54.5</v>
+        <v>53.97999954223633</v>
       </c>
       <c r="E58">
-        <v>54.5</v>
+        <v>53.97999954223633</v>
       </c>
       <c r="F58">
-        <v>62506800</v>
+        <v>22666700</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>55.2400016784668</v>
+        <v>53.56999969482422</v>
       </c>
       <c r="B59">
-        <v>57.18000030517578</v>
+        <v>53.65999984741211</v>
       </c>
       <c r="C59">
-        <v>54.88000106811523</v>
+        <v>51.8650016784668</v>
       </c>
       <c r="D59">
-        <v>55.38999938964844</v>
+        <v>52.20000076293945</v>
       </c>
       <c r="E59">
-        <v>55.38999938964844</v>
+        <v>52.20000076293945</v>
       </c>
       <c r="F59">
-        <v>52905700</v>
+        <v>24120400</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>55.04999923706055</v>
+        <v>51.95000076293945</v>
       </c>
       <c r="B60">
-        <v>55.22999954223633</v>
+        <v>52.97000122070312</v>
       </c>
       <c r="C60">
-        <v>51.65999984741211</v>
+        <v>51.47000122070312</v>
       </c>
       <c r="D60">
-        <v>52.02000045776367</v>
+        <v>52.93999862670898</v>
       </c>
       <c r="E60">
-        <v>52.02000045776367</v>
+        <v>52.93999862670898</v>
       </c>
       <c r="F60">
-        <v>52581300</v>
+        <v>16319300</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>52.68000030517578</v>
+        <v>53.08000183105469</v>
       </c>
       <c r="B61">
-        <v>54.95999908447266</v>
+        <v>53.38000106811523</v>
       </c>
       <c r="C61">
-        <v>51.9900016784668</v>
+        <v>51.7599983215332</v>
       </c>
       <c r="D61">
-        <v>54.38999938964844</v>
+        <v>52.2599983215332</v>
       </c>
       <c r="E61">
-        <v>54.38999938964844</v>
+        <v>52.2599983215332</v>
       </c>
       <c r="F61">
-        <v>34748800</v>
+        <v>16371700</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>53.97000122070312</v>
+        <v>52.15000152587891</v>
       </c>
       <c r="B62">
-        <v>53.9900016784668</v>
+        <v>53.56999969482422</v>
       </c>
       <c r="C62">
-        <v>52.20999908447266</v>
+        <v>52.06999969482422</v>
       </c>
       <c r="D62">
-        <v>52.58000183105469</v>
+        <v>53.16999816894531</v>
       </c>
       <c r="E62">
-        <v>52.58000183105469</v>
+        <v>53.16999816894531</v>
       </c>
       <c r="F62">
-        <v>32465500</v>
+        <v>17447500</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>52.9900016784668</v>
+        <v>53.36000061035156</v>
       </c>
       <c r="B63">
-        <v>54.11000061035156</v>
+        <v>55.13000106811523</v>
       </c>
       <c r="C63">
-        <v>52.25</v>
+        <v>52.84999847412109</v>
       </c>
       <c r="D63">
-        <v>53.97999954223633</v>
+        <v>54.90000152587891</v>
       </c>
       <c r="E63">
-        <v>53.97999954223633</v>
+        <v>54.90000152587891</v>
       </c>
       <c r="F63">
-        <v>22666700</v>
+        <v>20154600</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>53.56999969482422</v>
+        <v>55.29499816894531</v>
       </c>
       <c r="B64">
-        <v>53.65999984741211</v>
+        <v>55.65000152587891</v>
       </c>
       <c r="C64">
-        <v>51.8650016784668</v>
+        <v>54.20000076293945</v>
       </c>
       <c r="D64">
-        <v>52.20000076293945</v>
+        <v>54.81999969482422</v>
       </c>
       <c r="E64">
-        <v>52.20000076293945</v>
+        <v>54.81999969482422</v>
       </c>
       <c r="F64">
-        <v>24120400</v>
+        <v>12489000</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>51.95000076293945</v>
+        <v>53.90999984741211</v>
       </c>
       <c r="B65">
-        <v>52.97000122070312</v>
+        <v>54.16999816894531</v>
       </c>
       <c r="C65">
-        <v>51.47000122070312</v>
+        <v>52.02000045776367</v>
       </c>
       <c r="D65">
-        <v>52.93999862670898</v>
+        <v>52.88000106811523</v>
       </c>
       <c r="E65">
-        <v>52.93999862670898</v>
+        <v>52.88000106811523</v>
       </c>
       <c r="F65">
-        <v>16319300</v>
+        <v>14812400</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>53.08000183105469</v>
+        <v>53.45999908447266</v>
       </c>
       <c r="B66">
-        <v>53.38000106811523</v>
+        <v>54.59000015258789</v>
       </c>
       <c r="C66">
-        <v>51.7599983215332</v>
+        <v>53.20000076293945</v>
       </c>
       <c r="D66">
-        <v>52.2599983215332</v>
+        <v>53.29000091552734</v>
       </c>
       <c r="E66">
-        <v>52.2599983215332</v>
+        <v>53.29000091552734</v>
       </c>
       <c r="F66">
-        <v>16371700</v>
+        <v>13322000</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>52.15000152587891</v>
+        <v>53.81999969482422</v>
       </c>
       <c r="B67">
-        <v>53.56999969482422</v>
+        <v>54.06999969482422</v>
       </c>
       <c r="C67">
-        <v>52.06999969482422</v>
+        <v>52.81999969482422</v>
       </c>
       <c r="D67">
-        <v>53.16999816894531</v>
+        <v>53.70000076293945</v>
       </c>
       <c r="E67">
-        <v>53.16999816894531</v>
+        <v>53.70000076293945</v>
       </c>
       <c r="F67">
-        <v>17447500</v>
+        <v>12960100</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>53.36000061035156</v>
+        <v>54.13999938964844</v>
       </c>
       <c r="B68">
-        <v>55.13000106811523</v>
+        <v>57.13999938964844</v>
       </c>
       <c r="C68">
-        <v>52.84999847412109</v>
+        <v>54.11999893188477</v>
       </c>
       <c r="D68">
-        <v>54.90000152587891</v>
+        <v>55.52999877929688</v>
       </c>
       <c r="E68">
-        <v>54.90000152587891</v>
+        <v>55.52999877929688</v>
       </c>
       <c r="F68">
-        <v>20154600</v>
+        <v>22192000</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>55.29499816894531</v>
+        <v>55.77999877929688</v>
       </c>
       <c r="B69">
-        <v>55.65000152587891</v>
+        <v>55.81000137329102</v>
       </c>
       <c r="C69">
-        <v>54.20000076293945</v>
+        <v>53.66500091552734</v>
       </c>
       <c r="D69">
-        <v>54.81999969482422</v>
+        <v>55.11000061035156</v>
       </c>
       <c r="E69">
-        <v>54.81999969482422</v>
+        <v>55.11000061035156</v>
       </c>
       <c r="F69">
-        <v>12489000</v>
+        <v>20754600</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>53.90999984741211</v>
+        <v>54.45000076293945</v>
       </c>
       <c r="B70">
-        <v>54.16999816894531</v>
+        <v>55.66799926757812</v>
       </c>
       <c r="C70">
-        <v>52.02000045776367</v>
+        <v>53.86000061035156</v>
       </c>
       <c r="D70">
-        <v>52.88000106811523</v>
+        <v>54.56000137329102</v>
       </c>
       <c r="E70">
-        <v>52.88000106811523</v>
+        <v>54.56000137329102</v>
       </c>
       <c r="F70">
-        <v>14812400</v>
+        <v>15005300</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>53.45999908447266</v>
+        <v>54.5099983215332</v>
       </c>
       <c r="B71">
-        <v>54.59000015258789</v>
+        <v>54.77000045776367</v>
       </c>
       <c r="C71">
-        <v>53.20000076293945</v>
+        <v>52.54999923706055</v>
       </c>
       <c r="D71">
-        <v>53.29000091552734</v>
+        <v>53.47000122070312</v>
       </c>
       <c r="E71">
-        <v>53.29000091552734</v>
+        <v>53.47000122070312</v>
       </c>
       <c r="F71">
-        <v>13322000</v>
+        <v>13069900</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>53.81999969482422</v>
+        <v>53.93000030517578</v>
       </c>
       <c r="B72">
-        <v>54.06999969482422</v>
+        <v>53.93000030517578</v>
       </c>
       <c r="C72">
-        <v>52.81999969482422</v>
+        <v>50.7599983215332</v>
       </c>
       <c r="D72">
-        <v>53.70000076293945</v>
+        <v>51.31999969482422</v>
       </c>
       <c r="E72">
-        <v>53.70000076293945</v>
+        <v>51.31999969482422</v>
       </c>
       <c r="F72">
-        <v>12960100</v>
+        <v>18095000</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>54.13999938964844</v>
+        <v>51.52000045776367</v>
       </c>
       <c r="B73">
-        <v>57.13999938964844</v>
+        <v>51.52000045776367</v>
       </c>
       <c r="C73">
-        <v>54.11999893188477</v>
+        <v>47.45999908447266</v>
       </c>
       <c r="D73">
-        <v>55.52999877929688</v>
+        <v>49.2599983215332</v>
       </c>
       <c r="E73">
-        <v>55.52999877929688</v>
+        <v>49.2599983215332</v>
       </c>
       <c r="F73">
-        <v>22192000</v>
+        <v>34273700</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>55.77999877929688</v>
+        <v>48.56999969482422</v>
       </c>
       <c r="B74">
-        <v>55.81000137329102</v>
+        <v>51.02999877929688</v>
       </c>
       <c r="C74">
-        <v>53.66500091552734</v>
+        <v>47.86000061035156</v>
       </c>
       <c r="D74">
-        <v>55.11000061035156</v>
+        <v>50.66999816894531</v>
       </c>
       <c r="E74">
-        <v>55.11000061035156</v>
+        <v>50.66999816894531</v>
       </c>
       <c r="F74">
-        <v>20754600</v>
+        <v>21262500</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>54.45000076293945</v>
+        <v>49</v>
       </c>
       <c r="B75">
-        <v>55.66799926757812</v>
+        <v>50.27000045776367</v>
       </c>
       <c r="C75">
-        <v>53.86000061035156</v>
+        <v>48.79999923706055</v>
       </c>
       <c r="D75">
-        <v>54.56000137329102</v>
+        <v>49.65999984741211</v>
       </c>
       <c r="E75">
-        <v>54.56000137329102</v>
+        <v>49.65999984741211</v>
       </c>
       <c r="F75">
-        <v>15005300</v>
+        <v>14813900</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>54.5099983215332</v>
+        <v>48.77000045776367</v>
       </c>
       <c r="B76">
-        <v>54.77000045776367</v>
+        <v>50.25</v>
       </c>
       <c r="C76">
-        <v>52.54999923706055</v>
+        <v>48.56999969482422</v>
       </c>
       <c r="D76">
-        <v>53.47000122070312</v>
+        <v>49.7599983215332</v>
       </c>
       <c r="E76">
-        <v>53.47000122070312</v>
+        <v>49.7599983215332</v>
       </c>
       <c r="F76">
-        <v>13069900</v>
+        <v>10487300</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>53.93000030517578</v>
+        <v>51.09999847412109</v>
       </c>
       <c r="B77">
-        <v>53.93000030517578</v>
+        <v>51.11999893188477</v>
       </c>
       <c r="C77">
-        <v>50.7599983215332</v>
+        <v>48.47999954223633</v>
       </c>
       <c r="D77">
-        <v>51.31999969482422</v>
+        <v>48.84999847412109</v>
       </c>
       <c r="E77">
-        <v>51.31999969482422</v>
+        <v>48.84999847412109</v>
       </c>
       <c r="F77">
-        <v>18095000</v>
+        <v>16171000</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>51.52000045776367</v>
+        <v>48.77999877929688</v>
       </c>
       <c r="B78">
-        <v>51.52000045776367</v>
+        <v>49.40000152587891</v>
       </c>
       <c r="C78">
-        <v>47.45999908447266</v>
+        <v>46.29999923706055</v>
       </c>
       <c r="D78">
-        <v>49.2599983215332</v>
+        <v>47.61000061035156</v>
       </c>
       <c r="E78">
-        <v>49.2599983215332</v>
+        <v>47.61000061035156</v>
       </c>
       <c r="F78">
-        <v>34273700</v>
+        <v>25773000</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>48.56999969482422</v>
+        <v>49.13000106811523</v>
       </c>
       <c r="B79">
-        <v>51.02999877929688</v>
+        <v>50.97999954223633</v>
       </c>
       <c r="C79">
-        <v>47.86000061035156</v>
+        <v>46.79999923706055</v>
       </c>
       <c r="D79">
-        <v>50.66999816894531</v>
+        <v>47.2599983215332</v>
       </c>
       <c r="E79">
-        <v>50.66999816894531</v>
+        <v>47.2599983215332</v>
       </c>
       <c r="F79">
-        <v>21262500</v>
+        <v>28507500</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>49</v>
+        <v>47.2400016784668</v>
       </c>
       <c r="B80">
-        <v>50.27000045776367</v>
+        <v>48.29000091552734</v>
       </c>
       <c r="C80">
-        <v>48.79999923706055</v>
+        <v>46.5099983215332</v>
       </c>
       <c r="D80">
-        <v>49.65999984741211</v>
+        <v>47.90999984741211</v>
       </c>
       <c r="E80">
-        <v>49.65999984741211</v>
+        <v>47.90999984741211</v>
       </c>
       <c r="F80">
-        <v>14813900</v>
+        <v>14418100</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>48.77000045776367</v>
+        <v>47.77000045776367</v>
       </c>
       <c r="B81">
-        <v>50.25</v>
+        <v>48.66999816894531</v>
       </c>
       <c r="C81">
-        <v>48.56999969482422</v>
+        <v>45.45999908447266</v>
       </c>
       <c r="D81">
-        <v>49.7599983215332</v>
+        <v>46.79000091552734</v>
       </c>
       <c r="E81">
-        <v>49.7599983215332</v>
+        <v>46.79000091552734</v>
       </c>
       <c r="F81">
-        <v>10487300</v>
+        <v>19602400</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>51.09999847412109</v>
+        <v>46.20999908447266</v>
       </c>
       <c r="B82">
-        <v>51.11999893188477</v>
+        <v>48.32500076293945</v>
       </c>
       <c r="C82">
-        <v>48.47999954223633</v>
+        <v>44.91999816894531</v>
       </c>
       <c r="D82">
-        <v>48.84999847412109</v>
+        <v>47.91999816894531</v>
       </c>
       <c r="E82">
-        <v>48.84999847412109</v>
+        <v>47.91999816894531</v>
       </c>
       <c r="F82">
-        <v>16171000</v>
+        <v>15738500</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>48.77999877929688</v>
+        <v>49.375</v>
       </c>
       <c r="B83">
-        <v>49.40000152587891</v>
+        <v>51.68000030517578</v>
       </c>
       <c r="C83">
-        <v>46.29999923706055</v>
+        <v>49.29000091552734</v>
       </c>
       <c r="D83">
-        <v>47.61000061035156</v>
+        <v>50.40000152587891</v>
       </c>
       <c r="E83">
-        <v>47.61000061035156</v>
+        <v>50.40000152587891</v>
       </c>
       <c r="F83">
-        <v>25773000</v>
+        <v>20782600</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>49.13000106811523</v>
+        <v>50.61999893188477</v>
       </c>
       <c r="B84">
-        <v>50.97999954223633</v>
+        <v>54.83499908447266</v>
       </c>
       <c r="C84">
-        <v>46.79999923706055</v>
+        <v>50.20000076293945</v>
       </c>
       <c r="D84">
-        <v>47.2599983215332</v>
+        <v>53.41999816894531</v>
       </c>
       <c r="E84">
-        <v>47.2599983215332</v>
+        <v>53.41999816894531</v>
       </c>
       <c r="F84">
-        <v>28507500</v>
+        <v>26768000</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>47.2400016784668</v>
+        <v>52.79000091552734</v>
       </c>
       <c r="B85">
-        <v>48.29000091552734</v>
+        <v>54.88999938964844</v>
       </c>
       <c r="C85">
-        <v>46.5099983215332</v>
+        <v>52.11000061035156</v>
       </c>
       <c r="D85">
-        <v>47.90999984741211</v>
+        <v>52.36000061035156</v>
       </c>
       <c r="E85">
-        <v>47.90999984741211</v>
+        <v>52.36000061035156</v>
       </c>
       <c r="F85">
-        <v>14418100</v>
+        <v>19408100</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>47.77000045776367</v>
+        <v>52.63000106811523</v>
       </c>
       <c r="B86">
-        <v>48.66999816894531</v>
+        <v>53.31000137329102</v>
       </c>
       <c r="C86">
-        <v>45.45999908447266</v>
+        <v>50.05500030517578</v>
       </c>
       <c r="D86">
-        <v>46.79000091552734</v>
+        <v>50.81999969482422</v>
       </c>
       <c r="E86">
-        <v>46.79000091552734</v>
+        <v>50.81999969482422</v>
       </c>
       <c r="F86">
-        <v>19602400</v>
+        <v>13404800</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>46.20999908447266</v>
+        <v>50.31999969482422</v>
       </c>
       <c r="B87">
-        <v>48.32500076293945</v>
+        <v>50.43999862670898</v>
       </c>
       <c r="C87">
-        <v>44.91999816894531</v>
+        <v>46.45999908447266</v>
       </c>
       <c r="D87">
-        <v>47.91999816894531</v>
+        <v>48.13999938964844</v>
       </c>
       <c r="E87">
-        <v>47.91999816894531</v>
+        <v>48.13999938964844</v>
       </c>
       <c r="F87">
-        <v>15738500</v>
+        <v>21235100</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>49.375</v>
+        <v>47.59999847412109</v>
       </c>
       <c r="B88">
-        <v>51.68000030517578</v>
+        <v>48.31499862670898</v>
       </c>
       <c r="C88">
-        <v>49.29000091552734</v>
+        <v>46.38000106811523</v>
       </c>
       <c r="D88">
-        <v>50.40000152587891</v>
+        <v>46.84999847412109</v>
       </c>
       <c r="E88">
-        <v>50.40000152587891</v>
+        <v>46.84999847412109</v>
       </c>
       <c r="F88">
-        <v>20782600</v>
+        <v>16496600</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>50.61999893188477</v>
+        <v>46.34999847412109</v>
       </c>
       <c r="B89">
-        <v>54.83499908447266</v>
+        <v>46.66999816894531</v>
       </c>
       <c r="C89">
-        <v>50.20000076293945</v>
+        <v>44.07699966430664</v>
       </c>
       <c r="D89">
-        <v>53.41999816894531</v>
+        <v>46.40999984741211</v>
       </c>
       <c r="E89">
-        <v>53.41999816894531</v>
+        <v>46.40999984741211</v>
       </c>
       <c r="F89">
-        <v>26768000</v>
+        <v>23804800</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>52.79000091552734</v>
+        <v>47.40999984741211</v>
       </c>
       <c r="B90">
-        <v>54.88999938964844</v>
+        <v>48.02000045776367</v>
       </c>
       <c r="C90">
-        <v>52.11000061035156</v>
+        <v>44.06999969482422</v>
       </c>
       <c r="D90">
-        <v>52.36000061035156</v>
+        <v>44.70000076293945</v>
       </c>
       <c r="E90">
-        <v>52.36000061035156</v>
+        <v>44.70000076293945</v>
       </c>
       <c r="F90">
-        <v>19408100</v>
+        <v>21512200</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>52.63000106811523</v>
+        <v>43.63999938964844</v>
       </c>
       <c r="B91">
-        <v>53.31000137329102</v>
+        <v>45.88999938964844</v>
       </c>
       <c r="C91">
-        <v>50.05500030517578</v>
+        <v>42.95999908447266</v>
       </c>
       <c r="D91">
-        <v>50.81999969482422</v>
+        <v>45.29000091552734</v>
       </c>
       <c r="E91">
-        <v>50.81999969482422</v>
+        <v>45.29000091552734</v>
       </c>
       <c r="F91">
-        <v>13404800</v>
+        <v>22959700</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>50.31999969482422</v>
+        <v>44.22000122070312</v>
       </c>
       <c r="B92">
-        <v>50.43999862670898</v>
+        <v>45.15000152587891</v>
       </c>
       <c r="C92">
-        <v>46.45999908447266</v>
+        <v>43.38000106811523</v>
       </c>
       <c r="D92">
-        <v>48.13999938964844</v>
+        <v>44.41999816894531</v>
       </c>
       <c r="E92">
-        <v>48.13999938964844</v>
+        <v>44.41999816894531</v>
       </c>
       <c r="F92">
-        <v>21235100</v>
+        <v>12921600</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>47.59999847412109</v>
+        <v>44.88999938964844</v>
       </c>
       <c r="B93">
-        <v>48.31499862670898</v>
+        <v>46.20000076293945</v>
       </c>
       <c r="C93">
-        <v>46.38000106811523</v>
+        <v>43.90000152587891</v>
       </c>
       <c r="D93">
-        <v>46.84999847412109</v>
+        <v>46.09999847412109</v>
       </c>
       <c r="E93">
-        <v>46.84999847412109</v>
+        <v>46.09999847412109</v>
       </c>
       <c r="F93">
-        <v>16496600</v>
+        <v>15203200</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>46.34999847412109</v>
+        <v>45.98500061035156</v>
       </c>
       <c r="B94">
-        <v>46.66999816894531</v>
+        <v>47.20999908447266</v>
       </c>
       <c r="C94">
-        <v>44.07699966430664</v>
+        <v>45.45999908447266</v>
       </c>
       <c r="D94">
-        <v>46.40999984741211</v>
+        <v>46.77000045776367</v>
       </c>
       <c r="E94">
-        <v>46.40999984741211</v>
+        <v>46.77000045776367</v>
       </c>
       <c r="F94">
-        <v>23804800</v>
+        <v>12055000</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>47.40999984741211</v>
+        <v>47.34999847412109</v>
       </c>
       <c r="B95">
-        <v>48.02000045776367</v>
+        <v>49.06999969482422</v>
       </c>
       <c r="C95">
-        <v>44.06999969482422</v>
+        <v>45.95999908447266</v>
       </c>
       <c r="D95">
-        <v>44.70000076293945</v>
+        <v>48.68000030517578</v>
       </c>
       <c r="E95">
-        <v>44.70000076293945</v>
+        <v>48.68000030517578</v>
       </c>
       <c r="F95">
-        <v>21512200</v>
+        <v>18546400</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>43.63999938964844</v>
+        <v>48.45000076293945</v>
       </c>
       <c r="B96">
-        <v>45.88999938964844</v>
+        <v>49.25</v>
       </c>
       <c r="C96">
-        <v>42.95999908447266</v>
+        <v>48.02000045776367</v>
       </c>
       <c r="D96">
-        <v>45.29000091552734</v>
+        <v>48.63999938964844</v>
       </c>
       <c r="E96">
-        <v>45.29000091552734</v>
+        <v>48.63999938964844</v>
       </c>
       <c r="F96">
-        <v>22959700</v>
+        <v>8163900</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>44.22000122070312</v>
+        <v>48.5</v>
       </c>
       <c r="B97">
-        <v>45.15000152587891</v>
+        <v>49.22999954223633</v>
       </c>
       <c r="C97">
-        <v>43.38000106811523</v>
+        <v>47.43000030517578</v>
       </c>
       <c r="D97">
-        <v>44.41999816894531</v>
+        <v>47.70999908447266</v>
       </c>
       <c r="E97">
-        <v>44.41999816894531</v>
+        <v>47.70999908447266</v>
       </c>
       <c r="F97">
-        <v>12921600</v>
+        <v>8984500</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>44.88999938964844</v>
+        <v>47.59500122070312</v>
       </c>
       <c r="B98">
-        <v>46.20000076293945</v>
+        <v>47.91999816894531</v>
       </c>
       <c r="C98">
-        <v>43.90000152587891</v>
+        <v>46.56000137329102</v>
       </c>
       <c r="D98">
-        <v>46.09999847412109</v>
+        <v>47.06000137329102</v>
       </c>
       <c r="E98">
-        <v>46.09999847412109</v>
+        <v>47.06000137329102</v>
       </c>
       <c r="F98">
-        <v>15203200</v>
+        <v>7693700</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>45.98500061035156</v>
+        <v>46.81000137329102</v>
       </c>
       <c r="B99">
-        <v>47.20999908447266</v>
+        <v>48.7400016784668</v>
       </c>
       <c r="C99">
-        <v>45.45999908447266</v>
+        <v>46.81000137329102</v>
       </c>
       <c r="D99">
-        <v>46.77000045776367</v>
+        <v>48.02999877929688</v>
       </c>
       <c r="E99">
-        <v>46.77000045776367</v>
+        <v>48.02999877929688</v>
       </c>
       <c r="F99">
-        <v>12055000</v>
+        <v>10170200</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>47.34999847412109</v>
+        <v>47.79999923706055</v>
       </c>
       <c r="B100">
-        <v>49.06999969482422</v>
+        <v>48.45000076293945</v>
       </c>
       <c r="C100">
-        <v>45.95999908447266</v>
+        <v>47.0099983215332</v>
       </c>
       <c r="D100">
-        <v>48.68000030517578</v>
+        <v>47.02999877929688</v>
       </c>
       <c r="E100">
-        <v>48.68000030517578</v>
+        <v>47.02999877929688</v>
       </c>
       <c r="F100">
-        <v>18546400</v>
+        <v>8310700</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>48.45000076293945</v>
+        <v>47.63000106811523</v>
       </c>
       <c r="B101">
-        <v>49.25</v>
+        <v>47.70999908447266</v>
       </c>
       <c r="C101">
-        <v>48.02000045776367</v>
+        <v>45.9900016784668</v>
       </c>
       <c r="D101">
-        <v>48.63999938964844</v>
+        <v>46.59000015258789</v>
       </c>
       <c r="E101">
-        <v>48.63999938964844</v>
+        <v>46.59000015258789</v>
       </c>
       <c r="F101">
-        <v>8163900</v>
+        <v>7931400</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>48.5</v>
+        <v>46.84999847412109</v>
       </c>
       <c r="B102">
-        <v>49.22999954223633</v>
+        <v>46.9900016784668</v>
       </c>
       <c r="C102">
-        <v>47.43000030517578</v>
+        <v>42.45999908447266</v>
       </c>
       <c r="D102">
-        <v>47.70999908447266</v>
+        <v>44.02999877929688</v>
       </c>
       <c r="E102">
-        <v>47.70999908447266</v>
+        <v>44.02999877929688</v>
       </c>
       <c r="F102">
-        <v>8984500</v>
+        <v>26659100</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>47.59500122070312</v>
+        <v>43.5</v>
       </c>
       <c r="B103">
-        <v>47.91999816894531</v>
+        <v>44.4900016784668</v>
       </c>
       <c r="C103">
-        <v>46.56000137329102</v>
+        <v>41.0099983215332</v>
       </c>
       <c r="D103">
-        <v>47.06000137329102</v>
+        <v>41.33000183105469</v>
       </c>
       <c r="E103">
-        <v>47.06000137329102</v>
+        <v>41.33000183105469</v>
       </c>
       <c r="F103">
-        <v>7693700</v>
+        <v>22163300</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>46.81000137329102</v>
+        <v>41.25</v>
       </c>
       <c r="B104">
-        <v>48.7400016784668</v>
+        <v>42.43000030517578</v>
       </c>
       <c r="C104">
-        <v>46.81000137329102</v>
+        <v>39.81999969482422</v>
       </c>
       <c r="D104">
-        <v>48.02999877929688</v>
+        <v>41.68000030517578</v>
       </c>
       <c r="E104">
-        <v>48.02999877929688</v>
+        <v>41.68000030517578</v>
       </c>
       <c r="F104">
-        <v>10170200</v>
+        <v>17882300</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>47.79999923706055</v>
+        <v>41.54000091552734</v>
       </c>
       <c r="B105">
-        <v>48.45000076293945</v>
+        <v>43.27999877929688</v>
       </c>
       <c r="C105">
-        <v>47.0099983215332</v>
+        <v>41.04999923706055</v>
       </c>
       <c r="D105">
-        <v>47.02999877929688</v>
+        <v>41.36000061035156</v>
       </c>
       <c r="E105">
-        <v>47.02999877929688</v>
+        <v>41.36000061035156</v>
       </c>
       <c r="F105">
-        <v>8310700</v>
+        <v>15710600</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>47.63000106811523</v>
+        <v>40.7400016784668</v>
       </c>
       <c r="B106">
-        <v>47.70999908447266</v>
+        <v>41.77500152587891</v>
       </c>
       <c r="C106">
-        <v>45.9900016784668</v>
+        <v>38.5099983215332</v>
       </c>
       <c r="D106">
-        <v>46.59000015258789</v>
+        <v>41.70999908447266</v>
       </c>
       <c r="E106">
-        <v>46.59000015258789</v>
+        <v>41.70999908447266</v>
       </c>
       <c r="F106">
-        <v>7931400</v>
+        <v>20895900</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>46.84999847412109</v>
+        <v>42.06000137329102</v>
       </c>
       <c r="B107">
-        <v>46.9900016784668</v>
+        <v>43.72000122070312</v>
       </c>
       <c r="C107">
-        <v>42.45999908447266</v>
+        <v>41.77999877929688</v>
       </c>
       <c r="D107">
-        <v>44.02999877929688</v>
+        <v>43.31000137329102</v>
       </c>
       <c r="E107">
-        <v>44.02999877929688</v>
+        <v>43.31000137329102</v>
       </c>
       <c r="F107">
-        <v>26659100</v>
+        <v>17386600</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>43.5</v>
+        <v>43.81000137329102</v>
       </c>
       <c r="B108">
-        <v>44.4900016784668</v>
+        <v>44.34000015258789</v>
       </c>
       <c r="C108">
-        <v>41.0099983215332</v>
+        <v>42.06000137329102</v>
       </c>
       <c r="D108">
-        <v>41.33000183105469</v>
+        <v>42.72999954223633</v>
       </c>
       <c r="E108">
-        <v>41.33000183105469</v>
+        <v>42.72999954223633</v>
       </c>
       <c r="F108">
-        <v>22163300</v>
+        <v>12637500</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>41.25</v>
+        <v>40.63999938964844</v>
       </c>
       <c r="B109">
-        <v>42.43000030517578</v>
+        <v>41.45999908447266</v>
       </c>
       <c r="C109">
-        <v>39.81999969482422</v>
+        <v>38.2599983215332</v>
       </c>
       <c r="D109">
-        <v>41.68000030517578</v>
+        <v>38.38000106811523</v>
       </c>
       <c r="E109">
-        <v>41.68000030517578</v>
+        <v>38.38000106811523</v>
       </c>
       <c r="F109">
-        <v>17882300</v>
+        <v>32180500</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>41.54000091552734</v>
+        <v>37.72000122070312</v>
       </c>
       <c r="B110">
-        <v>43.27999877929688</v>
+        <v>38.33000183105469</v>
       </c>
       <c r="C110">
-        <v>41.04999923706055</v>
+        <v>36.56000137329102</v>
       </c>
       <c r="D110">
-        <v>41.36000061035156</v>
+        <v>38.04000091552734</v>
       </c>
       <c r="E110">
-        <v>41.36000061035156</v>
+        <v>38.04000091552734</v>
       </c>
       <c r="F110">
-        <v>15710600</v>
+        <v>25547000</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>40.7400016784668</v>
+        <v>36.97999954223633</v>
       </c>
       <c r="B111">
-        <v>41.77500152587891</v>
+        <v>36.98500061035156</v>
       </c>
       <c r="C111">
-        <v>38.5099983215332</v>
+        <v>35.61999893188477</v>
       </c>
       <c r="D111">
-        <v>41.70999908447266</v>
+        <v>35.70000076293945</v>
       </c>
       <c r="E111">
-        <v>41.70999908447266</v>
+        <v>35.70000076293945</v>
       </c>
       <c r="F111">
-        <v>20895900</v>
+        <v>37008100</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>42.06000137329102</v>
+        <v>36.02999877929688</v>
       </c>
       <c r="B112">
-        <v>43.72000122070312</v>
+        <v>36.47999954223633</v>
       </c>
       <c r="C112">
-        <v>41.77999877929688</v>
+        <v>34.7599983215332</v>
       </c>
       <c r="D112">
-        <v>43.31000137329102</v>
+        <v>35.04999923706055</v>
       </c>
       <c r="E112">
-        <v>43.31000137329102</v>
+        <v>35.04999923706055</v>
       </c>
       <c r="F112">
-        <v>17386600</v>
+        <v>23942000</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>43.81000137329102</v>
+        <v>35.79999923706055</v>
       </c>
       <c r="B113">
-        <v>44.34000015258789</v>
+        <v>37.10499954223633</v>
       </c>
       <c r="C113">
-        <v>42.06000137329102</v>
+        <v>34.91500091552734</v>
       </c>
       <c r="D113">
-        <v>42.72999954223633</v>
+        <v>34.9900016784668</v>
       </c>
       <c r="E113">
-        <v>42.72999954223633</v>
+        <v>34.9900016784668</v>
       </c>
       <c r="F113">
-        <v>12637500</v>
+        <v>21672700</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>40.63999938964844</v>
+        <v>34</v>
       </c>
       <c r="B114">
-        <v>41.45999908447266</v>
+        <v>34.61999893188477</v>
       </c>
       <c r="C114">
-        <v>38.2599983215332</v>
+        <v>32</v>
       </c>
       <c r="D114">
-        <v>38.38000106811523</v>
+        <v>32.11999893188477</v>
       </c>
       <c r="E114">
-        <v>38.38000106811523</v>
+        <v>32.11999893188477</v>
       </c>
       <c r="F114">
-        <v>32180500</v>
+        <v>37648400</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>37.72000122070312</v>
+        <v>30.15999984741211</v>
       </c>
       <c r="B115">
-        <v>38.33000183105469</v>
+        <v>31.80999946594238</v>
       </c>
       <c r="C115">
-        <v>36.56000137329102</v>
+        <v>28.02000045776367</v>
       </c>
       <c r="D115">
-        <v>38.04000091552734</v>
+        <v>31.79999923706055</v>
       </c>
       <c r="E115">
-        <v>38.04000091552734</v>
+        <v>31.79999923706055</v>
       </c>
       <c r="F115">
-        <v>25547000</v>
+        <v>46502200</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>36.97999954223633</v>
+        <v>31.01000022888184</v>
       </c>
       <c r="B116">
-        <v>36.98500061035156</v>
+        <v>32.09000015258789</v>
       </c>
       <c r="C116">
-        <v>35.61999893188477</v>
+        <v>30.08499908447266</v>
       </c>
       <c r="D116">
-        <v>35.70000076293945</v>
+        <v>30.65999984741211</v>
       </c>
       <c r="E116">
-        <v>35.70000076293945</v>
+        <v>30.65999984741211</v>
       </c>
       <c r="F116">
-        <v>37008100</v>
+        <v>26893800</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>36.02999877929688</v>
+        <v>31.3799991607666</v>
       </c>
       <c r="B117">
-        <v>36.47999954223633</v>
+        <v>31.90999984741211</v>
       </c>
       <c r="C117">
-        <v>34.7599983215332</v>
+        <v>28.15999984741211</v>
       </c>
       <c r="D117">
-        <v>35.04999923706055</v>
+        <v>28.6299991607666</v>
       </c>
       <c r="E117">
-        <v>35.04999923706055</v>
+        <v>28.6299991607666</v>
       </c>
       <c r="F117">
-        <v>23942000</v>
+        <v>35467300</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>35.79999923706055</v>
+        <v>29.6299991607666</v>
       </c>
       <c r="B118">
-        <v>37.10499954223633</v>
+        <v>30.67000007629395</v>
       </c>
       <c r="C118">
-        <v>34.91500091552734</v>
+        <v>28.17000007629395</v>
       </c>
       <c r="D118">
-        <v>34.9900016784668</v>
+        <v>28.29999923706055</v>
       </c>
       <c r="E118">
-        <v>34.9900016784668</v>
+        <v>28.29999923706055</v>
       </c>
       <c r="F118">
-        <v>21672700</v>
+        <v>35331900</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>34</v>
+        <v>28.6299991607666</v>
       </c>
       <c r="B119">
-        <v>34.61999893188477</v>
+        <v>30.47999954223633</v>
       </c>
       <c r="C119">
-        <v>32</v>
+        <v>28.1299991607666</v>
       </c>
       <c r="D119">
-        <v>32.11999893188477</v>
+        <v>30.42000007629395</v>
       </c>
       <c r="E119">
-        <v>32.11999893188477</v>
+        <v>30.42000007629395</v>
       </c>
       <c r="F119">
-        <v>37648400</v>
+        <v>28380500</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>30.15999984741211</v>
+        <v>30.64999961853027</v>
       </c>
       <c r="B120">
-        <v>31.80999946594238</v>
+        <v>32.63000106811523</v>
       </c>
       <c r="C120">
-        <v>28.02000045776367</v>
+        <v>30.64999961853027</v>
       </c>
       <c r="D120">
-        <v>31.79999923706055</v>
+        <v>32.54000091552734</v>
       </c>
       <c r="E120">
-        <v>31.79999923706055</v>
+        <v>32.54000091552734</v>
       </c>
       <c r="F120">
-        <v>46502200</v>
+        <v>25872900</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>31.01000022888184</v>
+        <v>34.13000106811523</v>
       </c>
       <c r="B121">
-        <v>32.09000015258789</v>
+        <v>34.20000076293945</v>
       </c>
       <c r="C121">
-        <v>30.08499908447266</v>
+        <v>32.20999908447266</v>
       </c>
       <c r="D121">
-        <v>30.65999984741211</v>
+        <v>33.65999984741211</v>
       </c>
       <c r="E121">
-        <v>30.65999984741211</v>
+        <v>33.65999984741211</v>
       </c>
       <c r="F121">
-        <v>26893800</v>
+        <v>28108900</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>31.3799991607666</v>
+        <v>34.15000152587891</v>
       </c>
       <c r="B122">
-        <v>31.90999984741211</v>
+        <v>34.24499893188477</v>
       </c>
       <c r="C122">
-        <v>28.15999984741211</v>
+        <v>31.72999954223633</v>
       </c>
       <c r="D122">
-        <v>28.6299991607666</v>
+        <v>32.06999969482422</v>
       </c>
       <c r="E122">
-        <v>28.6299991607666</v>
+        <v>32.06999969482422</v>
       </c>
       <c r="F122">
-        <v>35467300</v>
+        <v>41654600</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>29.6299991607666</v>
+        <v>25.73999977111816</v>
       </c>
       <c r="B123">
-        <v>30.67000007629395</v>
+        <v>26.48999977111816</v>
       </c>
       <c r="C123">
-        <v>28.17000007629395</v>
+        <v>24.31999969482422</v>
       </c>
       <c r="D123">
-        <v>28.29999923706055</v>
+        <v>24.5</v>
       </c>
       <c r="E123">
-        <v>28.29999923706055</v>
+        <v>24.5</v>
       </c>
       <c r="F123">
-        <v>35331900</v>
+        <v>149336000</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>28.6299991607666</v>
+        <v>35.27000045776367</v>
       </c>
       <c r="B124">
-        <v>30.47999954223633</v>
+        <v>40.65000152587891</v>
       </c>
       <c r="C124">
-        <v>28.1299991607666</v>
+        <v>34.09999847412109</v>
       </c>
       <c r="D124">
-        <v>30.42000007629395</v>
+        <v>38.90999984741211</v>
       </c>
       <c r="E124">
-        <v>30.42000007629395</v>
+        <v>38.90999984741211</v>
       </c>
       <c r="F124">
-        <v>28380500</v>
+        <v>308020500</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>30.64999961853027</v>
+        <v>38.5099983215332</v>
       </c>
       <c r="B125">
-        <v>32.63000106811523</v>
+        <v>39.59000015258789</v>
       </c>
       <c r="C125">
-        <v>30.64999961853027</v>
+        <v>37.52000045776367</v>
       </c>
       <c r="D125">
-        <v>32.54000091552734</v>
+        <v>37.88000106811523</v>
       </c>
       <c r="E125">
-        <v>32.54000091552734</v>
+        <v>37.88000106811523</v>
       </c>
       <c r="F125">
-        <v>25872900</v>
+        <v>96743300</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>34.13000106811523</v>
+        <v>35.5099983215332</v>
       </c>
       <c r="B126">
-        <v>34.20000076293945</v>
+        <v>37.7599983215332</v>
       </c>
       <c r="C126">
-        <v>32.20999908447266</v>
+        <v>34.86999893188477</v>
       </c>
       <c r="D126">
-        <v>33.65999984741211</v>
+        <v>37.56000137329102</v>
       </c>
       <c r="E126">
-        <v>33.65999984741211</v>
+        <v>37.56000137329102</v>
       </c>
       <c r="F126">
-        <v>28108900</v>
+        <v>85621100</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127">
-        <v>34.15000152587891</v>
+        <v>37.7400016784668</v>
       </c>
       <c r="B127">
-        <v>34.24499893188477</v>
+        <v>40.33000183105469</v>
       </c>
       <c r="C127">
-        <v>31.72999954223633</v>
+        <v>37.11000061035156</v>
       </c>
       <c r="D127">
-        <v>32.06999969482422</v>
+        <v>40.27999877929688</v>
       </c>
       <c r="E127">
-        <v>32.06999969482422</v>
+        <v>40.27999877929688</v>
       </c>
       <c r="F127">
-        <v>41654600</v>
+        <v>67166800</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128">
-        <v>25.73999977111816</v>
+        <v>38.5099983215332</v>
       </c>
       <c r="B128">
-        <v>26.48999977111816</v>
+        <v>41.97000122070312</v>
       </c>
       <c r="C128">
-        <v>24.31999969482422</v>
+        <v>38.50500106811523</v>
       </c>
       <c r="D128">
-        <v>24.5</v>
+        <v>40.61999893188477</v>
       </c>
       <c r="E128">
-        <v>24.5</v>
+        <v>40.61999893188477</v>
       </c>
       <c r="F128">
-        <v>149336000</v>
+        <v>65264300</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129">
-        <v>35.27000045776367</v>
+        <v>40.38000106811523</v>
       </c>
       <c r="B129">
-        <v>40.65000152587891</v>
+        <v>41.97000122070312</v>
       </c>
       <c r="C129">
-        <v>34.09999847412109</v>
+        <v>39.06999969482422</v>
       </c>
       <c r="D129">
-        <v>38.90999984741211</v>
+        <v>39.4900016784668</v>
       </c>
       <c r="E129">
-        <v>38.90999984741211</v>
+        <v>39.4900016784668</v>
       </c>
       <c r="F129">
-        <v>308020500</v>
+        <v>42721700</v>
       </c>
     </row>
   </sheetData>

--- a/Stocks/SNAP/HighLow.xlsx
+++ b/Stocks/SNAP/HighLow.xlsx
@@ -417,2562 +417,2562 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>76.37999725341797</v>
+        <v>70.5</v>
       </c>
       <c r="B2">
-        <v>76.87999725341797</v>
+        <v>72.54499816894531</v>
       </c>
       <c r="C2">
-        <v>75.01000213623047</v>
+        <v>70.40000152587891</v>
       </c>
       <c r="D2">
-        <v>75.26000213623047</v>
+        <v>70.86000061035156</v>
       </c>
       <c r="E2">
-        <v>75.26000213623047</v>
+        <v>70.86000061035156</v>
       </c>
       <c r="F2">
-        <v>8031200</v>
+        <v>8874500</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>75.29000091552734</v>
+        <v>71.19999694824219</v>
       </c>
       <c r="B3">
-        <v>75.84999847412109</v>
+        <v>72.97000122070312</v>
       </c>
       <c r="C3">
-        <v>74.05999755859375</v>
+        <v>70.80000305175781</v>
       </c>
       <c r="D3">
-        <v>74.62000274658203</v>
+        <v>72.72000122070312</v>
       </c>
       <c r="E3">
-        <v>74.62000274658203</v>
+        <v>72.72000122070312</v>
       </c>
       <c r="F3">
-        <v>7144500</v>
+        <v>8607700</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>74.02999877929688</v>
+        <v>74.01000213623047</v>
       </c>
       <c r="B4">
-        <v>74.79000091552734</v>
+        <v>75.93000030517578</v>
       </c>
       <c r="C4">
-        <v>69.90000152587891</v>
+        <v>73.66999816894531</v>
       </c>
       <c r="D4">
-        <v>72.44000244140625</v>
+        <v>75.5</v>
       </c>
       <c r="E4">
-        <v>72.44000244140625</v>
+        <v>75.5</v>
       </c>
       <c r="F4">
-        <v>19347300</v>
+        <v>11055900</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>71.08999633789062</v>
+        <v>75.81999969482422</v>
       </c>
       <c r="B5">
-        <v>72.61000061035156</v>
+        <v>76.37000274658203</v>
       </c>
       <c r="C5">
-        <v>70.05000305175781</v>
+        <v>73.72000122070312</v>
       </c>
       <c r="D5">
-        <v>71.80999755859375</v>
+        <v>74.62999725341797</v>
       </c>
       <c r="E5">
-        <v>71.80999755859375</v>
+        <v>74.62999725341797</v>
       </c>
       <c r="F5">
-        <v>12077400</v>
+        <v>9663800</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>71.29000091552734</v>
+        <v>74.30999755859375</v>
       </c>
       <c r="B6">
-        <v>73.37999725341797</v>
+        <v>74.97599792480469</v>
       </c>
       <c r="C6">
-        <v>71</v>
+        <v>73.48999786376953</v>
       </c>
       <c r="D6">
-        <v>71.95999908447266</v>
+        <v>74.69000244140625</v>
       </c>
       <c r="E6">
-        <v>71.95999908447266</v>
+        <v>74.69000244140625</v>
       </c>
       <c r="F6">
-        <v>8067600</v>
+        <v>7901400</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>70.5</v>
+        <v>74.72000122070312</v>
       </c>
       <c r="B7">
-        <v>72.54499816894531</v>
+        <v>74.94999694824219</v>
       </c>
       <c r="C7">
-        <v>70.40000152587891</v>
+        <v>71.51200103759766</v>
       </c>
       <c r="D7">
-        <v>70.86000061035156</v>
+        <v>71.61000061035156</v>
       </c>
       <c r="E7">
-        <v>70.86000061035156</v>
+        <v>71.61000061035156</v>
       </c>
       <c r="F7">
-        <v>8874500</v>
+        <v>19872400</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>71.19999694824219</v>
+        <v>72.18000030517578</v>
       </c>
       <c r="B8">
-        <v>72.97000122070312</v>
+        <v>73.87999725341797</v>
       </c>
       <c r="C8">
-        <v>70.80000305175781</v>
+        <v>71.66000366210938</v>
       </c>
       <c r="D8">
-        <v>72.72000122070312</v>
+        <v>73.12000274658203</v>
       </c>
       <c r="E8">
-        <v>72.72000122070312</v>
+        <v>73.12000274658203</v>
       </c>
       <c r="F8">
-        <v>8607700</v>
+        <v>10115800</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>74.01000213623047</v>
+        <v>73.30000305175781</v>
       </c>
       <c r="B9">
-        <v>75.93000030517578</v>
+        <v>75</v>
       </c>
       <c r="C9">
-        <v>73.66999816894531</v>
+        <v>71.77999877929688</v>
       </c>
       <c r="D9">
-        <v>75.5</v>
+        <v>74.51000213623047</v>
       </c>
       <c r="E9">
-        <v>75.5</v>
+        <v>74.51000213623047</v>
       </c>
       <c r="F9">
-        <v>11055900</v>
+        <v>8825300</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>75.81999969482422</v>
+        <v>74.86000061035156</v>
       </c>
       <c r="B10">
-        <v>76.37000274658203</v>
+        <v>77.87999725341797</v>
       </c>
       <c r="C10">
-        <v>73.72000122070312</v>
+        <v>74.09999847412109</v>
       </c>
       <c r="D10">
-        <v>74.62999725341797</v>
+        <v>76.11000061035156</v>
       </c>
       <c r="E10">
-        <v>74.62999725341797</v>
+        <v>76.11000061035156</v>
       </c>
       <c r="F10">
-        <v>9663800</v>
+        <v>18475200</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>74.30999755859375</v>
+        <v>75.98000335693359</v>
       </c>
       <c r="B11">
-        <v>74.97599792480469</v>
+        <v>77.25</v>
       </c>
       <c r="C11">
-        <v>73.48999786376953</v>
+        <v>73.69000244140625</v>
       </c>
       <c r="D11">
-        <v>74.69000244140625</v>
+        <v>74.16999816894531</v>
       </c>
       <c r="E11">
-        <v>74.69000244140625</v>
+        <v>74.16999816894531</v>
       </c>
       <c r="F11">
-        <v>7901400</v>
+        <v>15642300</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>74.72000122070312</v>
+        <v>74.59999847412109</v>
       </c>
       <c r="B12">
-        <v>74.94999694824219</v>
+        <v>76.19999694824219</v>
       </c>
       <c r="C12">
-        <v>71.51200103759766</v>
+        <v>73.59999847412109</v>
       </c>
       <c r="D12">
-        <v>71.61000061035156</v>
+        <v>73.91999816894531</v>
       </c>
       <c r="E12">
-        <v>71.61000061035156</v>
+        <v>73.91999816894531</v>
       </c>
       <c r="F12">
-        <v>19872400</v>
+        <v>12178500</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>72.18000030517578</v>
+        <v>73.91999816894531</v>
       </c>
       <c r="B13">
-        <v>73.87999725341797</v>
+        <v>75.47000122070312</v>
       </c>
       <c r="C13">
-        <v>71.66000366210938</v>
+        <v>72.93000030517578</v>
       </c>
       <c r="D13">
-        <v>73.12000274658203</v>
+        <v>75.08000183105469</v>
       </c>
       <c r="E13">
-        <v>73.12000274658203</v>
+        <v>75.08000183105469</v>
       </c>
       <c r="F13">
-        <v>10115800</v>
+        <v>9237100</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>73.30000305175781</v>
+        <v>75.83000183105469</v>
       </c>
       <c r="B14">
-        <v>75</v>
+        <v>76.83999633789062</v>
       </c>
       <c r="C14">
-        <v>71.77999877929688</v>
+        <v>74.052001953125</v>
       </c>
       <c r="D14">
-        <v>74.51000213623047</v>
+        <v>76.48999786376953</v>
       </c>
       <c r="E14">
-        <v>74.51000213623047</v>
+        <v>76.48999786376953</v>
       </c>
       <c r="F14">
-        <v>8825300</v>
+        <v>11735200</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>74.86000061035156</v>
+        <v>76.22000122070312</v>
       </c>
       <c r="B15">
-        <v>77.87999725341797</v>
+        <v>76.69999694824219</v>
       </c>
       <c r="C15">
-        <v>74.09999847412109</v>
+        <v>73.23000335693359</v>
       </c>
       <c r="D15">
-        <v>76.11000061035156</v>
+        <v>74.12999725341797</v>
       </c>
       <c r="E15">
-        <v>76.11000061035156</v>
+        <v>74.12999725341797</v>
       </c>
       <c r="F15">
-        <v>18475200</v>
+        <v>11538900</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>75.98000335693359</v>
+        <v>74.11000061035156</v>
       </c>
       <c r="B16">
-        <v>77.25</v>
+        <v>75.66600036621094</v>
       </c>
       <c r="C16">
-        <v>73.69000244140625</v>
+        <v>73.54000091552734</v>
       </c>
       <c r="D16">
-        <v>74.16999816894531</v>
+        <v>74.62000274658203</v>
       </c>
       <c r="E16">
-        <v>74.16999816894531</v>
+        <v>74.62000274658203</v>
       </c>
       <c r="F16">
-        <v>15642300</v>
+        <v>10564300</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>74.59999847412109</v>
+        <v>75.25</v>
       </c>
       <c r="B17">
-        <v>76.19999694824219</v>
+        <v>75.98999786376953</v>
       </c>
       <c r="C17">
-        <v>73.59999847412109</v>
+        <v>74.27500152587891</v>
       </c>
       <c r="D17">
-        <v>73.91999816894531</v>
+        <v>74.5</v>
       </c>
       <c r="E17">
-        <v>73.91999816894531</v>
+        <v>74.5</v>
       </c>
       <c r="F17">
-        <v>12178500</v>
+        <v>9209900</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>73.91999816894531</v>
+        <v>75.61000061035156</v>
       </c>
       <c r="B18">
-        <v>75.47000122070312</v>
+        <v>75.61000061035156</v>
       </c>
       <c r="C18">
-        <v>72.93000030517578</v>
+        <v>69.81999969482422</v>
       </c>
       <c r="D18">
-        <v>75.08000183105469</v>
+        <v>71.26000213623047</v>
       </c>
       <c r="E18">
-        <v>75.08000183105469</v>
+        <v>71.26000213623047</v>
       </c>
       <c r="F18">
-        <v>9237100</v>
+        <v>19913400</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>75.83000183105469</v>
+        <v>71.69000244140625</v>
       </c>
       <c r="B19">
-        <v>76.83999633789062</v>
+        <v>72.79000091552734</v>
       </c>
       <c r="C19">
-        <v>74.052001953125</v>
+        <v>70.80999755859375</v>
       </c>
       <c r="D19">
-        <v>76.48999786376953</v>
+        <v>71.30999755859375</v>
       </c>
       <c r="E19">
-        <v>76.48999786376953</v>
+        <v>71.30999755859375</v>
       </c>
       <c r="F19">
-        <v>11735200</v>
+        <v>11083000</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>76.22000122070312</v>
+        <v>71.33000183105469</v>
       </c>
       <c r="B20">
-        <v>76.69999694824219</v>
+        <v>73.62000274658203</v>
       </c>
       <c r="C20">
-        <v>73.23000335693359</v>
+        <v>70.37000274658203</v>
       </c>
       <c r="D20">
-        <v>74.12999725341797</v>
+        <v>73.62000274658203</v>
       </c>
       <c r="E20">
-        <v>74.12999725341797</v>
+        <v>73.62000274658203</v>
       </c>
       <c r="F20">
-        <v>11538900</v>
+        <v>10890100</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>74.11000061035156</v>
+        <v>73.29000091552734</v>
       </c>
       <c r="B21">
-        <v>75.66600036621094</v>
+        <v>73.41000366210938</v>
       </c>
       <c r="C21">
-        <v>73.54000091552734</v>
+        <v>71.51999664306641</v>
       </c>
       <c r="D21">
-        <v>74.62000274658203</v>
+        <v>72.48000335693359</v>
       </c>
       <c r="E21">
-        <v>74.62000274658203</v>
+        <v>72.48000335693359</v>
       </c>
       <c r="F21">
-        <v>10564300</v>
+        <v>16878500</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>75.25</v>
+        <v>72.41999816894531</v>
       </c>
       <c r="B22">
-        <v>75.98999786376953</v>
+        <v>75.62999725341797</v>
       </c>
       <c r="C22">
-        <v>74.27500152587891</v>
+        <v>72.40000152587891</v>
       </c>
       <c r="D22">
-        <v>74.5</v>
+        <v>74.76000213623047</v>
       </c>
       <c r="E22">
-        <v>74.5</v>
+        <v>74.76000213623047</v>
       </c>
       <c r="F22">
-        <v>9209900</v>
+        <v>20858800</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>75.61000061035156</v>
+        <v>72.375</v>
       </c>
       <c r="B23">
-        <v>75.61000061035156</v>
+        <v>73.13999938964844</v>
       </c>
       <c r="C23">
-        <v>69.81999969482422</v>
+        <v>70.10900115966797</v>
       </c>
       <c r="D23">
-        <v>71.26000213623047</v>
+        <v>71.73000335693359</v>
       </c>
       <c r="E23">
-        <v>71.26000213623047</v>
+        <v>71.73000335693359</v>
       </c>
       <c r="F23">
-        <v>19913400</v>
+        <v>13834900</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>71.69000244140625</v>
+        <v>72.76000213623047</v>
       </c>
       <c r="B24">
-        <v>72.79000091552734</v>
+        <v>76.37000274658203</v>
       </c>
       <c r="C24">
-        <v>70.80999755859375</v>
+        <v>72.59999847412109</v>
       </c>
       <c r="D24">
-        <v>71.30999755859375</v>
+        <v>76.08999633789062</v>
       </c>
       <c r="E24">
-        <v>71.30999755859375</v>
+        <v>76.08999633789062</v>
       </c>
       <c r="F24">
-        <v>11083000</v>
+        <v>18129600</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>71.33000183105469</v>
+        <v>74.37000274658203</v>
       </c>
       <c r="B25">
-        <v>73.62000274658203</v>
+        <v>79.63999938964844</v>
       </c>
       <c r="C25">
-        <v>70.37000274658203</v>
+        <v>74.01999664306641</v>
       </c>
       <c r="D25">
-        <v>73.62000274658203</v>
+        <v>78.59999847412109</v>
       </c>
       <c r="E25">
-        <v>73.62000274658203</v>
+        <v>78.59999847412109</v>
       </c>
       <c r="F25">
-        <v>10890100</v>
+        <v>26999200</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>73.29000091552734</v>
+        <v>78.97000122070312</v>
       </c>
       <c r="B26">
-        <v>73.41000366210938</v>
+        <v>80.09999847412109</v>
       </c>
       <c r="C26">
-        <v>71.51999664306641</v>
+        <v>77.45999908447266</v>
       </c>
       <c r="D26">
-        <v>72.48000335693359</v>
+        <v>79.37000274658203</v>
       </c>
       <c r="E26">
-        <v>72.48000335693359</v>
+        <v>79.37000274658203</v>
       </c>
       <c r="F26">
-        <v>16878500</v>
+        <v>20944600</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>72.41999816894531</v>
+        <v>78.94000244140625</v>
       </c>
       <c r="B27">
-        <v>75.62999725341797</v>
+        <v>83.33999633789062</v>
       </c>
       <c r="C27">
-        <v>72.40000152587891</v>
+        <v>78.11000061035156</v>
       </c>
       <c r="D27">
-        <v>74.76000213623047</v>
+        <v>83.11000061035156</v>
       </c>
       <c r="E27">
-        <v>74.76000213623047</v>
+        <v>83.11000061035156</v>
       </c>
       <c r="F27">
-        <v>20858800</v>
+        <v>29039000</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>72.375</v>
+        <v>82</v>
       </c>
       <c r="B28">
-        <v>73.13999938964844</v>
+        <v>82.61000061035156</v>
       </c>
       <c r="C28">
-        <v>70.10900115966797</v>
+        <v>79.31999969482422</v>
       </c>
       <c r="D28">
-        <v>71.73000335693359</v>
+        <v>80.08000183105469</v>
       </c>
       <c r="E28">
-        <v>71.73000335693359</v>
+        <v>80.08000183105469</v>
       </c>
       <c r="F28">
-        <v>13834900</v>
+        <v>18493300</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>72.76000213623047</v>
+        <v>78.54000091552734</v>
       </c>
       <c r="B29">
-        <v>76.37000274658203</v>
+        <v>79.41000366210938</v>
       </c>
       <c r="C29">
-        <v>72.59999847412109</v>
+        <v>73.88999938964844</v>
       </c>
       <c r="D29">
-        <v>76.08999633789062</v>
+        <v>74.41999816894531</v>
       </c>
       <c r="E29">
-        <v>76.08999633789062</v>
+        <v>74.41999816894531</v>
       </c>
       <c r="F29">
-        <v>18129600</v>
+        <v>23531900</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>74.37000274658203</v>
+        <v>75.30000305175781</v>
       </c>
       <c r="B30">
-        <v>79.63999938964844</v>
+        <v>76.08999633789062</v>
       </c>
       <c r="C30">
-        <v>74.01999664306641</v>
+        <v>71.55999755859375</v>
       </c>
       <c r="D30">
-        <v>78.59999847412109</v>
+        <v>71.76000213623047</v>
       </c>
       <c r="E30">
-        <v>78.59999847412109</v>
+        <v>71.76000213623047</v>
       </c>
       <c r="F30">
-        <v>26999200</v>
+        <v>18633700</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>78.97000122070312</v>
+        <v>72.91999816894531</v>
       </c>
       <c r="B31">
-        <v>80.09999847412109</v>
+        <v>75.24700164794922</v>
       </c>
       <c r="C31">
-        <v>77.45999908447266</v>
+        <v>72.23999786376953</v>
       </c>
       <c r="D31">
-        <v>79.37000274658203</v>
+        <v>73.87000274658203</v>
       </c>
       <c r="E31">
-        <v>79.37000274658203</v>
+        <v>73.87000274658203</v>
       </c>
       <c r="F31">
-        <v>20944600</v>
+        <v>17166400</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>78.94000244140625</v>
+        <v>74.81999969482422</v>
       </c>
       <c r="B32">
-        <v>83.33999633789062</v>
+        <v>75.88999938964844</v>
       </c>
       <c r="C32">
-        <v>78.11000061035156</v>
+        <v>73.44000244140625</v>
       </c>
       <c r="D32">
-        <v>83.11000061035156</v>
+        <v>75.25</v>
       </c>
       <c r="E32">
-        <v>83.11000061035156</v>
+        <v>75.25</v>
       </c>
       <c r="F32">
-        <v>29039000</v>
+        <v>11689700</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>82</v>
+        <v>74.02999877929688</v>
       </c>
       <c r="B33">
-        <v>82.61000061035156</v>
+        <v>74.19999694824219</v>
       </c>
       <c r="C33">
-        <v>79.31999969482422</v>
+        <v>69.97000122070312</v>
       </c>
       <c r="D33">
-        <v>80.08000183105469</v>
+        <v>71.23000335693359</v>
       </c>
       <c r="E33">
-        <v>80.08000183105469</v>
+        <v>71.23000335693359</v>
       </c>
       <c r="F33">
-        <v>18493300</v>
+        <v>18142600</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>78.54000091552734</v>
+        <v>72.18000030517578</v>
       </c>
       <c r="B34">
-        <v>79.41000366210938</v>
+        <v>73.91000366210938</v>
       </c>
       <c r="C34">
-        <v>73.88999938964844</v>
+        <v>71.79000091552734</v>
       </c>
       <c r="D34">
-        <v>74.41999816894531</v>
+        <v>73.41000366210938</v>
       </c>
       <c r="E34">
-        <v>74.41999816894531</v>
+        <v>73.41000366210938</v>
       </c>
       <c r="F34">
-        <v>23531900</v>
+        <v>11896500</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>75.30000305175781</v>
+        <v>72.37000274658203</v>
       </c>
       <c r="B35">
-        <v>76.08999633789062</v>
+        <v>74.5</v>
       </c>
       <c r="C35">
-        <v>71.55999755859375</v>
+        <v>71.31999969482422</v>
       </c>
       <c r="D35">
-        <v>71.76000213623047</v>
+        <v>73.12999725341797</v>
       </c>
       <c r="E35">
-        <v>71.76000213623047</v>
+        <v>73.12999725341797</v>
       </c>
       <c r="F35">
-        <v>18633700</v>
+        <v>10927300</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>72.91999816894531</v>
+        <v>74.36000061035156</v>
       </c>
       <c r="B36">
-        <v>75.24700164794922</v>
+        <v>77.41000366210938</v>
       </c>
       <c r="C36">
-        <v>72.23999786376953</v>
+        <v>74.09999847412109</v>
       </c>
       <c r="D36">
-        <v>73.87000274658203</v>
+        <v>76.27999877929688</v>
       </c>
       <c r="E36">
-        <v>73.87000274658203</v>
+        <v>76.27999877929688</v>
       </c>
       <c r="F36">
-        <v>17166400</v>
+        <v>15547400</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>74.81999969482422</v>
+        <v>76.91000366210938</v>
       </c>
       <c r="B37">
-        <v>75.88999938964844</v>
+        <v>77.41000366210938</v>
       </c>
       <c r="C37">
-        <v>73.44000244140625</v>
+        <v>74.73999786376953</v>
       </c>
       <c r="D37">
-        <v>75.25</v>
+        <v>75</v>
       </c>
       <c r="E37">
-        <v>75.25</v>
+        <v>75</v>
       </c>
       <c r="F37">
-        <v>11689700</v>
+        <v>8906100</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>74.02999877929688</v>
+        <v>74.65000152587891</v>
       </c>
       <c r="B38">
-        <v>74.19999694824219</v>
+        <v>75.59999847412109</v>
       </c>
       <c r="C38">
-        <v>69.97000122070312</v>
+        <v>73.5</v>
       </c>
       <c r="D38">
-        <v>71.23000335693359</v>
+        <v>73.52999877929688</v>
       </c>
       <c r="E38">
-        <v>71.23000335693359</v>
+        <v>73.52999877929688</v>
       </c>
       <c r="F38">
-        <v>18142600</v>
+        <v>8990800</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>72.18000030517578</v>
+        <v>74.12000274658203</v>
       </c>
       <c r="B39">
-        <v>73.91000366210938</v>
+        <v>75.98000335693359</v>
       </c>
       <c r="C39">
-        <v>71.79000091552734</v>
+        <v>73.52999877929688</v>
       </c>
       <c r="D39">
-        <v>73.41000366210938</v>
+        <v>75.26000213623047</v>
       </c>
       <c r="E39">
-        <v>73.41000366210938</v>
+        <v>75.26000213623047</v>
       </c>
       <c r="F39">
-        <v>11896500</v>
+        <v>13691100</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>72.37000274658203</v>
+        <v>76.15000152587891</v>
       </c>
       <c r="B40">
-        <v>74.5</v>
+        <v>76.30899810791016</v>
       </c>
       <c r="C40">
-        <v>71.31999969482422</v>
+        <v>74.30000305175781</v>
       </c>
       <c r="D40">
-        <v>73.12999725341797</v>
+        <v>74.94999694824219</v>
       </c>
       <c r="E40">
-        <v>73.12999725341797</v>
+        <v>74.94999694824219</v>
       </c>
       <c r="F40">
-        <v>10927300</v>
+        <v>9998900</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>74.36000061035156</v>
+        <v>77.05999755859375</v>
       </c>
       <c r="B41">
-        <v>77.41000366210938</v>
+        <v>77.23000335693359</v>
       </c>
       <c r="C41">
-        <v>74.09999847412109</v>
+        <v>75.72499847412109</v>
       </c>
       <c r="D41">
-        <v>76.27999877929688</v>
+        <v>76.63999938964844</v>
       </c>
       <c r="E41">
-        <v>76.27999877929688</v>
+        <v>76.63999938964844</v>
       </c>
       <c r="F41">
-        <v>15547400</v>
+        <v>12948800</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>76.91000366210938</v>
+        <v>76.80999755859375</v>
       </c>
       <c r="B42">
-        <v>77.41000366210938</v>
+        <v>78.73500061035156</v>
       </c>
       <c r="C42">
-        <v>74.73999786376953</v>
+        <v>75.87000274658203</v>
       </c>
       <c r="D42">
-        <v>75</v>
+        <v>77.33999633789062</v>
       </c>
       <c r="E42">
-        <v>75</v>
+        <v>77.33999633789062</v>
       </c>
       <c r="F42">
-        <v>8906100</v>
+        <v>20404200</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>74.65000152587891</v>
+        <v>78.59999847412109</v>
       </c>
       <c r="B43">
-        <v>75.59999847412109</v>
+        <v>79.30000305175781</v>
       </c>
       <c r="C43">
-        <v>73.5</v>
+        <v>72.61000061035156</v>
       </c>
       <c r="D43">
-        <v>73.52999877929688</v>
+        <v>75.80000305175781</v>
       </c>
       <c r="E43">
-        <v>73.52999877929688</v>
+        <v>75.80000305175781</v>
       </c>
       <c r="F43">
-        <v>8990800</v>
+        <v>33053900</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>74.12000274658203</v>
+        <v>75.12000274658203</v>
       </c>
       <c r="B44">
-        <v>75.98000335693359</v>
+        <v>78.18000030517578</v>
       </c>
       <c r="C44">
-        <v>73.52999877929688</v>
+        <v>73.90000152587891</v>
       </c>
       <c r="D44">
-        <v>75.26000213623047</v>
+        <v>76.43000030517578</v>
       </c>
       <c r="E44">
-        <v>75.26000213623047</v>
+        <v>76.43000030517578</v>
       </c>
       <c r="F44">
-        <v>13691100</v>
+        <v>18720700</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>76.15000152587891</v>
+        <v>76.56999969482422</v>
       </c>
       <c r="B45">
-        <v>76.30899810791016</v>
+        <v>77.51999664306641</v>
       </c>
       <c r="C45">
-        <v>74.30000305175781</v>
+        <v>74.66999816894531</v>
       </c>
       <c r="D45">
-        <v>74.94999694824219</v>
+        <v>75.65000152587891</v>
       </c>
       <c r="E45">
-        <v>74.94999694824219</v>
+        <v>75.65000152587891</v>
       </c>
       <c r="F45">
-        <v>9998900</v>
+        <v>15739300</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>77.05999755859375</v>
+        <v>74.80999755859375</v>
       </c>
       <c r="B46">
-        <v>77.23000335693359</v>
+        <v>75.94999694824219</v>
       </c>
       <c r="C46">
-        <v>75.72499847412109</v>
+        <v>73.88999938964844</v>
       </c>
       <c r="D46">
-        <v>76.63999938964844</v>
+        <v>75.11000061035156</v>
       </c>
       <c r="E46">
-        <v>76.63999938964844</v>
+        <v>75.11000061035156</v>
       </c>
       <c r="F46">
-        <v>12948800</v>
+        <v>44450900</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>76.80999755859375</v>
+        <v>58.75</v>
       </c>
       <c r="B47">
-        <v>78.73500061035156</v>
+        <v>60.77999877929688</v>
       </c>
       <c r="C47">
-        <v>75.87000274658203</v>
+        <v>55.02999877929688</v>
       </c>
       <c r="D47">
-        <v>77.33999633789062</v>
+        <v>55.13999938964844</v>
       </c>
       <c r="E47">
-        <v>77.33999633789062</v>
+        <v>55.13999938964844</v>
       </c>
       <c r="F47">
-        <v>20404200</v>
+        <v>153827500</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>78.59999847412109</v>
+        <v>55.95999908447266</v>
       </c>
       <c r="B48">
-        <v>79.30000305175781</v>
+        <v>56.15000152587891</v>
       </c>
       <c r="C48">
-        <v>72.61000061035156</v>
+        <v>53.77000045776367</v>
       </c>
       <c r="D48">
-        <v>75.80000305175781</v>
+        <v>54.5</v>
       </c>
       <c r="E48">
-        <v>75.80000305175781</v>
+        <v>54.5</v>
       </c>
       <c r="F48">
-        <v>33053900</v>
+        <v>62506800</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>75.12000274658203</v>
+        <v>55.2400016784668</v>
       </c>
       <c r="B49">
-        <v>78.18000030517578</v>
+        <v>57.18000030517578</v>
       </c>
       <c r="C49">
-        <v>73.90000152587891</v>
+        <v>54.88000106811523</v>
       </c>
       <c r="D49">
-        <v>76.43000030517578</v>
+        <v>55.38999938964844</v>
       </c>
       <c r="E49">
-        <v>76.43000030517578</v>
+        <v>55.38999938964844</v>
       </c>
       <c r="F49">
-        <v>18720700</v>
+        <v>52905700</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>76.56999969482422</v>
+        <v>55.04999923706055</v>
       </c>
       <c r="B50">
-        <v>77.51999664306641</v>
+        <v>55.22999954223633</v>
       </c>
       <c r="C50">
-        <v>74.66999816894531</v>
+        <v>51.65999984741211</v>
       </c>
       <c r="D50">
-        <v>75.65000152587891</v>
+        <v>52.02000045776367</v>
       </c>
       <c r="E50">
-        <v>75.65000152587891</v>
+        <v>52.02000045776367</v>
       </c>
       <c r="F50">
-        <v>15739300</v>
+        <v>52581300</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>74.80999755859375</v>
+        <v>52.68000030517578</v>
       </c>
       <c r="B51">
-        <v>75.94999694824219</v>
+        <v>54.95999908447266</v>
       </c>
       <c r="C51">
-        <v>73.88999938964844</v>
+        <v>51.9900016784668</v>
       </c>
       <c r="D51">
-        <v>75.11000061035156</v>
+        <v>54.38999938964844</v>
       </c>
       <c r="E51">
-        <v>75.11000061035156</v>
+        <v>54.38999938964844</v>
       </c>
       <c r="F51">
-        <v>44450900</v>
+        <v>34748800</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>58.75</v>
+        <v>53.97000122070312</v>
       </c>
       <c r="B52">
-        <v>60.77999877929688</v>
+        <v>53.9900016784668</v>
       </c>
       <c r="C52">
-        <v>55.02999877929688</v>
+        <v>52.20999908447266</v>
       </c>
       <c r="D52">
-        <v>55.13999938964844</v>
+        <v>52.58000183105469</v>
       </c>
       <c r="E52">
-        <v>55.13999938964844</v>
+        <v>52.58000183105469</v>
       </c>
       <c r="F52">
-        <v>153827500</v>
+        <v>32465500</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>55.95999908447266</v>
+        <v>52.9900016784668</v>
       </c>
       <c r="B53">
-        <v>56.15000152587891</v>
+        <v>54.11000061035156</v>
       </c>
       <c r="C53">
-        <v>53.77000045776367</v>
+        <v>52.25</v>
       </c>
       <c r="D53">
-        <v>54.5</v>
+        <v>53.97999954223633</v>
       </c>
       <c r="E53">
-        <v>54.5</v>
+        <v>53.97999954223633</v>
       </c>
       <c r="F53">
-        <v>62506800</v>
+        <v>22666700</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>55.2400016784668</v>
+        <v>53.56999969482422</v>
       </c>
       <c r="B54">
-        <v>57.18000030517578</v>
+        <v>53.65999984741211</v>
       </c>
       <c r="C54">
-        <v>54.88000106811523</v>
+        <v>51.8650016784668</v>
       </c>
       <c r="D54">
-        <v>55.38999938964844</v>
+        <v>52.20000076293945</v>
       </c>
       <c r="E54">
-        <v>55.38999938964844</v>
+        <v>52.20000076293945</v>
       </c>
       <c r="F54">
-        <v>52905700</v>
+        <v>24120400</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>55.04999923706055</v>
+        <v>51.95000076293945</v>
       </c>
       <c r="B55">
-        <v>55.22999954223633</v>
+        <v>52.97000122070312</v>
       </c>
       <c r="C55">
-        <v>51.65999984741211</v>
+        <v>51.47000122070312</v>
       </c>
       <c r="D55">
-        <v>52.02000045776367</v>
+        <v>52.93999862670898</v>
       </c>
       <c r="E55">
-        <v>52.02000045776367</v>
+        <v>52.93999862670898</v>
       </c>
       <c r="F55">
-        <v>52581300</v>
+        <v>16319300</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>52.68000030517578</v>
+        <v>53.08000183105469</v>
       </c>
       <c r="B56">
-        <v>54.95999908447266</v>
+        <v>53.38000106811523</v>
       </c>
       <c r="C56">
-        <v>51.9900016784668</v>
+        <v>51.7599983215332</v>
       </c>
       <c r="D56">
-        <v>54.38999938964844</v>
+        <v>52.2599983215332</v>
       </c>
       <c r="E56">
-        <v>54.38999938964844</v>
+        <v>52.2599983215332</v>
       </c>
       <c r="F56">
-        <v>34748800</v>
+        <v>16371700</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>53.97000122070312</v>
+        <v>52.15000152587891</v>
       </c>
       <c r="B57">
-        <v>53.9900016784668</v>
+        <v>53.56999969482422</v>
       </c>
       <c r="C57">
-        <v>52.20999908447266</v>
+        <v>52.06999969482422</v>
       </c>
       <c r="D57">
-        <v>52.58000183105469</v>
+        <v>53.16999816894531</v>
       </c>
       <c r="E57">
-        <v>52.58000183105469</v>
+        <v>53.16999816894531</v>
       </c>
       <c r="F57">
-        <v>32465500</v>
+        <v>17447500</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>52.9900016784668</v>
+        <v>53.36000061035156</v>
       </c>
       <c r="B58">
-        <v>54.11000061035156</v>
+        <v>55.13000106811523</v>
       </c>
       <c r="C58">
-        <v>52.25</v>
+        <v>52.84999847412109</v>
       </c>
       <c r="D58">
-        <v>53.97999954223633</v>
+        <v>54.90000152587891</v>
       </c>
       <c r="E58">
-        <v>53.97999954223633</v>
+        <v>54.90000152587891</v>
       </c>
       <c r="F58">
-        <v>22666700</v>
+        <v>20154600</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>53.56999969482422</v>
+        <v>55.29499816894531</v>
       </c>
       <c r="B59">
-        <v>53.65999984741211</v>
+        <v>55.65000152587891</v>
       </c>
       <c r="C59">
-        <v>51.8650016784668</v>
+        <v>54.20000076293945</v>
       </c>
       <c r="D59">
-        <v>52.20000076293945</v>
+        <v>54.81999969482422</v>
       </c>
       <c r="E59">
-        <v>52.20000076293945</v>
+        <v>54.81999969482422</v>
       </c>
       <c r="F59">
-        <v>24120400</v>
+        <v>12489000</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>51.95000076293945</v>
+        <v>53.90999984741211</v>
       </c>
       <c r="B60">
-        <v>52.97000122070312</v>
+        <v>54.16999816894531</v>
       </c>
       <c r="C60">
-        <v>51.47000122070312</v>
+        <v>52.02000045776367</v>
       </c>
       <c r="D60">
-        <v>52.93999862670898</v>
+        <v>52.88000106811523</v>
       </c>
       <c r="E60">
-        <v>52.93999862670898</v>
+        <v>52.88000106811523</v>
       </c>
       <c r="F60">
-        <v>16319300</v>
+        <v>14812400</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>53.08000183105469</v>
+        <v>53.45999908447266</v>
       </c>
       <c r="B61">
-        <v>53.38000106811523</v>
+        <v>54.59000015258789</v>
       </c>
       <c r="C61">
-        <v>51.7599983215332</v>
+        <v>53.20000076293945</v>
       </c>
       <c r="D61">
-        <v>52.2599983215332</v>
+        <v>53.29000091552734</v>
       </c>
       <c r="E61">
-        <v>52.2599983215332</v>
+        <v>53.29000091552734</v>
       </c>
       <c r="F61">
-        <v>16371700</v>
+        <v>13322000</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>52.15000152587891</v>
+        <v>53.81999969482422</v>
       </c>
       <c r="B62">
-        <v>53.56999969482422</v>
+        <v>54.06999969482422</v>
       </c>
       <c r="C62">
-        <v>52.06999969482422</v>
+        <v>52.81999969482422</v>
       </c>
       <c r="D62">
-        <v>53.16999816894531</v>
+        <v>53.70000076293945</v>
       </c>
       <c r="E62">
-        <v>53.16999816894531</v>
+        <v>53.70000076293945</v>
       </c>
       <c r="F62">
-        <v>17447500</v>
+        <v>12960100</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>53.36000061035156</v>
+        <v>54.13999938964844</v>
       </c>
       <c r="B63">
-        <v>55.13000106811523</v>
+        <v>57.13999938964844</v>
       </c>
       <c r="C63">
-        <v>52.84999847412109</v>
+        <v>54.11999893188477</v>
       </c>
       <c r="D63">
-        <v>54.90000152587891</v>
+        <v>55.52999877929688</v>
       </c>
       <c r="E63">
-        <v>54.90000152587891</v>
+        <v>55.52999877929688</v>
       </c>
       <c r="F63">
-        <v>20154600</v>
+        <v>22192000</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>55.29499816894531</v>
+        <v>55.77999877929688</v>
       </c>
       <c r="B64">
-        <v>55.65000152587891</v>
+        <v>55.81000137329102</v>
       </c>
       <c r="C64">
-        <v>54.20000076293945</v>
+        <v>53.66500091552734</v>
       </c>
       <c r="D64">
-        <v>54.81999969482422</v>
+        <v>55.11000061035156</v>
       </c>
       <c r="E64">
-        <v>54.81999969482422</v>
+        <v>55.11000061035156</v>
       </c>
       <c r="F64">
-        <v>12489000</v>
+        <v>20754600</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>53.90999984741211</v>
+        <v>54.45000076293945</v>
       </c>
       <c r="B65">
-        <v>54.16999816894531</v>
+        <v>55.66799926757812</v>
       </c>
       <c r="C65">
-        <v>52.02000045776367</v>
+        <v>53.86000061035156</v>
       </c>
       <c r="D65">
-        <v>52.88000106811523</v>
+        <v>54.56000137329102</v>
       </c>
       <c r="E65">
-        <v>52.88000106811523</v>
+        <v>54.56000137329102</v>
       </c>
       <c r="F65">
-        <v>14812400</v>
+        <v>15005300</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>53.45999908447266</v>
+        <v>54.5099983215332</v>
       </c>
       <c r="B66">
-        <v>54.59000015258789</v>
+        <v>54.77000045776367</v>
       </c>
       <c r="C66">
-        <v>53.20000076293945</v>
+        <v>52.54999923706055</v>
       </c>
       <c r="D66">
-        <v>53.29000091552734</v>
+        <v>53.47000122070312</v>
       </c>
       <c r="E66">
-        <v>53.29000091552734</v>
+        <v>53.47000122070312</v>
       </c>
       <c r="F66">
-        <v>13322000</v>
+        <v>13069900</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>53.81999969482422</v>
+        <v>53.93000030517578</v>
       </c>
       <c r="B67">
-        <v>54.06999969482422</v>
+        <v>53.93000030517578</v>
       </c>
       <c r="C67">
-        <v>52.81999969482422</v>
+        <v>50.7599983215332</v>
       </c>
       <c r="D67">
-        <v>53.70000076293945</v>
+        <v>51.31999969482422</v>
       </c>
       <c r="E67">
-        <v>53.70000076293945</v>
+        <v>51.31999969482422</v>
       </c>
       <c r="F67">
-        <v>12960100</v>
+        <v>18095000</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>54.13999938964844</v>
+        <v>51.52000045776367</v>
       </c>
       <c r="B68">
-        <v>57.13999938964844</v>
+        <v>51.52000045776367</v>
       </c>
       <c r="C68">
-        <v>54.11999893188477</v>
+        <v>47.45999908447266</v>
       </c>
       <c r="D68">
-        <v>55.52999877929688</v>
+        <v>49.2599983215332</v>
       </c>
       <c r="E68">
-        <v>55.52999877929688</v>
+        <v>49.2599983215332</v>
       </c>
       <c r="F68">
-        <v>22192000</v>
+        <v>34273700</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>55.77999877929688</v>
+        <v>48.56999969482422</v>
       </c>
       <c r="B69">
-        <v>55.81000137329102</v>
+        <v>51.02999877929688</v>
       </c>
       <c r="C69">
-        <v>53.66500091552734</v>
+        <v>47.86000061035156</v>
       </c>
       <c r="D69">
-        <v>55.11000061035156</v>
+        <v>50.66999816894531</v>
       </c>
       <c r="E69">
-        <v>55.11000061035156</v>
+        <v>50.66999816894531</v>
       </c>
       <c r="F69">
-        <v>20754600</v>
+        <v>21262500</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>54.45000076293945</v>
+        <v>49</v>
       </c>
       <c r="B70">
-        <v>55.66799926757812</v>
+        <v>50.27000045776367</v>
       </c>
       <c r="C70">
-        <v>53.86000061035156</v>
+        <v>48.79999923706055</v>
       </c>
       <c r="D70">
-        <v>54.56000137329102</v>
+        <v>49.65999984741211</v>
       </c>
       <c r="E70">
-        <v>54.56000137329102</v>
+        <v>49.65999984741211</v>
       </c>
       <c r="F70">
-        <v>15005300</v>
+        <v>14813900</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>54.5099983215332</v>
+        <v>48.77000045776367</v>
       </c>
       <c r="B71">
-        <v>54.77000045776367</v>
+        <v>50.25</v>
       </c>
       <c r="C71">
-        <v>52.54999923706055</v>
+        <v>48.56999969482422</v>
       </c>
       <c r="D71">
-        <v>53.47000122070312</v>
+        <v>49.7599983215332</v>
       </c>
       <c r="E71">
-        <v>53.47000122070312</v>
+        <v>49.7599983215332</v>
       </c>
       <c r="F71">
-        <v>13069900</v>
+        <v>10487300</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>53.93000030517578</v>
+        <v>51.09999847412109</v>
       </c>
       <c r="B72">
-        <v>53.93000030517578</v>
+        <v>51.11999893188477</v>
       </c>
       <c r="C72">
-        <v>50.7599983215332</v>
+        <v>48.47999954223633</v>
       </c>
       <c r="D72">
-        <v>51.31999969482422</v>
+        <v>48.84999847412109</v>
       </c>
       <c r="E72">
-        <v>51.31999969482422</v>
+        <v>48.84999847412109</v>
       </c>
       <c r="F72">
-        <v>18095000</v>
+        <v>16171000</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>51.52000045776367</v>
+        <v>48.77999877929688</v>
       </c>
       <c r="B73">
-        <v>51.52000045776367</v>
+        <v>49.40000152587891</v>
       </c>
       <c r="C73">
-        <v>47.45999908447266</v>
+        <v>46.29999923706055</v>
       </c>
       <c r="D73">
-        <v>49.2599983215332</v>
+        <v>47.61000061035156</v>
       </c>
       <c r="E73">
-        <v>49.2599983215332</v>
+        <v>47.61000061035156</v>
       </c>
       <c r="F73">
-        <v>34273700</v>
+        <v>25773000</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>48.56999969482422</v>
+        <v>49.13000106811523</v>
       </c>
       <c r="B74">
-        <v>51.02999877929688</v>
+        <v>50.97999954223633</v>
       </c>
       <c r="C74">
-        <v>47.86000061035156</v>
+        <v>46.79999923706055</v>
       </c>
       <c r="D74">
-        <v>50.66999816894531</v>
+        <v>47.2599983215332</v>
       </c>
       <c r="E74">
-        <v>50.66999816894531</v>
+        <v>47.2599983215332</v>
       </c>
       <c r="F74">
-        <v>21262500</v>
+        <v>28507500</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>49</v>
+        <v>47.2400016784668</v>
       </c>
       <c r="B75">
-        <v>50.27000045776367</v>
+        <v>48.29000091552734</v>
       </c>
       <c r="C75">
-        <v>48.79999923706055</v>
+        <v>46.5099983215332</v>
       </c>
       <c r="D75">
-        <v>49.65999984741211</v>
+        <v>47.90999984741211</v>
       </c>
       <c r="E75">
-        <v>49.65999984741211</v>
+        <v>47.90999984741211</v>
       </c>
       <c r="F75">
-        <v>14813900</v>
+        <v>14418100</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>48.77000045776367</v>
+        <v>47.77000045776367</v>
       </c>
       <c r="B76">
-        <v>50.25</v>
+        <v>48.66999816894531</v>
       </c>
       <c r="C76">
-        <v>48.56999969482422</v>
+        <v>45.45999908447266</v>
       </c>
       <c r="D76">
-        <v>49.7599983215332</v>
+        <v>46.79000091552734</v>
       </c>
       <c r="E76">
-        <v>49.7599983215332</v>
+        <v>46.79000091552734</v>
       </c>
       <c r="F76">
-        <v>10487300</v>
+        <v>19602400</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>51.09999847412109</v>
+        <v>46.20999908447266</v>
       </c>
       <c r="B77">
-        <v>51.11999893188477</v>
+        <v>48.32500076293945</v>
       </c>
       <c r="C77">
-        <v>48.47999954223633</v>
+        <v>44.91999816894531</v>
       </c>
       <c r="D77">
-        <v>48.84999847412109</v>
+        <v>47.91999816894531</v>
       </c>
       <c r="E77">
-        <v>48.84999847412109</v>
+        <v>47.91999816894531</v>
       </c>
       <c r="F77">
-        <v>16171000</v>
+        <v>15738500</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>48.77999877929688</v>
+        <v>49.375</v>
       </c>
       <c r="B78">
-        <v>49.40000152587891</v>
+        <v>51.68000030517578</v>
       </c>
       <c r="C78">
-        <v>46.29999923706055</v>
+        <v>49.29000091552734</v>
       </c>
       <c r="D78">
-        <v>47.61000061035156</v>
+        <v>50.40000152587891</v>
       </c>
       <c r="E78">
-        <v>47.61000061035156</v>
+        <v>50.40000152587891</v>
       </c>
       <c r="F78">
-        <v>25773000</v>
+        <v>20782600</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>49.13000106811523</v>
+        <v>50.61999893188477</v>
       </c>
       <c r="B79">
-        <v>50.97999954223633</v>
+        <v>54.83499908447266</v>
       </c>
       <c r="C79">
-        <v>46.79999923706055</v>
+        <v>50.20000076293945</v>
       </c>
       <c r="D79">
-        <v>47.2599983215332</v>
+        <v>53.41999816894531</v>
       </c>
       <c r="E79">
-        <v>47.2599983215332</v>
+        <v>53.41999816894531</v>
       </c>
       <c r="F79">
-        <v>28507500</v>
+        <v>26768000</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>47.2400016784668</v>
+        <v>52.79000091552734</v>
       </c>
       <c r="B80">
-        <v>48.29000091552734</v>
+        <v>54.88999938964844</v>
       </c>
       <c r="C80">
-        <v>46.5099983215332</v>
+        <v>52.11000061035156</v>
       </c>
       <c r="D80">
-        <v>47.90999984741211</v>
+        <v>52.36000061035156</v>
       </c>
       <c r="E80">
-        <v>47.90999984741211</v>
+        <v>52.36000061035156</v>
       </c>
       <c r="F80">
-        <v>14418100</v>
+        <v>19408100</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>47.77000045776367</v>
+        <v>52.63000106811523</v>
       </c>
       <c r="B81">
-        <v>48.66999816894531</v>
+        <v>53.31000137329102</v>
       </c>
       <c r="C81">
-        <v>45.45999908447266</v>
+        <v>50.05500030517578</v>
       </c>
       <c r="D81">
-        <v>46.79000091552734</v>
+        <v>50.81999969482422</v>
       </c>
       <c r="E81">
-        <v>46.79000091552734</v>
+        <v>50.81999969482422</v>
       </c>
       <c r="F81">
-        <v>19602400</v>
+        <v>13404800</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>46.20999908447266</v>
+        <v>50.31999969482422</v>
       </c>
       <c r="B82">
-        <v>48.32500076293945</v>
+        <v>50.43999862670898</v>
       </c>
       <c r="C82">
-        <v>44.91999816894531</v>
+        <v>46.45999908447266</v>
       </c>
       <c r="D82">
-        <v>47.91999816894531</v>
+        <v>48.13999938964844</v>
       </c>
       <c r="E82">
-        <v>47.91999816894531</v>
+        <v>48.13999938964844</v>
       </c>
       <c r="F82">
-        <v>15738500</v>
+        <v>21235100</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>49.375</v>
+        <v>47.59999847412109</v>
       </c>
       <c r="B83">
-        <v>51.68000030517578</v>
+        <v>48.31499862670898</v>
       </c>
       <c r="C83">
-        <v>49.29000091552734</v>
+        <v>46.38000106811523</v>
       </c>
       <c r="D83">
-        <v>50.40000152587891</v>
+        <v>46.84999847412109</v>
       </c>
       <c r="E83">
-        <v>50.40000152587891</v>
+        <v>46.84999847412109</v>
       </c>
       <c r="F83">
-        <v>20782600</v>
+        <v>16496600</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>50.61999893188477</v>
+        <v>46.34999847412109</v>
       </c>
       <c r="B84">
-        <v>54.83499908447266</v>
+        <v>46.66999816894531</v>
       </c>
       <c r="C84">
-        <v>50.20000076293945</v>
+        <v>44.07699966430664</v>
       </c>
       <c r="D84">
-        <v>53.41999816894531</v>
+        <v>46.40999984741211</v>
       </c>
       <c r="E84">
-        <v>53.41999816894531</v>
+        <v>46.40999984741211</v>
       </c>
       <c r="F84">
-        <v>26768000</v>
+        <v>23804800</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>52.79000091552734</v>
+        <v>47.40999984741211</v>
       </c>
       <c r="B85">
-        <v>54.88999938964844</v>
+        <v>48.02000045776367</v>
       </c>
       <c r="C85">
-        <v>52.11000061035156</v>
+        <v>44.06999969482422</v>
       </c>
       <c r="D85">
-        <v>52.36000061035156</v>
+        <v>44.70000076293945</v>
       </c>
       <c r="E85">
-        <v>52.36000061035156</v>
+        <v>44.70000076293945</v>
       </c>
       <c r="F85">
-        <v>19408100</v>
+        <v>21512200</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>52.63000106811523</v>
+        <v>43.63999938964844</v>
       </c>
       <c r="B86">
-        <v>53.31000137329102</v>
+        <v>45.88999938964844</v>
       </c>
       <c r="C86">
-        <v>50.05500030517578</v>
+        <v>42.95999908447266</v>
       </c>
       <c r="D86">
-        <v>50.81999969482422</v>
+        <v>45.29000091552734</v>
       </c>
       <c r="E86">
-        <v>50.81999969482422</v>
+        <v>45.29000091552734</v>
       </c>
       <c r="F86">
-        <v>13404800</v>
+        <v>22959700</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>50.31999969482422</v>
+        <v>44.22000122070312</v>
       </c>
       <c r="B87">
-        <v>50.43999862670898</v>
+        <v>45.15000152587891</v>
       </c>
       <c r="C87">
-        <v>46.45999908447266</v>
+        <v>43.38000106811523</v>
       </c>
       <c r="D87">
-        <v>48.13999938964844</v>
+        <v>44.41999816894531</v>
       </c>
       <c r="E87">
-        <v>48.13999938964844</v>
+        <v>44.41999816894531</v>
       </c>
       <c r="F87">
-        <v>21235100</v>
+        <v>12921600</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>47.59999847412109</v>
+        <v>44.88999938964844</v>
       </c>
       <c r="B88">
-        <v>48.31499862670898</v>
+        <v>46.20000076293945</v>
       </c>
       <c r="C88">
-        <v>46.38000106811523</v>
+        <v>43.90000152587891</v>
       </c>
       <c r="D88">
-        <v>46.84999847412109</v>
+        <v>46.09999847412109</v>
       </c>
       <c r="E88">
-        <v>46.84999847412109</v>
+        <v>46.09999847412109</v>
       </c>
       <c r="F88">
-        <v>16496600</v>
+        <v>15203200</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>46.34999847412109</v>
+        <v>45.98500061035156</v>
       </c>
       <c r="B89">
-        <v>46.66999816894531</v>
+        <v>47.20999908447266</v>
       </c>
       <c r="C89">
-        <v>44.07699966430664</v>
+        <v>45.45999908447266</v>
       </c>
       <c r="D89">
-        <v>46.40999984741211</v>
+        <v>46.77000045776367</v>
       </c>
       <c r="E89">
-        <v>46.40999984741211</v>
+        <v>46.77000045776367</v>
       </c>
       <c r="F89">
-        <v>23804800</v>
+        <v>12055000</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>47.40999984741211</v>
+        <v>47.34999847412109</v>
       </c>
       <c r="B90">
-        <v>48.02000045776367</v>
+        <v>49.06999969482422</v>
       </c>
       <c r="C90">
-        <v>44.06999969482422</v>
+        <v>45.95999908447266</v>
       </c>
       <c r="D90">
-        <v>44.70000076293945</v>
+        <v>48.68000030517578</v>
       </c>
       <c r="E90">
-        <v>44.70000076293945</v>
+        <v>48.68000030517578</v>
       </c>
       <c r="F90">
-        <v>21512200</v>
+        <v>18546400</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>43.63999938964844</v>
+        <v>48.45000076293945</v>
       </c>
       <c r="B91">
-        <v>45.88999938964844</v>
+        <v>49.25</v>
       </c>
       <c r="C91">
-        <v>42.95999908447266</v>
+        <v>48.02000045776367</v>
       </c>
       <c r="D91">
-        <v>45.29000091552734</v>
+        <v>48.63999938964844</v>
       </c>
       <c r="E91">
-        <v>45.29000091552734</v>
+        <v>48.63999938964844</v>
       </c>
       <c r="F91">
-        <v>22959700</v>
+        <v>8163900</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>44.22000122070312</v>
+        <v>48.5</v>
       </c>
       <c r="B92">
-        <v>45.15000152587891</v>
+        <v>49.22999954223633</v>
       </c>
       <c r="C92">
-        <v>43.38000106811523</v>
+        <v>47.43000030517578</v>
       </c>
       <c r="D92">
-        <v>44.41999816894531</v>
+        <v>47.70999908447266</v>
       </c>
       <c r="E92">
-        <v>44.41999816894531</v>
+        <v>47.70999908447266</v>
       </c>
       <c r="F92">
-        <v>12921600</v>
+        <v>8984500</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>44.88999938964844</v>
+        <v>47.59500122070312</v>
       </c>
       <c r="B93">
-        <v>46.20000076293945</v>
+        <v>47.91999816894531</v>
       </c>
       <c r="C93">
-        <v>43.90000152587891</v>
+        <v>46.56000137329102</v>
       </c>
       <c r="D93">
-        <v>46.09999847412109</v>
+        <v>47.06000137329102</v>
       </c>
       <c r="E93">
-        <v>46.09999847412109</v>
+        <v>47.06000137329102</v>
       </c>
       <c r="F93">
-        <v>15203200</v>
+        <v>7693700</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>45.98500061035156</v>
+        <v>46.81000137329102</v>
       </c>
       <c r="B94">
-        <v>47.20999908447266</v>
+        <v>48.7400016784668</v>
       </c>
       <c r="C94">
-        <v>45.45999908447266</v>
+        <v>46.81000137329102</v>
       </c>
       <c r="D94">
-        <v>46.77000045776367</v>
+        <v>48.02999877929688</v>
       </c>
       <c r="E94">
-        <v>46.77000045776367</v>
+        <v>48.02999877929688</v>
       </c>
       <c r="F94">
-        <v>12055000</v>
+        <v>10170200</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>47.34999847412109</v>
+        <v>47.79999923706055</v>
       </c>
       <c r="B95">
-        <v>49.06999969482422</v>
+        <v>48.45000076293945</v>
       </c>
       <c r="C95">
-        <v>45.95999908447266</v>
+        <v>47.0099983215332</v>
       </c>
       <c r="D95">
-        <v>48.68000030517578</v>
+        <v>47.02999877929688</v>
       </c>
       <c r="E95">
-        <v>48.68000030517578</v>
+        <v>47.02999877929688</v>
       </c>
       <c r="F95">
-        <v>18546400</v>
+        <v>8310700</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>48.45000076293945</v>
+        <v>47.63000106811523</v>
       </c>
       <c r="B96">
-        <v>49.25</v>
+        <v>47.70999908447266</v>
       </c>
       <c r="C96">
-        <v>48.02000045776367</v>
+        <v>45.9900016784668</v>
       </c>
       <c r="D96">
-        <v>48.63999938964844</v>
+        <v>46.59000015258789</v>
       </c>
       <c r="E96">
-        <v>48.63999938964844</v>
+        <v>46.59000015258789</v>
       </c>
       <c r="F96">
-        <v>8163900</v>
+        <v>7931400</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>48.5</v>
+        <v>46.84999847412109</v>
       </c>
       <c r="B97">
-        <v>49.22999954223633</v>
+        <v>46.9900016784668</v>
       </c>
       <c r="C97">
-        <v>47.43000030517578</v>
+        <v>42.45999908447266</v>
       </c>
       <c r="D97">
-        <v>47.70999908447266</v>
+        <v>44.02999877929688</v>
       </c>
       <c r="E97">
-        <v>47.70999908447266</v>
+        <v>44.02999877929688</v>
       </c>
       <c r="F97">
-        <v>8984500</v>
+        <v>26659100</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>47.59500122070312</v>
+        <v>43.5</v>
       </c>
       <c r="B98">
-        <v>47.91999816894531</v>
+        <v>44.4900016784668</v>
       </c>
       <c r="C98">
-        <v>46.56000137329102</v>
+        <v>41.0099983215332</v>
       </c>
       <c r="D98">
-        <v>47.06000137329102</v>
+        <v>41.33000183105469</v>
       </c>
       <c r="E98">
-        <v>47.06000137329102</v>
+        <v>41.33000183105469</v>
       </c>
       <c r="F98">
-        <v>7693700</v>
+        <v>22163300</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>46.81000137329102</v>
+        <v>41.25</v>
       </c>
       <c r="B99">
-        <v>48.7400016784668</v>
+        <v>42.43000030517578</v>
       </c>
       <c r="C99">
-        <v>46.81000137329102</v>
+        <v>39.81999969482422</v>
       </c>
       <c r="D99">
-        <v>48.02999877929688</v>
+        <v>41.68000030517578</v>
       </c>
       <c r="E99">
-        <v>48.02999877929688</v>
+        <v>41.68000030517578</v>
       </c>
       <c r="F99">
-        <v>10170200</v>
+        <v>17882300</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>47.79999923706055</v>
+        <v>41.54000091552734</v>
       </c>
       <c r="B100">
-        <v>48.45000076293945</v>
+        <v>43.27999877929688</v>
       </c>
       <c r="C100">
-        <v>47.0099983215332</v>
+        <v>41.04999923706055</v>
       </c>
       <c r="D100">
-        <v>47.02999877929688</v>
+        <v>41.36000061035156</v>
       </c>
       <c r="E100">
-        <v>47.02999877929688</v>
+        <v>41.36000061035156</v>
       </c>
       <c r="F100">
-        <v>8310700</v>
+        <v>15710600</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>47.63000106811523</v>
+        <v>40.7400016784668</v>
       </c>
       <c r="B101">
-        <v>47.70999908447266</v>
+        <v>41.77500152587891</v>
       </c>
       <c r="C101">
-        <v>45.9900016784668</v>
+        <v>38.5099983215332</v>
       </c>
       <c r="D101">
-        <v>46.59000015258789</v>
+        <v>41.70999908447266</v>
       </c>
       <c r="E101">
-        <v>46.59000015258789</v>
+        <v>41.70999908447266</v>
       </c>
       <c r="F101">
-        <v>7931400</v>
+        <v>20895900</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>46.84999847412109</v>
+        <v>42.06000137329102</v>
       </c>
       <c r="B102">
-        <v>46.9900016784668</v>
+        <v>43.72000122070312</v>
       </c>
       <c r="C102">
-        <v>42.45999908447266</v>
+        <v>41.77999877929688</v>
       </c>
       <c r="D102">
-        <v>44.02999877929688</v>
+        <v>43.31000137329102</v>
       </c>
       <c r="E102">
-        <v>44.02999877929688</v>
+        <v>43.31000137329102</v>
       </c>
       <c r="F102">
-        <v>26659100</v>
+        <v>17386600</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>43.5</v>
+        <v>43.81000137329102</v>
       </c>
       <c r="B103">
-        <v>44.4900016784668</v>
+        <v>44.34000015258789</v>
       </c>
       <c r="C103">
-        <v>41.0099983215332</v>
+        <v>42.06000137329102</v>
       </c>
       <c r="D103">
-        <v>41.33000183105469</v>
+        <v>42.72999954223633</v>
       </c>
       <c r="E103">
-        <v>41.33000183105469</v>
+        <v>42.72999954223633</v>
       </c>
       <c r="F103">
-        <v>22163300</v>
+        <v>12637500</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>41.25</v>
+        <v>40.63999938964844</v>
       </c>
       <c r="B104">
-        <v>42.43000030517578</v>
+        <v>41.45999908447266</v>
       </c>
       <c r="C104">
-        <v>39.81999969482422</v>
+        <v>38.2599983215332</v>
       </c>
       <c r="D104">
-        <v>41.68000030517578</v>
+        <v>38.38000106811523</v>
       </c>
       <c r="E104">
-        <v>41.68000030517578</v>
+        <v>38.38000106811523</v>
       </c>
       <c r="F104">
-        <v>17882300</v>
+        <v>32180500</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>41.54000091552734</v>
+        <v>37.72000122070312</v>
       </c>
       <c r="B105">
-        <v>43.27999877929688</v>
+        <v>38.33000183105469</v>
       </c>
       <c r="C105">
-        <v>41.04999923706055</v>
+        <v>36.56000137329102</v>
       </c>
       <c r="D105">
-        <v>41.36000061035156</v>
+        <v>38.04000091552734</v>
       </c>
       <c r="E105">
-        <v>41.36000061035156</v>
+        <v>38.04000091552734</v>
       </c>
       <c r="F105">
-        <v>15710600</v>
+        <v>25547000</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>40.7400016784668</v>
+        <v>36.97999954223633</v>
       </c>
       <c r="B106">
-        <v>41.77500152587891</v>
+        <v>36.98500061035156</v>
       </c>
       <c r="C106">
-        <v>38.5099983215332</v>
+        <v>35.61999893188477</v>
       </c>
       <c r="D106">
-        <v>41.70999908447266</v>
+        <v>35.70000076293945</v>
       </c>
       <c r="E106">
-        <v>41.70999908447266</v>
+        <v>35.70000076293945</v>
       </c>
       <c r="F106">
-        <v>20895900</v>
+        <v>37008100</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>42.06000137329102</v>
+        <v>36.02999877929688</v>
       </c>
       <c r="B107">
-        <v>43.72000122070312</v>
+        <v>36.47999954223633</v>
       </c>
       <c r="C107">
-        <v>41.77999877929688</v>
+        <v>34.7599983215332</v>
       </c>
       <c r="D107">
-        <v>43.31000137329102</v>
+        <v>35.04999923706055</v>
       </c>
       <c r="E107">
-        <v>43.31000137329102</v>
+        <v>35.04999923706055</v>
       </c>
       <c r="F107">
-        <v>17386600</v>
+        <v>23942000</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>43.81000137329102</v>
+        <v>35.79999923706055</v>
       </c>
       <c r="B108">
-        <v>44.34000015258789</v>
+        <v>37.10499954223633</v>
       </c>
       <c r="C108">
-        <v>42.06000137329102</v>
+        <v>34.91500091552734</v>
       </c>
       <c r="D108">
-        <v>42.72999954223633</v>
+        <v>34.9900016784668</v>
       </c>
       <c r="E108">
-        <v>42.72999954223633</v>
+        <v>34.9900016784668</v>
       </c>
       <c r="F108">
-        <v>12637500</v>
+        <v>21672700</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>40.63999938964844</v>
+        <v>34</v>
       </c>
       <c r="B109">
-        <v>41.45999908447266</v>
+        <v>34.61999893188477</v>
       </c>
       <c r="C109">
-        <v>38.2599983215332</v>
+        <v>32</v>
       </c>
       <c r="D109">
-        <v>38.38000106811523</v>
+        <v>32.11999893188477</v>
       </c>
       <c r="E109">
-        <v>38.38000106811523</v>
+        <v>32.11999893188477</v>
       </c>
       <c r="F109">
-        <v>32180500</v>
+        <v>37648400</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>37.72000122070312</v>
+        <v>30.15999984741211</v>
       </c>
       <c r="B110">
-        <v>38.33000183105469</v>
+        <v>31.80999946594238</v>
       </c>
       <c r="C110">
-        <v>36.56000137329102</v>
+        <v>28.02000045776367</v>
       </c>
       <c r="D110">
-        <v>38.04000091552734</v>
+        <v>31.79999923706055</v>
       </c>
       <c r="E110">
-        <v>38.04000091552734</v>
+        <v>31.79999923706055</v>
       </c>
       <c r="F110">
-        <v>25547000</v>
+        <v>46502200</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>36.97999954223633</v>
+        <v>31.01000022888184</v>
       </c>
       <c r="B111">
-        <v>36.98500061035156</v>
+        <v>32.09000015258789</v>
       </c>
       <c r="C111">
-        <v>35.61999893188477</v>
+        <v>30.08499908447266</v>
       </c>
       <c r="D111">
-        <v>35.70000076293945</v>
+        <v>30.65999984741211</v>
       </c>
       <c r="E111">
-        <v>35.70000076293945</v>
+        <v>30.65999984741211</v>
       </c>
       <c r="F111">
-        <v>37008100</v>
+        <v>26893800</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>36.02999877929688</v>
+        <v>31.3799991607666</v>
       </c>
       <c r="B112">
-        <v>36.47999954223633</v>
+        <v>31.90999984741211</v>
       </c>
       <c r="C112">
-        <v>34.7599983215332</v>
+        <v>28.15999984741211</v>
       </c>
       <c r="D112">
-        <v>35.04999923706055</v>
+        <v>28.6299991607666</v>
       </c>
       <c r="E112">
-        <v>35.04999923706055</v>
+        <v>28.6299991607666</v>
       </c>
       <c r="F112">
-        <v>23942000</v>
+        <v>35467300</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>35.79999923706055</v>
+        <v>29.6299991607666</v>
       </c>
       <c r="B113">
-        <v>37.10499954223633</v>
+        <v>30.67000007629395</v>
       </c>
       <c r="C113">
-        <v>34.91500091552734</v>
+        <v>28.17000007629395</v>
       </c>
       <c r="D113">
-        <v>34.9900016784668</v>
+        <v>28.29999923706055</v>
       </c>
       <c r="E113">
-        <v>34.9900016784668</v>
+        <v>28.29999923706055</v>
       </c>
       <c r="F113">
-        <v>21672700</v>
+        <v>35331900</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>34</v>
+        <v>28.6299991607666</v>
       </c>
       <c r="B114">
-        <v>34.61999893188477</v>
+        <v>30.47999954223633</v>
       </c>
       <c r="C114">
-        <v>32</v>
+        <v>28.1299991607666</v>
       </c>
       <c r="D114">
-        <v>32.11999893188477</v>
+        <v>30.42000007629395</v>
       </c>
       <c r="E114">
-        <v>32.11999893188477</v>
+        <v>30.42000007629395</v>
       </c>
       <c r="F114">
-        <v>37648400</v>
+        <v>28380500</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>30.15999984741211</v>
+        <v>30.64999961853027</v>
       </c>
       <c r="B115">
-        <v>31.80999946594238</v>
+        <v>32.63000106811523</v>
       </c>
       <c r="C115">
-        <v>28.02000045776367</v>
+        <v>30.64999961853027</v>
       </c>
       <c r="D115">
-        <v>31.79999923706055</v>
+        <v>32.54000091552734</v>
       </c>
       <c r="E115">
-        <v>31.79999923706055</v>
+        <v>32.54000091552734</v>
       </c>
       <c r="F115">
-        <v>46502200</v>
+        <v>25872900</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>31.01000022888184</v>
+        <v>34.13000106811523</v>
       </c>
       <c r="B116">
-        <v>32.09000015258789</v>
+        <v>34.20000076293945</v>
       </c>
       <c r="C116">
-        <v>30.08499908447266</v>
+        <v>32.20999908447266</v>
       </c>
       <c r="D116">
-        <v>30.65999984741211</v>
+        <v>33.65999984741211</v>
       </c>
       <c r="E116">
-        <v>30.65999984741211</v>
+        <v>33.65999984741211</v>
       </c>
       <c r="F116">
-        <v>26893800</v>
+        <v>28108900</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>31.3799991607666</v>
+        <v>34.15000152587891</v>
       </c>
       <c r="B117">
-        <v>31.90999984741211</v>
+        <v>34.24499893188477</v>
       </c>
       <c r="C117">
-        <v>28.15999984741211</v>
+        <v>31.72999954223633</v>
       </c>
       <c r="D117">
-        <v>28.6299991607666</v>
+        <v>32.06999969482422</v>
       </c>
       <c r="E117">
-        <v>28.6299991607666</v>
+        <v>32.06999969482422</v>
       </c>
       <c r="F117">
-        <v>35467300</v>
+        <v>41654600</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>29.6299991607666</v>
+        <v>25.73999977111816</v>
       </c>
       <c r="B118">
-        <v>30.67000007629395</v>
+        <v>26.48999977111816</v>
       </c>
       <c r="C118">
-        <v>28.17000007629395</v>
+        <v>24.31999969482422</v>
       </c>
       <c r="D118">
-        <v>28.29999923706055</v>
+        <v>24.5</v>
       </c>
       <c r="E118">
-        <v>28.29999923706055</v>
+        <v>24.5</v>
       </c>
       <c r="F118">
-        <v>35331900</v>
+        <v>149336000</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>28.6299991607666</v>
+        <v>35.27000045776367</v>
       </c>
       <c r="B119">
-        <v>30.47999954223633</v>
+        <v>40.65000152587891</v>
       </c>
       <c r="C119">
-        <v>28.1299991607666</v>
+        <v>34.09999847412109</v>
       </c>
       <c r="D119">
-        <v>30.42000007629395</v>
+        <v>38.90999984741211</v>
       </c>
       <c r="E119">
-        <v>30.42000007629395</v>
+        <v>38.90999984741211</v>
       </c>
       <c r="F119">
-        <v>28380500</v>
+        <v>308020500</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>30.64999961853027</v>
+        <v>38.5099983215332</v>
       </c>
       <c r="B120">
-        <v>32.63000106811523</v>
+        <v>39.59000015258789</v>
       </c>
       <c r="C120">
-        <v>30.64999961853027</v>
+        <v>37.52000045776367</v>
       </c>
       <c r="D120">
-        <v>32.54000091552734</v>
+        <v>37.88000106811523</v>
       </c>
       <c r="E120">
-        <v>32.54000091552734</v>
+        <v>37.88000106811523</v>
       </c>
       <c r="F120">
-        <v>25872900</v>
+        <v>96743300</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>34.13000106811523</v>
+        <v>35.5099983215332</v>
       </c>
       <c r="B121">
-        <v>34.20000076293945</v>
+        <v>37.7599983215332</v>
       </c>
       <c r="C121">
-        <v>32.20999908447266</v>
+        <v>34.86999893188477</v>
       </c>
       <c r="D121">
-        <v>33.65999984741211</v>
+        <v>37.56000137329102</v>
       </c>
       <c r="E121">
-        <v>33.65999984741211</v>
+        <v>37.56000137329102</v>
       </c>
       <c r="F121">
-        <v>28108900</v>
+        <v>85621100</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>34.15000152587891</v>
+        <v>37.7400016784668</v>
       </c>
       <c r="B122">
-        <v>34.24499893188477</v>
+        <v>40.33000183105469</v>
       </c>
       <c r="C122">
-        <v>31.72999954223633</v>
+        <v>37.11000061035156</v>
       </c>
       <c r="D122">
-        <v>32.06999969482422</v>
+        <v>40.27999877929688</v>
       </c>
       <c r="E122">
-        <v>32.06999969482422</v>
+        <v>40.27999877929688</v>
       </c>
       <c r="F122">
-        <v>41654600</v>
+        <v>67166800</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>25.73999977111816</v>
+        <v>38.5099983215332</v>
       </c>
       <c r="B123">
-        <v>26.48999977111816</v>
+        <v>41.97000122070312</v>
       </c>
       <c r="C123">
-        <v>24.31999969482422</v>
+        <v>38.50500106811523</v>
       </c>
       <c r="D123">
-        <v>24.5</v>
+        <v>40.61999893188477</v>
       </c>
       <c r="E123">
-        <v>24.5</v>
+        <v>40.61999893188477</v>
       </c>
       <c r="F123">
-        <v>149336000</v>
+        <v>65264300</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>35.27000045776367</v>
+        <v>40.38000106811523</v>
       </c>
       <c r="B124">
-        <v>40.65000152587891</v>
+        <v>41.97000122070312</v>
       </c>
       <c r="C124">
-        <v>34.09999847412109</v>
+        <v>39.06999969482422</v>
       </c>
       <c r="D124">
-        <v>38.90999984741211</v>
+        <v>39.4900016784668</v>
       </c>
       <c r="E124">
-        <v>38.90999984741211</v>
+        <v>39.4900016784668</v>
       </c>
       <c r="F124">
-        <v>308020500</v>
+        <v>42721700</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>38.5099983215332</v>
+        <v>39.95999908447266</v>
       </c>
       <c r="B125">
-        <v>39.59000015258789</v>
+        <v>41.88999938964844</v>
       </c>
       <c r="C125">
-        <v>37.52000045776367</v>
+        <v>39.5</v>
       </c>
       <c r="D125">
-        <v>37.88000106811523</v>
+        <v>39.61999893188477</v>
       </c>
       <c r="E125">
-        <v>37.88000106811523</v>
+        <v>39.61999893188477</v>
       </c>
       <c r="F125">
-        <v>96743300</v>
+        <v>37579800</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>35.5099983215332</v>
+        <v>40.15999984741211</v>
       </c>
       <c r="B126">
-        <v>37.7599983215332</v>
+        <v>41.45999908447266</v>
       </c>
       <c r="C126">
-        <v>34.86999893188477</v>
+        <v>39.93999862670898</v>
       </c>
       <c r="D126">
-        <v>37.56000137329102</v>
+        <v>41.43000030517578</v>
       </c>
       <c r="E126">
-        <v>37.56000137329102</v>
+        <v>41.43000030517578</v>
       </c>
       <c r="F126">
-        <v>85621100</v>
+        <v>26091600</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127">
-        <v>37.7400016784668</v>
+        <v>38.95999908447266</v>
       </c>
       <c r="B127">
-        <v>40.33000183105469</v>
+        <v>40.59999847412109</v>
       </c>
       <c r="C127">
-        <v>37.11000061035156</v>
+        <v>38.95999908447266</v>
       </c>
       <c r="D127">
-        <v>40.27999877929688</v>
+        <v>40.0099983215332</v>
       </c>
       <c r="E127">
-        <v>40.27999877929688</v>
+        <v>40.0099983215332</v>
       </c>
       <c r="F127">
-        <v>67166800</v>
+        <v>35643500</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128">
-        <v>38.5099983215332</v>
+        <v>40.45000076293945</v>
       </c>
       <c r="B128">
-        <v>41.97000122070312</v>
+        <v>40.81999969482422</v>
       </c>
       <c r="C128">
-        <v>38.50500106811523</v>
+        <v>39.16999816894531</v>
       </c>
       <c r="D128">
-        <v>40.61999893188477</v>
+        <v>39.45000076293945</v>
       </c>
       <c r="E128">
-        <v>40.61999893188477</v>
+        <v>39.45000076293945</v>
       </c>
       <c r="F128">
-        <v>65264300</v>
+        <v>24624400</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129">
-        <v>40.38000106811523</v>
+        <v>39.61000061035156</v>
       </c>
       <c r="B129">
-        <v>41.97000122070312</v>
+        <v>40.40000152587891</v>
       </c>
       <c r="C129">
-        <v>39.06999969482422</v>
+        <v>37.93999862670898</v>
       </c>
       <c r="D129">
-        <v>39.4900016784668</v>
+        <v>38.0099983215332</v>
       </c>
       <c r="E129">
-        <v>39.4900016784668</v>
+        <v>38.0099983215332</v>
       </c>
       <c r="F129">
-        <v>42721700</v>
+        <v>23024100</v>
       </c>
     </row>
   </sheetData>

--- a/Stocks/SNAP/HighLow.xlsx
+++ b/Stocks/SNAP/HighLow.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F129"/>
+  <dimension ref="A1:F128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,2562 +417,2542 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>70.5</v>
+        <v>74.72000122070312</v>
       </c>
       <c r="B2">
-        <v>72.54499816894531</v>
+        <v>74.94999694824219</v>
       </c>
       <c r="C2">
-        <v>70.40000152587891</v>
+        <v>71.51200103759766</v>
       </c>
       <c r="D2">
-        <v>70.86000061035156</v>
+        <v>71.61000061035156</v>
       </c>
       <c r="E2">
-        <v>70.86000061035156</v>
+        <v>71.61000061035156</v>
       </c>
       <c r="F2">
-        <v>8874500</v>
+        <v>19872400</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>71.19999694824219</v>
+        <v>72.18000030517578</v>
       </c>
       <c r="B3">
-        <v>72.97000122070312</v>
+        <v>73.87999725341797</v>
       </c>
       <c r="C3">
-        <v>70.80000305175781</v>
+        <v>71.66000366210938</v>
       </c>
       <c r="D3">
-        <v>72.72000122070312</v>
+        <v>73.12000274658203</v>
       </c>
       <c r="E3">
-        <v>72.72000122070312</v>
+        <v>73.12000274658203</v>
       </c>
       <c r="F3">
-        <v>8607700</v>
+        <v>10115800</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>74.01000213623047</v>
+        <v>73.30000305175781</v>
       </c>
       <c r="B4">
-        <v>75.93000030517578</v>
+        <v>75</v>
       </c>
       <c r="C4">
-        <v>73.66999816894531</v>
+        <v>71.77999877929688</v>
       </c>
       <c r="D4">
-        <v>75.5</v>
+        <v>74.51000213623047</v>
       </c>
       <c r="E4">
-        <v>75.5</v>
+        <v>74.51000213623047</v>
       </c>
       <c r="F4">
-        <v>11055900</v>
+        <v>8825300</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>75.81999969482422</v>
+        <v>74.86000061035156</v>
       </c>
       <c r="B5">
-        <v>76.37000274658203</v>
+        <v>77.87999725341797</v>
       </c>
       <c r="C5">
-        <v>73.72000122070312</v>
+        <v>74.09999847412109</v>
       </c>
       <c r="D5">
-        <v>74.62999725341797</v>
+        <v>76.11000061035156</v>
       </c>
       <c r="E5">
-        <v>74.62999725341797</v>
+        <v>76.11000061035156</v>
       </c>
       <c r="F5">
-        <v>9663800</v>
+        <v>18475200</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>74.30999755859375</v>
+        <v>75.98000335693359</v>
       </c>
       <c r="B6">
-        <v>74.97599792480469</v>
+        <v>77.25</v>
       </c>
       <c r="C6">
-        <v>73.48999786376953</v>
+        <v>73.69000244140625</v>
       </c>
       <c r="D6">
-        <v>74.69000244140625</v>
+        <v>74.16999816894531</v>
       </c>
       <c r="E6">
-        <v>74.69000244140625</v>
+        <v>74.16999816894531</v>
       </c>
       <c r="F6">
-        <v>7901400</v>
+        <v>15642300</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>74.72000122070312</v>
+        <v>74.59999847412109</v>
       </c>
       <c r="B7">
-        <v>74.94999694824219</v>
+        <v>76.19999694824219</v>
       </c>
       <c r="C7">
-        <v>71.51200103759766</v>
+        <v>73.59999847412109</v>
       </c>
       <c r="D7">
-        <v>71.61000061035156</v>
+        <v>73.91999816894531</v>
       </c>
       <c r="E7">
-        <v>71.61000061035156</v>
+        <v>73.91999816894531</v>
       </c>
       <c r="F7">
-        <v>19872400</v>
+        <v>12178500</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>72.18000030517578</v>
+        <v>73.91999816894531</v>
       </c>
       <c r="B8">
-        <v>73.87999725341797</v>
+        <v>75.47000122070312</v>
       </c>
       <c r="C8">
-        <v>71.66000366210938</v>
+        <v>72.93000030517578</v>
       </c>
       <c r="D8">
-        <v>73.12000274658203</v>
+        <v>75.08000183105469</v>
       </c>
       <c r="E8">
-        <v>73.12000274658203</v>
+        <v>75.08000183105469</v>
       </c>
       <c r="F8">
-        <v>10115800</v>
+        <v>9237100</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>73.30000305175781</v>
+        <v>75.83000183105469</v>
       </c>
       <c r="B9">
-        <v>75</v>
+        <v>76.83999633789062</v>
       </c>
       <c r="C9">
-        <v>71.77999877929688</v>
+        <v>74.052001953125</v>
       </c>
       <c r="D9">
-        <v>74.51000213623047</v>
+        <v>76.48999786376953</v>
       </c>
       <c r="E9">
-        <v>74.51000213623047</v>
+        <v>76.48999786376953</v>
       </c>
       <c r="F9">
-        <v>8825300</v>
+        <v>11735200</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>74.86000061035156</v>
+        <v>76.22000122070312</v>
       </c>
       <c r="B10">
-        <v>77.87999725341797</v>
+        <v>76.69999694824219</v>
       </c>
       <c r="C10">
-        <v>74.09999847412109</v>
+        <v>73.23000335693359</v>
       </c>
       <c r="D10">
-        <v>76.11000061035156</v>
+        <v>74.12999725341797</v>
       </c>
       <c r="E10">
-        <v>76.11000061035156</v>
+        <v>74.12999725341797</v>
       </c>
       <c r="F10">
-        <v>18475200</v>
+        <v>11538900</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>75.98000335693359</v>
+        <v>74.11000061035156</v>
       </c>
       <c r="B11">
-        <v>77.25</v>
+        <v>75.66600036621094</v>
       </c>
       <c r="C11">
-        <v>73.69000244140625</v>
+        <v>73.54000091552734</v>
       </c>
       <c r="D11">
-        <v>74.16999816894531</v>
+        <v>74.62000274658203</v>
       </c>
       <c r="E11">
-        <v>74.16999816894531</v>
+        <v>74.62000274658203</v>
       </c>
       <c r="F11">
-        <v>15642300</v>
+        <v>10564300</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>74.59999847412109</v>
+        <v>75.25</v>
       </c>
       <c r="B12">
-        <v>76.19999694824219</v>
+        <v>75.98999786376953</v>
       </c>
       <c r="C12">
-        <v>73.59999847412109</v>
+        <v>74.27500152587891</v>
       </c>
       <c r="D12">
-        <v>73.91999816894531</v>
+        <v>74.5</v>
       </c>
       <c r="E12">
-        <v>73.91999816894531</v>
+        <v>74.5</v>
       </c>
       <c r="F12">
-        <v>12178500</v>
+        <v>9209900</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>73.91999816894531</v>
+        <v>75.61000061035156</v>
       </c>
       <c r="B13">
-        <v>75.47000122070312</v>
+        <v>75.61000061035156</v>
       </c>
       <c r="C13">
-        <v>72.93000030517578</v>
+        <v>69.81999969482422</v>
       </c>
       <c r="D13">
-        <v>75.08000183105469</v>
+        <v>71.26000213623047</v>
       </c>
       <c r="E13">
-        <v>75.08000183105469</v>
+        <v>71.26000213623047</v>
       </c>
       <c r="F13">
-        <v>9237100</v>
+        <v>19913400</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>75.83000183105469</v>
+        <v>71.69000244140625</v>
       </c>
       <c r="B14">
-        <v>76.83999633789062</v>
+        <v>72.79000091552734</v>
       </c>
       <c r="C14">
-        <v>74.052001953125</v>
+        <v>70.80999755859375</v>
       </c>
       <c r="D14">
-        <v>76.48999786376953</v>
+        <v>71.30999755859375</v>
       </c>
       <c r="E14">
-        <v>76.48999786376953</v>
+        <v>71.30999755859375</v>
       </c>
       <c r="F14">
-        <v>11735200</v>
+        <v>11083000</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>76.22000122070312</v>
+        <v>71.33000183105469</v>
       </c>
       <c r="B15">
-        <v>76.69999694824219</v>
+        <v>73.62000274658203</v>
       </c>
       <c r="C15">
-        <v>73.23000335693359</v>
+        <v>70.37000274658203</v>
       </c>
       <c r="D15">
-        <v>74.12999725341797</v>
+        <v>73.62000274658203</v>
       </c>
       <c r="E15">
-        <v>74.12999725341797</v>
+        <v>73.62000274658203</v>
       </c>
       <c r="F15">
-        <v>11538900</v>
+        <v>10890100</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>74.11000061035156</v>
+        <v>73.29000091552734</v>
       </c>
       <c r="B16">
-        <v>75.66600036621094</v>
+        <v>73.41000366210938</v>
       </c>
       <c r="C16">
-        <v>73.54000091552734</v>
+        <v>71.51999664306641</v>
       </c>
       <c r="D16">
-        <v>74.62000274658203</v>
+        <v>72.48000335693359</v>
       </c>
       <c r="E16">
-        <v>74.62000274658203</v>
+        <v>72.48000335693359</v>
       </c>
       <c r="F16">
-        <v>10564300</v>
+        <v>16878500</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>75.25</v>
+        <v>72.41999816894531</v>
       </c>
       <c r="B17">
-        <v>75.98999786376953</v>
+        <v>75.62999725341797</v>
       </c>
       <c r="C17">
-        <v>74.27500152587891</v>
+        <v>72.40000152587891</v>
       </c>
       <c r="D17">
-        <v>74.5</v>
+        <v>74.76000213623047</v>
       </c>
       <c r="E17">
-        <v>74.5</v>
+        <v>74.76000213623047</v>
       </c>
       <c r="F17">
-        <v>9209900</v>
+        <v>20858800</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>75.61000061035156</v>
+        <v>72.375</v>
       </c>
       <c r="B18">
-        <v>75.61000061035156</v>
+        <v>73.13999938964844</v>
       </c>
       <c r="C18">
-        <v>69.81999969482422</v>
+        <v>70.10900115966797</v>
       </c>
       <c r="D18">
-        <v>71.26000213623047</v>
+        <v>71.73000335693359</v>
       </c>
       <c r="E18">
-        <v>71.26000213623047</v>
+        <v>71.73000335693359</v>
       </c>
       <c r="F18">
-        <v>19913400</v>
+        <v>13834900</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>71.69000244140625</v>
+        <v>72.76000213623047</v>
       </c>
       <c r="B19">
-        <v>72.79000091552734</v>
+        <v>76.37000274658203</v>
       </c>
       <c r="C19">
-        <v>70.80999755859375</v>
+        <v>72.59999847412109</v>
       </c>
       <c r="D19">
-        <v>71.30999755859375</v>
+        <v>76.08999633789062</v>
       </c>
       <c r="E19">
-        <v>71.30999755859375</v>
+        <v>76.08999633789062</v>
       </c>
       <c r="F19">
-        <v>11083000</v>
+        <v>18129600</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>71.33000183105469</v>
+        <v>74.37000274658203</v>
       </c>
       <c r="B20">
-        <v>73.62000274658203</v>
+        <v>79.63999938964844</v>
       </c>
       <c r="C20">
-        <v>70.37000274658203</v>
+        <v>74.01999664306641</v>
       </c>
       <c r="D20">
-        <v>73.62000274658203</v>
+        <v>78.59999847412109</v>
       </c>
       <c r="E20">
-        <v>73.62000274658203</v>
+        <v>78.59999847412109</v>
       </c>
       <c r="F20">
-        <v>10890100</v>
+        <v>26999200</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>73.29000091552734</v>
+        <v>78.97000122070312</v>
       </c>
       <c r="B21">
-        <v>73.41000366210938</v>
+        <v>80.09999847412109</v>
       </c>
       <c r="C21">
-        <v>71.51999664306641</v>
+        <v>77.45999908447266</v>
       </c>
       <c r="D21">
-        <v>72.48000335693359</v>
+        <v>79.37000274658203</v>
       </c>
       <c r="E21">
-        <v>72.48000335693359</v>
+        <v>79.37000274658203</v>
       </c>
       <c r="F21">
-        <v>16878500</v>
+        <v>20944600</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>72.41999816894531</v>
+        <v>78.94000244140625</v>
       </c>
       <c r="B22">
-        <v>75.62999725341797</v>
+        <v>83.33999633789062</v>
       </c>
       <c r="C22">
-        <v>72.40000152587891</v>
+        <v>78.11000061035156</v>
       </c>
       <c r="D22">
-        <v>74.76000213623047</v>
+        <v>83.11000061035156</v>
       </c>
       <c r="E22">
-        <v>74.76000213623047</v>
+        <v>83.11000061035156</v>
       </c>
       <c r="F22">
-        <v>20858800</v>
+        <v>29039000</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>72.375</v>
+        <v>82</v>
       </c>
       <c r="B23">
-        <v>73.13999938964844</v>
+        <v>82.61000061035156</v>
       </c>
       <c r="C23">
-        <v>70.10900115966797</v>
+        <v>79.31999969482422</v>
       </c>
       <c r="D23">
-        <v>71.73000335693359</v>
+        <v>80.08000183105469</v>
       </c>
       <c r="E23">
-        <v>71.73000335693359</v>
+        <v>80.08000183105469</v>
       </c>
       <c r="F23">
-        <v>13834900</v>
+        <v>18493300</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>72.76000213623047</v>
+        <v>78.54000091552734</v>
       </c>
       <c r="B24">
-        <v>76.37000274658203</v>
+        <v>79.41000366210938</v>
       </c>
       <c r="C24">
-        <v>72.59999847412109</v>
+        <v>73.88999938964844</v>
       </c>
       <c r="D24">
-        <v>76.08999633789062</v>
+        <v>74.41999816894531</v>
       </c>
       <c r="E24">
-        <v>76.08999633789062</v>
+        <v>74.41999816894531</v>
       </c>
       <c r="F24">
-        <v>18129600</v>
+        <v>23531900</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>74.37000274658203</v>
+        <v>75.30000305175781</v>
       </c>
       <c r="B25">
-        <v>79.63999938964844</v>
+        <v>76.08999633789062</v>
       </c>
       <c r="C25">
-        <v>74.01999664306641</v>
+        <v>71.55999755859375</v>
       </c>
       <c r="D25">
-        <v>78.59999847412109</v>
+        <v>71.76000213623047</v>
       </c>
       <c r="E25">
-        <v>78.59999847412109</v>
+        <v>71.76000213623047</v>
       </c>
       <c r="F25">
-        <v>26999200</v>
+        <v>18633700</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>78.97000122070312</v>
+        <v>72.91999816894531</v>
       </c>
       <c r="B26">
-        <v>80.09999847412109</v>
+        <v>75.24700164794922</v>
       </c>
       <c r="C26">
-        <v>77.45999908447266</v>
+        <v>72.23999786376953</v>
       </c>
       <c r="D26">
-        <v>79.37000274658203</v>
+        <v>73.87000274658203</v>
       </c>
       <c r="E26">
-        <v>79.37000274658203</v>
+        <v>73.87000274658203</v>
       </c>
       <c r="F26">
-        <v>20944600</v>
+        <v>17166400</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>78.94000244140625</v>
+        <v>74.81999969482422</v>
       </c>
       <c r="B27">
-        <v>83.33999633789062</v>
+        <v>75.88999938964844</v>
       </c>
       <c r="C27">
-        <v>78.11000061035156</v>
+        <v>73.44000244140625</v>
       </c>
       <c r="D27">
-        <v>83.11000061035156</v>
+        <v>75.25</v>
       </c>
       <c r="E27">
-        <v>83.11000061035156</v>
+        <v>75.25</v>
       </c>
       <c r="F27">
-        <v>29039000</v>
+        <v>11689700</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>82</v>
+        <v>74.02999877929688</v>
       </c>
       <c r="B28">
-        <v>82.61000061035156</v>
+        <v>74.19999694824219</v>
       </c>
       <c r="C28">
-        <v>79.31999969482422</v>
+        <v>69.97000122070312</v>
       </c>
       <c r="D28">
-        <v>80.08000183105469</v>
+        <v>71.23000335693359</v>
       </c>
       <c r="E28">
-        <v>80.08000183105469</v>
+        <v>71.23000335693359</v>
       </c>
       <c r="F28">
-        <v>18493300</v>
+        <v>18142600</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>78.54000091552734</v>
+        <v>72.18000030517578</v>
       </c>
       <c r="B29">
-        <v>79.41000366210938</v>
+        <v>73.91000366210938</v>
       </c>
       <c r="C29">
-        <v>73.88999938964844</v>
+        <v>71.79000091552734</v>
       </c>
       <c r="D29">
-        <v>74.41999816894531</v>
+        <v>73.41000366210938</v>
       </c>
       <c r="E29">
-        <v>74.41999816894531</v>
+        <v>73.41000366210938</v>
       </c>
       <c r="F29">
-        <v>23531900</v>
+        <v>11896500</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>75.30000305175781</v>
+        <v>72.37000274658203</v>
       </c>
       <c r="B30">
-        <v>76.08999633789062</v>
+        <v>74.5</v>
       </c>
       <c r="C30">
-        <v>71.55999755859375</v>
+        <v>71.31999969482422</v>
       </c>
       <c r="D30">
-        <v>71.76000213623047</v>
+        <v>73.12999725341797</v>
       </c>
       <c r="E30">
-        <v>71.76000213623047</v>
+        <v>73.12999725341797</v>
       </c>
       <c r="F30">
-        <v>18633700</v>
+        <v>10927300</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>72.91999816894531</v>
+        <v>74.36000061035156</v>
       </c>
       <c r="B31">
-        <v>75.24700164794922</v>
+        <v>77.41000366210938</v>
       </c>
       <c r="C31">
-        <v>72.23999786376953</v>
+        <v>74.09999847412109</v>
       </c>
       <c r="D31">
-        <v>73.87000274658203</v>
+        <v>76.27999877929688</v>
       </c>
       <c r="E31">
-        <v>73.87000274658203</v>
+        <v>76.27999877929688</v>
       </c>
       <c r="F31">
-        <v>17166400</v>
+        <v>15547400</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>74.81999969482422</v>
+        <v>76.91000366210938</v>
       </c>
       <c r="B32">
-        <v>75.88999938964844</v>
+        <v>77.41000366210938</v>
       </c>
       <c r="C32">
-        <v>73.44000244140625</v>
+        <v>74.73999786376953</v>
       </c>
       <c r="D32">
-        <v>75.25</v>
+        <v>75</v>
       </c>
       <c r="E32">
-        <v>75.25</v>
+        <v>75</v>
       </c>
       <c r="F32">
-        <v>11689700</v>
+        <v>8906100</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>74.02999877929688</v>
+        <v>74.65000152587891</v>
       </c>
       <c r="B33">
-        <v>74.19999694824219</v>
+        <v>75.59999847412109</v>
       </c>
       <c r="C33">
-        <v>69.97000122070312</v>
+        <v>73.5</v>
       </c>
       <c r="D33">
-        <v>71.23000335693359</v>
+        <v>73.52999877929688</v>
       </c>
       <c r="E33">
-        <v>71.23000335693359</v>
+        <v>73.52999877929688</v>
       </c>
       <c r="F33">
-        <v>18142600</v>
+        <v>8990800</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>72.18000030517578</v>
+        <v>74.12000274658203</v>
       </c>
       <c r="B34">
-        <v>73.91000366210938</v>
+        <v>75.98000335693359</v>
       </c>
       <c r="C34">
-        <v>71.79000091552734</v>
+        <v>73.52999877929688</v>
       </c>
       <c r="D34">
-        <v>73.41000366210938</v>
+        <v>75.26000213623047</v>
       </c>
       <c r="E34">
-        <v>73.41000366210938</v>
+        <v>75.26000213623047</v>
       </c>
       <c r="F34">
-        <v>11896500</v>
+        <v>13691100</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>72.37000274658203</v>
+        <v>76.15000152587891</v>
       </c>
       <c r="B35">
-        <v>74.5</v>
+        <v>76.30899810791016</v>
       </c>
       <c r="C35">
-        <v>71.31999969482422</v>
+        <v>74.30000305175781</v>
       </c>
       <c r="D35">
-        <v>73.12999725341797</v>
+        <v>74.94999694824219</v>
       </c>
       <c r="E35">
-        <v>73.12999725341797</v>
+        <v>74.94999694824219</v>
       </c>
       <c r="F35">
-        <v>10927300</v>
+        <v>9998900</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>74.36000061035156</v>
+        <v>77.05999755859375</v>
       </c>
       <c r="B36">
-        <v>77.41000366210938</v>
+        <v>77.23000335693359</v>
       </c>
       <c r="C36">
-        <v>74.09999847412109</v>
+        <v>75.72499847412109</v>
       </c>
       <c r="D36">
-        <v>76.27999877929688</v>
+        <v>76.63999938964844</v>
       </c>
       <c r="E36">
-        <v>76.27999877929688</v>
+        <v>76.63999938964844</v>
       </c>
       <c r="F36">
-        <v>15547400</v>
+        <v>12948800</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>76.91000366210938</v>
+        <v>76.80999755859375</v>
       </c>
       <c r="B37">
-        <v>77.41000366210938</v>
+        <v>78.73500061035156</v>
       </c>
       <c r="C37">
-        <v>74.73999786376953</v>
+        <v>75.87000274658203</v>
       </c>
       <c r="D37">
-        <v>75</v>
+        <v>77.33999633789062</v>
       </c>
       <c r="E37">
-        <v>75</v>
+        <v>77.33999633789062</v>
       </c>
       <c r="F37">
-        <v>8906100</v>
+        <v>20404200</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>74.65000152587891</v>
+        <v>78.59999847412109</v>
       </c>
       <c r="B38">
-        <v>75.59999847412109</v>
+        <v>79.30000305175781</v>
       </c>
       <c r="C38">
-        <v>73.5</v>
+        <v>72.61000061035156</v>
       </c>
       <c r="D38">
-        <v>73.52999877929688</v>
+        <v>75.80000305175781</v>
       </c>
       <c r="E38">
-        <v>73.52999877929688</v>
+        <v>75.80000305175781</v>
       </c>
       <c r="F38">
-        <v>8990800</v>
+        <v>33053900</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>74.12000274658203</v>
+        <v>75.12000274658203</v>
       </c>
       <c r="B39">
-        <v>75.98000335693359</v>
+        <v>78.18000030517578</v>
       </c>
       <c r="C39">
-        <v>73.52999877929688</v>
+        <v>73.90000152587891</v>
       </c>
       <c r="D39">
-        <v>75.26000213623047</v>
+        <v>76.43000030517578</v>
       </c>
       <c r="E39">
-        <v>75.26000213623047</v>
+        <v>76.43000030517578</v>
       </c>
       <c r="F39">
-        <v>13691100</v>
+        <v>18720700</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>76.15000152587891</v>
+        <v>76.56999969482422</v>
       </c>
       <c r="B40">
-        <v>76.30899810791016</v>
+        <v>77.51999664306641</v>
       </c>
       <c r="C40">
-        <v>74.30000305175781</v>
+        <v>74.66999816894531</v>
       </c>
       <c r="D40">
-        <v>74.94999694824219</v>
+        <v>75.65000152587891</v>
       </c>
       <c r="E40">
-        <v>74.94999694824219</v>
+        <v>75.65000152587891</v>
       </c>
       <c r="F40">
-        <v>9998900</v>
+        <v>15739300</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>77.05999755859375</v>
+        <v>74.80999755859375</v>
       </c>
       <c r="B41">
-        <v>77.23000335693359</v>
+        <v>75.94999694824219</v>
       </c>
       <c r="C41">
-        <v>75.72499847412109</v>
+        <v>73.88999938964844</v>
       </c>
       <c r="D41">
-        <v>76.63999938964844</v>
+        <v>75.11000061035156</v>
       </c>
       <c r="E41">
-        <v>76.63999938964844</v>
+        <v>75.11000061035156</v>
       </c>
       <c r="F41">
-        <v>12948800</v>
+        <v>44450900</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>76.80999755859375</v>
+        <v>58.75</v>
       </c>
       <c r="B42">
-        <v>78.73500061035156</v>
+        <v>60.77999877929688</v>
       </c>
       <c r="C42">
-        <v>75.87000274658203</v>
+        <v>55.02999877929688</v>
       </c>
       <c r="D42">
-        <v>77.33999633789062</v>
+        <v>55.13999938964844</v>
       </c>
       <c r="E42">
-        <v>77.33999633789062</v>
+        <v>55.13999938964844</v>
       </c>
       <c r="F42">
-        <v>20404200</v>
+        <v>153827500</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>78.59999847412109</v>
+        <v>55.95999908447266</v>
       </c>
       <c r="B43">
-        <v>79.30000305175781</v>
+        <v>56.15000152587891</v>
       </c>
       <c r="C43">
-        <v>72.61000061035156</v>
+        <v>53.77000045776367</v>
       </c>
       <c r="D43">
-        <v>75.80000305175781</v>
+        <v>54.5</v>
       </c>
       <c r="E43">
-        <v>75.80000305175781</v>
+        <v>54.5</v>
       </c>
       <c r="F43">
-        <v>33053900</v>
+        <v>62506800</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>75.12000274658203</v>
+        <v>55.2400016784668</v>
       </c>
       <c r="B44">
-        <v>78.18000030517578</v>
+        <v>57.18000030517578</v>
       </c>
       <c r="C44">
-        <v>73.90000152587891</v>
+        <v>54.88000106811523</v>
       </c>
       <c r="D44">
-        <v>76.43000030517578</v>
+        <v>55.38999938964844</v>
       </c>
       <c r="E44">
-        <v>76.43000030517578</v>
+        <v>55.38999938964844</v>
       </c>
       <c r="F44">
-        <v>18720700</v>
+        <v>52905700</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>76.56999969482422</v>
+        <v>55.04999923706055</v>
       </c>
       <c r="B45">
-        <v>77.51999664306641</v>
+        <v>55.22999954223633</v>
       </c>
       <c r="C45">
-        <v>74.66999816894531</v>
+        <v>51.65999984741211</v>
       </c>
       <c r="D45">
-        <v>75.65000152587891</v>
+        <v>52.02000045776367</v>
       </c>
       <c r="E45">
-        <v>75.65000152587891</v>
+        <v>52.02000045776367</v>
       </c>
       <c r="F45">
-        <v>15739300</v>
+        <v>52581300</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>74.80999755859375</v>
+        <v>52.68000030517578</v>
       </c>
       <c r="B46">
-        <v>75.94999694824219</v>
+        <v>54.95999908447266</v>
       </c>
       <c r="C46">
-        <v>73.88999938964844</v>
+        <v>51.9900016784668</v>
       </c>
       <c r="D46">
-        <v>75.11000061035156</v>
+        <v>54.38999938964844</v>
       </c>
       <c r="E46">
-        <v>75.11000061035156</v>
+        <v>54.38999938964844</v>
       </c>
       <c r="F46">
-        <v>44450900</v>
+        <v>34748800</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>58.75</v>
+        <v>53.97000122070312</v>
       </c>
       <c r="B47">
-        <v>60.77999877929688</v>
+        <v>53.9900016784668</v>
       </c>
       <c r="C47">
-        <v>55.02999877929688</v>
+        <v>52.20999908447266</v>
       </c>
       <c r="D47">
-        <v>55.13999938964844</v>
+        <v>52.58000183105469</v>
       </c>
       <c r="E47">
-        <v>55.13999938964844</v>
+        <v>52.58000183105469</v>
       </c>
       <c r="F47">
-        <v>153827500</v>
+        <v>32465500</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>55.95999908447266</v>
+        <v>52.9900016784668</v>
       </c>
       <c r="B48">
-        <v>56.15000152587891</v>
+        <v>54.11000061035156</v>
       </c>
       <c r="C48">
-        <v>53.77000045776367</v>
+        <v>52.25</v>
       </c>
       <c r="D48">
-        <v>54.5</v>
+        <v>53.97999954223633</v>
       </c>
       <c r="E48">
-        <v>54.5</v>
+        <v>53.97999954223633</v>
       </c>
       <c r="F48">
-        <v>62506800</v>
+        <v>22666700</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>55.2400016784668</v>
+        <v>53.56999969482422</v>
       </c>
       <c r="B49">
-        <v>57.18000030517578</v>
+        <v>53.65999984741211</v>
       </c>
       <c r="C49">
-        <v>54.88000106811523</v>
+        <v>51.8650016784668</v>
       </c>
       <c r="D49">
-        <v>55.38999938964844</v>
+        <v>52.20000076293945</v>
       </c>
       <c r="E49">
-        <v>55.38999938964844</v>
+        <v>52.20000076293945</v>
       </c>
       <c r="F49">
-        <v>52905700</v>
+        <v>24120400</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>55.04999923706055</v>
+        <v>51.95000076293945</v>
       </c>
       <c r="B50">
-        <v>55.22999954223633</v>
+        <v>52.97000122070312</v>
       </c>
       <c r="C50">
-        <v>51.65999984741211</v>
+        <v>51.47000122070312</v>
       </c>
       <c r="D50">
-        <v>52.02000045776367</v>
+        <v>52.93999862670898</v>
       </c>
       <c r="E50">
-        <v>52.02000045776367</v>
+        <v>52.93999862670898</v>
       </c>
       <c r="F50">
-        <v>52581300</v>
+        <v>16319300</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>52.68000030517578</v>
+        <v>53.08000183105469</v>
       </c>
       <c r="B51">
-        <v>54.95999908447266</v>
+        <v>53.38000106811523</v>
       </c>
       <c r="C51">
-        <v>51.9900016784668</v>
+        <v>51.7599983215332</v>
       </c>
       <c r="D51">
-        <v>54.38999938964844</v>
+        <v>52.2599983215332</v>
       </c>
       <c r="E51">
-        <v>54.38999938964844</v>
+        <v>52.2599983215332</v>
       </c>
       <c r="F51">
-        <v>34748800</v>
+        <v>16371700</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>53.97000122070312</v>
+        <v>52.15000152587891</v>
       </c>
       <c r="B52">
-        <v>53.9900016784668</v>
+        <v>53.56999969482422</v>
       </c>
       <c r="C52">
-        <v>52.20999908447266</v>
+        <v>52.06999969482422</v>
       </c>
       <c r="D52">
-        <v>52.58000183105469</v>
+        <v>53.16999816894531</v>
       </c>
       <c r="E52">
-        <v>52.58000183105469</v>
+        <v>53.16999816894531</v>
       </c>
       <c r="F52">
-        <v>32465500</v>
+        <v>17447500</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>52.9900016784668</v>
+        <v>53.36000061035156</v>
       </c>
       <c r="B53">
-        <v>54.11000061035156</v>
+        <v>55.13000106811523</v>
       </c>
       <c r="C53">
-        <v>52.25</v>
+        <v>52.84999847412109</v>
       </c>
       <c r="D53">
-        <v>53.97999954223633</v>
+        <v>54.90000152587891</v>
       </c>
       <c r="E53">
-        <v>53.97999954223633</v>
+        <v>54.90000152587891</v>
       </c>
       <c r="F53">
-        <v>22666700</v>
+        <v>20154600</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>53.56999969482422</v>
+        <v>55.29499816894531</v>
       </c>
       <c r="B54">
-        <v>53.65999984741211</v>
+        <v>55.65000152587891</v>
       </c>
       <c r="C54">
-        <v>51.8650016784668</v>
+        <v>54.20000076293945</v>
       </c>
       <c r="D54">
-        <v>52.20000076293945</v>
+        <v>54.81999969482422</v>
       </c>
       <c r="E54">
-        <v>52.20000076293945</v>
+        <v>54.81999969482422</v>
       </c>
       <c r="F54">
-        <v>24120400</v>
+        <v>12489000</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>51.95000076293945</v>
+        <v>53.90999984741211</v>
       </c>
       <c r="B55">
-        <v>52.97000122070312</v>
+        <v>54.16999816894531</v>
       </c>
       <c r="C55">
-        <v>51.47000122070312</v>
+        <v>52.02000045776367</v>
       </c>
       <c r="D55">
-        <v>52.93999862670898</v>
+        <v>52.88000106811523</v>
       </c>
       <c r="E55">
-        <v>52.93999862670898</v>
+        <v>52.88000106811523</v>
       </c>
       <c r="F55">
-        <v>16319300</v>
+        <v>14812400</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>53.08000183105469</v>
+        <v>53.45999908447266</v>
       </c>
       <c r="B56">
-        <v>53.38000106811523</v>
+        <v>54.59000015258789</v>
       </c>
       <c r="C56">
-        <v>51.7599983215332</v>
+        <v>53.20000076293945</v>
       </c>
       <c r="D56">
-        <v>52.2599983215332</v>
+        <v>53.29000091552734</v>
       </c>
       <c r="E56">
-        <v>52.2599983215332</v>
+        <v>53.29000091552734</v>
       </c>
       <c r="F56">
-        <v>16371700</v>
+        <v>13322000</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>52.15000152587891</v>
+        <v>53.81999969482422</v>
       </c>
       <c r="B57">
-        <v>53.56999969482422</v>
+        <v>54.06999969482422</v>
       </c>
       <c r="C57">
-        <v>52.06999969482422</v>
+        <v>52.81999969482422</v>
       </c>
       <c r="D57">
-        <v>53.16999816894531</v>
+        <v>53.70000076293945</v>
       </c>
       <c r="E57">
-        <v>53.16999816894531</v>
+        <v>53.70000076293945</v>
       </c>
       <c r="F57">
-        <v>17447500</v>
+        <v>12960100</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>53.36000061035156</v>
+        <v>54.13999938964844</v>
       </c>
       <c r="B58">
-        <v>55.13000106811523</v>
+        <v>57.13999938964844</v>
       </c>
       <c r="C58">
-        <v>52.84999847412109</v>
+        <v>54.11999893188477</v>
       </c>
       <c r="D58">
-        <v>54.90000152587891</v>
+        <v>55.52999877929688</v>
       </c>
       <c r="E58">
-        <v>54.90000152587891</v>
+        <v>55.52999877929688</v>
       </c>
       <c r="F58">
-        <v>20154600</v>
+        <v>22192000</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>55.29499816894531</v>
+        <v>55.77999877929688</v>
       </c>
       <c r="B59">
-        <v>55.65000152587891</v>
+        <v>55.81000137329102</v>
       </c>
       <c r="C59">
-        <v>54.20000076293945</v>
+        <v>53.66500091552734</v>
       </c>
       <c r="D59">
-        <v>54.81999969482422</v>
+        <v>55.11000061035156</v>
       </c>
       <c r="E59">
-        <v>54.81999969482422</v>
+        <v>55.11000061035156</v>
       </c>
       <c r="F59">
-        <v>12489000</v>
+        <v>20754600</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>53.90999984741211</v>
+        <v>54.45000076293945</v>
       </c>
       <c r="B60">
-        <v>54.16999816894531</v>
+        <v>55.66799926757812</v>
       </c>
       <c r="C60">
-        <v>52.02000045776367</v>
+        <v>53.86000061035156</v>
       </c>
       <c r="D60">
-        <v>52.88000106811523</v>
+        <v>54.56000137329102</v>
       </c>
       <c r="E60">
-        <v>52.88000106811523</v>
+        <v>54.56000137329102</v>
       </c>
       <c r="F60">
-        <v>14812400</v>
+        <v>15005300</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>53.45999908447266</v>
+        <v>54.5099983215332</v>
       </c>
       <c r="B61">
-        <v>54.59000015258789</v>
+        <v>54.77000045776367</v>
       </c>
       <c r="C61">
-        <v>53.20000076293945</v>
+        <v>52.54999923706055</v>
       </c>
       <c r="D61">
-        <v>53.29000091552734</v>
+        <v>53.47000122070312</v>
       </c>
       <c r="E61">
-        <v>53.29000091552734</v>
+        <v>53.47000122070312</v>
       </c>
       <c r="F61">
-        <v>13322000</v>
+        <v>13069900</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>53.81999969482422</v>
+        <v>53.93000030517578</v>
       </c>
       <c r="B62">
-        <v>54.06999969482422</v>
+        <v>53.93000030517578</v>
       </c>
       <c r="C62">
-        <v>52.81999969482422</v>
+        <v>50.7599983215332</v>
       </c>
       <c r="D62">
-        <v>53.70000076293945</v>
+        <v>51.31999969482422</v>
       </c>
       <c r="E62">
-        <v>53.70000076293945</v>
+        <v>51.31999969482422</v>
       </c>
       <c r="F62">
-        <v>12960100</v>
+        <v>18095000</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>54.13999938964844</v>
+        <v>51.52000045776367</v>
       </c>
       <c r="B63">
-        <v>57.13999938964844</v>
+        <v>51.52000045776367</v>
       </c>
       <c r="C63">
-        <v>54.11999893188477</v>
+        <v>47.45999908447266</v>
       </c>
       <c r="D63">
-        <v>55.52999877929688</v>
+        <v>49.2599983215332</v>
       </c>
       <c r="E63">
-        <v>55.52999877929688</v>
+        <v>49.2599983215332</v>
       </c>
       <c r="F63">
-        <v>22192000</v>
+        <v>34273700</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>55.77999877929688</v>
+        <v>48.56999969482422</v>
       </c>
       <c r="B64">
-        <v>55.81000137329102</v>
+        <v>51.02999877929688</v>
       </c>
       <c r="C64">
-        <v>53.66500091552734</v>
+        <v>47.86000061035156</v>
       </c>
       <c r="D64">
-        <v>55.11000061035156</v>
+        <v>50.66999816894531</v>
       </c>
       <c r="E64">
-        <v>55.11000061035156</v>
+        <v>50.66999816894531</v>
       </c>
       <c r="F64">
-        <v>20754600</v>
+        <v>21262500</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>54.45000076293945</v>
+        <v>49</v>
       </c>
       <c r="B65">
-        <v>55.66799926757812</v>
+        <v>50.27000045776367</v>
       </c>
       <c r="C65">
-        <v>53.86000061035156</v>
+        <v>48.79999923706055</v>
       </c>
       <c r="D65">
-        <v>54.56000137329102</v>
+        <v>49.65999984741211</v>
       </c>
       <c r="E65">
-        <v>54.56000137329102</v>
+        <v>49.65999984741211</v>
       </c>
       <c r="F65">
-        <v>15005300</v>
+        <v>14813900</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>54.5099983215332</v>
+        <v>48.77000045776367</v>
       </c>
       <c r="B66">
-        <v>54.77000045776367</v>
+        <v>50.25</v>
       </c>
       <c r="C66">
-        <v>52.54999923706055</v>
+        <v>48.56999969482422</v>
       </c>
       <c r="D66">
-        <v>53.47000122070312</v>
+        <v>49.7599983215332</v>
       </c>
       <c r="E66">
-        <v>53.47000122070312</v>
+        <v>49.7599983215332</v>
       </c>
       <c r="F66">
-        <v>13069900</v>
+        <v>10487300</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>53.93000030517578</v>
+        <v>51.09999847412109</v>
       </c>
       <c r="B67">
-        <v>53.93000030517578</v>
+        <v>51.11999893188477</v>
       </c>
       <c r="C67">
-        <v>50.7599983215332</v>
+        <v>48.47999954223633</v>
       </c>
       <c r="D67">
-        <v>51.31999969482422</v>
+        <v>48.84999847412109</v>
       </c>
       <c r="E67">
-        <v>51.31999969482422</v>
+        <v>48.84999847412109</v>
       </c>
       <c r="F67">
-        <v>18095000</v>
+        <v>16171000</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>51.52000045776367</v>
+        <v>48.77999877929688</v>
       </c>
       <c r="B68">
-        <v>51.52000045776367</v>
+        <v>49.40000152587891</v>
       </c>
       <c r="C68">
-        <v>47.45999908447266</v>
+        <v>46.29999923706055</v>
       </c>
       <c r="D68">
-        <v>49.2599983215332</v>
+        <v>47.61000061035156</v>
       </c>
       <c r="E68">
-        <v>49.2599983215332</v>
+        <v>47.61000061035156</v>
       </c>
       <c r="F68">
-        <v>34273700</v>
+        <v>25773000</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>48.56999969482422</v>
+        <v>49.13000106811523</v>
       </c>
       <c r="B69">
-        <v>51.02999877929688</v>
+        <v>50.97999954223633</v>
       </c>
       <c r="C69">
-        <v>47.86000061035156</v>
+        <v>46.79999923706055</v>
       </c>
       <c r="D69">
-        <v>50.66999816894531</v>
+        <v>47.2599983215332</v>
       </c>
       <c r="E69">
-        <v>50.66999816894531</v>
+        <v>47.2599983215332</v>
       </c>
       <c r="F69">
-        <v>21262500</v>
+        <v>28507500</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>49</v>
+        <v>47.2400016784668</v>
       </c>
       <c r="B70">
-        <v>50.27000045776367</v>
+        <v>48.29000091552734</v>
       </c>
       <c r="C70">
-        <v>48.79999923706055</v>
+        <v>46.5099983215332</v>
       </c>
       <c r="D70">
-        <v>49.65999984741211</v>
+        <v>47.90999984741211</v>
       </c>
       <c r="E70">
-        <v>49.65999984741211</v>
+        <v>47.90999984741211</v>
       </c>
       <c r="F70">
-        <v>14813900</v>
+        <v>14418100</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>48.77000045776367</v>
+        <v>47.77000045776367</v>
       </c>
       <c r="B71">
-        <v>50.25</v>
+        <v>48.66999816894531</v>
       </c>
       <c r="C71">
-        <v>48.56999969482422</v>
+        <v>45.45999908447266</v>
       </c>
       <c r="D71">
-        <v>49.7599983215332</v>
+        <v>46.79000091552734</v>
       </c>
       <c r="E71">
-        <v>49.7599983215332</v>
+        <v>46.79000091552734</v>
       </c>
       <c r="F71">
-        <v>10487300</v>
+        <v>19602400</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>51.09999847412109</v>
+        <v>46.20999908447266</v>
       </c>
       <c r="B72">
-        <v>51.11999893188477</v>
+        <v>48.32500076293945</v>
       </c>
       <c r="C72">
-        <v>48.47999954223633</v>
+        <v>44.91999816894531</v>
       </c>
       <c r="D72">
-        <v>48.84999847412109</v>
+        <v>47.91999816894531</v>
       </c>
       <c r="E72">
-        <v>48.84999847412109</v>
+        <v>47.91999816894531</v>
       </c>
       <c r="F72">
-        <v>16171000</v>
+        <v>15738500</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>48.77999877929688</v>
+        <v>49.375</v>
       </c>
       <c r="B73">
-        <v>49.40000152587891</v>
+        <v>51.68000030517578</v>
       </c>
       <c r="C73">
-        <v>46.29999923706055</v>
+        <v>49.29000091552734</v>
       </c>
       <c r="D73">
-        <v>47.61000061035156</v>
+        <v>50.40000152587891</v>
       </c>
       <c r="E73">
-        <v>47.61000061035156</v>
+        <v>50.40000152587891</v>
       </c>
       <c r="F73">
-        <v>25773000</v>
+        <v>20782600</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>49.13000106811523</v>
+        <v>50.61999893188477</v>
       </c>
       <c r="B74">
-        <v>50.97999954223633</v>
+        <v>54.83499908447266</v>
       </c>
       <c r="C74">
-        <v>46.79999923706055</v>
+        <v>50.20000076293945</v>
       </c>
       <c r="D74">
-        <v>47.2599983215332</v>
+        <v>53.41999816894531</v>
       </c>
       <c r="E74">
-        <v>47.2599983215332</v>
+        <v>53.41999816894531</v>
       </c>
       <c r="F74">
-        <v>28507500</v>
+        <v>26768000</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>47.2400016784668</v>
+        <v>52.79000091552734</v>
       </c>
       <c r="B75">
-        <v>48.29000091552734</v>
+        <v>54.88999938964844</v>
       </c>
       <c r="C75">
-        <v>46.5099983215332</v>
+        <v>52.11000061035156</v>
       </c>
       <c r="D75">
-        <v>47.90999984741211</v>
+        <v>52.36000061035156</v>
       </c>
       <c r="E75">
-        <v>47.90999984741211</v>
+        <v>52.36000061035156</v>
       </c>
       <c r="F75">
-        <v>14418100</v>
+        <v>19408100</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>47.77000045776367</v>
+        <v>52.63000106811523</v>
       </c>
       <c r="B76">
-        <v>48.66999816894531</v>
+        <v>53.31000137329102</v>
       </c>
       <c r="C76">
-        <v>45.45999908447266</v>
+        <v>50.05500030517578</v>
       </c>
       <c r="D76">
-        <v>46.79000091552734</v>
+        <v>50.81999969482422</v>
       </c>
       <c r="E76">
-        <v>46.79000091552734</v>
+        <v>50.81999969482422</v>
       </c>
       <c r="F76">
-        <v>19602400</v>
+        <v>13404800</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>46.20999908447266</v>
+        <v>50.31999969482422</v>
       </c>
       <c r="B77">
-        <v>48.32500076293945</v>
+        <v>50.43999862670898</v>
       </c>
       <c r="C77">
-        <v>44.91999816894531</v>
+        <v>46.45999908447266</v>
       </c>
       <c r="D77">
-        <v>47.91999816894531</v>
+        <v>48.13999938964844</v>
       </c>
       <c r="E77">
-        <v>47.91999816894531</v>
+        <v>48.13999938964844</v>
       </c>
       <c r="F77">
-        <v>15738500</v>
+        <v>21235100</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>49.375</v>
+        <v>47.59999847412109</v>
       </c>
       <c r="B78">
-        <v>51.68000030517578</v>
+        <v>48.31499862670898</v>
       </c>
       <c r="C78">
-        <v>49.29000091552734</v>
+        <v>46.38000106811523</v>
       </c>
       <c r="D78">
-        <v>50.40000152587891</v>
+        <v>46.84999847412109</v>
       </c>
       <c r="E78">
-        <v>50.40000152587891</v>
+        <v>46.84999847412109</v>
       </c>
       <c r="F78">
-        <v>20782600</v>
+        <v>16496600</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>50.61999893188477</v>
+        <v>46.34999847412109</v>
       </c>
       <c r="B79">
-        <v>54.83499908447266</v>
+        <v>46.66999816894531</v>
       </c>
       <c r="C79">
-        <v>50.20000076293945</v>
+        <v>44.07699966430664</v>
       </c>
       <c r="D79">
-        <v>53.41999816894531</v>
+        <v>46.40999984741211</v>
       </c>
       <c r="E79">
-        <v>53.41999816894531</v>
+        <v>46.40999984741211</v>
       </c>
       <c r="F79">
-        <v>26768000</v>
+        <v>23804800</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>52.79000091552734</v>
+        <v>47.40999984741211</v>
       </c>
       <c r="B80">
-        <v>54.88999938964844</v>
+        <v>48.02000045776367</v>
       </c>
       <c r="C80">
-        <v>52.11000061035156</v>
+        <v>44.06999969482422</v>
       </c>
       <c r="D80">
-        <v>52.36000061035156</v>
+        <v>44.70000076293945</v>
       </c>
       <c r="E80">
-        <v>52.36000061035156</v>
+        <v>44.70000076293945</v>
       </c>
       <c r="F80">
-        <v>19408100</v>
+        <v>21512200</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>52.63000106811523</v>
+        <v>43.63999938964844</v>
       </c>
       <c r="B81">
-        <v>53.31000137329102</v>
+        <v>45.88999938964844</v>
       </c>
       <c r="C81">
-        <v>50.05500030517578</v>
+        <v>42.95999908447266</v>
       </c>
       <c r="D81">
-        <v>50.81999969482422</v>
+        <v>45.29000091552734</v>
       </c>
       <c r="E81">
-        <v>50.81999969482422</v>
+        <v>45.29000091552734</v>
       </c>
       <c r="F81">
-        <v>13404800</v>
+        <v>22959700</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>50.31999969482422</v>
+        <v>44.22000122070312</v>
       </c>
       <c r="B82">
-        <v>50.43999862670898</v>
+        <v>45.15000152587891</v>
       </c>
       <c r="C82">
-        <v>46.45999908447266</v>
+        <v>43.38000106811523</v>
       </c>
       <c r="D82">
-        <v>48.13999938964844</v>
+        <v>44.41999816894531</v>
       </c>
       <c r="E82">
-        <v>48.13999938964844</v>
+        <v>44.41999816894531</v>
       </c>
       <c r="F82">
-        <v>21235100</v>
+        <v>12921600</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>47.59999847412109</v>
+        <v>44.88999938964844</v>
       </c>
       <c r="B83">
-        <v>48.31499862670898</v>
+        <v>46.20000076293945</v>
       </c>
       <c r="C83">
-        <v>46.38000106811523</v>
+        <v>43.90000152587891</v>
       </c>
       <c r="D83">
-        <v>46.84999847412109</v>
+        <v>46.09999847412109</v>
       </c>
       <c r="E83">
-        <v>46.84999847412109</v>
+        <v>46.09999847412109</v>
       </c>
       <c r="F83">
-        <v>16496600</v>
+        <v>15203200</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>46.34999847412109</v>
+        <v>45.98500061035156</v>
       </c>
       <c r="B84">
-        <v>46.66999816894531</v>
+        <v>47.20999908447266</v>
       </c>
       <c r="C84">
-        <v>44.07699966430664</v>
+        <v>45.45999908447266</v>
       </c>
       <c r="D84">
-        <v>46.40999984741211</v>
+        <v>46.77000045776367</v>
       </c>
       <c r="E84">
-        <v>46.40999984741211</v>
+        <v>46.77000045776367</v>
       </c>
       <c r="F84">
-        <v>23804800</v>
+        <v>12055000</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>47.40999984741211</v>
+        <v>47.34999847412109</v>
       </c>
       <c r="B85">
-        <v>48.02000045776367</v>
+        <v>49.06999969482422</v>
       </c>
       <c r="C85">
-        <v>44.06999969482422</v>
+        <v>45.95999908447266</v>
       </c>
       <c r="D85">
-        <v>44.70000076293945</v>
+        <v>48.68000030517578</v>
       </c>
       <c r="E85">
-        <v>44.70000076293945</v>
+        <v>48.68000030517578</v>
       </c>
       <c r="F85">
-        <v>21512200</v>
+        <v>18546400</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>43.63999938964844</v>
+        <v>48.45000076293945</v>
       </c>
       <c r="B86">
-        <v>45.88999938964844</v>
+        <v>49.25</v>
       </c>
       <c r="C86">
-        <v>42.95999908447266</v>
+        <v>48.02000045776367</v>
       </c>
       <c r="D86">
-        <v>45.29000091552734</v>
+        <v>48.63999938964844</v>
       </c>
       <c r="E86">
-        <v>45.29000091552734</v>
+        <v>48.63999938964844</v>
       </c>
       <c r="F86">
-        <v>22959700</v>
+        <v>8163900</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>44.22000122070312</v>
+        <v>48.5</v>
       </c>
       <c r="B87">
-        <v>45.15000152587891</v>
+        <v>49.22999954223633</v>
       </c>
       <c r="C87">
-        <v>43.38000106811523</v>
+        <v>47.43000030517578</v>
       </c>
       <c r="D87">
-        <v>44.41999816894531</v>
+        <v>47.70999908447266</v>
       </c>
       <c r="E87">
-        <v>44.41999816894531</v>
+        <v>47.70999908447266</v>
       </c>
       <c r="F87">
-        <v>12921600</v>
+        <v>8984500</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>44.88999938964844</v>
+        <v>47.59500122070312</v>
       </c>
       <c r="B88">
-        <v>46.20000076293945</v>
+        <v>47.91999816894531</v>
       </c>
       <c r="C88">
-        <v>43.90000152587891</v>
+        <v>46.56000137329102</v>
       </c>
       <c r="D88">
-        <v>46.09999847412109</v>
+        <v>47.06000137329102</v>
       </c>
       <c r="E88">
-        <v>46.09999847412109</v>
+        <v>47.06000137329102</v>
       </c>
       <c r="F88">
-        <v>15203200</v>
+        <v>7693700</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>45.98500061035156</v>
+        <v>46.81000137329102</v>
       </c>
       <c r="B89">
-        <v>47.20999908447266</v>
+        <v>48.7400016784668</v>
       </c>
       <c r="C89">
-        <v>45.45999908447266</v>
+        <v>46.81000137329102</v>
       </c>
       <c r="D89">
-        <v>46.77000045776367</v>
+        <v>48.02999877929688</v>
       </c>
       <c r="E89">
-        <v>46.77000045776367</v>
+        <v>48.02999877929688</v>
       </c>
       <c r="F89">
-        <v>12055000</v>
+        <v>10170200</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>47.34999847412109</v>
+        <v>47.79999923706055</v>
       </c>
       <c r="B90">
-        <v>49.06999969482422</v>
+        <v>48.45000076293945</v>
       </c>
       <c r="C90">
-        <v>45.95999908447266</v>
+        <v>47.0099983215332</v>
       </c>
       <c r="D90">
-        <v>48.68000030517578</v>
+        <v>47.02999877929688</v>
       </c>
       <c r="E90">
-        <v>48.68000030517578</v>
+        <v>47.02999877929688</v>
       </c>
       <c r="F90">
-        <v>18546400</v>
+        <v>8310700</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>48.45000076293945</v>
+        <v>47.63000106811523</v>
       </c>
       <c r="B91">
-        <v>49.25</v>
+        <v>47.70999908447266</v>
       </c>
       <c r="C91">
-        <v>48.02000045776367</v>
+        <v>45.9900016784668</v>
       </c>
       <c r="D91">
-        <v>48.63999938964844</v>
+        <v>46.59000015258789</v>
       </c>
       <c r="E91">
-        <v>48.63999938964844</v>
+        <v>46.59000015258789</v>
       </c>
       <c r="F91">
-        <v>8163900</v>
+        <v>7931400</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>48.5</v>
+        <v>46.84999847412109</v>
       </c>
       <c r="B92">
-        <v>49.22999954223633</v>
+        <v>46.9900016784668</v>
       </c>
       <c r="C92">
-        <v>47.43000030517578</v>
+        <v>42.45999908447266</v>
       </c>
       <c r="D92">
-        <v>47.70999908447266</v>
+        <v>44.02999877929688</v>
       </c>
       <c r="E92">
-        <v>47.70999908447266</v>
+        <v>44.02999877929688</v>
       </c>
       <c r="F92">
-        <v>8984500</v>
+        <v>26659100</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>47.59500122070312</v>
+        <v>43.5</v>
       </c>
       <c r="B93">
-        <v>47.91999816894531</v>
+        <v>44.4900016784668</v>
       </c>
       <c r="C93">
-        <v>46.56000137329102</v>
+        <v>41.0099983215332</v>
       </c>
       <c r="D93">
-        <v>47.06000137329102</v>
+        <v>41.33000183105469</v>
       </c>
       <c r="E93">
-        <v>47.06000137329102</v>
+        <v>41.33000183105469</v>
       </c>
       <c r="F93">
-        <v>7693700</v>
+        <v>22163300</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>46.81000137329102</v>
+        <v>41.25</v>
       </c>
       <c r="B94">
-        <v>48.7400016784668</v>
+        <v>42.43000030517578</v>
       </c>
       <c r="C94">
-        <v>46.81000137329102</v>
+        <v>39.81999969482422</v>
       </c>
       <c r="D94">
-        <v>48.02999877929688</v>
+        <v>41.68000030517578</v>
       </c>
       <c r="E94">
-        <v>48.02999877929688</v>
+        <v>41.68000030517578</v>
       </c>
       <c r="F94">
-        <v>10170200</v>
+        <v>17882300</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>47.79999923706055</v>
+        <v>41.54000091552734</v>
       </c>
       <c r="B95">
-        <v>48.45000076293945</v>
+        <v>43.27999877929688</v>
       </c>
       <c r="C95">
-        <v>47.0099983215332</v>
+        <v>41.04999923706055</v>
       </c>
       <c r="D95">
-        <v>47.02999877929688</v>
+        <v>41.36000061035156</v>
       </c>
       <c r="E95">
-        <v>47.02999877929688</v>
+        <v>41.36000061035156</v>
       </c>
       <c r="F95">
-        <v>8310700</v>
+        <v>15710600</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>47.63000106811523</v>
+        <v>40.7400016784668</v>
       </c>
       <c r="B96">
-        <v>47.70999908447266</v>
+        <v>41.77500152587891</v>
       </c>
       <c r="C96">
-        <v>45.9900016784668</v>
+        <v>38.5099983215332</v>
       </c>
       <c r="D96">
-        <v>46.59000015258789</v>
+        <v>41.70999908447266</v>
       </c>
       <c r="E96">
-        <v>46.59000015258789</v>
+        <v>41.70999908447266</v>
       </c>
       <c r="F96">
-        <v>7931400</v>
+        <v>20895900</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>46.84999847412109</v>
+        <v>42.06000137329102</v>
       </c>
       <c r="B97">
-        <v>46.9900016784668</v>
+        <v>43.72000122070312</v>
       </c>
       <c r="C97">
-        <v>42.45999908447266</v>
+        <v>41.77999877929688</v>
       </c>
       <c r="D97">
-        <v>44.02999877929688</v>
+        <v>43.31000137329102</v>
       </c>
       <c r="E97">
-        <v>44.02999877929688</v>
+        <v>43.31000137329102</v>
       </c>
       <c r="F97">
-        <v>26659100</v>
+        <v>17386600</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>43.5</v>
+        <v>43.81000137329102</v>
       </c>
       <c r="B98">
-        <v>44.4900016784668</v>
+        <v>44.34000015258789</v>
       </c>
       <c r="C98">
-        <v>41.0099983215332</v>
+        <v>42.06000137329102</v>
       </c>
       <c r="D98">
-        <v>41.33000183105469</v>
+        <v>42.72999954223633</v>
       </c>
       <c r="E98">
-        <v>41.33000183105469</v>
+        <v>42.72999954223633</v>
       </c>
       <c r="F98">
-        <v>22163300</v>
+        <v>12637500</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>41.25</v>
+        <v>40.63999938964844</v>
       </c>
       <c r="B99">
-        <v>42.43000030517578</v>
+        <v>41.45999908447266</v>
       </c>
       <c r="C99">
-        <v>39.81999969482422</v>
+        <v>38.2599983215332</v>
       </c>
       <c r="D99">
-        <v>41.68000030517578</v>
+        <v>38.38000106811523</v>
       </c>
       <c r="E99">
-        <v>41.68000030517578</v>
+        <v>38.38000106811523</v>
       </c>
       <c r="F99">
-        <v>17882300</v>
+        <v>32180500</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>41.54000091552734</v>
+        <v>37.72000122070312</v>
       </c>
       <c r="B100">
-        <v>43.27999877929688</v>
+        <v>38.33000183105469</v>
       </c>
       <c r="C100">
-        <v>41.04999923706055</v>
+        <v>36.56000137329102</v>
       </c>
       <c r="D100">
-        <v>41.36000061035156</v>
+        <v>38.04000091552734</v>
       </c>
       <c r="E100">
-        <v>41.36000061035156</v>
+        <v>38.04000091552734</v>
       </c>
       <c r="F100">
-        <v>15710600</v>
+        <v>25547000</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>40.7400016784668</v>
+        <v>36.97999954223633</v>
       </c>
       <c r="B101">
-        <v>41.77500152587891</v>
+        <v>36.98500061035156</v>
       </c>
       <c r="C101">
-        <v>38.5099983215332</v>
+        <v>35.61999893188477</v>
       </c>
       <c r="D101">
-        <v>41.70999908447266</v>
+        <v>35.70000076293945</v>
       </c>
       <c r="E101">
-        <v>41.70999908447266</v>
+        <v>35.70000076293945</v>
       </c>
       <c r="F101">
-        <v>20895900</v>
+        <v>37008100</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>42.06000137329102</v>
+        <v>36.02999877929688</v>
       </c>
       <c r="B102">
-        <v>43.72000122070312</v>
+        <v>36.47999954223633</v>
       </c>
       <c r="C102">
-        <v>41.77999877929688</v>
+        <v>34.7599983215332</v>
       </c>
       <c r="D102">
-        <v>43.31000137329102</v>
+        <v>35.04999923706055</v>
       </c>
       <c r="E102">
-        <v>43.31000137329102</v>
+        <v>35.04999923706055</v>
       </c>
       <c r="F102">
-        <v>17386600</v>
+        <v>23942000</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>43.81000137329102</v>
+        <v>35.79999923706055</v>
       </c>
       <c r="B103">
-        <v>44.34000015258789</v>
+        <v>37.10499954223633</v>
       </c>
       <c r="C103">
-        <v>42.06000137329102</v>
+        <v>34.91500091552734</v>
       </c>
       <c r="D103">
-        <v>42.72999954223633</v>
+        <v>34.9900016784668</v>
       </c>
       <c r="E103">
-        <v>42.72999954223633</v>
+        <v>34.9900016784668</v>
       </c>
       <c r="F103">
-        <v>12637500</v>
+        <v>21672700</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>40.63999938964844</v>
+        <v>34</v>
       </c>
       <c r="B104">
-        <v>41.45999908447266</v>
+        <v>34.61999893188477</v>
       </c>
       <c r="C104">
-        <v>38.2599983215332</v>
+        <v>32</v>
       </c>
       <c r="D104">
-        <v>38.38000106811523</v>
+        <v>32.11999893188477</v>
       </c>
       <c r="E104">
-        <v>38.38000106811523</v>
+        <v>32.11999893188477</v>
       </c>
       <c r="F104">
-        <v>32180500</v>
+        <v>37648400</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>37.72000122070312</v>
+        <v>30.15999984741211</v>
       </c>
       <c r="B105">
-        <v>38.33000183105469</v>
+        <v>31.80999946594238</v>
       </c>
       <c r="C105">
-        <v>36.56000137329102</v>
+        <v>28.02000045776367</v>
       </c>
       <c r="D105">
-        <v>38.04000091552734</v>
+        <v>31.79999923706055</v>
       </c>
       <c r="E105">
-        <v>38.04000091552734</v>
+        <v>31.79999923706055</v>
       </c>
       <c r="F105">
-        <v>25547000</v>
+        <v>46502200</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>36.97999954223633</v>
+        <v>31.01000022888184</v>
       </c>
       <c r="B106">
-        <v>36.98500061035156</v>
+        <v>32.09000015258789</v>
       </c>
       <c r="C106">
-        <v>35.61999893188477</v>
+        <v>30.08499908447266</v>
       </c>
       <c r="D106">
-        <v>35.70000076293945</v>
+        <v>30.65999984741211</v>
       </c>
       <c r="E106">
-        <v>35.70000076293945</v>
+        <v>30.65999984741211</v>
       </c>
       <c r="F106">
-        <v>37008100</v>
+        <v>26893800</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>36.02999877929688</v>
+        <v>31.3799991607666</v>
       </c>
       <c r="B107">
-        <v>36.47999954223633</v>
+        <v>31.90999984741211</v>
       </c>
       <c r="C107">
-        <v>34.7599983215332</v>
+        <v>28.15999984741211</v>
       </c>
       <c r="D107">
-        <v>35.04999923706055</v>
+        <v>28.6299991607666</v>
       </c>
       <c r="E107">
-        <v>35.04999923706055</v>
+        <v>28.6299991607666</v>
       </c>
       <c r="F107">
-        <v>23942000</v>
+        <v>35467300</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>35.79999923706055</v>
+        <v>29.6299991607666</v>
       </c>
       <c r="B108">
-        <v>37.10499954223633</v>
+        <v>30.67000007629395</v>
       </c>
       <c r="C108">
-        <v>34.91500091552734</v>
+        <v>28.17000007629395</v>
       </c>
       <c r="D108">
-        <v>34.9900016784668</v>
+        <v>28.29999923706055</v>
       </c>
       <c r="E108">
-        <v>34.9900016784668</v>
+        <v>28.29999923706055</v>
       </c>
       <c r="F108">
-        <v>21672700</v>
+        <v>35331900</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>34</v>
+        <v>28.6299991607666</v>
       </c>
       <c r="B109">
-        <v>34.61999893188477</v>
+        <v>30.47999954223633</v>
       </c>
       <c r="C109">
-        <v>32</v>
+        <v>28.1299991607666</v>
       </c>
       <c r="D109">
-        <v>32.11999893188477</v>
+        <v>30.42000007629395</v>
       </c>
       <c r="E109">
-        <v>32.11999893188477</v>
+        <v>30.42000007629395</v>
       </c>
       <c r="F109">
-        <v>37648400</v>
+        <v>28380500</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>30.15999984741211</v>
+        <v>30.64999961853027</v>
       </c>
       <c r="B110">
-        <v>31.80999946594238</v>
+        <v>32.63000106811523</v>
       </c>
       <c r="C110">
-        <v>28.02000045776367</v>
+        <v>30.64999961853027</v>
       </c>
       <c r="D110">
-        <v>31.79999923706055</v>
+        <v>32.54000091552734</v>
       </c>
       <c r="E110">
-        <v>31.79999923706055</v>
+        <v>32.54000091552734</v>
       </c>
       <c r="F110">
-        <v>46502200</v>
+        <v>25872900</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>31.01000022888184</v>
+        <v>34.13000106811523</v>
       </c>
       <c r="B111">
-        <v>32.09000015258789</v>
+        <v>34.20000076293945</v>
       </c>
       <c r="C111">
-        <v>30.08499908447266</v>
+        <v>32.20999908447266</v>
       </c>
       <c r="D111">
-        <v>30.65999984741211</v>
+        <v>33.65999984741211</v>
       </c>
       <c r="E111">
-        <v>30.65999984741211</v>
+        <v>33.65999984741211</v>
       </c>
       <c r="F111">
-        <v>26893800</v>
+        <v>28108900</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>31.3799991607666</v>
+        <v>34.15000152587891</v>
       </c>
       <c r="B112">
-        <v>31.90999984741211</v>
+        <v>34.24499893188477</v>
       </c>
       <c r="C112">
-        <v>28.15999984741211</v>
+        <v>31.72999954223633</v>
       </c>
       <c r="D112">
-        <v>28.6299991607666</v>
+        <v>32.06999969482422</v>
       </c>
       <c r="E112">
-        <v>28.6299991607666</v>
+        <v>32.06999969482422</v>
       </c>
       <c r="F112">
-        <v>35467300</v>
+        <v>41654600</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>29.6299991607666</v>
+        <v>25.73999977111816</v>
       </c>
       <c r="B113">
-        <v>30.67000007629395</v>
+        <v>26.48999977111816</v>
       </c>
       <c r="C113">
-        <v>28.17000007629395</v>
+        <v>24.31999969482422</v>
       </c>
       <c r="D113">
-        <v>28.29999923706055</v>
+        <v>24.5</v>
       </c>
       <c r="E113">
-        <v>28.29999923706055</v>
+        <v>24.5</v>
       </c>
       <c r="F113">
-        <v>35331900</v>
+        <v>149336000</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>28.6299991607666</v>
+        <v>35.27000045776367</v>
       </c>
       <c r="B114">
-        <v>30.47999954223633</v>
+        <v>40.65000152587891</v>
       </c>
       <c r="C114">
-        <v>28.1299991607666</v>
+        <v>34.09999847412109</v>
       </c>
       <c r="D114">
-        <v>30.42000007629395</v>
+        <v>38.90999984741211</v>
       </c>
       <c r="E114">
-        <v>30.42000007629395</v>
+        <v>38.90999984741211</v>
       </c>
       <c r="F114">
-        <v>28380500</v>
+        <v>308020500</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>30.64999961853027</v>
+        <v>38.5099983215332</v>
       </c>
       <c r="B115">
-        <v>32.63000106811523</v>
+        <v>39.59000015258789</v>
       </c>
       <c r="C115">
-        <v>30.64999961853027</v>
+        <v>37.52000045776367</v>
       </c>
       <c r="D115">
-        <v>32.54000091552734</v>
+        <v>37.88000106811523</v>
       </c>
       <c r="E115">
-        <v>32.54000091552734</v>
+        <v>37.88000106811523</v>
       </c>
       <c r="F115">
-        <v>25872900</v>
+        <v>96743300</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>34.13000106811523</v>
+        <v>35.5099983215332</v>
       </c>
       <c r="B116">
-        <v>34.20000076293945</v>
+        <v>37.7599983215332</v>
       </c>
       <c r="C116">
-        <v>32.20999908447266</v>
+        <v>34.86999893188477</v>
       </c>
       <c r="D116">
-        <v>33.65999984741211</v>
+        <v>37.56000137329102</v>
       </c>
       <c r="E116">
-        <v>33.65999984741211</v>
+        <v>37.56000137329102</v>
       </c>
       <c r="F116">
-        <v>28108900</v>
+        <v>85621100</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>34.15000152587891</v>
+        <v>37.7400016784668</v>
       </c>
       <c r="B117">
-        <v>34.24499893188477</v>
+        <v>40.33000183105469</v>
       </c>
       <c r="C117">
-        <v>31.72999954223633</v>
+        <v>37.11000061035156</v>
       </c>
       <c r="D117">
-        <v>32.06999969482422</v>
+        <v>40.27999877929688</v>
       </c>
       <c r="E117">
-        <v>32.06999969482422</v>
+        <v>40.27999877929688</v>
       </c>
       <c r="F117">
-        <v>41654600</v>
+        <v>67166800</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>25.73999977111816</v>
+        <v>38.5099983215332</v>
       </c>
       <c r="B118">
-        <v>26.48999977111816</v>
+        <v>41.97000122070312</v>
       </c>
       <c r="C118">
-        <v>24.31999969482422</v>
+        <v>38.50500106811523</v>
       </c>
       <c r="D118">
-        <v>24.5</v>
+        <v>40.61999893188477</v>
       </c>
       <c r="E118">
-        <v>24.5</v>
+        <v>40.61999893188477</v>
       </c>
       <c r="F118">
-        <v>149336000</v>
+        <v>65264300</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>35.27000045776367</v>
+        <v>40.38000106811523</v>
       </c>
       <c r="B119">
-        <v>40.65000152587891</v>
+        <v>41.97000122070312</v>
       </c>
       <c r="C119">
-        <v>34.09999847412109</v>
+        <v>39.06999969482422</v>
       </c>
       <c r="D119">
-        <v>38.90999984741211</v>
+        <v>39.4900016784668</v>
       </c>
       <c r="E119">
-        <v>38.90999984741211</v>
+        <v>39.4900016784668</v>
       </c>
       <c r="F119">
-        <v>308020500</v>
+        <v>42721700</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>38.5099983215332</v>
+        <v>39.95999908447266</v>
       </c>
       <c r="B120">
-        <v>39.59000015258789</v>
+        <v>41.88999938964844</v>
       </c>
       <c r="C120">
-        <v>37.52000045776367</v>
+        <v>39.5</v>
       </c>
       <c r="D120">
-        <v>37.88000106811523</v>
+        <v>39.61999893188477</v>
       </c>
       <c r="E120">
-        <v>37.88000106811523</v>
+        <v>39.61999893188477</v>
       </c>
       <c r="F120">
-        <v>96743300</v>
+        <v>37579800</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>35.5099983215332</v>
+        <v>40.15999984741211</v>
       </c>
       <c r="B121">
-        <v>37.7599983215332</v>
+        <v>41.45999908447266</v>
       </c>
       <c r="C121">
-        <v>34.86999893188477</v>
+        <v>39.93999862670898</v>
       </c>
       <c r="D121">
-        <v>37.56000137329102</v>
+        <v>41.43000030517578</v>
       </c>
       <c r="E121">
-        <v>37.56000137329102</v>
+        <v>41.43000030517578</v>
       </c>
       <c r="F121">
-        <v>85621100</v>
+        <v>26091600</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>37.7400016784668</v>
+        <v>38.95999908447266</v>
       </c>
       <c r="B122">
-        <v>40.33000183105469</v>
+        <v>40.59999847412109</v>
       </c>
       <c r="C122">
-        <v>37.11000061035156</v>
+        <v>38.95999908447266</v>
       </c>
       <c r="D122">
-        <v>40.27999877929688</v>
+        <v>40.0099983215332</v>
       </c>
       <c r="E122">
-        <v>40.27999877929688</v>
+        <v>40.0099983215332</v>
       </c>
       <c r="F122">
-        <v>67166800</v>
+        <v>35643500</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>38.5099983215332</v>
+        <v>40.45000076293945</v>
       </c>
       <c r="B123">
-        <v>41.97000122070312</v>
+        <v>40.81999969482422</v>
       </c>
       <c r="C123">
-        <v>38.50500106811523</v>
+        <v>39.16999816894531</v>
       </c>
       <c r="D123">
-        <v>40.61999893188477</v>
+        <v>39.45000076293945</v>
       </c>
       <c r="E123">
-        <v>40.61999893188477</v>
+        <v>39.45000076293945</v>
       </c>
       <c r="F123">
-        <v>65264300</v>
+        <v>24624400</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>40.38000106811523</v>
+        <v>39.61000061035156</v>
       </c>
       <c r="B124">
-        <v>41.97000122070312</v>
+        <v>40.40000152587891</v>
       </c>
       <c r="C124">
-        <v>39.06999969482422</v>
+        <v>37.93999862670898</v>
       </c>
       <c r="D124">
-        <v>39.4900016784668</v>
+        <v>38.0099983215332</v>
       </c>
       <c r="E124">
-        <v>39.4900016784668</v>
+        <v>38.0099983215332</v>
       </c>
       <c r="F124">
-        <v>42721700</v>
+        <v>23024100</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>39.95999908447266</v>
+        <v>37.75</v>
       </c>
       <c r="B125">
-        <v>41.88999938964844</v>
+        <v>38.47000122070312</v>
       </c>
       <c r="C125">
-        <v>39.5</v>
+        <v>36.36999893188477</v>
       </c>
       <c r="D125">
-        <v>39.61999893188477</v>
+        <v>36.86999893188477</v>
       </c>
       <c r="E125">
-        <v>39.61999893188477</v>
+        <v>36.86999893188477</v>
       </c>
       <c r="F125">
-        <v>37579800</v>
+        <v>25433100</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>40.15999984741211</v>
+        <v>37.18999862670898</v>
       </c>
       <c r="B126">
-        <v>41.45999908447266</v>
+        <v>38.15000152587891</v>
       </c>
       <c r="C126">
-        <v>39.93999862670898</v>
+        <v>36.15999984741211</v>
       </c>
       <c r="D126">
-        <v>41.43000030517578</v>
+        <v>36.97999954223633</v>
       </c>
       <c r="E126">
-        <v>41.43000030517578</v>
+        <v>36.97999954223633</v>
       </c>
       <c r="F126">
-        <v>26091600</v>
+        <v>24429900</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127">
-        <v>38.95999908447266</v>
+        <v>34.95000076293945</v>
       </c>
       <c r="B127">
-        <v>40.59999847412109</v>
+        <v>39.04999923706055</v>
       </c>
       <c r="C127">
-        <v>38.95999908447266</v>
+        <v>34.95000076293945</v>
       </c>
       <c r="D127">
-        <v>40.0099983215332</v>
+        <v>38.83000183105469</v>
       </c>
       <c r="E127">
-        <v>40.0099983215332</v>
+        <v>38.83000183105469</v>
       </c>
       <c r="F127">
-        <v>35643500</v>
+        <v>26703600</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128">
-        <v>40.45000076293945</v>
+        <v>38.84000015258789</v>
       </c>
       <c r="B128">
-        <v>40.81999969482422</v>
+        <v>39.56499862670898</v>
       </c>
       <c r="C128">
-        <v>39.16999816894531</v>
+        <v>38.09999847412109</v>
       </c>
       <c r="D128">
-        <v>39.45000076293945</v>
+        <v>39.15000152587891</v>
       </c>
       <c r="E128">
-        <v>39.45000076293945</v>
+        <v>39.15000152587891</v>
       </c>
       <c r="F128">
-        <v>24624400</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129">
-        <v>39.61000061035156</v>
-      </c>
-      <c r="B129">
-        <v>40.40000152587891</v>
-      </c>
-      <c r="C129">
-        <v>37.93999862670898</v>
-      </c>
-      <c r="D129">
-        <v>38.0099983215332</v>
-      </c>
-      <c r="E129">
-        <v>38.0099983215332</v>
-      </c>
-      <c r="F129">
-        <v>23024100</v>
+        <v>19161100</v>
       </c>
     </row>
   </sheetData>

--- a/Stocks/SNAP/HighLow.xlsx
+++ b/Stocks/SNAP/HighLow.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F128"/>
+  <dimension ref="A1:F126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,2542 +417,2502 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>74.72000122070312</v>
+        <v>75.83000183105469</v>
       </c>
       <c r="B2">
-        <v>74.94999694824219</v>
+        <v>76.83999633789062</v>
       </c>
       <c r="C2">
-        <v>71.51200103759766</v>
+        <v>74.052001953125</v>
       </c>
       <c r="D2">
-        <v>71.61000061035156</v>
+        <v>76.48999786376953</v>
       </c>
       <c r="E2">
-        <v>71.61000061035156</v>
+        <v>76.48999786376953</v>
       </c>
       <c r="F2">
-        <v>19872400</v>
+        <v>11735200</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>72.18000030517578</v>
+        <v>76.22000122070312</v>
       </c>
       <c r="B3">
-        <v>73.87999725341797</v>
+        <v>76.69999694824219</v>
       </c>
       <c r="C3">
-        <v>71.66000366210938</v>
+        <v>73.23000335693359</v>
       </c>
       <c r="D3">
-        <v>73.12000274658203</v>
+        <v>74.12999725341797</v>
       </c>
       <c r="E3">
-        <v>73.12000274658203</v>
+        <v>74.12999725341797</v>
       </c>
       <c r="F3">
-        <v>10115800</v>
+        <v>11538900</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>73.30000305175781</v>
+        <v>74.11000061035156</v>
       </c>
       <c r="B4">
-        <v>75</v>
+        <v>75.66600036621094</v>
       </c>
       <c r="C4">
-        <v>71.77999877929688</v>
+        <v>73.54000091552734</v>
       </c>
       <c r="D4">
-        <v>74.51000213623047</v>
+        <v>74.62000274658203</v>
       </c>
       <c r="E4">
-        <v>74.51000213623047</v>
+        <v>74.62000274658203</v>
       </c>
       <c r="F4">
-        <v>8825300</v>
+        <v>10564300</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>74.86000061035156</v>
+        <v>75.25</v>
       </c>
       <c r="B5">
-        <v>77.87999725341797</v>
+        <v>75.98999786376953</v>
       </c>
       <c r="C5">
-        <v>74.09999847412109</v>
+        <v>74.27500152587891</v>
       </c>
       <c r="D5">
-        <v>76.11000061035156</v>
+        <v>74.5</v>
       </c>
       <c r="E5">
-        <v>76.11000061035156</v>
+        <v>74.5</v>
       </c>
       <c r="F5">
-        <v>18475200</v>
+        <v>9209900</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>75.98000335693359</v>
+        <v>75.61000061035156</v>
       </c>
       <c r="B6">
-        <v>77.25</v>
+        <v>75.61000061035156</v>
       </c>
       <c r="C6">
-        <v>73.69000244140625</v>
+        <v>69.81999969482422</v>
       </c>
       <c r="D6">
-        <v>74.16999816894531</v>
+        <v>71.26000213623047</v>
       </c>
       <c r="E6">
-        <v>74.16999816894531</v>
+        <v>71.26000213623047</v>
       </c>
       <c r="F6">
-        <v>15642300</v>
+        <v>19913400</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>74.59999847412109</v>
+        <v>71.69000244140625</v>
       </c>
       <c r="B7">
-        <v>76.19999694824219</v>
+        <v>72.79000091552734</v>
       </c>
       <c r="C7">
-        <v>73.59999847412109</v>
+        <v>70.80999755859375</v>
       </c>
       <c r="D7">
-        <v>73.91999816894531</v>
+        <v>71.30999755859375</v>
       </c>
       <c r="E7">
-        <v>73.91999816894531</v>
+        <v>71.30999755859375</v>
       </c>
       <c r="F7">
-        <v>12178500</v>
+        <v>11083000</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>73.91999816894531</v>
+        <v>71.33000183105469</v>
       </c>
       <c r="B8">
-        <v>75.47000122070312</v>
+        <v>73.62000274658203</v>
       </c>
       <c r="C8">
-        <v>72.93000030517578</v>
+        <v>70.37000274658203</v>
       </c>
       <c r="D8">
-        <v>75.08000183105469</v>
+        <v>73.62000274658203</v>
       </c>
       <c r="E8">
-        <v>75.08000183105469</v>
+        <v>73.62000274658203</v>
       </c>
       <c r="F8">
-        <v>9237100</v>
+        <v>10890100</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>75.83000183105469</v>
+        <v>73.29000091552734</v>
       </c>
       <c r="B9">
-        <v>76.83999633789062</v>
+        <v>73.41000366210938</v>
       </c>
       <c r="C9">
-        <v>74.052001953125</v>
+        <v>71.51999664306641</v>
       </c>
       <c r="D9">
-        <v>76.48999786376953</v>
+        <v>72.48000335693359</v>
       </c>
       <c r="E9">
-        <v>76.48999786376953</v>
+        <v>72.48000335693359</v>
       </c>
       <c r="F9">
-        <v>11735200</v>
+        <v>16878500</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>76.22000122070312</v>
+        <v>72.41999816894531</v>
       </c>
       <c r="B10">
-        <v>76.69999694824219</v>
+        <v>75.62999725341797</v>
       </c>
       <c r="C10">
-        <v>73.23000335693359</v>
+        <v>72.40000152587891</v>
       </c>
       <c r="D10">
-        <v>74.12999725341797</v>
+        <v>74.76000213623047</v>
       </c>
       <c r="E10">
-        <v>74.12999725341797</v>
+        <v>74.76000213623047</v>
       </c>
       <c r="F10">
-        <v>11538900</v>
+        <v>20858800</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>74.11000061035156</v>
+        <v>72.375</v>
       </c>
       <c r="B11">
-        <v>75.66600036621094</v>
+        <v>73.13999938964844</v>
       </c>
       <c r="C11">
-        <v>73.54000091552734</v>
+        <v>70.10900115966797</v>
       </c>
       <c r="D11">
-        <v>74.62000274658203</v>
+        <v>71.73000335693359</v>
       </c>
       <c r="E11">
-        <v>74.62000274658203</v>
+        <v>71.73000335693359</v>
       </c>
       <c r="F11">
-        <v>10564300</v>
+        <v>13834900</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>75.25</v>
+        <v>72.76000213623047</v>
       </c>
       <c r="B12">
-        <v>75.98999786376953</v>
+        <v>76.37000274658203</v>
       </c>
       <c r="C12">
-        <v>74.27500152587891</v>
+        <v>72.59999847412109</v>
       </c>
       <c r="D12">
-        <v>74.5</v>
+        <v>76.08999633789062</v>
       </c>
       <c r="E12">
-        <v>74.5</v>
+        <v>76.08999633789062</v>
       </c>
       <c r="F12">
-        <v>9209900</v>
+        <v>18129600</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>75.61000061035156</v>
+        <v>74.37000274658203</v>
       </c>
       <c r="B13">
-        <v>75.61000061035156</v>
+        <v>79.63999938964844</v>
       </c>
       <c r="C13">
-        <v>69.81999969482422</v>
+        <v>74.01999664306641</v>
       </c>
       <c r="D13">
-        <v>71.26000213623047</v>
+        <v>78.59999847412109</v>
       </c>
       <c r="E13">
-        <v>71.26000213623047</v>
+        <v>78.59999847412109</v>
       </c>
       <c r="F13">
-        <v>19913400</v>
+        <v>26999200</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>71.69000244140625</v>
+        <v>78.97000122070312</v>
       </c>
       <c r="B14">
-        <v>72.79000091552734</v>
+        <v>80.09999847412109</v>
       </c>
       <c r="C14">
-        <v>70.80999755859375</v>
+        <v>77.45999908447266</v>
       </c>
       <c r="D14">
-        <v>71.30999755859375</v>
+        <v>79.37000274658203</v>
       </c>
       <c r="E14">
-        <v>71.30999755859375</v>
+        <v>79.37000274658203</v>
       </c>
       <c r="F14">
-        <v>11083000</v>
+        <v>20944600</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>71.33000183105469</v>
+        <v>78.94000244140625</v>
       </c>
       <c r="B15">
-        <v>73.62000274658203</v>
+        <v>83.33999633789062</v>
       </c>
       <c r="C15">
-        <v>70.37000274658203</v>
+        <v>78.11000061035156</v>
       </c>
       <c r="D15">
-        <v>73.62000274658203</v>
+        <v>83.11000061035156</v>
       </c>
       <c r="E15">
-        <v>73.62000274658203</v>
+        <v>83.11000061035156</v>
       </c>
       <c r="F15">
-        <v>10890100</v>
+        <v>29039000</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>73.29000091552734</v>
+        <v>82</v>
       </c>
       <c r="B16">
-        <v>73.41000366210938</v>
+        <v>82.61000061035156</v>
       </c>
       <c r="C16">
-        <v>71.51999664306641</v>
+        <v>79.31999969482422</v>
       </c>
       <c r="D16">
-        <v>72.48000335693359</v>
+        <v>80.08000183105469</v>
       </c>
       <c r="E16">
-        <v>72.48000335693359</v>
+        <v>80.08000183105469</v>
       </c>
       <c r="F16">
-        <v>16878500</v>
+        <v>18493300</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>72.41999816894531</v>
+        <v>78.54000091552734</v>
       </c>
       <c r="B17">
-        <v>75.62999725341797</v>
+        <v>79.41000366210938</v>
       </c>
       <c r="C17">
-        <v>72.40000152587891</v>
+        <v>73.88999938964844</v>
       </c>
       <c r="D17">
-        <v>74.76000213623047</v>
+        <v>74.41999816894531</v>
       </c>
       <c r="E17">
-        <v>74.76000213623047</v>
+        <v>74.41999816894531</v>
       </c>
       <c r="F17">
-        <v>20858800</v>
+        <v>23531900</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>72.375</v>
+        <v>75.30000305175781</v>
       </c>
       <c r="B18">
-        <v>73.13999938964844</v>
+        <v>76.08999633789062</v>
       </c>
       <c r="C18">
-        <v>70.10900115966797</v>
+        <v>71.55999755859375</v>
       </c>
       <c r="D18">
-        <v>71.73000335693359</v>
+        <v>71.76000213623047</v>
       </c>
       <c r="E18">
-        <v>71.73000335693359</v>
+        <v>71.76000213623047</v>
       </c>
       <c r="F18">
-        <v>13834900</v>
+        <v>18633700</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>72.76000213623047</v>
+        <v>72.91999816894531</v>
       </c>
       <c r="B19">
-        <v>76.37000274658203</v>
+        <v>75.24700164794922</v>
       </c>
       <c r="C19">
-        <v>72.59999847412109</v>
+        <v>72.23999786376953</v>
       </c>
       <c r="D19">
-        <v>76.08999633789062</v>
+        <v>73.87000274658203</v>
       </c>
       <c r="E19">
-        <v>76.08999633789062</v>
+        <v>73.87000274658203</v>
       </c>
       <c r="F19">
-        <v>18129600</v>
+        <v>17166400</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>74.37000274658203</v>
+        <v>74.81999969482422</v>
       </c>
       <c r="B20">
-        <v>79.63999938964844</v>
+        <v>75.88999938964844</v>
       </c>
       <c r="C20">
-        <v>74.01999664306641</v>
+        <v>73.44000244140625</v>
       </c>
       <c r="D20">
-        <v>78.59999847412109</v>
+        <v>75.25</v>
       </c>
       <c r="E20">
-        <v>78.59999847412109</v>
+        <v>75.25</v>
       </c>
       <c r="F20">
-        <v>26999200</v>
+        <v>11689700</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>78.97000122070312</v>
+        <v>74.02999877929688</v>
       </c>
       <c r="B21">
-        <v>80.09999847412109</v>
+        <v>74.19999694824219</v>
       </c>
       <c r="C21">
-        <v>77.45999908447266</v>
+        <v>69.97000122070312</v>
       </c>
       <c r="D21">
-        <v>79.37000274658203</v>
+        <v>71.23000335693359</v>
       </c>
       <c r="E21">
-        <v>79.37000274658203</v>
+        <v>71.23000335693359</v>
       </c>
       <c r="F21">
-        <v>20944600</v>
+        <v>18142600</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>78.94000244140625</v>
+        <v>72.18000030517578</v>
       </c>
       <c r="B22">
-        <v>83.33999633789062</v>
+        <v>73.91000366210938</v>
       </c>
       <c r="C22">
-        <v>78.11000061035156</v>
+        <v>71.79000091552734</v>
       </c>
       <c r="D22">
-        <v>83.11000061035156</v>
+        <v>73.41000366210938</v>
       </c>
       <c r="E22">
-        <v>83.11000061035156</v>
+        <v>73.41000366210938</v>
       </c>
       <c r="F22">
-        <v>29039000</v>
+        <v>11896500</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>82</v>
+        <v>72.37000274658203</v>
       </c>
       <c r="B23">
-        <v>82.61000061035156</v>
+        <v>74.5</v>
       </c>
       <c r="C23">
-        <v>79.31999969482422</v>
+        <v>71.31999969482422</v>
       </c>
       <c r="D23">
-        <v>80.08000183105469</v>
+        <v>73.12999725341797</v>
       </c>
       <c r="E23">
-        <v>80.08000183105469</v>
+        <v>73.12999725341797</v>
       </c>
       <c r="F23">
-        <v>18493300</v>
+        <v>10927300</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>78.54000091552734</v>
+        <v>74.36000061035156</v>
       </c>
       <c r="B24">
-        <v>79.41000366210938</v>
+        <v>77.41000366210938</v>
       </c>
       <c r="C24">
-        <v>73.88999938964844</v>
+        <v>74.09999847412109</v>
       </c>
       <c r="D24">
-        <v>74.41999816894531</v>
+        <v>76.27999877929688</v>
       </c>
       <c r="E24">
-        <v>74.41999816894531</v>
+        <v>76.27999877929688</v>
       </c>
       <c r="F24">
-        <v>23531900</v>
+        <v>15547400</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>75.30000305175781</v>
+        <v>76.91000366210938</v>
       </c>
       <c r="B25">
-        <v>76.08999633789062</v>
+        <v>77.41000366210938</v>
       </c>
       <c r="C25">
-        <v>71.55999755859375</v>
+        <v>74.73999786376953</v>
       </c>
       <c r="D25">
-        <v>71.76000213623047</v>
+        <v>75</v>
       </c>
       <c r="E25">
-        <v>71.76000213623047</v>
+        <v>75</v>
       </c>
       <c r="F25">
-        <v>18633700</v>
+        <v>8906100</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>72.91999816894531</v>
+        <v>74.65000152587891</v>
       </c>
       <c r="B26">
-        <v>75.24700164794922</v>
+        <v>75.59999847412109</v>
       </c>
       <c r="C26">
-        <v>72.23999786376953</v>
+        <v>73.5</v>
       </c>
       <c r="D26">
-        <v>73.87000274658203</v>
+        <v>73.52999877929688</v>
       </c>
       <c r="E26">
-        <v>73.87000274658203</v>
+        <v>73.52999877929688</v>
       </c>
       <c r="F26">
-        <v>17166400</v>
+        <v>8990800</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>74.81999969482422</v>
+        <v>74.12000274658203</v>
       </c>
       <c r="B27">
-        <v>75.88999938964844</v>
+        <v>75.98000335693359</v>
       </c>
       <c r="C27">
-        <v>73.44000244140625</v>
+        <v>73.52999877929688</v>
       </c>
       <c r="D27">
-        <v>75.25</v>
+        <v>75.26000213623047</v>
       </c>
       <c r="E27">
-        <v>75.25</v>
+        <v>75.26000213623047</v>
       </c>
       <c r="F27">
-        <v>11689700</v>
+        <v>13691100</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>74.02999877929688</v>
+        <v>76.15000152587891</v>
       </c>
       <c r="B28">
-        <v>74.19999694824219</v>
+        <v>76.30899810791016</v>
       </c>
       <c r="C28">
-        <v>69.97000122070312</v>
+        <v>74.30000305175781</v>
       </c>
       <c r="D28">
-        <v>71.23000335693359</v>
+        <v>74.94999694824219</v>
       </c>
       <c r="E28">
-        <v>71.23000335693359</v>
+        <v>74.94999694824219</v>
       </c>
       <c r="F28">
-        <v>18142600</v>
+        <v>9998900</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>72.18000030517578</v>
+        <v>77.05999755859375</v>
       </c>
       <c r="B29">
-        <v>73.91000366210938</v>
+        <v>77.23000335693359</v>
       </c>
       <c r="C29">
-        <v>71.79000091552734</v>
+        <v>75.72499847412109</v>
       </c>
       <c r="D29">
-        <v>73.41000366210938</v>
+        <v>76.63999938964844</v>
       </c>
       <c r="E29">
-        <v>73.41000366210938</v>
+        <v>76.63999938964844</v>
       </c>
       <c r="F29">
-        <v>11896500</v>
+        <v>12948800</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>72.37000274658203</v>
+        <v>76.80999755859375</v>
       </c>
       <c r="B30">
-        <v>74.5</v>
+        <v>78.73500061035156</v>
       </c>
       <c r="C30">
-        <v>71.31999969482422</v>
+        <v>75.87000274658203</v>
       </c>
       <c r="D30">
-        <v>73.12999725341797</v>
+        <v>77.33999633789062</v>
       </c>
       <c r="E30">
-        <v>73.12999725341797</v>
+        <v>77.33999633789062</v>
       </c>
       <c r="F30">
-        <v>10927300</v>
+        <v>20404200</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>74.36000061035156</v>
+        <v>78.59999847412109</v>
       </c>
       <c r="B31">
-        <v>77.41000366210938</v>
+        <v>79.30000305175781</v>
       </c>
       <c r="C31">
-        <v>74.09999847412109</v>
+        <v>72.61000061035156</v>
       </c>
       <c r="D31">
-        <v>76.27999877929688</v>
+        <v>75.80000305175781</v>
       </c>
       <c r="E31">
-        <v>76.27999877929688</v>
+        <v>75.80000305175781</v>
       </c>
       <c r="F31">
-        <v>15547400</v>
+        <v>33053900</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>76.91000366210938</v>
+        <v>75.12000274658203</v>
       </c>
       <c r="B32">
-        <v>77.41000366210938</v>
+        <v>78.18000030517578</v>
       </c>
       <c r="C32">
-        <v>74.73999786376953</v>
+        <v>73.90000152587891</v>
       </c>
       <c r="D32">
-        <v>75</v>
+        <v>76.43000030517578</v>
       </c>
       <c r="E32">
-        <v>75</v>
+        <v>76.43000030517578</v>
       </c>
       <c r="F32">
-        <v>8906100</v>
+        <v>18720700</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>74.65000152587891</v>
+        <v>76.56999969482422</v>
       </c>
       <c r="B33">
-        <v>75.59999847412109</v>
+        <v>77.51999664306641</v>
       </c>
       <c r="C33">
-        <v>73.5</v>
+        <v>74.66999816894531</v>
       </c>
       <c r="D33">
-        <v>73.52999877929688</v>
+        <v>75.65000152587891</v>
       </c>
       <c r="E33">
-        <v>73.52999877929688</v>
+        <v>75.65000152587891</v>
       </c>
       <c r="F33">
-        <v>8990800</v>
+        <v>15739300</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>74.12000274658203</v>
+        <v>74.80999755859375</v>
       </c>
       <c r="B34">
-        <v>75.98000335693359</v>
+        <v>75.94999694824219</v>
       </c>
       <c r="C34">
-        <v>73.52999877929688</v>
+        <v>73.88999938964844</v>
       </c>
       <c r="D34">
-        <v>75.26000213623047</v>
+        <v>75.11000061035156</v>
       </c>
       <c r="E34">
-        <v>75.26000213623047</v>
+        <v>75.11000061035156</v>
       </c>
       <c r="F34">
-        <v>13691100</v>
+        <v>44450900</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>76.15000152587891</v>
+        <v>58.75</v>
       </c>
       <c r="B35">
-        <v>76.30899810791016</v>
+        <v>60.77999877929688</v>
       </c>
       <c r="C35">
-        <v>74.30000305175781</v>
+        <v>55.02999877929688</v>
       </c>
       <c r="D35">
-        <v>74.94999694824219</v>
+        <v>55.13999938964844</v>
       </c>
       <c r="E35">
-        <v>74.94999694824219</v>
+        <v>55.13999938964844</v>
       </c>
       <c r="F35">
-        <v>9998900</v>
+        <v>153827500</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>77.05999755859375</v>
+        <v>55.95999908447266</v>
       </c>
       <c r="B36">
-        <v>77.23000335693359</v>
+        <v>56.15000152587891</v>
       </c>
       <c r="C36">
-        <v>75.72499847412109</v>
+        <v>53.77000045776367</v>
       </c>
       <c r="D36">
-        <v>76.63999938964844</v>
+        <v>54.5</v>
       </c>
       <c r="E36">
-        <v>76.63999938964844</v>
+        <v>54.5</v>
       </c>
       <c r="F36">
-        <v>12948800</v>
+        <v>62506800</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>76.80999755859375</v>
+        <v>55.2400016784668</v>
       </c>
       <c r="B37">
-        <v>78.73500061035156</v>
+        <v>57.18000030517578</v>
       </c>
       <c r="C37">
-        <v>75.87000274658203</v>
+        <v>54.88000106811523</v>
       </c>
       <c r="D37">
-        <v>77.33999633789062</v>
+        <v>55.38999938964844</v>
       </c>
       <c r="E37">
-        <v>77.33999633789062</v>
+        <v>55.38999938964844</v>
       </c>
       <c r="F37">
-        <v>20404200</v>
+        <v>52905700</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>78.59999847412109</v>
+        <v>55.04999923706055</v>
       </c>
       <c r="B38">
-        <v>79.30000305175781</v>
+        <v>55.22999954223633</v>
       </c>
       <c r="C38">
-        <v>72.61000061035156</v>
+        <v>51.65999984741211</v>
       </c>
       <c r="D38">
-        <v>75.80000305175781</v>
+        <v>52.02000045776367</v>
       </c>
       <c r="E38">
-        <v>75.80000305175781</v>
+        <v>52.02000045776367</v>
       </c>
       <c r="F38">
-        <v>33053900</v>
+        <v>52581300</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>75.12000274658203</v>
+        <v>52.68000030517578</v>
       </c>
       <c r="B39">
-        <v>78.18000030517578</v>
+        <v>54.95999908447266</v>
       </c>
       <c r="C39">
-        <v>73.90000152587891</v>
+        <v>51.9900016784668</v>
       </c>
       <c r="D39">
-        <v>76.43000030517578</v>
+        <v>54.38999938964844</v>
       </c>
       <c r="E39">
-        <v>76.43000030517578</v>
+        <v>54.38999938964844</v>
       </c>
       <c r="F39">
-        <v>18720700</v>
+        <v>34748800</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>76.56999969482422</v>
+        <v>53.97000122070312</v>
       </c>
       <c r="B40">
-        <v>77.51999664306641</v>
+        <v>53.9900016784668</v>
       </c>
       <c r="C40">
-        <v>74.66999816894531</v>
+        <v>52.20999908447266</v>
       </c>
       <c r="D40">
-        <v>75.65000152587891</v>
+        <v>52.58000183105469</v>
       </c>
       <c r="E40">
-        <v>75.65000152587891</v>
+        <v>52.58000183105469</v>
       </c>
       <c r="F40">
-        <v>15739300</v>
+        <v>32465500</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>74.80999755859375</v>
+        <v>52.9900016784668</v>
       </c>
       <c r="B41">
-        <v>75.94999694824219</v>
+        <v>54.11000061035156</v>
       </c>
       <c r="C41">
-        <v>73.88999938964844</v>
+        <v>52.25</v>
       </c>
       <c r="D41">
-        <v>75.11000061035156</v>
+        <v>53.97999954223633</v>
       </c>
       <c r="E41">
-        <v>75.11000061035156</v>
+        <v>53.97999954223633</v>
       </c>
       <c r="F41">
-        <v>44450900</v>
+        <v>22666700</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>58.75</v>
+        <v>53.56999969482422</v>
       </c>
       <c r="B42">
-        <v>60.77999877929688</v>
+        <v>53.65999984741211</v>
       </c>
       <c r="C42">
-        <v>55.02999877929688</v>
+        <v>51.8650016784668</v>
       </c>
       <c r="D42">
-        <v>55.13999938964844</v>
+        <v>52.20000076293945</v>
       </c>
       <c r="E42">
-        <v>55.13999938964844</v>
+        <v>52.20000076293945</v>
       </c>
       <c r="F42">
-        <v>153827500</v>
+        <v>24120400</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>55.95999908447266</v>
+        <v>51.95000076293945</v>
       </c>
       <c r="B43">
-        <v>56.15000152587891</v>
+        <v>52.97000122070312</v>
       </c>
       <c r="C43">
-        <v>53.77000045776367</v>
+        <v>51.47000122070312</v>
       </c>
       <c r="D43">
-        <v>54.5</v>
+        <v>52.93999862670898</v>
       </c>
       <c r="E43">
-        <v>54.5</v>
+        <v>52.93999862670898</v>
       </c>
       <c r="F43">
-        <v>62506800</v>
+        <v>16319300</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>55.2400016784668</v>
+        <v>53.08000183105469</v>
       </c>
       <c r="B44">
-        <v>57.18000030517578</v>
+        <v>53.38000106811523</v>
       </c>
       <c r="C44">
-        <v>54.88000106811523</v>
+        <v>51.7599983215332</v>
       </c>
       <c r="D44">
-        <v>55.38999938964844</v>
+        <v>52.2599983215332</v>
       </c>
       <c r="E44">
-        <v>55.38999938964844</v>
+        <v>52.2599983215332</v>
       </c>
       <c r="F44">
-        <v>52905700</v>
+        <v>16371700</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>55.04999923706055</v>
+        <v>52.15000152587891</v>
       </c>
       <c r="B45">
-        <v>55.22999954223633</v>
+        <v>53.56999969482422</v>
       </c>
       <c r="C45">
-        <v>51.65999984741211</v>
+        <v>52.06999969482422</v>
       </c>
       <c r="D45">
-        <v>52.02000045776367</v>
+        <v>53.16999816894531</v>
       </c>
       <c r="E45">
-        <v>52.02000045776367</v>
+        <v>53.16999816894531</v>
       </c>
       <c r="F45">
-        <v>52581300</v>
+        <v>17447500</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>52.68000030517578</v>
+        <v>53.36000061035156</v>
       </c>
       <c r="B46">
-        <v>54.95999908447266</v>
+        <v>55.13000106811523</v>
       </c>
       <c r="C46">
-        <v>51.9900016784668</v>
+        <v>52.84999847412109</v>
       </c>
       <c r="D46">
-        <v>54.38999938964844</v>
+        <v>54.90000152587891</v>
       </c>
       <c r="E46">
-        <v>54.38999938964844</v>
+        <v>54.90000152587891</v>
       </c>
       <c r="F46">
-        <v>34748800</v>
+        <v>20154600</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>53.97000122070312</v>
+        <v>55.29499816894531</v>
       </c>
       <c r="B47">
-        <v>53.9900016784668</v>
+        <v>55.65000152587891</v>
       </c>
       <c r="C47">
-        <v>52.20999908447266</v>
+        <v>54.20000076293945</v>
       </c>
       <c r="D47">
-        <v>52.58000183105469</v>
+        <v>54.81999969482422</v>
       </c>
       <c r="E47">
-        <v>52.58000183105469</v>
+        <v>54.81999969482422</v>
       </c>
       <c r="F47">
-        <v>32465500</v>
+        <v>12489000</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>52.9900016784668</v>
+        <v>53.90999984741211</v>
       </c>
       <c r="B48">
-        <v>54.11000061035156</v>
+        <v>54.16999816894531</v>
       </c>
       <c r="C48">
-        <v>52.25</v>
+        <v>52.02000045776367</v>
       </c>
       <c r="D48">
-        <v>53.97999954223633</v>
+        <v>52.88000106811523</v>
       </c>
       <c r="E48">
-        <v>53.97999954223633</v>
+        <v>52.88000106811523</v>
       </c>
       <c r="F48">
-        <v>22666700</v>
+        <v>14812400</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>53.56999969482422</v>
+        <v>53.45999908447266</v>
       </c>
       <c r="B49">
-        <v>53.65999984741211</v>
+        <v>54.59000015258789</v>
       </c>
       <c r="C49">
-        <v>51.8650016784668</v>
+        <v>53.20000076293945</v>
       </c>
       <c r="D49">
-        <v>52.20000076293945</v>
+        <v>53.29000091552734</v>
       </c>
       <c r="E49">
-        <v>52.20000076293945</v>
+        <v>53.29000091552734</v>
       </c>
       <c r="F49">
-        <v>24120400</v>
+        <v>13322000</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>51.95000076293945</v>
+        <v>53.81999969482422</v>
       </c>
       <c r="B50">
-        <v>52.97000122070312</v>
+        <v>54.06999969482422</v>
       </c>
       <c r="C50">
-        <v>51.47000122070312</v>
+        <v>52.81999969482422</v>
       </c>
       <c r="D50">
-        <v>52.93999862670898</v>
+        <v>53.70000076293945</v>
       </c>
       <c r="E50">
-        <v>52.93999862670898</v>
+        <v>53.70000076293945</v>
       </c>
       <c r="F50">
-        <v>16319300</v>
+        <v>12960100</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>53.08000183105469</v>
+        <v>54.13999938964844</v>
       </c>
       <c r="B51">
-        <v>53.38000106811523</v>
+        <v>57.13999938964844</v>
       </c>
       <c r="C51">
-        <v>51.7599983215332</v>
+        <v>54.11999893188477</v>
       </c>
       <c r="D51">
-        <v>52.2599983215332</v>
+        <v>55.52999877929688</v>
       </c>
       <c r="E51">
-        <v>52.2599983215332</v>
+        <v>55.52999877929688</v>
       </c>
       <c r="F51">
-        <v>16371700</v>
+        <v>22192000</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>52.15000152587891</v>
+        <v>55.77999877929688</v>
       </c>
       <c r="B52">
-        <v>53.56999969482422</v>
+        <v>55.81000137329102</v>
       </c>
       <c r="C52">
-        <v>52.06999969482422</v>
+        <v>53.66500091552734</v>
       </c>
       <c r="D52">
-        <v>53.16999816894531</v>
+        <v>55.11000061035156</v>
       </c>
       <c r="E52">
-        <v>53.16999816894531</v>
+        <v>55.11000061035156</v>
       </c>
       <c r="F52">
-        <v>17447500</v>
+        <v>20754600</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>53.36000061035156</v>
+        <v>54.45000076293945</v>
       </c>
       <c r="B53">
-        <v>55.13000106811523</v>
+        <v>55.66799926757812</v>
       </c>
       <c r="C53">
-        <v>52.84999847412109</v>
+        <v>53.86000061035156</v>
       </c>
       <c r="D53">
-        <v>54.90000152587891</v>
+        <v>54.56000137329102</v>
       </c>
       <c r="E53">
-        <v>54.90000152587891</v>
+        <v>54.56000137329102</v>
       </c>
       <c r="F53">
-        <v>20154600</v>
+        <v>15005300</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>55.29499816894531</v>
+        <v>54.5099983215332</v>
       </c>
       <c r="B54">
-        <v>55.65000152587891</v>
+        <v>54.77000045776367</v>
       </c>
       <c r="C54">
-        <v>54.20000076293945</v>
+        <v>52.54999923706055</v>
       </c>
       <c r="D54">
-        <v>54.81999969482422</v>
+        <v>53.47000122070312</v>
       </c>
       <c r="E54">
-        <v>54.81999969482422</v>
+        <v>53.47000122070312</v>
       </c>
       <c r="F54">
-        <v>12489000</v>
+        <v>13069900</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>53.90999984741211</v>
+        <v>53.93000030517578</v>
       </c>
       <c r="B55">
-        <v>54.16999816894531</v>
+        <v>53.93000030517578</v>
       </c>
       <c r="C55">
-        <v>52.02000045776367</v>
+        <v>50.7599983215332</v>
       </c>
       <c r="D55">
-        <v>52.88000106811523</v>
+        <v>51.31999969482422</v>
       </c>
       <c r="E55">
-        <v>52.88000106811523</v>
+        <v>51.31999969482422</v>
       </c>
       <c r="F55">
-        <v>14812400</v>
+        <v>18095000</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>53.45999908447266</v>
+        <v>51.52000045776367</v>
       </c>
       <c r="B56">
-        <v>54.59000015258789</v>
+        <v>51.52000045776367</v>
       </c>
       <c r="C56">
-        <v>53.20000076293945</v>
+        <v>47.45999908447266</v>
       </c>
       <c r="D56">
-        <v>53.29000091552734</v>
+        <v>49.2599983215332</v>
       </c>
       <c r="E56">
-        <v>53.29000091552734</v>
+        <v>49.2599983215332</v>
       </c>
       <c r="F56">
-        <v>13322000</v>
+        <v>34273700</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>53.81999969482422</v>
+        <v>48.56999969482422</v>
       </c>
       <c r="B57">
-        <v>54.06999969482422</v>
+        <v>51.02999877929688</v>
       </c>
       <c r="C57">
-        <v>52.81999969482422</v>
+        <v>47.86000061035156</v>
       </c>
       <c r="D57">
-        <v>53.70000076293945</v>
+        <v>50.66999816894531</v>
       </c>
       <c r="E57">
-        <v>53.70000076293945</v>
+        <v>50.66999816894531</v>
       </c>
       <c r="F57">
-        <v>12960100</v>
+        <v>21262500</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>54.13999938964844</v>
+        <v>49</v>
       </c>
       <c r="B58">
-        <v>57.13999938964844</v>
+        <v>50.27000045776367</v>
       </c>
       <c r="C58">
-        <v>54.11999893188477</v>
+        <v>48.79999923706055</v>
       </c>
       <c r="D58">
-        <v>55.52999877929688</v>
+        <v>49.65999984741211</v>
       </c>
       <c r="E58">
-        <v>55.52999877929688</v>
+        <v>49.65999984741211</v>
       </c>
       <c r="F58">
-        <v>22192000</v>
+        <v>14813900</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>55.77999877929688</v>
+        <v>48.77000045776367</v>
       </c>
       <c r="B59">
-        <v>55.81000137329102</v>
+        <v>50.25</v>
       </c>
       <c r="C59">
-        <v>53.66500091552734</v>
+        <v>48.56999969482422</v>
       </c>
       <c r="D59">
-        <v>55.11000061035156</v>
+        <v>49.7599983215332</v>
       </c>
       <c r="E59">
-        <v>55.11000061035156</v>
+        <v>49.7599983215332</v>
       </c>
       <c r="F59">
-        <v>20754600</v>
+        <v>10487300</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>54.45000076293945</v>
+        <v>51.09999847412109</v>
       </c>
       <c r="B60">
-        <v>55.66799926757812</v>
+        <v>51.11999893188477</v>
       </c>
       <c r="C60">
-        <v>53.86000061035156</v>
+        <v>48.47999954223633</v>
       </c>
       <c r="D60">
-        <v>54.56000137329102</v>
+        <v>48.84999847412109</v>
       </c>
       <c r="E60">
-        <v>54.56000137329102</v>
+        <v>48.84999847412109</v>
       </c>
       <c r="F60">
-        <v>15005300</v>
+        <v>16171000</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>54.5099983215332</v>
+        <v>48.77999877929688</v>
       </c>
       <c r="B61">
-        <v>54.77000045776367</v>
+        <v>49.40000152587891</v>
       </c>
       <c r="C61">
-        <v>52.54999923706055</v>
+        <v>46.29999923706055</v>
       </c>
       <c r="D61">
-        <v>53.47000122070312</v>
+        <v>47.61000061035156</v>
       </c>
       <c r="E61">
-        <v>53.47000122070312</v>
+        <v>47.61000061035156</v>
       </c>
       <c r="F61">
-        <v>13069900</v>
+        <v>25773000</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>53.93000030517578</v>
+        <v>49.13000106811523</v>
       </c>
       <c r="B62">
-        <v>53.93000030517578</v>
+        <v>50.97999954223633</v>
       </c>
       <c r="C62">
-        <v>50.7599983215332</v>
+        <v>46.79999923706055</v>
       </c>
       <c r="D62">
-        <v>51.31999969482422</v>
+        <v>47.2599983215332</v>
       </c>
       <c r="E62">
-        <v>51.31999969482422</v>
+        <v>47.2599983215332</v>
       </c>
       <c r="F62">
-        <v>18095000</v>
+        <v>28507500</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>51.52000045776367</v>
+        <v>47.2400016784668</v>
       </c>
       <c r="B63">
-        <v>51.52000045776367</v>
+        <v>48.29000091552734</v>
       </c>
       <c r="C63">
-        <v>47.45999908447266</v>
+        <v>46.5099983215332</v>
       </c>
       <c r="D63">
-        <v>49.2599983215332</v>
+        <v>47.90999984741211</v>
       </c>
       <c r="E63">
-        <v>49.2599983215332</v>
+        <v>47.90999984741211</v>
       </c>
       <c r="F63">
-        <v>34273700</v>
+        <v>14418100</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>48.56999969482422</v>
+        <v>47.77000045776367</v>
       </c>
       <c r="B64">
-        <v>51.02999877929688</v>
+        <v>48.66999816894531</v>
       </c>
       <c r="C64">
-        <v>47.86000061035156</v>
+        <v>45.45999908447266</v>
       </c>
       <c r="D64">
-        <v>50.66999816894531</v>
+        <v>46.79000091552734</v>
       </c>
       <c r="E64">
-        <v>50.66999816894531</v>
+        <v>46.79000091552734</v>
       </c>
       <c r="F64">
-        <v>21262500</v>
+        <v>19602400</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>49</v>
+        <v>46.20999908447266</v>
       </c>
       <c r="B65">
-        <v>50.27000045776367</v>
+        <v>48.32500076293945</v>
       </c>
       <c r="C65">
-        <v>48.79999923706055</v>
+        <v>44.91999816894531</v>
       </c>
       <c r="D65">
-        <v>49.65999984741211</v>
+        <v>47.91999816894531</v>
       </c>
       <c r="E65">
-        <v>49.65999984741211</v>
+        <v>47.91999816894531</v>
       </c>
       <c r="F65">
-        <v>14813900</v>
+        <v>15738500</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>48.77000045776367</v>
+        <v>49.375</v>
       </c>
       <c r="B66">
-        <v>50.25</v>
+        <v>51.68000030517578</v>
       </c>
       <c r="C66">
-        <v>48.56999969482422</v>
+        <v>49.29000091552734</v>
       </c>
       <c r="D66">
-        <v>49.7599983215332</v>
+        <v>50.40000152587891</v>
       </c>
       <c r="E66">
-        <v>49.7599983215332</v>
+        <v>50.40000152587891</v>
       </c>
       <c r="F66">
-        <v>10487300</v>
+        <v>20782600</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>51.09999847412109</v>
+        <v>50.61999893188477</v>
       </c>
       <c r="B67">
-        <v>51.11999893188477</v>
+        <v>54.83499908447266</v>
       </c>
       <c r="C67">
-        <v>48.47999954223633</v>
+        <v>50.20000076293945</v>
       </c>
       <c r="D67">
-        <v>48.84999847412109</v>
+        <v>53.41999816894531</v>
       </c>
       <c r="E67">
-        <v>48.84999847412109</v>
+        <v>53.41999816894531</v>
       </c>
       <c r="F67">
-        <v>16171000</v>
+        <v>26768000</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>48.77999877929688</v>
+        <v>52.79000091552734</v>
       </c>
       <c r="B68">
-        <v>49.40000152587891</v>
+        <v>54.88999938964844</v>
       </c>
       <c r="C68">
-        <v>46.29999923706055</v>
+        <v>52.11000061035156</v>
       </c>
       <c r="D68">
-        <v>47.61000061035156</v>
+        <v>52.36000061035156</v>
       </c>
       <c r="E68">
-        <v>47.61000061035156</v>
+        <v>52.36000061035156</v>
       </c>
       <c r="F68">
-        <v>25773000</v>
+        <v>19408100</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>49.13000106811523</v>
+        <v>52.63000106811523</v>
       </c>
       <c r="B69">
-        <v>50.97999954223633</v>
+        <v>53.31000137329102</v>
       </c>
       <c r="C69">
-        <v>46.79999923706055</v>
+        <v>50.05500030517578</v>
       </c>
       <c r="D69">
-        <v>47.2599983215332</v>
+        <v>50.81999969482422</v>
       </c>
       <c r="E69">
-        <v>47.2599983215332</v>
+        <v>50.81999969482422</v>
       </c>
       <c r="F69">
-        <v>28507500</v>
+        <v>13404800</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>47.2400016784668</v>
+        <v>50.31999969482422</v>
       </c>
       <c r="B70">
-        <v>48.29000091552734</v>
+        <v>50.43999862670898</v>
       </c>
       <c r="C70">
-        <v>46.5099983215332</v>
+        <v>46.45999908447266</v>
       </c>
       <c r="D70">
-        <v>47.90999984741211</v>
+        <v>48.13999938964844</v>
       </c>
       <c r="E70">
-        <v>47.90999984741211</v>
+        <v>48.13999938964844</v>
       </c>
       <c r="F70">
-        <v>14418100</v>
+        <v>21235100</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>47.77000045776367</v>
+        <v>47.59999847412109</v>
       </c>
       <c r="B71">
-        <v>48.66999816894531</v>
+        <v>48.31499862670898</v>
       </c>
       <c r="C71">
-        <v>45.45999908447266</v>
+        <v>46.38000106811523</v>
       </c>
       <c r="D71">
-        <v>46.79000091552734</v>
+        <v>46.84999847412109</v>
       </c>
       <c r="E71">
-        <v>46.79000091552734</v>
+        <v>46.84999847412109</v>
       </c>
       <c r="F71">
-        <v>19602400</v>
+        <v>16496600</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>46.20999908447266</v>
+        <v>46.34999847412109</v>
       </c>
       <c r="B72">
-        <v>48.32500076293945</v>
+        <v>46.66999816894531</v>
       </c>
       <c r="C72">
-        <v>44.91999816894531</v>
+        <v>44.07699966430664</v>
       </c>
       <c r="D72">
-        <v>47.91999816894531</v>
+        <v>46.40999984741211</v>
       </c>
       <c r="E72">
-        <v>47.91999816894531</v>
+        <v>46.40999984741211</v>
       </c>
       <c r="F72">
-        <v>15738500</v>
+        <v>23804800</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>49.375</v>
+        <v>47.40999984741211</v>
       </c>
       <c r="B73">
-        <v>51.68000030517578</v>
+        <v>48.02000045776367</v>
       </c>
       <c r="C73">
-        <v>49.29000091552734</v>
+        <v>44.06999969482422</v>
       </c>
       <c r="D73">
-        <v>50.40000152587891</v>
+        <v>44.70000076293945</v>
       </c>
       <c r="E73">
-        <v>50.40000152587891</v>
+        <v>44.70000076293945</v>
       </c>
       <c r="F73">
-        <v>20782600</v>
+        <v>21512200</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>50.61999893188477</v>
+        <v>43.63999938964844</v>
       </c>
       <c r="B74">
-        <v>54.83499908447266</v>
+        <v>45.88999938964844</v>
       </c>
       <c r="C74">
-        <v>50.20000076293945</v>
+        <v>42.95999908447266</v>
       </c>
       <c r="D74">
-        <v>53.41999816894531</v>
+        <v>45.29000091552734</v>
       </c>
       <c r="E74">
-        <v>53.41999816894531</v>
+        <v>45.29000091552734</v>
       </c>
       <c r="F74">
-        <v>26768000</v>
+        <v>22959700</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>52.79000091552734</v>
+        <v>44.22000122070312</v>
       </c>
       <c r="B75">
-        <v>54.88999938964844</v>
+        <v>45.15000152587891</v>
       </c>
       <c r="C75">
-        <v>52.11000061035156</v>
+        <v>43.38000106811523</v>
       </c>
       <c r="D75">
-        <v>52.36000061035156</v>
+        <v>44.41999816894531</v>
       </c>
       <c r="E75">
-        <v>52.36000061035156</v>
+        <v>44.41999816894531</v>
       </c>
       <c r="F75">
-        <v>19408100</v>
+        <v>12921600</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>52.63000106811523</v>
+        <v>44.88999938964844</v>
       </c>
       <c r="B76">
-        <v>53.31000137329102</v>
+        <v>46.20000076293945</v>
       </c>
       <c r="C76">
-        <v>50.05500030517578</v>
+        <v>43.90000152587891</v>
       </c>
       <c r="D76">
-        <v>50.81999969482422</v>
+        <v>46.09999847412109</v>
       </c>
       <c r="E76">
-        <v>50.81999969482422</v>
+        <v>46.09999847412109</v>
       </c>
       <c r="F76">
-        <v>13404800</v>
+        <v>15203200</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>50.31999969482422</v>
+        <v>45.98500061035156</v>
       </c>
       <c r="B77">
-        <v>50.43999862670898</v>
+        <v>47.20999908447266</v>
       </c>
       <c r="C77">
-        <v>46.45999908447266</v>
+        <v>45.45999908447266</v>
       </c>
       <c r="D77">
-        <v>48.13999938964844</v>
+        <v>46.77000045776367</v>
       </c>
       <c r="E77">
-        <v>48.13999938964844</v>
+        <v>46.77000045776367</v>
       </c>
       <c r="F77">
-        <v>21235100</v>
+        <v>12055000</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>47.59999847412109</v>
+        <v>47.34999847412109</v>
       </c>
       <c r="B78">
-        <v>48.31499862670898</v>
+        <v>49.06999969482422</v>
       </c>
       <c r="C78">
-        <v>46.38000106811523</v>
+        <v>45.95999908447266</v>
       </c>
       <c r="D78">
-        <v>46.84999847412109</v>
+        <v>48.68000030517578</v>
       </c>
       <c r="E78">
-        <v>46.84999847412109</v>
+        <v>48.68000030517578</v>
       </c>
       <c r="F78">
-        <v>16496600</v>
+        <v>18546400</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>46.34999847412109</v>
+        <v>48.45000076293945</v>
       </c>
       <c r="B79">
-        <v>46.66999816894531</v>
+        <v>49.25</v>
       </c>
       <c r="C79">
-        <v>44.07699966430664</v>
+        <v>48.02000045776367</v>
       </c>
       <c r="D79">
-        <v>46.40999984741211</v>
+        <v>48.63999938964844</v>
       </c>
       <c r="E79">
-        <v>46.40999984741211</v>
+        <v>48.63999938964844</v>
       </c>
       <c r="F79">
-        <v>23804800</v>
+        <v>8163900</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>47.40999984741211</v>
+        <v>48.5</v>
       </c>
       <c r="B80">
-        <v>48.02000045776367</v>
+        <v>49.22999954223633</v>
       </c>
       <c r="C80">
-        <v>44.06999969482422</v>
+        <v>47.43000030517578</v>
       </c>
       <c r="D80">
-        <v>44.70000076293945</v>
+        <v>47.70999908447266</v>
       </c>
       <c r="E80">
-        <v>44.70000076293945</v>
+        <v>47.70999908447266</v>
       </c>
       <c r="F80">
-        <v>21512200</v>
+        <v>8984500</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>43.63999938964844</v>
+        <v>47.59500122070312</v>
       </c>
       <c r="B81">
-        <v>45.88999938964844</v>
+        <v>47.91999816894531</v>
       </c>
       <c r="C81">
-        <v>42.95999908447266</v>
+        <v>46.56000137329102</v>
       </c>
       <c r="D81">
-        <v>45.29000091552734</v>
+        <v>47.06000137329102</v>
       </c>
       <c r="E81">
-        <v>45.29000091552734</v>
+        <v>47.06000137329102</v>
       </c>
       <c r="F81">
-        <v>22959700</v>
+        <v>7693700</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>44.22000122070312</v>
+        <v>46.81000137329102</v>
       </c>
       <c r="B82">
-        <v>45.15000152587891</v>
+        <v>48.7400016784668</v>
       </c>
       <c r="C82">
-        <v>43.38000106811523</v>
+        <v>46.81000137329102</v>
       </c>
       <c r="D82">
-        <v>44.41999816894531</v>
+        <v>48.02999877929688</v>
       </c>
       <c r="E82">
-        <v>44.41999816894531</v>
+        <v>48.02999877929688</v>
       </c>
       <c r="F82">
-        <v>12921600</v>
+        <v>10170200</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>44.88999938964844</v>
+        <v>47.79999923706055</v>
       </c>
       <c r="B83">
-        <v>46.20000076293945</v>
+        <v>48.45000076293945</v>
       </c>
       <c r="C83">
-        <v>43.90000152587891</v>
+        <v>47.0099983215332</v>
       </c>
       <c r="D83">
-        <v>46.09999847412109</v>
+        <v>47.02999877929688</v>
       </c>
       <c r="E83">
-        <v>46.09999847412109</v>
+        <v>47.02999877929688</v>
       </c>
       <c r="F83">
-        <v>15203200</v>
+        <v>8310700</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>45.98500061035156</v>
+        <v>47.63000106811523</v>
       </c>
       <c r="B84">
-        <v>47.20999908447266</v>
+        <v>47.70999908447266</v>
       </c>
       <c r="C84">
-        <v>45.45999908447266</v>
+        <v>45.9900016784668</v>
       </c>
       <c r="D84">
-        <v>46.77000045776367</v>
+        <v>46.59000015258789</v>
       </c>
       <c r="E84">
-        <v>46.77000045776367</v>
+        <v>46.59000015258789</v>
       </c>
       <c r="F84">
-        <v>12055000</v>
+        <v>7931400</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>47.34999847412109</v>
+        <v>46.84999847412109</v>
       </c>
       <c r="B85">
-        <v>49.06999969482422</v>
+        <v>46.9900016784668</v>
       </c>
       <c r="C85">
-        <v>45.95999908447266</v>
+        <v>42.45999908447266</v>
       </c>
       <c r="D85">
-        <v>48.68000030517578</v>
+        <v>44.02999877929688</v>
       </c>
       <c r="E85">
-        <v>48.68000030517578</v>
+        <v>44.02999877929688</v>
       </c>
       <c r="F85">
-        <v>18546400</v>
+        <v>26659100</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>48.45000076293945</v>
+        <v>43.5</v>
       </c>
       <c r="B86">
-        <v>49.25</v>
+        <v>44.4900016784668</v>
       </c>
       <c r="C86">
-        <v>48.02000045776367</v>
+        <v>41.0099983215332</v>
       </c>
       <c r="D86">
-        <v>48.63999938964844</v>
+        <v>41.33000183105469</v>
       </c>
       <c r="E86">
-        <v>48.63999938964844</v>
+        <v>41.33000183105469</v>
       </c>
       <c r="F86">
-        <v>8163900</v>
+        <v>22163300</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>48.5</v>
+        <v>41.25</v>
       </c>
       <c r="B87">
-        <v>49.22999954223633</v>
+        <v>42.43000030517578</v>
       </c>
       <c r="C87">
-        <v>47.43000030517578</v>
+        <v>39.81999969482422</v>
       </c>
       <c r="D87">
-        <v>47.70999908447266</v>
+        <v>41.68000030517578</v>
       </c>
       <c r="E87">
-        <v>47.70999908447266</v>
+        <v>41.68000030517578</v>
       </c>
       <c r="F87">
-        <v>8984500</v>
+        <v>17882300</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>47.59500122070312</v>
+        <v>41.54000091552734</v>
       </c>
       <c r="B88">
-        <v>47.91999816894531</v>
+        <v>43.27999877929688</v>
       </c>
       <c r="C88">
-        <v>46.56000137329102</v>
+        <v>41.04999923706055</v>
       </c>
       <c r="D88">
-        <v>47.06000137329102</v>
+        <v>41.36000061035156</v>
       </c>
       <c r="E88">
-        <v>47.06000137329102</v>
+        <v>41.36000061035156</v>
       </c>
       <c r="F88">
-        <v>7693700</v>
+        <v>15710600</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>46.81000137329102</v>
+        <v>40.7400016784668</v>
       </c>
       <c r="B89">
-        <v>48.7400016784668</v>
+        <v>41.77500152587891</v>
       </c>
       <c r="C89">
-        <v>46.81000137329102</v>
+        <v>38.5099983215332</v>
       </c>
       <c r="D89">
-        <v>48.02999877929688</v>
+        <v>41.70999908447266</v>
       </c>
       <c r="E89">
-        <v>48.02999877929688</v>
+        <v>41.70999908447266</v>
       </c>
       <c r="F89">
-        <v>10170200</v>
+        <v>20895900</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>47.79999923706055</v>
+        <v>42.06000137329102</v>
       </c>
       <c r="B90">
-        <v>48.45000076293945</v>
+        <v>43.72000122070312</v>
       </c>
       <c r="C90">
-        <v>47.0099983215332</v>
+        <v>41.77999877929688</v>
       </c>
       <c r="D90">
-        <v>47.02999877929688</v>
+        <v>43.31000137329102</v>
       </c>
       <c r="E90">
-        <v>47.02999877929688</v>
+        <v>43.31000137329102</v>
       </c>
       <c r="F90">
-        <v>8310700</v>
+        <v>17386600</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>47.63000106811523</v>
+        <v>43.81000137329102</v>
       </c>
       <c r="B91">
-        <v>47.70999908447266</v>
+        <v>44.34000015258789</v>
       </c>
       <c r="C91">
-        <v>45.9900016784668</v>
+        <v>42.06000137329102</v>
       </c>
       <c r="D91">
-        <v>46.59000015258789</v>
+        <v>42.72999954223633</v>
       </c>
       <c r="E91">
-        <v>46.59000015258789</v>
+        <v>42.72999954223633</v>
       </c>
       <c r="F91">
-        <v>7931400</v>
+        <v>12637500</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>46.84999847412109</v>
+        <v>40.63999938964844</v>
       </c>
       <c r="B92">
-        <v>46.9900016784668</v>
+        <v>41.45999908447266</v>
       </c>
       <c r="C92">
-        <v>42.45999908447266</v>
+        <v>38.2599983215332</v>
       </c>
       <c r="D92">
-        <v>44.02999877929688</v>
+        <v>38.38000106811523</v>
       </c>
       <c r="E92">
-        <v>44.02999877929688</v>
+        <v>38.38000106811523</v>
       </c>
       <c r="F92">
-        <v>26659100</v>
+        <v>32180500</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>43.5</v>
+        <v>37.72000122070312</v>
       </c>
       <c r="B93">
-        <v>44.4900016784668</v>
+        <v>38.33000183105469</v>
       </c>
       <c r="C93">
-        <v>41.0099983215332</v>
+        <v>36.56000137329102</v>
       </c>
       <c r="D93">
-        <v>41.33000183105469</v>
+        <v>38.04000091552734</v>
       </c>
       <c r="E93">
-        <v>41.33000183105469</v>
+        <v>38.04000091552734</v>
       </c>
       <c r="F93">
-        <v>22163300</v>
+        <v>25547000</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>41.25</v>
+        <v>36.97999954223633</v>
       </c>
       <c r="B94">
-        <v>42.43000030517578</v>
+        <v>36.98500061035156</v>
       </c>
       <c r="C94">
-        <v>39.81999969482422</v>
+        <v>35.61999893188477</v>
       </c>
       <c r="D94">
-        <v>41.68000030517578</v>
+        <v>35.70000076293945</v>
       </c>
       <c r="E94">
-        <v>41.68000030517578</v>
+        <v>35.70000076293945</v>
       </c>
       <c r="F94">
-        <v>17882300</v>
+        <v>37008100</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>41.54000091552734</v>
+        <v>36.02999877929688</v>
       </c>
       <c r="B95">
-        <v>43.27999877929688</v>
+        <v>36.47999954223633</v>
       </c>
       <c r="C95">
-        <v>41.04999923706055</v>
+        <v>34.7599983215332</v>
       </c>
       <c r="D95">
-        <v>41.36000061035156</v>
+        <v>35.04999923706055</v>
       </c>
       <c r="E95">
-        <v>41.36000061035156</v>
+        <v>35.04999923706055</v>
       </c>
       <c r="F95">
-        <v>15710600</v>
+        <v>23942000</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>40.7400016784668</v>
+        <v>35.79999923706055</v>
       </c>
       <c r="B96">
-        <v>41.77500152587891</v>
+        <v>37.10499954223633</v>
       </c>
       <c r="C96">
-        <v>38.5099983215332</v>
+        <v>34.91500091552734</v>
       </c>
       <c r="D96">
-        <v>41.70999908447266</v>
+        <v>34.9900016784668</v>
       </c>
       <c r="E96">
-        <v>41.70999908447266</v>
+        <v>34.9900016784668</v>
       </c>
       <c r="F96">
-        <v>20895900</v>
+        <v>21672700</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>42.06000137329102</v>
+        <v>34</v>
       </c>
       <c r="B97">
-        <v>43.72000122070312</v>
+        <v>34.61999893188477</v>
       </c>
       <c r="C97">
-        <v>41.77999877929688</v>
+        <v>32</v>
       </c>
       <c r="D97">
-        <v>43.31000137329102</v>
+        <v>32.11999893188477</v>
       </c>
       <c r="E97">
-        <v>43.31000137329102</v>
+        <v>32.11999893188477</v>
       </c>
       <c r="F97">
-        <v>17386600</v>
+        <v>37648400</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>43.81000137329102</v>
+        <v>30.15999984741211</v>
       </c>
       <c r="B98">
-        <v>44.34000015258789</v>
+        <v>31.80999946594238</v>
       </c>
       <c r="C98">
-        <v>42.06000137329102</v>
+        <v>28.02000045776367</v>
       </c>
       <c r="D98">
-        <v>42.72999954223633</v>
+        <v>31.79999923706055</v>
       </c>
       <c r="E98">
-        <v>42.72999954223633</v>
+        <v>31.79999923706055</v>
       </c>
       <c r="F98">
-        <v>12637500</v>
+        <v>46502200</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>40.63999938964844</v>
+        <v>31.01000022888184</v>
       </c>
       <c r="B99">
-        <v>41.45999908447266</v>
+        <v>32.09000015258789</v>
       </c>
       <c r="C99">
-        <v>38.2599983215332</v>
+        <v>30.08499908447266</v>
       </c>
       <c r="D99">
-        <v>38.38000106811523</v>
+        <v>30.65999984741211</v>
       </c>
       <c r="E99">
-        <v>38.38000106811523</v>
+        <v>30.65999984741211</v>
       </c>
       <c r="F99">
-        <v>32180500</v>
+        <v>26893800</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>37.72000122070312</v>
+        <v>31.3799991607666</v>
       </c>
       <c r="B100">
-        <v>38.33000183105469</v>
+        <v>31.90999984741211</v>
       </c>
       <c r="C100">
-        <v>36.56000137329102</v>
+        <v>28.15999984741211</v>
       </c>
       <c r="D100">
-        <v>38.04000091552734</v>
+        <v>28.6299991607666</v>
       </c>
       <c r="E100">
-        <v>38.04000091552734</v>
+        <v>28.6299991607666</v>
       </c>
       <c r="F100">
-        <v>25547000</v>
+        <v>35467300</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>36.97999954223633</v>
+        <v>29.6299991607666</v>
       </c>
       <c r="B101">
-        <v>36.98500061035156</v>
+        <v>30.67000007629395</v>
       </c>
       <c r="C101">
-        <v>35.61999893188477</v>
+        <v>28.17000007629395</v>
       </c>
       <c r="D101">
-        <v>35.70000076293945</v>
+        <v>28.29999923706055</v>
       </c>
       <c r="E101">
-        <v>35.70000076293945</v>
+        <v>28.29999923706055</v>
       </c>
       <c r="F101">
-        <v>37008100</v>
+        <v>35331900</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>36.02999877929688</v>
+        <v>28.6299991607666</v>
       </c>
       <c r="B102">
-        <v>36.47999954223633</v>
+        <v>30.47999954223633</v>
       </c>
       <c r="C102">
-        <v>34.7599983215332</v>
+        <v>28.1299991607666</v>
       </c>
       <c r="D102">
-        <v>35.04999923706055</v>
+        <v>30.42000007629395</v>
       </c>
       <c r="E102">
-        <v>35.04999923706055</v>
+        <v>30.42000007629395</v>
       </c>
       <c r="F102">
-        <v>23942000</v>
+        <v>28380500</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>35.79999923706055</v>
+        <v>30.64999961853027</v>
       </c>
       <c r="B103">
-        <v>37.10499954223633</v>
+        <v>32.63000106811523</v>
       </c>
       <c r="C103">
-        <v>34.91500091552734</v>
+        <v>30.64999961853027</v>
       </c>
       <c r="D103">
-        <v>34.9900016784668</v>
+        <v>32.54000091552734</v>
       </c>
       <c r="E103">
-        <v>34.9900016784668</v>
+        <v>32.54000091552734</v>
       </c>
       <c r="F103">
-        <v>21672700</v>
+        <v>25872900</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>34</v>
+        <v>34.13000106811523</v>
       </c>
       <c r="B104">
-        <v>34.61999893188477</v>
+        <v>34.20000076293945</v>
       </c>
       <c r="C104">
-        <v>32</v>
+        <v>32.20999908447266</v>
       </c>
       <c r="D104">
-        <v>32.11999893188477</v>
+        <v>33.65999984741211</v>
       </c>
       <c r="E104">
-        <v>32.11999893188477</v>
+        <v>33.65999984741211</v>
       </c>
       <c r="F104">
-        <v>37648400</v>
+        <v>28108900</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>30.15999984741211</v>
+        <v>34.15000152587891</v>
       </c>
       <c r="B105">
-        <v>31.80999946594238</v>
+        <v>34.24499893188477</v>
       </c>
       <c r="C105">
-        <v>28.02000045776367</v>
+        <v>31.72999954223633</v>
       </c>
       <c r="D105">
-        <v>31.79999923706055</v>
+        <v>32.06999969482422</v>
       </c>
       <c r="E105">
-        <v>31.79999923706055</v>
+        <v>32.06999969482422</v>
       </c>
       <c r="F105">
-        <v>46502200</v>
+        <v>41654600</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>31.01000022888184</v>
+        <v>25.73999977111816</v>
       </c>
       <c r="B106">
-        <v>32.09000015258789</v>
+        <v>26.48999977111816</v>
       </c>
       <c r="C106">
-        <v>30.08499908447266</v>
+        <v>24.31999969482422</v>
       </c>
       <c r="D106">
-        <v>30.65999984741211</v>
+        <v>24.5</v>
       </c>
       <c r="E106">
-        <v>30.65999984741211</v>
+        <v>24.5</v>
       </c>
       <c r="F106">
-        <v>26893800</v>
+        <v>149336000</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>31.3799991607666</v>
+        <v>35.27000045776367</v>
       </c>
       <c r="B107">
-        <v>31.90999984741211</v>
+        <v>40.65000152587891</v>
       </c>
       <c r="C107">
-        <v>28.15999984741211</v>
+        <v>34.09999847412109</v>
       </c>
       <c r="D107">
-        <v>28.6299991607666</v>
+        <v>38.90999984741211</v>
       </c>
       <c r="E107">
-        <v>28.6299991607666</v>
+        <v>38.90999984741211</v>
       </c>
       <c r="F107">
-        <v>35467300</v>
+        <v>308020500</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>29.6299991607666</v>
+        <v>38.5099983215332</v>
       </c>
       <c r="B108">
-        <v>30.67000007629395</v>
+        <v>39.59000015258789</v>
       </c>
       <c r="C108">
-        <v>28.17000007629395</v>
+        <v>37.52000045776367</v>
       </c>
       <c r="D108">
-        <v>28.29999923706055</v>
+        <v>37.88000106811523</v>
       </c>
       <c r="E108">
-        <v>28.29999923706055</v>
+        <v>37.88000106811523</v>
       </c>
       <c r="F108">
-        <v>35331900</v>
+        <v>96743300</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>28.6299991607666</v>
+        <v>35.5099983215332</v>
       </c>
       <c r="B109">
-        <v>30.47999954223633</v>
+        <v>37.7599983215332</v>
       </c>
       <c r="C109">
-        <v>28.1299991607666</v>
+        <v>34.86999893188477</v>
       </c>
       <c r="D109">
-        <v>30.42000007629395</v>
+        <v>37.56000137329102</v>
       </c>
       <c r="E109">
-        <v>30.42000007629395</v>
+        <v>37.56000137329102</v>
       </c>
       <c r="F109">
-        <v>28380500</v>
+        <v>85621100</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>30.64999961853027</v>
+        <v>37.7400016784668</v>
       </c>
       <c r="B110">
-        <v>32.63000106811523</v>
+        <v>40.33000183105469</v>
       </c>
       <c r="C110">
-        <v>30.64999961853027</v>
+        <v>37.11000061035156</v>
       </c>
       <c r="D110">
-        <v>32.54000091552734</v>
+        <v>40.27999877929688</v>
       </c>
       <c r="E110">
-        <v>32.54000091552734</v>
+        <v>40.27999877929688</v>
       </c>
       <c r="F110">
-        <v>25872900</v>
+        <v>67166800</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>34.13000106811523</v>
+        <v>38.5099983215332</v>
       </c>
       <c r="B111">
-        <v>34.20000076293945</v>
+        <v>41.97000122070312</v>
       </c>
       <c r="C111">
-        <v>32.20999908447266</v>
+        <v>38.50500106811523</v>
       </c>
       <c r="D111">
-        <v>33.65999984741211</v>
+        <v>40.61999893188477</v>
       </c>
       <c r="E111">
-        <v>33.65999984741211</v>
+        <v>40.61999893188477</v>
       </c>
       <c r="F111">
-        <v>28108900</v>
+        <v>65264300</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>34.15000152587891</v>
+        <v>40.38000106811523</v>
       </c>
       <c r="B112">
-        <v>34.24499893188477</v>
+        <v>41.97000122070312</v>
       </c>
       <c r="C112">
-        <v>31.72999954223633</v>
+        <v>39.06999969482422</v>
       </c>
       <c r="D112">
-        <v>32.06999969482422</v>
+        <v>39.4900016784668</v>
       </c>
       <c r="E112">
-        <v>32.06999969482422</v>
+        <v>39.4900016784668</v>
       </c>
       <c r="F112">
-        <v>41654600</v>
+        <v>42721700</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>25.73999977111816</v>
+        <v>39.95999908447266</v>
       </c>
       <c r="B113">
-        <v>26.48999977111816</v>
+        <v>41.88999938964844</v>
       </c>
       <c r="C113">
-        <v>24.31999969482422</v>
+        <v>39.5</v>
       </c>
       <c r="D113">
-        <v>24.5</v>
+        <v>39.61999893188477</v>
       </c>
       <c r="E113">
-        <v>24.5</v>
+        <v>39.61999893188477</v>
       </c>
       <c r="F113">
-        <v>149336000</v>
+        <v>37579800</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>35.27000045776367</v>
+        <v>40.15999984741211</v>
       </c>
       <c r="B114">
-        <v>40.65000152587891</v>
+        <v>41.45999908447266</v>
       </c>
       <c r="C114">
-        <v>34.09999847412109</v>
+        <v>39.93999862670898</v>
       </c>
       <c r="D114">
-        <v>38.90999984741211</v>
+        <v>41.43000030517578</v>
       </c>
       <c r="E114">
-        <v>38.90999984741211</v>
+        <v>41.43000030517578</v>
       </c>
       <c r="F114">
-        <v>308020500</v>
+        <v>26091600</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>38.5099983215332</v>
+        <v>38.95999908447266</v>
       </c>
       <c r="B115">
-        <v>39.59000015258789</v>
+        <v>40.59999847412109</v>
       </c>
       <c r="C115">
-        <v>37.52000045776367</v>
+        <v>38.95999908447266</v>
       </c>
       <c r="D115">
-        <v>37.88000106811523</v>
+        <v>40.0099983215332</v>
       </c>
       <c r="E115">
-        <v>37.88000106811523</v>
+        <v>40.0099983215332</v>
       </c>
       <c r="F115">
-        <v>96743300</v>
+        <v>35643500</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>35.5099983215332</v>
+        <v>40.45000076293945</v>
       </c>
       <c r="B116">
-        <v>37.7599983215332</v>
+        <v>40.81999969482422</v>
       </c>
       <c r="C116">
-        <v>34.86999893188477</v>
+        <v>39.16999816894531</v>
       </c>
       <c r="D116">
-        <v>37.56000137329102</v>
+        <v>39.45000076293945</v>
       </c>
       <c r="E116">
-        <v>37.56000137329102</v>
+        <v>39.45000076293945</v>
       </c>
       <c r="F116">
-        <v>85621100</v>
+        <v>24624400</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>37.7400016784668</v>
+        <v>39.61000061035156</v>
       </c>
       <c r="B117">
-        <v>40.33000183105469</v>
+        <v>40.40000152587891</v>
       </c>
       <c r="C117">
-        <v>37.11000061035156</v>
+        <v>37.93999862670898</v>
       </c>
       <c r="D117">
-        <v>40.27999877929688</v>
+        <v>38.0099983215332</v>
       </c>
       <c r="E117">
-        <v>40.27999877929688</v>
+        <v>38.0099983215332</v>
       </c>
       <c r="F117">
-        <v>67166800</v>
+        <v>23064200</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>38.5099983215332</v>
+        <v>37.75</v>
       </c>
       <c r="B118">
-        <v>41.97000122070312</v>
+        <v>38.47000122070312</v>
       </c>
       <c r="C118">
-        <v>38.50500106811523</v>
+        <v>36.36999893188477</v>
       </c>
       <c r="D118">
-        <v>40.61999893188477</v>
+        <v>36.86999893188477</v>
       </c>
       <c r="E118">
-        <v>40.61999893188477</v>
+        <v>36.86999893188477</v>
       </c>
       <c r="F118">
-        <v>65264300</v>
+        <v>25433100</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>40.38000106811523</v>
+        <v>37.18999862670898</v>
       </c>
       <c r="B119">
-        <v>41.97000122070312</v>
+        <v>38.15000152587891</v>
       </c>
       <c r="C119">
-        <v>39.06999969482422</v>
+        <v>36.15999984741211</v>
       </c>
       <c r="D119">
-        <v>39.4900016784668</v>
+        <v>36.97999954223633</v>
       </c>
       <c r="E119">
-        <v>39.4900016784668</v>
+        <v>36.97999954223633</v>
       </c>
       <c r="F119">
-        <v>42721700</v>
+        <v>24429900</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>39.95999908447266</v>
+        <v>34.95000076293945</v>
       </c>
       <c r="B120">
-        <v>41.88999938964844</v>
+        <v>39.04999923706055</v>
       </c>
       <c r="C120">
-        <v>39.5</v>
+        <v>34.95000076293945</v>
       </c>
       <c r="D120">
-        <v>39.61999893188477</v>
+        <v>38.83000183105469</v>
       </c>
       <c r="E120">
-        <v>39.61999893188477</v>
+        <v>38.83000183105469</v>
       </c>
       <c r="F120">
-        <v>37579800</v>
+        <v>26703600</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>40.15999984741211</v>
+        <v>38.84000015258789</v>
       </c>
       <c r="B121">
-        <v>41.45999908447266</v>
+        <v>39.56499862670898</v>
       </c>
       <c r="C121">
-        <v>39.93999862670898</v>
+        <v>38.09999847412109</v>
       </c>
       <c r="D121">
-        <v>41.43000030517578</v>
+        <v>39.15000152587891</v>
       </c>
       <c r="E121">
-        <v>41.43000030517578</v>
+        <v>39.15000152587891</v>
       </c>
       <c r="F121">
-        <v>26091600</v>
+        <v>19173500</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>38.95999908447266</v>
+        <v>39.4900016784668</v>
       </c>
       <c r="B122">
-        <v>40.59999847412109</v>
+        <v>40.95999908447266</v>
       </c>
       <c r="C122">
-        <v>38.95999908447266</v>
+        <v>38.84000015258789</v>
       </c>
       <c r="D122">
-        <v>40.0099983215332</v>
+        <v>39.93999862670898</v>
       </c>
       <c r="E122">
-        <v>40.0099983215332</v>
+        <v>39.93999862670898</v>
       </c>
       <c r="F122">
-        <v>35643500</v>
+        <v>23393000</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>40.45000076293945</v>
+        <v>39.81000137329102</v>
       </c>
       <c r="B123">
-        <v>40.81999969482422</v>
+        <v>41.31999969482422</v>
       </c>
       <c r="C123">
-        <v>39.16999816894531</v>
+        <v>37.45999908447266</v>
       </c>
       <c r="D123">
-        <v>39.45000076293945</v>
+        <v>37.84000015258789</v>
       </c>
       <c r="E123">
-        <v>39.45000076293945</v>
+        <v>37.84000015258789</v>
       </c>
       <c r="F123">
-        <v>24624400</v>
+        <v>28341900</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>39.61000061035156</v>
+        <v>38.11999893188477</v>
       </c>
       <c r="B124">
-        <v>40.40000152587891</v>
+        <v>38.11999893188477</v>
       </c>
       <c r="C124">
-        <v>37.93999862670898</v>
+        <v>35.75</v>
       </c>
       <c r="D124">
-        <v>38.0099983215332</v>
+        <v>37.36999893188477</v>
       </c>
       <c r="E124">
-        <v>38.0099983215332</v>
+        <v>37.36999893188477</v>
       </c>
       <c r="F124">
-        <v>23024100</v>
+        <v>30985500</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>37.75</v>
+        <v>37.29999923706055</v>
       </c>
       <c r="B125">
-        <v>38.47000122070312</v>
+        <v>37.41999816894531</v>
       </c>
       <c r="C125">
-        <v>36.36999893188477</v>
+        <v>35.0099983215332</v>
       </c>
       <c r="D125">
-        <v>36.86999893188477</v>
+        <v>35.65999984741211</v>
       </c>
       <c r="E125">
-        <v>36.86999893188477</v>
+        <v>35.65999984741211</v>
       </c>
       <c r="F125">
-        <v>25433100</v>
+        <v>23031100</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>37.18999862670898</v>
+        <v>36.38999938964844</v>
       </c>
       <c r="B126">
-        <v>38.15000152587891</v>
+        <v>36.72000122070312</v>
       </c>
       <c r="C126">
-        <v>36.15999984741211</v>
+        <v>32.88999938964844</v>
       </c>
       <c r="D126">
-        <v>36.97999954223633</v>
+        <v>33.09000015258789</v>
       </c>
       <c r="E126">
-        <v>36.97999954223633</v>
+        <v>33.09000015258789</v>
       </c>
       <c r="F126">
-        <v>24429900</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127">
-        <v>34.95000076293945</v>
-      </c>
-      <c r="B127">
-        <v>39.04999923706055</v>
-      </c>
-      <c r="C127">
-        <v>34.95000076293945</v>
-      </c>
-      <c r="D127">
-        <v>38.83000183105469</v>
-      </c>
-      <c r="E127">
-        <v>38.83000183105469</v>
-      </c>
-      <c r="F127">
-        <v>26703600</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
-      <c r="A128">
-        <v>38.84000015258789</v>
-      </c>
-      <c r="B128">
-        <v>39.56499862670898</v>
-      </c>
-      <c r="C128">
-        <v>38.09999847412109</v>
-      </c>
-      <c r="D128">
-        <v>39.15000152587891</v>
-      </c>
-      <c r="E128">
-        <v>39.15000152587891</v>
-      </c>
-      <c r="F128">
-        <v>19161100</v>
+        <v>21904555</v>
       </c>
     </row>
   </sheetData>

--- a/Stocks/SNAP/HighLow.xlsx
+++ b/Stocks/SNAP/HighLow.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F126"/>
+  <dimension ref="A1:F127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,2502 +417,2522 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>75.83000183105469</v>
+        <v>75.61000061035156</v>
       </c>
       <c r="B2">
-        <v>76.83999633789062</v>
+        <v>75.61000061035156</v>
       </c>
       <c r="C2">
-        <v>74.052001953125</v>
+        <v>69.81999969482422</v>
       </c>
       <c r="D2">
-        <v>76.48999786376953</v>
+        <v>71.26000213623047</v>
       </c>
       <c r="E2">
-        <v>76.48999786376953</v>
+        <v>71.26000213623047</v>
       </c>
       <c r="F2">
-        <v>11735200</v>
+        <v>19913400</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>76.22000122070312</v>
+        <v>71.69000244140625</v>
       </c>
       <c r="B3">
-        <v>76.69999694824219</v>
+        <v>72.79000091552734</v>
       </c>
       <c r="C3">
-        <v>73.23000335693359</v>
+        <v>70.80999755859375</v>
       </c>
       <c r="D3">
-        <v>74.12999725341797</v>
+        <v>71.30999755859375</v>
       </c>
       <c r="E3">
-        <v>74.12999725341797</v>
+        <v>71.30999755859375</v>
       </c>
       <c r="F3">
-        <v>11538900</v>
+        <v>11083000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>74.11000061035156</v>
+        <v>71.33000183105469</v>
       </c>
       <c r="B4">
-        <v>75.66600036621094</v>
+        <v>73.62000274658203</v>
       </c>
       <c r="C4">
-        <v>73.54000091552734</v>
+        <v>70.37000274658203</v>
       </c>
       <c r="D4">
-        <v>74.62000274658203</v>
+        <v>73.62000274658203</v>
       </c>
       <c r="E4">
-        <v>74.62000274658203</v>
+        <v>73.62000274658203</v>
       </c>
       <c r="F4">
-        <v>10564300</v>
+        <v>10890100</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>75.25</v>
+        <v>73.29000091552734</v>
       </c>
       <c r="B5">
-        <v>75.98999786376953</v>
+        <v>73.41000366210938</v>
       </c>
       <c r="C5">
-        <v>74.27500152587891</v>
+        <v>71.51999664306641</v>
       </c>
       <c r="D5">
-        <v>74.5</v>
+        <v>72.48000335693359</v>
       </c>
       <c r="E5">
-        <v>74.5</v>
+        <v>72.48000335693359</v>
       </c>
       <c r="F5">
-        <v>9209900</v>
+        <v>16878500</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>75.61000061035156</v>
+        <v>72.41999816894531</v>
       </c>
       <c r="B6">
-        <v>75.61000061035156</v>
+        <v>75.62999725341797</v>
       </c>
       <c r="C6">
-        <v>69.81999969482422</v>
+        <v>72.40000152587891</v>
       </c>
       <c r="D6">
-        <v>71.26000213623047</v>
+        <v>74.76000213623047</v>
       </c>
       <c r="E6">
-        <v>71.26000213623047</v>
+        <v>74.76000213623047</v>
       </c>
       <c r="F6">
-        <v>19913400</v>
+        <v>20858800</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>71.69000244140625</v>
+        <v>72.375</v>
       </c>
       <c r="B7">
-        <v>72.79000091552734</v>
+        <v>73.13999938964844</v>
       </c>
       <c r="C7">
-        <v>70.80999755859375</v>
+        <v>70.10900115966797</v>
       </c>
       <c r="D7">
-        <v>71.30999755859375</v>
+        <v>71.73000335693359</v>
       </c>
       <c r="E7">
-        <v>71.30999755859375</v>
+        <v>71.73000335693359</v>
       </c>
       <c r="F7">
-        <v>11083000</v>
+        <v>13834900</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>71.33000183105469</v>
+        <v>72.76000213623047</v>
       </c>
       <c r="B8">
-        <v>73.62000274658203</v>
+        <v>76.37000274658203</v>
       </c>
       <c r="C8">
-        <v>70.37000274658203</v>
+        <v>72.59999847412109</v>
       </c>
       <c r="D8">
-        <v>73.62000274658203</v>
+        <v>76.08999633789062</v>
       </c>
       <c r="E8">
-        <v>73.62000274658203</v>
+        <v>76.08999633789062</v>
       </c>
       <c r="F8">
-        <v>10890100</v>
+        <v>18129600</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>73.29000091552734</v>
+        <v>74.37000274658203</v>
       </c>
       <c r="B9">
-        <v>73.41000366210938</v>
+        <v>79.63999938964844</v>
       </c>
       <c r="C9">
-        <v>71.51999664306641</v>
+        <v>74.01999664306641</v>
       </c>
       <c r="D9">
-        <v>72.48000335693359</v>
+        <v>78.59999847412109</v>
       </c>
       <c r="E9">
-        <v>72.48000335693359</v>
+        <v>78.59999847412109</v>
       </c>
       <c r="F9">
-        <v>16878500</v>
+        <v>26999200</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>72.41999816894531</v>
+        <v>78.97000122070312</v>
       </c>
       <c r="B10">
-        <v>75.62999725341797</v>
+        <v>80.09999847412109</v>
       </c>
       <c r="C10">
-        <v>72.40000152587891</v>
+        <v>77.45999908447266</v>
       </c>
       <c r="D10">
-        <v>74.76000213623047</v>
+        <v>79.37000274658203</v>
       </c>
       <c r="E10">
-        <v>74.76000213623047</v>
+        <v>79.37000274658203</v>
       </c>
       <c r="F10">
-        <v>20858800</v>
+        <v>20944600</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>72.375</v>
+        <v>78.94000244140625</v>
       </c>
       <c r="B11">
-        <v>73.13999938964844</v>
+        <v>83.33999633789062</v>
       </c>
       <c r="C11">
-        <v>70.10900115966797</v>
+        <v>78.11000061035156</v>
       </c>
       <c r="D11">
-        <v>71.73000335693359</v>
+        <v>83.11000061035156</v>
       </c>
       <c r="E11">
-        <v>71.73000335693359</v>
+        <v>83.11000061035156</v>
       </c>
       <c r="F11">
-        <v>13834900</v>
+        <v>29039000</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>72.76000213623047</v>
+        <v>82</v>
       </c>
       <c r="B12">
-        <v>76.37000274658203</v>
+        <v>82.61000061035156</v>
       </c>
       <c r="C12">
-        <v>72.59999847412109</v>
+        <v>79.31999969482422</v>
       </c>
       <c r="D12">
-        <v>76.08999633789062</v>
+        <v>80.08000183105469</v>
       </c>
       <c r="E12">
-        <v>76.08999633789062</v>
+        <v>80.08000183105469</v>
       </c>
       <c r="F12">
-        <v>18129600</v>
+        <v>18493300</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>74.37000274658203</v>
+        <v>78.54000091552734</v>
       </c>
       <c r="B13">
-        <v>79.63999938964844</v>
+        <v>79.41000366210938</v>
       </c>
       <c r="C13">
-        <v>74.01999664306641</v>
+        <v>73.88999938964844</v>
       </c>
       <c r="D13">
-        <v>78.59999847412109</v>
+        <v>74.41999816894531</v>
       </c>
       <c r="E13">
-        <v>78.59999847412109</v>
+        <v>74.41999816894531</v>
       </c>
       <c r="F13">
-        <v>26999200</v>
+        <v>23531900</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>78.97000122070312</v>
+        <v>75.30000305175781</v>
       </c>
       <c r="B14">
-        <v>80.09999847412109</v>
+        <v>76.08999633789062</v>
       </c>
       <c r="C14">
-        <v>77.45999908447266</v>
+        <v>71.55999755859375</v>
       </c>
       <c r="D14">
-        <v>79.37000274658203</v>
+        <v>71.76000213623047</v>
       </c>
       <c r="E14">
-        <v>79.37000274658203</v>
+        <v>71.76000213623047</v>
       </c>
       <c r="F14">
-        <v>20944600</v>
+        <v>18633700</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>78.94000244140625</v>
+        <v>72.91999816894531</v>
       </c>
       <c r="B15">
-        <v>83.33999633789062</v>
+        <v>75.24700164794922</v>
       </c>
       <c r="C15">
-        <v>78.11000061035156</v>
+        <v>72.23999786376953</v>
       </c>
       <c r="D15">
-        <v>83.11000061035156</v>
+        <v>73.87000274658203</v>
       </c>
       <c r="E15">
-        <v>83.11000061035156</v>
+        <v>73.87000274658203</v>
       </c>
       <c r="F15">
-        <v>29039000</v>
+        <v>17166400</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>82</v>
+        <v>74.81999969482422</v>
       </c>
       <c r="B16">
-        <v>82.61000061035156</v>
+        <v>75.88999938964844</v>
       </c>
       <c r="C16">
-        <v>79.31999969482422</v>
+        <v>73.44000244140625</v>
       </c>
       <c r="D16">
-        <v>80.08000183105469</v>
+        <v>75.25</v>
       </c>
       <c r="E16">
-        <v>80.08000183105469</v>
+        <v>75.25</v>
       </c>
       <c r="F16">
-        <v>18493300</v>
+        <v>11689700</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>78.54000091552734</v>
+        <v>74.02999877929688</v>
       </c>
       <c r="B17">
-        <v>79.41000366210938</v>
+        <v>74.19999694824219</v>
       </c>
       <c r="C17">
-        <v>73.88999938964844</v>
+        <v>69.97000122070312</v>
       </c>
       <c r="D17">
-        <v>74.41999816894531</v>
+        <v>71.23000335693359</v>
       </c>
       <c r="E17">
-        <v>74.41999816894531</v>
+        <v>71.23000335693359</v>
       </c>
       <c r="F17">
-        <v>23531900</v>
+        <v>18142600</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>75.30000305175781</v>
+        <v>72.18000030517578</v>
       </c>
       <c r="B18">
-        <v>76.08999633789062</v>
+        <v>73.91000366210938</v>
       </c>
       <c r="C18">
-        <v>71.55999755859375</v>
+        <v>71.79000091552734</v>
       </c>
       <c r="D18">
-        <v>71.76000213623047</v>
+        <v>73.41000366210938</v>
       </c>
       <c r="E18">
-        <v>71.76000213623047</v>
+        <v>73.41000366210938</v>
       </c>
       <c r="F18">
-        <v>18633700</v>
+        <v>11896500</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>72.91999816894531</v>
+        <v>72.37000274658203</v>
       </c>
       <c r="B19">
-        <v>75.24700164794922</v>
+        <v>74.5</v>
       </c>
       <c r="C19">
-        <v>72.23999786376953</v>
+        <v>71.31999969482422</v>
       </c>
       <c r="D19">
-        <v>73.87000274658203</v>
+        <v>73.12999725341797</v>
       </c>
       <c r="E19">
-        <v>73.87000274658203</v>
+        <v>73.12999725341797</v>
       </c>
       <c r="F19">
-        <v>17166400</v>
+        <v>10927300</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>74.81999969482422</v>
+        <v>74.36000061035156</v>
       </c>
       <c r="B20">
-        <v>75.88999938964844</v>
+        <v>77.41000366210938</v>
       </c>
       <c r="C20">
-        <v>73.44000244140625</v>
+        <v>74.09999847412109</v>
       </c>
       <c r="D20">
-        <v>75.25</v>
+        <v>76.27999877929688</v>
       </c>
       <c r="E20">
-        <v>75.25</v>
+        <v>76.27999877929688</v>
       </c>
       <c r="F20">
-        <v>11689700</v>
+        <v>15547400</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>74.02999877929688</v>
+        <v>76.91000366210938</v>
       </c>
       <c r="B21">
-        <v>74.19999694824219</v>
+        <v>77.41000366210938</v>
       </c>
       <c r="C21">
-        <v>69.97000122070312</v>
+        <v>74.73999786376953</v>
       </c>
       <c r="D21">
-        <v>71.23000335693359</v>
+        <v>75</v>
       </c>
       <c r="E21">
-        <v>71.23000335693359</v>
+        <v>75</v>
       </c>
       <c r="F21">
-        <v>18142600</v>
+        <v>8906100</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>72.18000030517578</v>
+        <v>74.65000152587891</v>
       </c>
       <c r="B22">
-        <v>73.91000366210938</v>
+        <v>75.59999847412109</v>
       </c>
       <c r="C22">
-        <v>71.79000091552734</v>
+        <v>73.5</v>
       </c>
       <c r="D22">
-        <v>73.41000366210938</v>
+        <v>73.52999877929688</v>
       </c>
       <c r="E22">
-        <v>73.41000366210938</v>
+        <v>73.52999877929688</v>
       </c>
       <c r="F22">
-        <v>11896500</v>
+        <v>8990800</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>72.37000274658203</v>
+        <v>74.12000274658203</v>
       </c>
       <c r="B23">
-        <v>74.5</v>
+        <v>75.98000335693359</v>
       </c>
       <c r="C23">
-        <v>71.31999969482422</v>
+        <v>73.52999877929688</v>
       </c>
       <c r="D23">
-        <v>73.12999725341797</v>
+        <v>75.26000213623047</v>
       </c>
       <c r="E23">
-        <v>73.12999725341797</v>
+        <v>75.26000213623047</v>
       </c>
       <c r="F23">
-        <v>10927300</v>
+        <v>13691100</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>74.36000061035156</v>
+        <v>76.15000152587891</v>
       </c>
       <c r="B24">
-        <v>77.41000366210938</v>
+        <v>76.30899810791016</v>
       </c>
       <c r="C24">
-        <v>74.09999847412109</v>
+        <v>74.30000305175781</v>
       </c>
       <c r="D24">
-        <v>76.27999877929688</v>
+        <v>74.94999694824219</v>
       </c>
       <c r="E24">
-        <v>76.27999877929688</v>
+        <v>74.94999694824219</v>
       </c>
       <c r="F24">
-        <v>15547400</v>
+        <v>9998900</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>76.91000366210938</v>
+        <v>77.05999755859375</v>
       </c>
       <c r="B25">
-        <v>77.41000366210938</v>
+        <v>77.23000335693359</v>
       </c>
       <c r="C25">
-        <v>74.73999786376953</v>
+        <v>75.72499847412109</v>
       </c>
       <c r="D25">
-        <v>75</v>
+        <v>76.63999938964844</v>
       </c>
       <c r="E25">
-        <v>75</v>
+        <v>76.63999938964844</v>
       </c>
       <c r="F25">
-        <v>8906100</v>
+        <v>12948800</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>74.65000152587891</v>
+        <v>76.80999755859375</v>
       </c>
       <c r="B26">
-        <v>75.59999847412109</v>
+        <v>78.73500061035156</v>
       </c>
       <c r="C26">
-        <v>73.5</v>
+        <v>75.87000274658203</v>
       </c>
       <c r="D26">
-        <v>73.52999877929688</v>
+        <v>77.33999633789062</v>
       </c>
       <c r="E26">
-        <v>73.52999877929688</v>
+        <v>77.33999633789062</v>
       </c>
       <c r="F26">
-        <v>8990800</v>
+        <v>20404200</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>74.12000274658203</v>
+        <v>78.59999847412109</v>
       </c>
       <c r="B27">
-        <v>75.98000335693359</v>
+        <v>79.30000305175781</v>
       </c>
       <c r="C27">
-        <v>73.52999877929688</v>
+        <v>72.61000061035156</v>
       </c>
       <c r="D27">
-        <v>75.26000213623047</v>
+        <v>75.80000305175781</v>
       </c>
       <c r="E27">
-        <v>75.26000213623047</v>
+        <v>75.80000305175781</v>
       </c>
       <c r="F27">
-        <v>13691100</v>
+        <v>33053900</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>76.15000152587891</v>
+        <v>75.12000274658203</v>
       </c>
       <c r="B28">
-        <v>76.30899810791016</v>
+        <v>78.18000030517578</v>
       </c>
       <c r="C28">
-        <v>74.30000305175781</v>
+        <v>73.90000152587891</v>
       </c>
       <c r="D28">
-        <v>74.94999694824219</v>
+        <v>76.43000030517578</v>
       </c>
       <c r="E28">
-        <v>74.94999694824219</v>
+        <v>76.43000030517578</v>
       </c>
       <c r="F28">
-        <v>9998900</v>
+        <v>18720700</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>77.05999755859375</v>
+        <v>76.56999969482422</v>
       </c>
       <c r="B29">
-        <v>77.23000335693359</v>
+        <v>77.51999664306641</v>
       </c>
       <c r="C29">
-        <v>75.72499847412109</v>
+        <v>74.66999816894531</v>
       </c>
       <c r="D29">
-        <v>76.63999938964844</v>
+        <v>75.65000152587891</v>
       </c>
       <c r="E29">
-        <v>76.63999938964844</v>
+        <v>75.65000152587891</v>
       </c>
       <c r="F29">
-        <v>12948800</v>
+        <v>15739300</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>76.80999755859375</v>
+        <v>74.80999755859375</v>
       </c>
       <c r="B30">
-        <v>78.73500061035156</v>
+        <v>75.94999694824219</v>
       </c>
       <c r="C30">
-        <v>75.87000274658203</v>
+        <v>73.88999938964844</v>
       </c>
       <c r="D30">
-        <v>77.33999633789062</v>
+        <v>75.11000061035156</v>
       </c>
       <c r="E30">
-        <v>77.33999633789062</v>
+        <v>75.11000061035156</v>
       </c>
       <c r="F30">
-        <v>20404200</v>
+        <v>44450900</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>78.59999847412109</v>
+        <v>58.75</v>
       </c>
       <c r="B31">
-        <v>79.30000305175781</v>
+        <v>60.77999877929688</v>
       </c>
       <c r="C31">
-        <v>72.61000061035156</v>
+        <v>55.02999877929688</v>
       </c>
       <c r="D31">
-        <v>75.80000305175781</v>
+        <v>55.13999938964844</v>
       </c>
       <c r="E31">
-        <v>75.80000305175781</v>
+        <v>55.13999938964844</v>
       </c>
       <c r="F31">
-        <v>33053900</v>
+        <v>153827500</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>75.12000274658203</v>
+        <v>55.95999908447266</v>
       </c>
       <c r="B32">
-        <v>78.18000030517578</v>
+        <v>56.15000152587891</v>
       </c>
       <c r="C32">
-        <v>73.90000152587891</v>
+        <v>53.77000045776367</v>
       </c>
       <c r="D32">
-        <v>76.43000030517578</v>
+        <v>54.5</v>
       </c>
       <c r="E32">
-        <v>76.43000030517578</v>
+        <v>54.5</v>
       </c>
       <c r="F32">
-        <v>18720700</v>
+        <v>62506800</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>76.56999969482422</v>
+        <v>55.2400016784668</v>
       </c>
       <c r="B33">
-        <v>77.51999664306641</v>
+        <v>57.18000030517578</v>
       </c>
       <c r="C33">
-        <v>74.66999816894531</v>
+        <v>54.88000106811523</v>
       </c>
       <c r="D33">
-        <v>75.65000152587891</v>
+        <v>55.38999938964844</v>
       </c>
       <c r="E33">
-        <v>75.65000152587891</v>
+        <v>55.38999938964844</v>
       </c>
       <c r="F33">
-        <v>15739300</v>
+        <v>52905700</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>74.80999755859375</v>
+        <v>55.04999923706055</v>
       </c>
       <c r="B34">
-        <v>75.94999694824219</v>
+        <v>55.22999954223633</v>
       </c>
       <c r="C34">
-        <v>73.88999938964844</v>
+        <v>51.65999984741211</v>
       </c>
       <c r="D34">
-        <v>75.11000061035156</v>
+        <v>52.02000045776367</v>
       </c>
       <c r="E34">
-        <v>75.11000061035156</v>
+        <v>52.02000045776367</v>
       </c>
       <c r="F34">
-        <v>44450900</v>
+        <v>52581300</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>58.75</v>
+        <v>52.68000030517578</v>
       </c>
       <c r="B35">
-        <v>60.77999877929688</v>
+        <v>54.95999908447266</v>
       </c>
       <c r="C35">
-        <v>55.02999877929688</v>
+        <v>51.9900016784668</v>
       </c>
       <c r="D35">
-        <v>55.13999938964844</v>
+        <v>54.38999938964844</v>
       </c>
       <c r="E35">
-        <v>55.13999938964844</v>
+        <v>54.38999938964844</v>
       </c>
       <c r="F35">
-        <v>153827500</v>
+        <v>34748800</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>55.95999908447266</v>
+        <v>53.97000122070312</v>
       </c>
       <c r="B36">
-        <v>56.15000152587891</v>
+        <v>53.9900016784668</v>
       </c>
       <c r="C36">
-        <v>53.77000045776367</v>
+        <v>52.20999908447266</v>
       </c>
       <c r="D36">
-        <v>54.5</v>
+        <v>52.58000183105469</v>
       </c>
       <c r="E36">
-        <v>54.5</v>
+        <v>52.58000183105469</v>
       </c>
       <c r="F36">
-        <v>62506800</v>
+        <v>32465500</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>55.2400016784668</v>
+        <v>52.9900016784668</v>
       </c>
       <c r="B37">
-        <v>57.18000030517578</v>
+        <v>54.11000061035156</v>
       </c>
       <c r="C37">
-        <v>54.88000106811523</v>
+        <v>52.25</v>
       </c>
       <c r="D37">
-        <v>55.38999938964844</v>
+        <v>53.97999954223633</v>
       </c>
       <c r="E37">
-        <v>55.38999938964844</v>
+        <v>53.97999954223633</v>
       </c>
       <c r="F37">
-        <v>52905700</v>
+        <v>22666700</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>55.04999923706055</v>
+        <v>53.56999969482422</v>
       </c>
       <c r="B38">
-        <v>55.22999954223633</v>
+        <v>53.65999984741211</v>
       </c>
       <c r="C38">
-        <v>51.65999984741211</v>
+        <v>51.8650016784668</v>
       </c>
       <c r="D38">
-        <v>52.02000045776367</v>
+        <v>52.20000076293945</v>
       </c>
       <c r="E38">
-        <v>52.02000045776367</v>
+        <v>52.20000076293945</v>
       </c>
       <c r="F38">
-        <v>52581300</v>
+        <v>24120400</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>52.68000030517578</v>
+        <v>51.95000076293945</v>
       </c>
       <c r="B39">
-        <v>54.95999908447266</v>
+        <v>52.97000122070312</v>
       </c>
       <c r="C39">
-        <v>51.9900016784668</v>
+        <v>51.47000122070312</v>
       </c>
       <c r="D39">
-        <v>54.38999938964844</v>
+        <v>52.93999862670898</v>
       </c>
       <c r="E39">
-        <v>54.38999938964844</v>
+        <v>52.93999862670898</v>
       </c>
       <c r="F39">
-        <v>34748800</v>
+        <v>16319300</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>53.97000122070312</v>
+        <v>53.08000183105469</v>
       </c>
       <c r="B40">
-        <v>53.9900016784668</v>
+        <v>53.38000106811523</v>
       </c>
       <c r="C40">
-        <v>52.20999908447266</v>
+        <v>51.7599983215332</v>
       </c>
       <c r="D40">
-        <v>52.58000183105469</v>
+        <v>52.2599983215332</v>
       </c>
       <c r="E40">
-        <v>52.58000183105469</v>
+        <v>52.2599983215332</v>
       </c>
       <c r="F40">
-        <v>32465500</v>
+        <v>16371700</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>52.9900016784668</v>
+        <v>52.15000152587891</v>
       </c>
       <c r="B41">
-        <v>54.11000061035156</v>
+        <v>53.56999969482422</v>
       </c>
       <c r="C41">
-        <v>52.25</v>
+        <v>52.06999969482422</v>
       </c>
       <c r="D41">
-        <v>53.97999954223633</v>
+        <v>53.16999816894531</v>
       </c>
       <c r="E41">
-        <v>53.97999954223633</v>
+        <v>53.16999816894531</v>
       </c>
       <c r="F41">
-        <v>22666700</v>
+        <v>17447500</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>53.56999969482422</v>
+        <v>53.36000061035156</v>
       </c>
       <c r="B42">
-        <v>53.65999984741211</v>
+        <v>55.13000106811523</v>
       </c>
       <c r="C42">
-        <v>51.8650016784668</v>
+        <v>52.84999847412109</v>
       </c>
       <c r="D42">
-        <v>52.20000076293945</v>
+        <v>54.90000152587891</v>
       </c>
       <c r="E42">
-        <v>52.20000076293945</v>
+        <v>54.90000152587891</v>
       </c>
       <c r="F42">
-        <v>24120400</v>
+        <v>20154600</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>51.95000076293945</v>
+        <v>55.29499816894531</v>
       </c>
       <c r="B43">
-        <v>52.97000122070312</v>
+        <v>55.65000152587891</v>
       </c>
       <c r="C43">
-        <v>51.47000122070312</v>
+        <v>54.20000076293945</v>
       </c>
       <c r="D43">
-        <v>52.93999862670898</v>
+        <v>54.81999969482422</v>
       </c>
       <c r="E43">
-        <v>52.93999862670898</v>
+        <v>54.81999969482422</v>
       </c>
       <c r="F43">
-        <v>16319300</v>
+        <v>12489000</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>53.08000183105469</v>
+        <v>53.90999984741211</v>
       </c>
       <c r="B44">
-        <v>53.38000106811523</v>
+        <v>54.16999816894531</v>
       </c>
       <c r="C44">
-        <v>51.7599983215332</v>
+        <v>52.02000045776367</v>
       </c>
       <c r="D44">
-        <v>52.2599983215332</v>
+        <v>52.88000106811523</v>
       </c>
       <c r="E44">
-        <v>52.2599983215332</v>
+        <v>52.88000106811523</v>
       </c>
       <c r="F44">
-        <v>16371700</v>
+        <v>14812400</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>52.15000152587891</v>
+        <v>53.45999908447266</v>
       </c>
       <c r="B45">
-        <v>53.56999969482422</v>
+        <v>54.59000015258789</v>
       </c>
       <c r="C45">
-        <v>52.06999969482422</v>
+        <v>53.20000076293945</v>
       </c>
       <c r="D45">
-        <v>53.16999816894531</v>
+        <v>53.29000091552734</v>
       </c>
       <c r="E45">
-        <v>53.16999816894531</v>
+        <v>53.29000091552734</v>
       </c>
       <c r="F45">
-        <v>17447500</v>
+        <v>13322000</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>53.36000061035156</v>
+        <v>53.81999969482422</v>
       </c>
       <c r="B46">
-        <v>55.13000106811523</v>
+        <v>54.06999969482422</v>
       </c>
       <c r="C46">
-        <v>52.84999847412109</v>
+        <v>52.81999969482422</v>
       </c>
       <c r="D46">
-        <v>54.90000152587891</v>
+        <v>53.70000076293945</v>
       </c>
       <c r="E46">
-        <v>54.90000152587891</v>
+        <v>53.70000076293945</v>
       </c>
       <c r="F46">
-        <v>20154600</v>
+        <v>12960100</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>55.29499816894531</v>
+        <v>54.13999938964844</v>
       </c>
       <c r="B47">
-        <v>55.65000152587891</v>
+        <v>57.13999938964844</v>
       </c>
       <c r="C47">
-        <v>54.20000076293945</v>
+        <v>54.11999893188477</v>
       </c>
       <c r="D47">
-        <v>54.81999969482422</v>
+        <v>55.52999877929688</v>
       </c>
       <c r="E47">
-        <v>54.81999969482422</v>
+        <v>55.52999877929688</v>
       </c>
       <c r="F47">
-        <v>12489000</v>
+        <v>22192000</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>53.90999984741211</v>
+        <v>55.77999877929688</v>
       </c>
       <c r="B48">
-        <v>54.16999816894531</v>
+        <v>55.81000137329102</v>
       </c>
       <c r="C48">
-        <v>52.02000045776367</v>
+        <v>53.66500091552734</v>
       </c>
       <c r="D48">
-        <v>52.88000106811523</v>
+        <v>55.11000061035156</v>
       </c>
       <c r="E48">
-        <v>52.88000106811523</v>
+        <v>55.11000061035156</v>
       </c>
       <c r="F48">
-        <v>14812400</v>
+        <v>20754600</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>53.45999908447266</v>
+        <v>54.45000076293945</v>
       </c>
       <c r="B49">
-        <v>54.59000015258789</v>
+        <v>55.66799926757812</v>
       </c>
       <c r="C49">
-        <v>53.20000076293945</v>
+        <v>53.86000061035156</v>
       </c>
       <c r="D49">
-        <v>53.29000091552734</v>
+        <v>54.56000137329102</v>
       </c>
       <c r="E49">
-        <v>53.29000091552734</v>
+        <v>54.56000137329102</v>
       </c>
       <c r="F49">
-        <v>13322000</v>
+        <v>15005300</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>53.81999969482422</v>
+        <v>54.5099983215332</v>
       </c>
       <c r="B50">
-        <v>54.06999969482422</v>
+        <v>54.77000045776367</v>
       </c>
       <c r="C50">
-        <v>52.81999969482422</v>
+        <v>52.54999923706055</v>
       </c>
       <c r="D50">
-        <v>53.70000076293945</v>
+        <v>53.47000122070312</v>
       </c>
       <c r="E50">
-        <v>53.70000076293945</v>
+        <v>53.47000122070312</v>
       </c>
       <c r="F50">
-        <v>12960100</v>
+        <v>13069900</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>54.13999938964844</v>
+        <v>53.93000030517578</v>
       </c>
       <c r="B51">
-        <v>57.13999938964844</v>
+        <v>53.93000030517578</v>
       </c>
       <c r="C51">
-        <v>54.11999893188477</v>
+        <v>50.7599983215332</v>
       </c>
       <c r="D51">
-        <v>55.52999877929688</v>
+        <v>51.31999969482422</v>
       </c>
       <c r="E51">
-        <v>55.52999877929688</v>
+        <v>51.31999969482422</v>
       </c>
       <c r="F51">
-        <v>22192000</v>
+        <v>18095000</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>55.77999877929688</v>
+        <v>51.52000045776367</v>
       </c>
       <c r="B52">
-        <v>55.81000137329102</v>
+        <v>51.52000045776367</v>
       </c>
       <c r="C52">
-        <v>53.66500091552734</v>
+        <v>47.45999908447266</v>
       </c>
       <c r="D52">
-        <v>55.11000061035156</v>
+        <v>49.2599983215332</v>
       </c>
       <c r="E52">
-        <v>55.11000061035156</v>
+        <v>49.2599983215332</v>
       </c>
       <c r="F52">
-        <v>20754600</v>
+        <v>34273700</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>54.45000076293945</v>
+        <v>48.56999969482422</v>
       </c>
       <c r="B53">
-        <v>55.66799926757812</v>
+        <v>51.02999877929688</v>
       </c>
       <c r="C53">
-        <v>53.86000061035156</v>
+        <v>47.86000061035156</v>
       </c>
       <c r="D53">
-        <v>54.56000137329102</v>
+        <v>50.66999816894531</v>
       </c>
       <c r="E53">
-        <v>54.56000137329102</v>
+        <v>50.66999816894531</v>
       </c>
       <c r="F53">
-        <v>15005300</v>
+        <v>21262500</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>54.5099983215332</v>
+        <v>49</v>
       </c>
       <c r="B54">
-        <v>54.77000045776367</v>
+        <v>50.27000045776367</v>
       </c>
       <c r="C54">
-        <v>52.54999923706055</v>
+        <v>48.79999923706055</v>
       </c>
       <c r="D54">
-        <v>53.47000122070312</v>
+        <v>49.65999984741211</v>
       </c>
       <c r="E54">
-        <v>53.47000122070312</v>
+        <v>49.65999984741211</v>
       </c>
       <c r="F54">
-        <v>13069900</v>
+        <v>14813900</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>53.93000030517578</v>
+        <v>48.77000045776367</v>
       </c>
       <c r="B55">
-        <v>53.93000030517578</v>
+        <v>50.25</v>
       </c>
       <c r="C55">
-        <v>50.7599983215332</v>
+        <v>48.56999969482422</v>
       </c>
       <c r="D55">
-        <v>51.31999969482422</v>
+        <v>49.7599983215332</v>
       </c>
       <c r="E55">
-        <v>51.31999969482422</v>
+        <v>49.7599983215332</v>
       </c>
       <c r="F55">
-        <v>18095000</v>
+        <v>10487300</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>51.52000045776367</v>
+        <v>51.09999847412109</v>
       </c>
       <c r="B56">
-        <v>51.52000045776367</v>
+        <v>51.11999893188477</v>
       </c>
       <c r="C56">
-        <v>47.45999908447266</v>
+        <v>48.47999954223633</v>
       </c>
       <c r="D56">
-        <v>49.2599983215332</v>
+        <v>48.84999847412109</v>
       </c>
       <c r="E56">
-        <v>49.2599983215332</v>
+        <v>48.84999847412109</v>
       </c>
       <c r="F56">
-        <v>34273700</v>
+        <v>16171000</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>48.56999969482422</v>
+        <v>48.77999877929688</v>
       </c>
       <c r="B57">
-        <v>51.02999877929688</v>
+        <v>49.40000152587891</v>
       </c>
       <c r="C57">
-        <v>47.86000061035156</v>
+        <v>46.29999923706055</v>
       </c>
       <c r="D57">
-        <v>50.66999816894531</v>
+        <v>47.61000061035156</v>
       </c>
       <c r="E57">
-        <v>50.66999816894531</v>
+        <v>47.61000061035156</v>
       </c>
       <c r="F57">
-        <v>21262500</v>
+        <v>25773000</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>49</v>
+        <v>49.13000106811523</v>
       </c>
       <c r="B58">
-        <v>50.27000045776367</v>
+        <v>50.97999954223633</v>
       </c>
       <c r="C58">
-        <v>48.79999923706055</v>
+        <v>46.79999923706055</v>
       </c>
       <c r="D58">
-        <v>49.65999984741211</v>
+        <v>47.2599983215332</v>
       </c>
       <c r="E58">
-        <v>49.65999984741211</v>
+        <v>47.2599983215332</v>
       </c>
       <c r="F58">
-        <v>14813900</v>
+        <v>28507500</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>48.77000045776367</v>
+        <v>47.2400016784668</v>
       </c>
       <c r="B59">
-        <v>50.25</v>
+        <v>48.29000091552734</v>
       </c>
       <c r="C59">
-        <v>48.56999969482422</v>
+        <v>46.5099983215332</v>
       </c>
       <c r="D59">
-        <v>49.7599983215332</v>
+        <v>47.90999984741211</v>
       </c>
       <c r="E59">
-        <v>49.7599983215332</v>
+        <v>47.90999984741211</v>
       </c>
       <c r="F59">
-        <v>10487300</v>
+        <v>14418100</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>51.09999847412109</v>
+        <v>47.77000045776367</v>
       </c>
       <c r="B60">
-        <v>51.11999893188477</v>
+        <v>48.66999816894531</v>
       </c>
       <c r="C60">
-        <v>48.47999954223633</v>
+        <v>45.45999908447266</v>
       </c>
       <c r="D60">
-        <v>48.84999847412109</v>
+        <v>46.79000091552734</v>
       </c>
       <c r="E60">
-        <v>48.84999847412109</v>
+        <v>46.79000091552734</v>
       </c>
       <c r="F60">
-        <v>16171000</v>
+        <v>19602400</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>48.77999877929688</v>
+        <v>46.20999908447266</v>
       </c>
       <c r="B61">
-        <v>49.40000152587891</v>
+        <v>48.32500076293945</v>
       </c>
       <c r="C61">
-        <v>46.29999923706055</v>
+        <v>44.91999816894531</v>
       </c>
       <c r="D61">
-        <v>47.61000061035156</v>
+        <v>47.91999816894531</v>
       </c>
       <c r="E61">
-        <v>47.61000061035156</v>
+        <v>47.91999816894531</v>
       </c>
       <c r="F61">
-        <v>25773000</v>
+        <v>15738500</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>49.13000106811523</v>
+        <v>49.375</v>
       </c>
       <c r="B62">
-        <v>50.97999954223633</v>
+        <v>51.68000030517578</v>
       </c>
       <c r="C62">
-        <v>46.79999923706055</v>
+        <v>49.29000091552734</v>
       </c>
       <c r="D62">
-        <v>47.2599983215332</v>
+        <v>50.40000152587891</v>
       </c>
       <c r="E62">
-        <v>47.2599983215332</v>
+        <v>50.40000152587891</v>
       </c>
       <c r="F62">
-        <v>28507500</v>
+        <v>20782600</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>47.2400016784668</v>
+        <v>50.61999893188477</v>
       </c>
       <c r="B63">
-        <v>48.29000091552734</v>
+        <v>54.83499908447266</v>
       </c>
       <c r="C63">
-        <v>46.5099983215332</v>
+        <v>50.20000076293945</v>
       </c>
       <c r="D63">
-        <v>47.90999984741211</v>
+        <v>53.41999816894531</v>
       </c>
       <c r="E63">
-        <v>47.90999984741211</v>
+        <v>53.41999816894531</v>
       </c>
       <c r="F63">
-        <v>14418100</v>
+        <v>26768000</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>47.77000045776367</v>
+        <v>52.79000091552734</v>
       </c>
       <c r="B64">
-        <v>48.66999816894531</v>
+        <v>54.88999938964844</v>
       </c>
       <c r="C64">
-        <v>45.45999908447266</v>
+        <v>52.11000061035156</v>
       </c>
       <c r="D64">
-        <v>46.79000091552734</v>
+        <v>52.36000061035156</v>
       </c>
       <c r="E64">
-        <v>46.79000091552734</v>
+        <v>52.36000061035156</v>
       </c>
       <c r="F64">
-        <v>19602400</v>
+        <v>19408100</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>46.20999908447266</v>
+        <v>52.63000106811523</v>
       </c>
       <c r="B65">
-        <v>48.32500076293945</v>
+        <v>53.31000137329102</v>
       </c>
       <c r="C65">
-        <v>44.91999816894531</v>
+        <v>50.05500030517578</v>
       </c>
       <c r="D65">
-        <v>47.91999816894531</v>
+        <v>50.81999969482422</v>
       </c>
       <c r="E65">
-        <v>47.91999816894531</v>
+        <v>50.81999969482422</v>
       </c>
       <c r="F65">
-        <v>15738500</v>
+        <v>13404800</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>49.375</v>
+        <v>50.31999969482422</v>
       </c>
       <c r="B66">
-        <v>51.68000030517578</v>
+        <v>50.43999862670898</v>
       </c>
       <c r="C66">
-        <v>49.29000091552734</v>
+        <v>46.45999908447266</v>
       </c>
       <c r="D66">
-        <v>50.40000152587891</v>
+        <v>48.13999938964844</v>
       </c>
       <c r="E66">
-        <v>50.40000152587891</v>
+        <v>48.13999938964844</v>
       </c>
       <c r="F66">
-        <v>20782600</v>
+        <v>21235100</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>50.61999893188477</v>
+        <v>47.59999847412109</v>
       </c>
       <c r="B67">
-        <v>54.83499908447266</v>
+        <v>48.31499862670898</v>
       </c>
       <c r="C67">
-        <v>50.20000076293945</v>
+        <v>46.38000106811523</v>
       </c>
       <c r="D67">
-        <v>53.41999816894531</v>
+        <v>46.84999847412109</v>
       </c>
       <c r="E67">
-        <v>53.41999816894531</v>
+        <v>46.84999847412109</v>
       </c>
       <c r="F67">
-        <v>26768000</v>
+        <v>16496600</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>52.79000091552734</v>
+        <v>46.34999847412109</v>
       </c>
       <c r="B68">
-        <v>54.88999938964844</v>
+        <v>46.66999816894531</v>
       </c>
       <c r="C68">
-        <v>52.11000061035156</v>
+        <v>44.07699966430664</v>
       </c>
       <c r="D68">
-        <v>52.36000061035156</v>
+        <v>46.40999984741211</v>
       </c>
       <c r="E68">
-        <v>52.36000061035156</v>
+        <v>46.40999984741211</v>
       </c>
       <c r="F68">
-        <v>19408100</v>
+        <v>23804800</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>52.63000106811523</v>
+        <v>47.40999984741211</v>
       </c>
       <c r="B69">
-        <v>53.31000137329102</v>
+        <v>48.02000045776367</v>
       </c>
       <c r="C69">
-        <v>50.05500030517578</v>
+        <v>44.06999969482422</v>
       </c>
       <c r="D69">
-        <v>50.81999969482422</v>
+        <v>44.70000076293945</v>
       </c>
       <c r="E69">
-        <v>50.81999969482422</v>
+        <v>44.70000076293945</v>
       </c>
       <c r="F69">
-        <v>13404800</v>
+        <v>21512200</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>50.31999969482422</v>
+        <v>43.63999938964844</v>
       </c>
       <c r="B70">
-        <v>50.43999862670898</v>
+        <v>45.88999938964844</v>
       </c>
       <c r="C70">
-        <v>46.45999908447266</v>
+        <v>42.95999908447266</v>
       </c>
       <c r="D70">
-        <v>48.13999938964844</v>
+        <v>45.29000091552734</v>
       </c>
       <c r="E70">
-        <v>48.13999938964844</v>
+        <v>45.29000091552734</v>
       </c>
       <c r="F70">
-        <v>21235100</v>
+        <v>22959700</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>47.59999847412109</v>
+        <v>44.22000122070312</v>
       </c>
       <c r="B71">
-        <v>48.31499862670898</v>
+        <v>45.15000152587891</v>
       </c>
       <c r="C71">
-        <v>46.38000106811523</v>
+        <v>43.38000106811523</v>
       </c>
       <c r="D71">
-        <v>46.84999847412109</v>
+        <v>44.41999816894531</v>
       </c>
       <c r="E71">
-        <v>46.84999847412109</v>
+        <v>44.41999816894531</v>
       </c>
       <c r="F71">
-        <v>16496600</v>
+        <v>12921600</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>46.34999847412109</v>
+        <v>44.88999938964844</v>
       </c>
       <c r="B72">
-        <v>46.66999816894531</v>
+        <v>46.20000076293945</v>
       </c>
       <c r="C72">
-        <v>44.07699966430664</v>
+        <v>43.90000152587891</v>
       </c>
       <c r="D72">
-        <v>46.40999984741211</v>
+        <v>46.09999847412109</v>
       </c>
       <c r="E72">
-        <v>46.40999984741211</v>
+        <v>46.09999847412109</v>
       </c>
       <c r="F72">
-        <v>23804800</v>
+        <v>15203200</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>47.40999984741211</v>
+        <v>45.98500061035156</v>
       </c>
       <c r="B73">
-        <v>48.02000045776367</v>
+        <v>47.20999908447266</v>
       </c>
       <c r="C73">
-        <v>44.06999969482422</v>
+        <v>45.45999908447266</v>
       </c>
       <c r="D73">
-        <v>44.70000076293945</v>
+        <v>46.77000045776367</v>
       </c>
       <c r="E73">
-        <v>44.70000076293945</v>
+        <v>46.77000045776367</v>
       </c>
       <c r="F73">
-        <v>21512200</v>
+        <v>12055000</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>43.63999938964844</v>
+        <v>47.34999847412109</v>
       </c>
       <c r="B74">
-        <v>45.88999938964844</v>
+        <v>49.06999969482422</v>
       </c>
       <c r="C74">
-        <v>42.95999908447266</v>
+        <v>45.95999908447266</v>
       </c>
       <c r="D74">
-        <v>45.29000091552734</v>
+        <v>48.68000030517578</v>
       </c>
       <c r="E74">
-        <v>45.29000091552734</v>
+        <v>48.68000030517578</v>
       </c>
       <c r="F74">
-        <v>22959700</v>
+        <v>18546400</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>44.22000122070312</v>
+        <v>48.45000076293945</v>
       </c>
       <c r="B75">
-        <v>45.15000152587891</v>
+        <v>49.25</v>
       </c>
       <c r="C75">
-        <v>43.38000106811523</v>
+        <v>48.02000045776367</v>
       </c>
       <c r="D75">
-        <v>44.41999816894531</v>
+        <v>48.63999938964844</v>
       </c>
       <c r="E75">
-        <v>44.41999816894531</v>
+        <v>48.63999938964844</v>
       </c>
       <c r="F75">
-        <v>12921600</v>
+        <v>8163900</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>44.88999938964844</v>
+        <v>48.5</v>
       </c>
       <c r="B76">
-        <v>46.20000076293945</v>
+        <v>49.22999954223633</v>
       </c>
       <c r="C76">
-        <v>43.90000152587891</v>
+        <v>47.43000030517578</v>
       </c>
       <c r="D76">
-        <v>46.09999847412109</v>
+        <v>47.70999908447266</v>
       </c>
       <c r="E76">
-        <v>46.09999847412109</v>
+        <v>47.70999908447266</v>
       </c>
       <c r="F76">
-        <v>15203200</v>
+        <v>8984500</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>45.98500061035156</v>
+        <v>47.59500122070312</v>
       </c>
       <c r="B77">
-        <v>47.20999908447266</v>
+        <v>47.91999816894531</v>
       </c>
       <c r="C77">
-        <v>45.45999908447266</v>
+        <v>46.56000137329102</v>
       </c>
       <c r="D77">
-        <v>46.77000045776367</v>
+        <v>47.06000137329102</v>
       </c>
       <c r="E77">
-        <v>46.77000045776367</v>
+        <v>47.06000137329102</v>
       </c>
       <c r="F77">
-        <v>12055000</v>
+        <v>7693700</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>47.34999847412109</v>
+        <v>46.81000137329102</v>
       </c>
       <c r="B78">
-        <v>49.06999969482422</v>
+        <v>48.7400016784668</v>
       </c>
       <c r="C78">
-        <v>45.95999908447266</v>
+        <v>46.81000137329102</v>
       </c>
       <c r="D78">
-        <v>48.68000030517578</v>
+        <v>48.02999877929688</v>
       </c>
       <c r="E78">
-        <v>48.68000030517578</v>
+        <v>48.02999877929688</v>
       </c>
       <c r="F78">
-        <v>18546400</v>
+        <v>10170200</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
+        <v>47.79999923706055</v>
+      </c>
+      <c r="B79">
         <v>48.45000076293945</v>
       </c>
-      <c r="B79">
-        <v>49.25</v>
-      </c>
       <c r="C79">
-        <v>48.02000045776367</v>
+        <v>47.0099983215332</v>
       </c>
       <c r="D79">
-        <v>48.63999938964844</v>
+        <v>47.02999877929688</v>
       </c>
       <c r="E79">
-        <v>48.63999938964844</v>
+        <v>47.02999877929688</v>
       </c>
       <c r="F79">
-        <v>8163900</v>
+        <v>8310700</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>48.5</v>
+        <v>47.63000106811523</v>
       </c>
       <c r="B80">
-        <v>49.22999954223633</v>
+        <v>47.70999908447266</v>
       </c>
       <c r="C80">
-        <v>47.43000030517578</v>
+        <v>45.9900016784668</v>
       </c>
       <c r="D80">
-        <v>47.70999908447266</v>
+        <v>46.59000015258789</v>
       </c>
       <c r="E80">
-        <v>47.70999908447266</v>
+        <v>46.59000015258789</v>
       </c>
       <c r="F80">
-        <v>8984500</v>
+        <v>7931400</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>47.59500122070312</v>
+        <v>46.84999847412109</v>
       </c>
       <c r="B81">
-        <v>47.91999816894531</v>
+        <v>46.9900016784668</v>
       </c>
       <c r="C81">
-        <v>46.56000137329102</v>
+        <v>42.45999908447266</v>
       </c>
       <c r="D81">
-        <v>47.06000137329102</v>
+        <v>44.02999877929688</v>
       </c>
       <c r="E81">
-        <v>47.06000137329102</v>
+        <v>44.02999877929688</v>
       </c>
       <c r="F81">
-        <v>7693700</v>
+        <v>26659100</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>46.81000137329102</v>
+        <v>43.5</v>
       </c>
       <c r="B82">
-        <v>48.7400016784668</v>
+        <v>44.4900016784668</v>
       </c>
       <c r="C82">
-        <v>46.81000137329102</v>
+        <v>41.0099983215332</v>
       </c>
       <c r="D82">
-        <v>48.02999877929688</v>
+        <v>41.33000183105469</v>
       </c>
       <c r="E82">
-        <v>48.02999877929688</v>
+        <v>41.33000183105469</v>
       </c>
       <c r="F82">
-        <v>10170200</v>
+        <v>22163300</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>47.79999923706055</v>
+        <v>41.25</v>
       </c>
       <c r="B83">
-        <v>48.45000076293945</v>
+        <v>42.43000030517578</v>
       </c>
       <c r="C83">
-        <v>47.0099983215332</v>
+        <v>39.81999969482422</v>
       </c>
       <c r="D83">
-        <v>47.02999877929688</v>
+        <v>41.68000030517578</v>
       </c>
       <c r="E83">
-        <v>47.02999877929688</v>
+        <v>41.68000030517578</v>
       </c>
       <c r="F83">
-        <v>8310700</v>
+        <v>17882300</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>47.63000106811523</v>
+        <v>41.54000091552734</v>
       </c>
       <c r="B84">
-        <v>47.70999908447266</v>
+        <v>43.27999877929688</v>
       </c>
       <c r="C84">
-        <v>45.9900016784668</v>
+        <v>41.04999923706055</v>
       </c>
       <c r="D84">
-        <v>46.59000015258789</v>
+        <v>41.36000061035156</v>
       </c>
       <c r="E84">
-        <v>46.59000015258789</v>
+        <v>41.36000061035156</v>
       </c>
       <c r="F84">
-        <v>7931400</v>
+        <v>15710600</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>46.84999847412109</v>
+        <v>40.7400016784668</v>
       </c>
       <c r="B85">
-        <v>46.9900016784668</v>
+        <v>41.77500152587891</v>
       </c>
       <c r="C85">
-        <v>42.45999908447266</v>
+        <v>38.5099983215332</v>
       </c>
       <c r="D85">
-        <v>44.02999877929688</v>
+        <v>41.70999908447266</v>
       </c>
       <c r="E85">
-        <v>44.02999877929688</v>
+        <v>41.70999908447266</v>
       </c>
       <c r="F85">
-        <v>26659100</v>
+        <v>20895900</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>43.5</v>
+        <v>42.06000137329102</v>
       </c>
       <c r="B86">
-        <v>44.4900016784668</v>
+        <v>43.72000122070312</v>
       </c>
       <c r="C86">
-        <v>41.0099983215332</v>
+        <v>41.77999877929688</v>
       </c>
       <c r="D86">
-        <v>41.33000183105469</v>
+        <v>43.31000137329102</v>
       </c>
       <c r="E86">
-        <v>41.33000183105469</v>
+        <v>43.31000137329102</v>
       </c>
       <c r="F86">
-        <v>22163300</v>
+        <v>17386600</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>41.25</v>
+        <v>43.81000137329102</v>
       </c>
       <c r="B87">
-        <v>42.43000030517578</v>
+        <v>44.34000015258789</v>
       </c>
       <c r="C87">
-        <v>39.81999969482422</v>
+        <v>42.06000137329102</v>
       </c>
       <c r="D87">
-        <v>41.68000030517578</v>
+        <v>42.72999954223633</v>
       </c>
       <c r="E87">
-        <v>41.68000030517578</v>
+        <v>42.72999954223633</v>
       </c>
       <c r="F87">
-        <v>17882300</v>
+        <v>12637500</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>41.54000091552734</v>
+        <v>40.63999938964844</v>
       </c>
       <c r="B88">
-        <v>43.27999877929688</v>
+        <v>41.45999908447266</v>
       </c>
       <c r="C88">
-        <v>41.04999923706055</v>
+        <v>38.2599983215332</v>
       </c>
       <c r="D88">
-        <v>41.36000061035156</v>
+        <v>38.38000106811523</v>
       </c>
       <c r="E88">
-        <v>41.36000061035156</v>
+        <v>38.38000106811523</v>
       </c>
       <c r="F88">
-        <v>15710600</v>
+        <v>32180500</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>40.7400016784668</v>
+        <v>37.72000122070312</v>
       </c>
       <c r="B89">
-        <v>41.77500152587891</v>
+        <v>38.33000183105469</v>
       </c>
       <c r="C89">
-        <v>38.5099983215332</v>
+        <v>36.56000137329102</v>
       </c>
       <c r="D89">
-        <v>41.70999908447266</v>
+        <v>38.04000091552734</v>
       </c>
       <c r="E89">
-        <v>41.70999908447266</v>
+        <v>38.04000091552734</v>
       </c>
       <c r="F89">
-        <v>20895900</v>
+        <v>25547000</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>42.06000137329102</v>
+        <v>36.97999954223633</v>
       </c>
       <c r="B90">
-        <v>43.72000122070312</v>
+        <v>36.98500061035156</v>
       </c>
       <c r="C90">
-        <v>41.77999877929688</v>
+        <v>35.61999893188477</v>
       </c>
       <c r="D90">
-        <v>43.31000137329102</v>
+        <v>35.70000076293945</v>
       </c>
       <c r="E90">
-        <v>43.31000137329102</v>
+        <v>35.70000076293945</v>
       </c>
       <c r="F90">
-        <v>17386600</v>
+        <v>37008100</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>43.81000137329102</v>
+        <v>36.02999877929688</v>
       </c>
       <c r="B91">
-        <v>44.34000015258789</v>
+        <v>36.47999954223633</v>
       </c>
       <c r="C91">
-        <v>42.06000137329102</v>
+        <v>34.7599983215332</v>
       </c>
       <c r="D91">
-        <v>42.72999954223633</v>
+        <v>35.04999923706055</v>
       </c>
       <c r="E91">
-        <v>42.72999954223633</v>
+        <v>35.04999923706055</v>
       </c>
       <c r="F91">
-        <v>12637500</v>
+        <v>23942000</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>40.63999938964844</v>
+        <v>35.79999923706055</v>
       </c>
       <c r="B92">
-        <v>41.45999908447266</v>
+        <v>37.10499954223633</v>
       </c>
       <c r="C92">
-        <v>38.2599983215332</v>
+        <v>34.91500091552734</v>
       </c>
       <c r="D92">
-        <v>38.38000106811523</v>
+        <v>34.9900016784668</v>
       </c>
       <c r="E92">
-        <v>38.38000106811523</v>
+        <v>34.9900016784668</v>
       </c>
       <c r="F92">
-        <v>32180500</v>
+        <v>21672700</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>37.72000122070312</v>
+        <v>34</v>
       </c>
       <c r="B93">
-        <v>38.33000183105469</v>
+        <v>34.61999893188477</v>
       </c>
       <c r="C93">
-        <v>36.56000137329102</v>
+        <v>32</v>
       </c>
       <c r="D93">
-        <v>38.04000091552734</v>
+        <v>32.11999893188477</v>
       </c>
       <c r="E93">
-        <v>38.04000091552734</v>
+        <v>32.11999893188477</v>
       </c>
       <c r="F93">
-        <v>25547000</v>
+        <v>37648400</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>36.97999954223633</v>
+        <v>30.15999984741211</v>
       </c>
       <c r="B94">
-        <v>36.98500061035156</v>
+        <v>31.80999946594238</v>
       </c>
       <c r="C94">
-        <v>35.61999893188477</v>
+        <v>28.02000045776367</v>
       </c>
       <c r="D94">
-        <v>35.70000076293945</v>
+        <v>31.79999923706055</v>
       </c>
       <c r="E94">
-        <v>35.70000076293945</v>
+        <v>31.79999923706055</v>
       </c>
       <c r="F94">
-        <v>37008100</v>
+        <v>46502200</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>36.02999877929688</v>
+        <v>31.01000022888184</v>
       </c>
       <c r="B95">
-        <v>36.47999954223633</v>
+        <v>32.09000015258789</v>
       </c>
       <c r="C95">
-        <v>34.7599983215332</v>
+        <v>30.08499908447266</v>
       </c>
       <c r="D95">
-        <v>35.04999923706055</v>
+        <v>30.65999984741211</v>
       </c>
       <c r="E95">
-        <v>35.04999923706055</v>
+        <v>30.65999984741211</v>
       </c>
       <c r="F95">
-        <v>23942000</v>
+        <v>26893800</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>35.79999923706055</v>
+        <v>31.3799991607666</v>
       </c>
       <c r="B96">
-        <v>37.10499954223633</v>
+        <v>31.90999984741211</v>
       </c>
       <c r="C96">
-        <v>34.91500091552734</v>
+        <v>28.15999984741211</v>
       </c>
       <c r="D96">
-        <v>34.9900016784668</v>
+        <v>28.6299991607666</v>
       </c>
       <c r="E96">
-        <v>34.9900016784668</v>
+        <v>28.6299991607666</v>
       </c>
       <c r="F96">
-        <v>21672700</v>
+        <v>35467300</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>34</v>
+        <v>29.6299991607666</v>
       </c>
       <c r="B97">
-        <v>34.61999893188477</v>
+        <v>30.67000007629395</v>
       </c>
       <c r="C97">
-        <v>32</v>
+        <v>28.17000007629395</v>
       </c>
       <c r="D97">
-        <v>32.11999893188477</v>
+        <v>28.29999923706055</v>
       </c>
       <c r="E97">
-        <v>32.11999893188477</v>
+        <v>28.29999923706055</v>
       </c>
       <c r="F97">
-        <v>37648400</v>
+        <v>35331900</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>30.15999984741211</v>
+        <v>28.6299991607666</v>
       </c>
       <c r="B98">
-        <v>31.80999946594238</v>
+        <v>30.47999954223633</v>
       </c>
       <c r="C98">
-        <v>28.02000045776367</v>
+        <v>28.1299991607666</v>
       </c>
       <c r="D98">
-        <v>31.79999923706055</v>
+        <v>30.42000007629395</v>
       </c>
       <c r="E98">
-        <v>31.79999923706055</v>
+        <v>30.42000007629395</v>
       </c>
       <c r="F98">
-        <v>46502200</v>
+        <v>28380500</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>31.01000022888184</v>
+        <v>30.64999961853027</v>
       </c>
       <c r="B99">
-        <v>32.09000015258789</v>
+        <v>32.63000106811523</v>
       </c>
       <c r="C99">
-        <v>30.08499908447266</v>
+        <v>30.64999961853027</v>
       </c>
       <c r="D99">
-        <v>30.65999984741211</v>
+        <v>32.54000091552734</v>
       </c>
       <c r="E99">
-        <v>30.65999984741211</v>
+        <v>32.54000091552734</v>
       </c>
       <c r="F99">
-        <v>26893800</v>
+        <v>25872900</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>31.3799991607666</v>
+        <v>34.13000106811523</v>
       </c>
       <c r="B100">
-        <v>31.90999984741211</v>
+        <v>34.20000076293945</v>
       </c>
       <c r="C100">
-        <v>28.15999984741211</v>
+        <v>32.20999908447266</v>
       </c>
       <c r="D100">
-        <v>28.6299991607666</v>
+        <v>33.65999984741211</v>
       </c>
       <c r="E100">
-        <v>28.6299991607666</v>
+        <v>33.65999984741211</v>
       </c>
       <c r="F100">
-        <v>35467300</v>
+        <v>28108900</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>29.6299991607666</v>
+        <v>34.15000152587891</v>
       </c>
       <c r="B101">
-        <v>30.67000007629395</v>
+        <v>34.24499893188477</v>
       </c>
       <c r="C101">
-        <v>28.17000007629395</v>
+        <v>31.72999954223633</v>
       </c>
       <c r="D101">
-        <v>28.29999923706055</v>
+        <v>32.06999969482422</v>
       </c>
       <c r="E101">
-        <v>28.29999923706055</v>
+        <v>32.06999969482422</v>
       </c>
       <c r="F101">
-        <v>35331900</v>
+        <v>41654600</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>28.6299991607666</v>
+        <v>25.73999977111816</v>
       </c>
       <c r="B102">
-        <v>30.47999954223633</v>
+        <v>26.48999977111816</v>
       </c>
       <c r="C102">
-        <v>28.1299991607666</v>
+        <v>24.31999969482422</v>
       </c>
       <c r="D102">
-        <v>30.42000007629395</v>
+        <v>24.5</v>
       </c>
       <c r="E102">
-        <v>30.42000007629395</v>
+        <v>24.5</v>
       </c>
       <c r="F102">
-        <v>28380500</v>
+        <v>149336000</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>30.64999961853027</v>
+        <v>35.27000045776367</v>
       </c>
       <c r="B103">
-        <v>32.63000106811523</v>
+        <v>40.65000152587891</v>
       </c>
       <c r="C103">
-        <v>30.64999961853027</v>
+        <v>34.09999847412109</v>
       </c>
       <c r="D103">
-        <v>32.54000091552734</v>
+        <v>38.90999984741211</v>
       </c>
       <c r="E103">
-        <v>32.54000091552734</v>
+        <v>38.90999984741211</v>
       </c>
       <c r="F103">
-        <v>25872900</v>
+        <v>308020500</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>34.13000106811523</v>
+        <v>38.5099983215332</v>
       </c>
       <c r="B104">
-        <v>34.20000076293945</v>
+        <v>39.59000015258789</v>
       </c>
       <c r="C104">
-        <v>32.20999908447266</v>
+        <v>37.52000045776367</v>
       </c>
       <c r="D104">
-        <v>33.65999984741211</v>
+        <v>37.88000106811523</v>
       </c>
       <c r="E104">
-        <v>33.65999984741211</v>
+        <v>37.88000106811523</v>
       </c>
       <c r="F104">
-        <v>28108900</v>
+        <v>96743300</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>34.15000152587891</v>
+        <v>35.5099983215332</v>
       </c>
       <c r="B105">
-        <v>34.24499893188477</v>
+        <v>37.7599983215332</v>
       </c>
       <c r="C105">
-        <v>31.72999954223633</v>
+        <v>34.86999893188477</v>
       </c>
       <c r="D105">
-        <v>32.06999969482422</v>
+        <v>37.56000137329102</v>
       </c>
       <c r="E105">
-        <v>32.06999969482422</v>
+        <v>37.56000137329102</v>
       </c>
       <c r="F105">
-        <v>41654600</v>
+        <v>85621100</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>25.73999977111816</v>
+        <v>37.7400016784668</v>
       </c>
       <c r="B106">
-        <v>26.48999977111816</v>
+        <v>40.33000183105469</v>
       </c>
       <c r="C106">
-        <v>24.31999969482422</v>
+        <v>37.11000061035156</v>
       </c>
       <c r="D106">
-        <v>24.5</v>
+        <v>40.27999877929688</v>
       </c>
       <c r="E106">
-        <v>24.5</v>
+        <v>40.27999877929688</v>
       </c>
       <c r="F106">
-        <v>149336000</v>
+        <v>67166800</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>35.27000045776367</v>
+        <v>38.5099983215332</v>
       </c>
       <c r="B107">
-        <v>40.65000152587891</v>
+        <v>41.97000122070312</v>
       </c>
       <c r="C107">
-        <v>34.09999847412109</v>
+        <v>38.50500106811523</v>
       </c>
       <c r="D107">
-        <v>38.90999984741211</v>
+        <v>40.61999893188477</v>
       </c>
       <c r="E107">
-        <v>38.90999984741211</v>
+        <v>40.61999893188477</v>
       </c>
       <c r="F107">
-        <v>308020500</v>
+        <v>65264300</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>38.5099983215332</v>
+        <v>40.38000106811523</v>
       </c>
       <c r="B108">
-        <v>39.59000015258789</v>
+        <v>41.97000122070312</v>
       </c>
       <c r="C108">
-        <v>37.52000045776367</v>
+        <v>39.06999969482422</v>
       </c>
       <c r="D108">
-        <v>37.88000106811523</v>
+        <v>39.4900016784668</v>
       </c>
       <c r="E108">
-        <v>37.88000106811523</v>
+        <v>39.4900016784668</v>
       </c>
       <c r="F108">
-        <v>96743300</v>
+        <v>42721700</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>35.5099983215332</v>
+        <v>39.95999908447266</v>
       </c>
       <c r="B109">
-        <v>37.7599983215332</v>
+        <v>41.88999938964844</v>
       </c>
       <c r="C109">
-        <v>34.86999893188477</v>
+        <v>39.5</v>
       </c>
       <c r="D109">
-        <v>37.56000137329102</v>
+        <v>39.61999893188477</v>
       </c>
       <c r="E109">
-        <v>37.56000137329102</v>
+        <v>39.61999893188477</v>
       </c>
       <c r="F109">
-        <v>85621100</v>
+        <v>37579800</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>37.7400016784668</v>
+        <v>40.15999984741211</v>
       </c>
       <c r="B110">
-        <v>40.33000183105469</v>
+        <v>41.45999908447266</v>
       </c>
       <c r="C110">
-        <v>37.11000061035156</v>
+        <v>39.93999862670898</v>
       </c>
       <c r="D110">
-        <v>40.27999877929688</v>
+        <v>41.43000030517578</v>
       </c>
       <c r="E110">
-        <v>40.27999877929688</v>
+        <v>41.43000030517578</v>
       </c>
       <c r="F110">
-        <v>67166800</v>
+        <v>26091600</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>38.5099983215332</v>
+        <v>38.95999908447266</v>
       </c>
       <c r="B111">
-        <v>41.97000122070312</v>
+        <v>40.59999847412109</v>
       </c>
       <c r="C111">
-        <v>38.50500106811523</v>
+        <v>38.95999908447266</v>
       </c>
       <c r="D111">
-        <v>40.61999893188477</v>
+        <v>40.0099983215332</v>
       </c>
       <c r="E111">
-        <v>40.61999893188477</v>
+        <v>40.0099983215332</v>
       </c>
       <c r="F111">
-        <v>65264300</v>
+        <v>35643500</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>40.38000106811523</v>
+        <v>40.45000076293945</v>
       </c>
       <c r="B112">
-        <v>41.97000122070312</v>
+        <v>40.81999969482422</v>
       </c>
       <c r="C112">
-        <v>39.06999969482422</v>
+        <v>39.16999816894531</v>
       </c>
       <c r="D112">
-        <v>39.4900016784668</v>
+        <v>39.45000076293945</v>
       </c>
       <c r="E112">
-        <v>39.4900016784668</v>
+        <v>39.45000076293945</v>
       </c>
       <c r="F112">
-        <v>42721700</v>
+        <v>24624400</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>39.95999908447266</v>
+        <v>39.61000061035156</v>
       </c>
       <c r="B113">
-        <v>41.88999938964844</v>
+        <v>40.40000152587891</v>
       </c>
       <c r="C113">
-        <v>39.5</v>
+        <v>37.93999862670898</v>
       </c>
       <c r="D113">
-        <v>39.61999893188477</v>
+        <v>38.0099983215332</v>
       </c>
       <c r="E113">
-        <v>39.61999893188477</v>
+        <v>38.0099983215332</v>
       </c>
       <c r="F113">
-        <v>37579800</v>
+        <v>23064200</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>40.15999984741211</v>
+        <v>37.75</v>
       </c>
       <c r="B114">
-        <v>41.45999908447266</v>
+        <v>38.47000122070312</v>
       </c>
       <c r="C114">
-        <v>39.93999862670898</v>
+        <v>36.36999893188477</v>
       </c>
       <c r="D114">
-        <v>41.43000030517578</v>
+        <v>36.86999893188477</v>
       </c>
       <c r="E114">
-        <v>41.43000030517578</v>
+        <v>36.86999893188477</v>
       </c>
       <c r="F114">
-        <v>26091600</v>
+        <v>25433100</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>38.95999908447266</v>
+        <v>37.18999862670898</v>
       </c>
       <c r="B115">
-        <v>40.59999847412109</v>
+        <v>38.15000152587891</v>
       </c>
       <c r="C115">
-        <v>38.95999908447266</v>
+        <v>36.15999984741211</v>
       </c>
       <c r="D115">
-        <v>40.0099983215332</v>
+        <v>36.97999954223633</v>
       </c>
       <c r="E115">
-        <v>40.0099983215332</v>
+        <v>36.97999954223633</v>
       </c>
       <c r="F115">
-        <v>35643500</v>
+        <v>24429900</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>40.45000076293945</v>
+        <v>34.95000076293945</v>
       </c>
       <c r="B116">
-        <v>40.81999969482422</v>
+        <v>39.04999923706055</v>
       </c>
       <c r="C116">
-        <v>39.16999816894531</v>
+        <v>34.95000076293945</v>
       </c>
       <c r="D116">
-        <v>39.45000076293945</v>
+        <v>38.83000183105469</v>
       </c>
       <c r="E116">
-        <v>39.45000076293945</v>
+        <v>38.83000183105469</v>
       </c>
       <c r="F116">
-        <v>24624400</v>
+        <v>26703600</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>39.61000061035156</v>
+        <v>38.84000015258789</v>
       </c>
       <c r="B117">
-        <v>40.40000152587891</v>
+        <v>39.56499862670898</v>
       </c>
       <c r="C117">
-        <v>37.93999862670898</v>
+        <v>38.09999847412109</v>
       </c>
       <c r="D117">
-        <v>38.0099983215332</v>
+        <v>39.15000152587891</v>
       </c>
       <c r="E117">
-        <v>38.0099983215332</v>
+        <v>39.15000152587891</v>
       </c>
       <c r="F117">
-        <v>23064200</v>
+        <v>19173500</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>37.75</v>
+        <v>39.4900016784668</v>
       </c>
       <c r="B118">
-        <v>38.47000122070312</v>
+        <v>40.95999908447266</v>
       </c>
       <c r="C118">
-        <v>36.36999893188477</v>
+        <v>38.84000015258789</v>
       </c>
       <c r="D118">
-        <v>36.86999893188477</v>
+        <v>39.93999862670898</v>
       </c>
       <c r="E118">
-        <v>36.86999893188477</v>
+        <v>39.93999862670898</v>
       </c>
       <c r="F118">
-        <v>25433100</v>
+        <v>23393000</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>37.18999862670898</v>
+        <v>39.81000137329102</v>
       </c>
       <c r="B119">
-        <v>38.15000152587891</v>
+        <v>41.31999969482422</v>
       </c>
       <c r="C119">
-        <v>36.15999984741211</v>
+        <v>37.45999908447266</v>
       </c>
       <c r="D119">
-        <v>36.97999954223633</v>
+        <v>37.84000015258789</v>
       </c>
       <c r="E119">
-        <v>36.97999954223633</v>
+        <v>37.84000015258789</v>
       </c>
       <c r="F119">
-        <v>24429900</v>
+        <v>28341900</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>34.95000076293945</v>
+        <v>38.11999893188477</v>
       </c>
       <c r="B120">
-        <v>39.04999923706055</v>
+        <v>38.11999893188477</v>
       </c>
       <c r="C120">
-        <v>34.95000076293945</v>
+        <v>35.75</v>
       </c>
       <c r="D120">
-        <v>38.83000183105469</v>
+        <v>37.36999893188477</v>
       </c>
       <c r="E120">
-        <v>38.83000183105469</v>
+        <v>37.36999893188477</v>
       </c>
       <c r="F120">
-        <v>26703600</v>
+        <v>30985500</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>38.84000015258789</v>
+        <v>37.29999923706055</v>
       </c>
       <c r="B121">
-        <v>39.56499862670898</v>
+        <v>37.41999816894531</v>
       </c>
       <c r="C121">
-        <v>38.09999847412109</v>
+        <v>35.0099983215332</v>
       </c>
       <c r="D121">
-        <v>39.15000152587891</v>
+        <v>35.65999984741211</v>
       </c>
       <c r="E121">
-        <v>39.15000152587891</v>
+        <v>35.65999984741211</v>
       </c>
       <c r="F121">
-        <v>19173500</v>
+        <v>23087700</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>39.4900016784668</v>
+        <v>36.38999938964844</v>
       </c>
       <c r="B122">
-        <v>40.95999908447266</v>
+        <v>36.72000122070312</v>
       </c>
       <c r="C122">
-        <v>38.84000015258789</v>
+        <v>32.88999938964844</v>
       </c>
       <c r="D122">
-        <v>39.93999862670898</v>
+        <v>33.09000015258789</v>
       </c>
       <c r="E122">
-        <v>39.93999862670898</v>
+        <v>33.09000015258789</v>
       </c>
       <c r="F122">
-        <v>23393000</v>
+        <v>22212700</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>39.81000137329102</v>
+        <v>33.15000152587891</v>
       </c>
       <c r="B123">
-        <v>41.31999969482422</v>
+        <v>33.34000015258789</v>
       </c>
       <c r="C123">
-        <v>37.45999908447266</v>
+        <v>30.19000053405762</v>
       </c>
       <c r="D123">
-        <v>37.84000015258789</v>
+        <v>30.21999931335449</v>
       </c>
       <c r="E123">
-        <v>37.84000015258789</v>
+        <v>30.21999931335449</v>
       </c>
       <c r="F123">
-        <v>28341900</v>
+        <v>32356700</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>38.11999893188477</v>
+        <v>30.01000022888184</v>
       </c>
       <c r="B124">
-        <v>38.11999893188477</v>
+        <v>32.72000122070312</v>
       </c>
       <c r="C124">
-        <v>35.75</v>
+        <v>29.57999992370605</v>
       </c>
       <c r="D124">
-        <v>37.36999893188477</v>
+        <v>31.21999931335449</v>
       </c>
       <c r="E124">
-        <v>37.36999893188477</v>
+        <v>31.21999931335449</v>
       </c>
       <c r="F124">
-        <v>30985500</v>
+        <v>28109600</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>37.29999923706055</v>
+        <v>32</v>
       </c>
       <c r="B125">
-        <v>37.41999816894531</v>
+        <v>34.22999954223633</v>
       </c>
       <c r="C125">
-        <v>35.0099983215332</v>
+        <v>31.78000068664551</v>
       </c>
       <c r="D125">
-        <v>35.65999984741211</v>
+        <v>33.68000030517578</v>
       </c>
       <c r="E125">
-        <v>35.65999984741211</v>
+        <v>33.68000030517578</v>
       </c>
       <c r="F125">
-        <v>23031100</v>
+        <v>26986400</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>36.38999938964844</v>
+        <v>32.75</v>
       </c>
       <c r="B126">
-        <v>36.72000122070312</v>
+        <v>32.7599983215332</v>
       </c>
       <c r="C126">
-        <v>32.88999938964844</v>
+        <v>31.05999946594238</v>
       </c>
       <c r="D126">
-        <v>33.09000015258789</v>
+        <v>31.73999977111816</v>
       </c>
       <c r="E126">
-        <v>33.09000015258789</v>
+        <v>31.73999977111816</v>
       </c>
       <c r="F126">
-        <v>21904555</v>
+        <v>21145700</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127">
+        <v>32.38000106811523</v>
+      </c>
+      <c r="B127">
+        <v>32.40999984741211</v>
+      </c>
+      <c r="C127">
+        <v>29.7450008392334</v>
+      </c>
+      <c r="D127">
+        <v>30.04999923706055</v>
+      </c>
+      <c r="E127">
+        <v>30.04999923706055</v>
+      </c>
+      <c r="F127">
+        <v>22871932</v>
       </c>
     </row>
   </sheetData>

--- a/Stocks/SNAP/HighLow.xlsx
+++ b/Stocks/SNAP/HighLow.xlsx
@@ -1,63 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Open</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>Close</t>
-  </si>
-  <si>
-    <t>Adj Close</t>
-  </si>
-  <si>
-    <t>Volume</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -72,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -388,2554 +420,2572 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>75.61000061035156</v>
-      </c>
-      <c r="B2">
-        <v>75.61000061035156</v>
-      </c>
-      <c r="C2">
-        <v>69.81999969482422</v>
-      </c>
-      <c r="D2">
-        <v>71.26000213623047</v>
-      </c>
-      <c r="E2">
-        <v>71.26000213623047</v>
-      </c>
-      <c r="F2">
-        <v>19913400</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>71.69000244140625</v>
-      </c>
-      <c r="B3">
-        <v>72.79000091552734</v>
-      </c>
-      <c r="C3">
-        <v>70.80999755859375</v>
-      </c>
-      <c r="D3">
-        <v>71.30999755859375</v>
-      </c>
-      <c r="E3">
-        <v>71.30999755859375</v>
-      </c>
-      <c r="F3">
-        <v>11083000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>71.33000183105469</v>
-      </c>
-      <c r="B4">
-        <v>73.62000274658203</v>
-      </c>
-      <c r="C4">
-        <v>70.37000274658203</v>
-      </c>
-      <c r="D4">
-        <v>73.62000274658203</v>
-      </c>
-      <c r="E4">
-        <v>73.62000274658203</v>
-      </c>
-      <c r="F4">
-        <v>10890100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>73.29000091552734</v>
-      </c>
-      <c r="B5">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Close</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Adj Close</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Volume</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>72.375</v>
+      </c>
+      <c r="B2" t="n">
+        <v>73.13999938964844</v>
+      </c>
+      <c r="C2" t="n">
+        <v>70.10900115966797</v>
+      </c>
+      <c r="D2" t="n">
+        <v>71.73000335693359</v>
+      </c>
+      <c r="E2" t="n">
+        <v>71.73000335693359</v>
+      </c>
+      <c r="F2" t="n">
+        <v>13834900</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>72.76000213623047</v>
+      </c>
+      <c r="B3" t="n">
+        <v>76.37000274658203</v>
+      </c>
+      <c r="C3" t="n">
+        <v>72.59999847412109</v>
+      </c>
+      <c r="D3" t="n">
+        <v>76.08999633789062</v>
+      </c>
+      <c r="E3" t="n">
+        <v>76.08999633789062</v>
+      </c>
+      <c r="F3" t="n">
+        <v>18129600</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>74.37000274658203</v>
+      </c>
+      <c r="B4" t="n">
+        <v>79.63999938964844</v>
+      </c>
+      <c r="C4" t="n">
+        <v>74.01999664306641</v>
+      </c>
+      <c r="D4" t="n">
+        <v>78.59999847412109</v>
+      </c>
+      <c r="E4" t="n">
+        <v>78.59999847412109</v>
+      </c>
+      <c r="F4" t="n">
+        <v>26999200</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>78.97000122070312</v>
+      </c>
+      <c r="B5" t="n">
+        <v>80.09999847412109</v>
+      </c>
+      <c r="C5" t="n">
+        <v>77.45999908447266</v>
+      </c>
+      <c r="D5" t="n">
+        <v>79.37000274658203</v>
+      </c>
+      <c r="E5" t="n">
+        <v>79.37000274658203</v>
+      </c>
+      <c r="F5" t="n">
+        <v>20944600</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>78.94000244140625</v>
+      </c>
+      <c r="B6" t="n">
+        <v>83.33999633789062</v>
+      </c>
+      <c r="C6" t="n">
+        <v>78.11000061035156</v>
+      </c>
+      <c r="D6" t="n">
+        <v>83.11000061035156</v>
+      </c>
+      <c r="E6" t="n">
+        <v>83.11000061035156</v>
+      </c>
+      <c r="F6" t="n">
+        <v>29039000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>82</v>
+      </c>
+      <c r="B7" t="n">
+        <v>82.61000061035156</v>
+      </c>
+      <c r="C7" t="n">
+        <v>79.31999969482422</v>
+      </c>
+      <c r="D7" t="n">
+        <v>80.08000183105469</v>
+      </c>
+      <c r="E7" t="n">
+        <v>80.08000183105469</v>
+      </c>
+      <c r="F7" t="n">
+        <v>18493300</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>78.54000091552734</v>
+      </c>
+      <c r="B8" t="n">
+        <v>79.41000366210938</v>
+      </c>
+      <c r="C8" t="n">
+        <v>73.88999938964844</v>
+      </c>
+      <c r="D8" t="n">
+        <v>74.41999816894531</v>
+      </c>
+      <c r="E8" t="n">
+        <v>74.41999816894531</v>
+      </c>
+      <c r="F8" t="n">
+        <v>23531900</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>75.30000305175781</v>
+      </c>
+      <c r="B9" t="n">
+        <v>76.08999633789062</v>
+      </c>
+      <c r="C9" t="n">
+        <v>71.55999755859375</v>
+      </c>
+      <c r="D9" t="n">
+        <v>71.76000213623047</v>
+      </c>
+      <c r="E9" t="n">
+        <v>71.76000213623047</v>
+      </c>
+      <c r="F9" t="n">
+        <v>18633700</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>72.91999816894531</v>
+      </c>
+      <c r="B10" t="n">
+        <v>75.24700164794922</v>
+      </c>
+      <c r="C10" t="n">
+        <v>72.23999786376953</v>
+      </c>
+      <c r="D10" t="n">
+        <v>73.87000274658203</v>
+      </c>
+      <c r="E10" t="n">
+        <v>73.87000274658203</v>
+      </c>
+      <c r="F10" t="n">
+        <v>17166400</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>74.81999969482422</v>
+      </c>
+      <c r="B11" t="n">
+        <v>75.88999938964844</v>
+      </c>
+      <c r="C11" t="n">
+        <v>73.44000244140625</v>
+      </c>
+      <c r="D11" t="n">
+        <v>75.25</v>
+      </c>
+      <c r="E11" t="n">
+        <v>75.25</v>
+      </c>
+      <c r="F11" t="n">
+        <v>11689700</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>74.02999877929688</v>
+      </c>
+      <c r="B12" t="n">
+        <v>74.19999694824219</v>
+      </c>
+      <c r="C12" t="n">
+        <v>69.97000122070312</v>
+      </c>
+      <c r="D12" t="n">
+        <v>71.23000335693359</v>
+      </c>
+      <c r="E12" t="n">
+        <v>71.23000335693359</v>
+      </c>
+      <c r="F12" t="n">
+        <v>18142600</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>72.18000030517578</v>
+      </c>
+      <c r="B13" t="n">
+        <v>73.91000366210938</v>
+      </c>
+      <c r="C13" t="n">
+        <v>71.79000091552734</v>
+      </c>
+      <c r="D13" t="n">
         <v>73.41000366210938</v>
       </c>
-      <c r="C5">
-        <v>71.51999664306641</v>
-      </c>
-      <c r="D5">
-        <v>72.48000335693359</v>
-      </c>
-      <c r="E5">
-        <v>72.48000335693359</v>
-      </c>
-      <c r="F5">
-        <v>16878500</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>72.41999816894531</v>
-      </c>
-      <c r="B6">
-        <v>75.62999725341797</v>
-      </c>
-      <c r="C6">
-        <v>72.40000152587891</v>
-      </c>
-      <c r="D6">
-        <v>74.76000213623047</v>
-      </c>
-      <c r="E6">
-        <v>74.76000213623047</v>
-      </c>
-      <c r="F6">
-        <v>20858800</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>72.375</v>
-      </c>
-      <c r="B7">
-        <v>73.13999938964844</v>
-      </c>
-      <c r="C7">
-        <v>70.10900115966797</v>
-      </c>
-      <c r="D7">
-        <v>71.73000335693359</v>
-      </c>
-      <c r="E7">
-        <v>71.73000335693359</v>
-      </c>
-      <c r="F7">
-        <v>13834900</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>72.76000213623047</v>
-      </c>
-      <c r="B8">
-        <v>76.37000274658203</v>
-      </c>
-      <c r="C8">
-        <v>72.59999847412109</v>
-      </c>
-      <c r="D8">
-        <v>76.08999633789062</v>
-      </c>
-      <c r="E8">
-        <v>76.08999633789062</v>
-      </c>
-      <c r="F8">
-        <v>18129600</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>74.37000274658203</v>
-      </c>
-      <c r="B9">
-        <v>79.63999938964844</v>
-      </c>
-      <c r="C9">
-        <v>74.01999664306641</v>
-      </c>
-      <c r="D9">
+      <c r="E13" t="n">
+        <v>73.41000366210938</v>
+      </c>
+      <c r="F13" t="n">
+        <v>11896500</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>72.37000274658203</v>
+      </c>
+      <c r="B14" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="C14" t="n">
+        <v>71.31999969482422</v>
+      </c>
+      <c r="D14" t="n">
+        <v>73.12999725341797</v>
+      </c>
+      <c r="E14" t="n">
+        <v>73.12999725341797</v>
+      </c>
+      <c r="F14" t="n">
+        <v>10927300</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>74.36000061035156</v>
+      </c>
+      <c r="B15" t="n">
+        <v>77.41000366210938</v>
+      </c>
+      <c r="C15" t="n">
+        <v>74.09999847412109</v>
+      </c>
+      <c r="D15" t="n">
+        <v>76.27999877929688</v>
+      </c>
+      <c r="E15" t="n">
+        <v>76.27999877929688</v>
+      </c>
+      <c r="F15" t="n">
+        <v>15547400</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>76.91000366210938</v>
+      </c>
+      <c r="B16" t="n">
+        <v>77.41000366210938</v>
+      </c>
+      <c r="C16" t="n">
+        <v>74.73999786376953</v>
+      </c>
+      <c r="D16" t="n">
+        <v>75</v>
+      </c>
+      <c r="E16" t="n">
+        <v>75</v>
+      </c>
+      <c r="F16" t="n">
+        <v>8909200</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>74.65000152587891</v>
+      </c>
+      <c r="B17" t="n">
+        <v>75.59999847412109</v>
+      </c>
+      <c r="C17" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="D17" t="n">
+        <v>73.52999877929688</v>
+      </c>
+      <c r="E17" t="n">
+        <v>73.52999877929688</v>
+      </c>
+      <c r="F17" t="n">
+        <v>8990800</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>74.12000274658203</v>
+      </c>
+      <c r="B18" t="n">
+        <v>75.98000335693359</v>
+      </c>
+      <c r="C18" t="n">
+        <v>73.52999877929688</v>
+      </c>
+      <c r="D18" t="n">
+        <v>75.26000213623047</v>
+      </c>
+      <c r="E18" t="n">
+        <v>75.26000213623047</v>
+      </c>
+      <c r="F18" t="n">
+        <v>13691100</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>76.15000152587891</v>
+      </c>
+      <c r="B19" t="n">
+        <v>76.30899810791016</v>
+      </c>
+      <c r="C19" t="n">
+        <v>74.30000305175781</v>
+      </c>
+      <c r="D19" t="n">
+        <v>74.94999694824219</v>
+      </c>
+      <c r="E19" t="n">
+        <v>74.94999694824219</v>
+      </c>
+      <c r="F19" t="n">
+        <v>9998900</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>77.05999755859375</v>
+      </c>
+      <c r="B20" t="n">
+        <v>77.23000335693359</v>
+      </c>
+      <c r="C20" t="n">
+        <v>75.72499847412109</v>
+      </c>
+      <c r="D20" t="n">
+        <v>76.63999938964844</v>
+      </c>
+      <c r="E20" t="n">
+        <v>76.63999938964844</v>
+      </c>
+      <c r="F20" t="n">
+        <v>12948800</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>76.80999755859375</v>
+      </c>
+      <c r="B21" t="n">
+        <v>78.73500061035156</v>
+      </c>
+      <c r="C21" t="n">
+        <v>75.87000274658203</v>
+      </c>
+      <c r="D21" t="n">
+        <v>77.33999633789062</v>
+      </c>
+      <c r="E21" t="n">
+        <v>77.33999633789062</v>
+      </c>
+      <c r="F21" t="n">
+        <v>20414400</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
         <v>78.59999847412109</v>
       </c>
-      <c r="E9">
-        <v>78.59999847412109</v>
-      </c>
-      <c r="F9">
-        <v>26999200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
-        <v>78.97000122070312</v>
-      </c>
-      <c r="B10">
-        <v>80.09999847412109</v>
-      </c>
-      <c r="C10">
-        <v>77.45999908447266</v>
-      </c>
-      <c r="D10">
-        <v>79.37000274658203</v>
-      </c>
-      <c r="E10">
-        <v>79.37000274658203</v>
-      </c>
-      <c r="F10">
-        <v>20944600</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
-        <v>78.94000244140625</v>
-      </c>
-      <c r="B11">
-        <v>83.33999633789062</v>
-      </c>
-      <c r="C11">
-        <v>78.11000061035156</v>
-      </c>
-      <c r="D11">
-        <v>83.11000061035156</v>
-      </c>
-      <c r="E11">
-        <v>83.11000061035156</v>
-      </c>
-      <c r="F11">
-        <v>29039000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12">
-        <v>82</v>
-      </c>
-      <c r="B12">
-        <v>82.61000061035156</v>
-      </c>
-      <c r="C12">
-        <v>79.31999969482422</v>
-      </c>
-      <c r="D12">
-        <v>80.08000183105469</v>
-      </c>
-      <c r="E12">
-        <v>80.08000183105469</v>
-      </c>
-      <c r="F12">
-        <v>18493300</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13">
-        <v>78.54000091552734</v>
-      </c>
-      <c r="B13">
-        <v>79.41000366210938</v>
-      </c>
-      <c r="C13">
+      <c r="B22" t="n">
+        <v>79.30000305175781</v>
+      </c>
+      <c r="C22" t="n">
+        <v>72.61000061035156</v>
+      </c>
+      <c r="D22" t="n">
+        <v>75.80000305175781</v>
+      </c>
+      <c r="E22" t="n">
+        <v>75.80000305175781</v>
+      </c>
+      <c r="F22" t="n">
+        <v>33053900</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>75.12000274658203</v>
+      </c>
+      <c r="B23" t="n">
+        <v>78.18000030517578</v>
+      </c>
+      <c r="C23" t="n">
+        <v>73.90000152587891</v>
+      </c>
+      <c r="D23" t="n">
+        <v>76.43000030517578</v>
+      </c>
+      <c r="E23" t="n">
+        <v>76.43000030517578</v>
+      </c>
+      <c r="F23" t="n">
+        <v>18720700</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>76.56999969482422</v>
+      </c>
+      <c r="B24" t="n">
+        <v>77.51999664306641</v>
+      </c>
+      <c r="C24" t="n">
+        <v>74.66999816894531</v>
+      </c>
+      <c r="D24" t="n">
+        <v>75.65000152587891</v>
+      </c>
+      <c r="E24" t="n">
+        <v>75.65000152587891</v>
+      </c>
+      <c r="F24" t="n">
+        <v>15739300</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>74.80999755859375</v>
+      </c>
+      <c r="B25" t="n">
+        <v>75.94999694824219</v>
+      </c>
+      <c r="C25" t="n">
         <v>73.88999938964844</v>
       </c>
-      <c r="D13">
-        <v>74.41999816894531</v>
-      </c>
-      <c r="E13">
-        <v>74.41999816894531</v>
-      </c>
-      <c r="F13">
-        <v>23531900</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14">
-        <v>75.30000305175781</v>
-      </c>
-      <c r="B14">
-        <v>76.08999633789062</v>
-      </c>
-      <c r="C14">
-        <v>71.55999755859375</v>
-      </c>
-      <c r="D14">
-        <v>71.76000213623047</v>
-      </c>
-      <c r="E14">
-        <v>71.76000213623047</v>
-      </c>
-      <c r="F14">
-        <v>18633700</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15">
-        <v>72.91999816894531</v>
-      </c>
-      <c r="B15">
-        <v>75.24700164794922</v>
-      </c>
-      <c r="C15">
-        <v>72.23999786376953</v>
-      </c>
-      <c r="D15">
-        <v>73.87000274658203</v>
-      </c>
-      <c r="E15">
-        <v>73.87000274658203</v>
-      </c>
-      <c r="F15">
-        <v>17166400</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16">
-        <v>74.81999969482422</v>
-      </c>
-      <c r="B16">
-        <v>75.88999938964844</v>
-      </c>
-      <c r="C16">
-        <v>73.44000244140625</v>
-      </c>
-      <c r="D16">
-        <v>75.25</v>
-      </c>
-      <c r="E16">
-        <v>75.25</v>
-      </c>
-      <c r="F16">
-        <v>11689700</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17">
-        <v>74.02999877929688</v>
-      </c>
-      <c r="B17">
-        <v>74.19999694824219</v>
-      </c>
-      <c r="C17">
-        <v>69.97000122070312</v>
-      </c>
-      <c r="D17">
-        <v>71.23000335693359</v>
-      </c>
-      <c r="E17">
-        <v>71.23000335693359</v>
-      </c>
-      <c r="F17">
-        <v>18142600</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18">
-        <v>72.18000030517578</v>
-      </c>
-      <c r="B18">
-        <v>73.91000366210938</v>
-      </c>
-      <c r="C18">
-        <v>71.79000091552734</v>
-      </c>
-      <c r="D18">
-        <v>73.41000366210938</v>
-      </c>
-      <c r="E18">
-        <v>73.41000366210938</v>
-      </c>
-      <c r="F18">
-        <v>11896500</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19">
-        <v>72.37000274658203</v>
-      </c>
-      <c r="B19">
-        <v>74.5</v>
-      </c>
-      <c r="C19">
-        <v>71.31999969482422</v>
-      </c>
-      <c r="D19">
-        <v>73.12999725341797</v>
-      </c>
-      <c r="E19">
-        <v>73.12999725341797</v>
-      </c>
-      <c r="F19">
-        <v>10927300</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20">
-        <v>74.36000061035156</v>
-      </c>
-      <c r="B20">
-        <v>77.41000366210938</v>
-      </c>
-      <c r="C20">
-        <v>74.09999847412109</v>
-      </c>
-      <c r="D20">
-        <v>76.27999877929688</v>
-      </c>
-      <c r="E20">
-        <v>76.27999877929688</v>
-      </c>
-      <c r="F20">
-        <v>15547400</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21">
-        <v>76.91000366210938</v>
-      </c>
-      <c r="B21">
-        <v>77.41000366210938</v>
-      </c>
-      <c r="C21">
-        <v>74.73999786376953</v>
-      </c>
-      <c r="D21">
-        <v>75</v>
-      </c>
-      <c r="E21">
-        <v>75</v>
-      </c>
-      <c r="F21">
-        <v>8906100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22">
-        <v>74.65000152587891</v>
-      </c>
-      <c r="B22">
-        <v>75.59999847412109</v>
-      </c>
-      <c r="C22">
-        <v>73.5</v>
-      </c>
-      <c r="D22">
-        <v>73.52999877929688</v>
-      </c>
-      <c r="E22">
-        <v>73.52999877929688</v>
-      </c>
-      <c r="F22">
-        <v>8990800</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23">
-        <v>74.12000274658203</v>
-      </c>
-      <c r="B23">
-        <v>75.98000335693359</v>
-      </c>
-      <c r="C23">
-        <v>73.52999877929688</v>
-      </c>
-      <c r="D23">
-        <v>75.26000213623047</v>
-      </c>
-      <c r="E23">
-        <v>75.26000213623047</v>
-      </c>
-      <c r="F23">
-        <v>13691100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24">
-        <v>76.15000152587891</v>
-      </c>
-      <c r="B24">
-        <v>76.30899810791016</v>
-      </c>
-      <c r="C24">
-        <v>74.30000305175781</v>
-      </c>
-      <c r="D24">
-        <v>74.94999694824219</v>
-      </c>
-      <c r="E24">
-        <v>74.94999694824219</v>
-      </c>
-      <c r="F24">
-        <v>9998900</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25">
-        <v>77.05999755859375</v>
-      </c>
-      <c r="B25">
-        <v>77.23000335693359</v>
-      </c>
-      <c r="C25">
-        <v>75.72499847412109</v>
-      </c>
-      <c r="D25">
-        <v>76.63999938964844</v>
-      </c>
-      <c r="E25">
-        <v>76.63999938964844</v>
-      </c>
-      <c r="F25">
-        <v>12948800</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26">
-        <v>76.80999755859375</v>
-      </c>
-      <c r="B26">
-        <v>78.73500061035156</v>
-      </c>
-      <c r="C26">
-        <v>75.87000274658203</v>
-      </c>
-      <c r="D26">
-        <v>77.33999633789062</v>
-      </c>
-      <c r="E26">
-        <v>77.33999633789062</v>
-      </c>
-      <c r="F26">
-        <v>20404200</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27">
-        <v>78.59999847412109</v>
-      </c>
-      <c r="B27">
-        <v>79.30000305175781</v>
-      </c>
-      <c r="C27">
-        <v>72.61000061035156</v>
-      </c>
-      <c r="D27">
-        <v>75.80000305175781</v>
-      </c>
-      <c r="E27">
-        <v>75.80000305175781</v>
-      </c>
-      <c r="F27">
-        <v>33053900</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28">
-        <v>75.12000274658203</v>
-      </c>
-      <c r="B28">
-        <v>78.18000030517578</v>
-      </c>
-      <c r="C28">
-        <v>73.90000152587891</v>
-      </c>
-      <c r="D28">
-        <v>76.43000030517578</v>
-      </c>
-      <c r="E28">
-        <v>76.43000030517578</v>
-      </c>
-      <c r="F28">
-        <v>18720700</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29">
-        <v>76.56999969482422</v>
-      </c>
-      <c r="B29">
-        <v>77.51999664306641</v>
-      </c>
-      <c r="C29">
-        <v>74.66999816894531</v>
-      </c>
-      <c r="D29">
-        <v>75.65000152587891</v>
-      </c>
-      <c r="E29">
-        <v>75.65000152587891</v>
-      </c>
-      <c r="F29">
-        <v>15739300</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30">
-        <v>74.80999755859375</v>
-      </c>
-      <c r="B30">
-        <v>75.94999694824219</v>
-      </c>
-      <c r="C30">
-        <v>73.88999938964844</v>
-      </c>
-      <c r="D30">
+      <c r="D25" t="n">
         <v>75.11000061035156</v>
       </c>
-      <c r="E30">
+      <c r="E25" t="n">
         <v>75.11000061035156</v>
       </c>
-      <c r="F30">
+      <c r="F25" t="n">
         <v>44450900</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
-      <c r="A31">
+    <row r="26">
+      <c r="A26" t="n">
         <v>58.75</v>
       </c>
-      <c r="B31">
+      <c r="B26" t="n">
         <v>60.77999877929688</v>
       </c>
-      <c r="C31">
+      <c r="C26" t="n">
         <v>55.02999877929688</v>
       </c>
-      <c r="D31">
+      <c r="D26" t="n">
         <v>55.13999938964844</v>
       </c>
-      <c r="E31">
+      <c r="E26" t="n">
         <v>55.13999938964844</v>
       </c>
-      <c r="F31">
+      <c r="F26" t="n">
         <v>153827500</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
-      <c r="A32">
+    <row r="27">
+      <c r="A27" t="n">
         <v>55.95999908447266</v>
       </c>
-      <c r="B32">
+      <c r="B27" t="n">
         <v>56.15000152587891</v>
       </c>
-      <c r="C32">
+      <c r="C27" t="n">
         <v>53.77000045776367</v>
       </c>
-      <c r="D32">
+      <c r="D27" t="n">
         <v>54.5</v>
       </c>
-      <c r="E32">
+      <c r="E27" t="n">
         <v>54.5</v>
       </c>
-      <c r="F32">
+      <c r="F27" t="n">
         <v>62506800</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
-      <c r="A33">
+    <row r="28">
+      <c r="A28" t="n">
         <v>55.2400016784668</v>
       </c>
-      <c r="B33">
+      <c r="B28" t="n">
         <v>57.18000030517578</v>
       </c>
-      <c r="C33">
+      <c r="C28" t="n">
         <v>54.88000106811523</v>
       </c>
-      <c r="D33">
+      <c r="D28" t="n">
         <v>55.38999938964844</v>
       </c>
-      <c r="E33">
+      <c r="E28" t="n">
         <v>55.38999938964844</v>
       </c>
-      <c r="F33">
+      <c r="F28" t="n">
         <v>52905700</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
-      <c r="A34">
+    <row r="29">
+      <c r="A29" t="n">
         <v>55.04999923706055</v>
       </c>
-      <c r="B34">
+      <c r="B29" t="n">
         <v>55.22999954223633</v>
       </c>
-      <c r="C34">
+      <c r="C29" t="n">
         <v>51.65999984741211</v>
       </c>
-      <c r="D34">
+      <c r="D29" t="n">
         <v>52.02000045776367</v>
       </c>
-      <c r="E34">
+      <c r="E29" t="n">
         <v>52.02000045776367</v>
       </c>
-      <c r="F34">
+      <c r="F29" t="n">
         <v>52581300</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
-      <c r="A35">
+    <row r="30">
+      <c r="A30" t="n">
         <v>52.68000030517578</v>
       </c>
-      <c r="B35">
+      <c r="B30" t="n">
         <v>54.95999908447266</v>
       </c>
-      <c r="C35">
+      <c r="C30" t="n">
         <v>51.9900016784668</v>
       </c>
-      <c r="D35">
+      <c r="D30" t="n">
         <v>54.38999938964844</v>
       </c>
-      <c r="E35">
+      <c r="E30" t="n">
         <v>54.38999938964844</v>
       </c>
-      <c r="F35">
+      <c r="F30" t="n">
         <v>34748800</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
-      <c r="A36">
+    <row r="31">
+      <c r="A31" t="n">
         <v>53.97000122070312</v>
       </c>
-      <c r="B36">
+      <c r="B31" t="n">
         <v>53.9900016784668</v>
       </c>
-      <c r="C36">
+      <c r="C31" t="n">
         <v>52.20999908447266</v>
       </c>
-      <c r="D36">
+      <c r="D31" t="n">
         <v>52.58000183105469</v>
       </c>
-      <c r="E36">
+      <c r="E31" t="n">
         <v>52.58000183105469</v>
       </c>
-      <c r="F36">
+      <c r="F31" t="n">
         <v>32465500</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
-      <c r="A37">
+    <row r="32">
+      <c r="A32" t="n">
         <v>52.9900016784668</v>
       </c>
-      <c r="B37">
+      <c r="B32" t="n">
         <v>54.11000061035156</v>
       </c>
-      <c r="C37">
+      <c r="C32" t="n">
         <v>52.25</v>
       </c>
-      <c r="D37">
+      <c r="D32" t="n">
         <v>53.97999954223633</v>
       </c>
-      <c r="E37">
+      <c r="E32" t="n">
         <v>53.97999954223633</v>
       </c>
-      <c r="F37">
+      <c r="F32" t="n">
         <v>22666700</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
-      <c r="A38">
+    <row r="33">
+      <c r="A33" t="n">
         <v>53.56999969482422</v>
       </c>
-      <c r="B38">
+      <c r="B33" t="n">
         <v>53.65999984741211</v>
       </c>
-      <c r="C38">
+      <c r="C33" t="n">
         <v>51.8650016784668</v>
       </c>
-      <c r="D38">
+      <c r="D33" t="n">
         <v>52.20000076293945</v>
       </c>
-      <c r="E38">
+      <c r="E33" t="n">
         <v>52.20000076293945</v>
       </c>
-      <c r="F38">
+      <c r="F33" t="n">
         <v>24120400</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
-      <c r="A39">
+    <row r="34">
+      <c r="A34" t="n">
         <v>51.95000076293945</v>
       </c>
-      <c r="B39">
+      <c r="B34" t="n">
         <v>52.97000122070312</v>
       </c>
-      <c r="C39">
+      <c r="C34" t="n">
         <v>51.47000122070312</v>
       </c>
-      <c r="D39">
+      <c r="D34" t="n">
         <v>52.93999862670898</v>
       </c>
-      <c r="E39">
+      <c r="E34" t="n">
         <v>52.93999862670898</v>
       </c>
-      <c r="F39">
+      <c r="F34" t="n">
         <v>16319300</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
-      <c r="A40">
+    <row r="35">
+      <c r="A35" t="n">
         <v>53.08000183105469</v>
       </c>
-      <c r="B40">
+      <c r="B35" t="n">
         <v>53.38000106811523</v>
       </c>
-      <c r="C40">
+      <c r="C35" t="n">
         <v>51.7599983215332</v>
       </c>
-      <c r="D40">
+      <c r="D35" t="n">
         <v>52.2599983215332</v>
       </c>
-      <c r="E40">
+      <c r="E35" t="n">
         <v>52.2599983215332</v>
       </c>
-      <c r="F40">
+      <c r="F35" t="n">
         <v>16371700</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
-      <c r="A41">
+    <row r="36">
+      <c r="A36" t="n">
         <v>52.15000152587891</v>
       </c>
-      <c r="B41">
+      <c r="B36" t="n">
         <v>53.56999969482422</v>
       </c>
-      <c r="C41">
+      <c r="C36" t="n">
         <v>52.06999969482422</v>
       </c>
-      <c r="D41">
+      <c r="D36" t="n">
         <v>53.16999816894531</v>
       </c>
-      <c r="E41">
+      <c r="E36" t="n">
         <v>53.16999816894531</v>
       </c>
-      <c r="F41">
-        <v>17447500</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42">
+      <c r="F36" t="n">
+        <v>17458700</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
         <v>53.36000061035156</v>
       </c>
-      <c r="B42">
+      <c r="B37" t="n">
         <v>55.13000106811523</v>
       </c>
-      <c r="C42">
+      <c r="C37" t="n">
         <v>52.84999847412109</v>
       </c>
-      <c r="D42">
+      <c r="D37" t="n">
         <v>54.90000152587891</v>
       </c>
-      <c r="E42">
+      <c r="E37" t="n">
         <v>54.90000152587891</v>
       </c>
-      <c r="F42">
+      <c r="F37" t="n">
         <v>20154600</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
-      <c r="A43">
+    <row r="38">
+      <c r="A38" t="n">
         <v>55.29499816894531</v>
       </c>
-      <c r="B43">
+      <c r="B38" t="n">
         <v>55.65000152587891</v>
       </c>
-      <c r="C43">
+      <c r="C38" t="n">
         <v>54.20000076293945</v>
       </c>
-      <c r="D43">
+      <c r="D38" t="n">
         <v>54.81999969482422</v>
       </c>
-      <c r="E43">
+      <c r="E38" t="n">
         <v>54.81999969482422</v>
       </c>
-      <c r="F43">
+      <c r="F38" t="n">
         <v>12489000</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
-      <c r="A44">
+    <row r="39">
+      <c r="A39" t="n">
         <v>53.90999984741211</v>
       </c>
-      <c r="B44">
+      <c r="B39" t="n">
         <v>54.16999816894531</v>
       </c>
-      <c r="C44">
+      <c r="C39" t="n">
         <v>52.02000045776367</v>
       </c>
-      <c r="D44">
+      <c r="D39" t="n">
         <v>52.88000106811523</v>
       </c>
-      <c r="E44">
+      <c r="E39" t="n">
         <v>52.88000106811523</v>
       </c>
-      <c r="F44">
+      <c r="F39" t="n">
         <v>14812400</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
-      <c r="A45">
+    <row r="40">
+      <c r="A40" t="n">
         <v>53.45999908447266</v>
       </c>
-      <c r="B45">
+      <c r="B40" t="n">
         <v>54.59000015258789</v>
       </c>
-      <c r="C45">
+      <c r="C40" t="n">
         <v>53.20000076293945</v>
       </c>
-      <c r="D45">
+      <c r="D40" t="n">
         <v>53.29000091552734</v>
       </c>
-      <c r="E45">
+      <c r="E40" t="n">
         <v>53.29000091552734</v>
       </c>
-      <c r="F45">
+      <c r="F40" t="n">
         <v>13322000</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
-      <c r="A46">
+    <row r="41">
+      <c r="A41" t="n">
         <v>53.81999969482422</v>
       </c>
-      <c r="B46">
+      <c r="B41" t="n">
         <v>54.06999969482422</v>
       </c>
-      <c r="C46">
+      <c r="C41" t="n">
         <v>52.81999969482422</v>
       </c>
-      <c r="D46">
+      <c r="D41" t="n">
         <v>53.70000076293945</v>
       </c>
-      <c r="E46">
+      <c r="E41" t="n">
         <v>53.70000076293945</v>
       </c>
-      <c r="F46">
-        <v>12960100</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47">
+      <c r="F41" t="n">
+        <v>12972500</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
         <v>54.13999938964844</v>
       </c>
-      <c r="B47">
+      <c r="B42" t="n">
         <v>57.13999938964844</v>
       </c>
-      <c r="C47">
+      <c r="C42" t="n">
         <v>54.11999893188477</v>
       </c>
-      <c r="D47">
+      <c r="D42" t="n">
         <v>55.52999877929688</v>
       </c>
-      <c r="E47">
+      <c r="E42" t="n">
         <v>55.52999877929688</v>
       </c>
-      <c r="F47">
+      <c r="F42" t="n">
         <v>22192000</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
-      <c r="A48">
+    <row r="43">
+      <c r="A43" t="n">
         <v>55.77999877929688</v>
       </c>
-      <c r="B48">
+      <c r="B43" t="n">
         <v>55.81000137329102</v>
       </c>
-      <c r="C48">
+      <c r="C43" t="n">
         <v>53.66500091552734</v>
       </c>
-      <c r="D48">
+      <c r="D43" t="n">
         <v>55.11000061035156</v>
       </c>
-      <c r="E48">
+      <c r="E43" t="n">
         <v>55.11000061035156</v>
       </c>
-      <c r="F48">
+      <c r="F43" t="n">
         <v>20754600</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
-      <c r="A49">
+    <row r="44">
+      <c r="A44" t="n">
         <v>54.45000076293945</v>
       </c>
-      <c r="B49">
+      <c r="B44" t="n">
         <v>55.66799926757812</v>
       </c>
-      <c r="C49">
+      <c r="C44" t="n">
         <v>53.86000061035156</v>
       </c>
-      <c r="D49">
+      <c r="D44" t="n">
         <v>54.56000137329102</v>
       </c>
-      <c r="E49">
+      <c r="E44" t="n">
         <v>54.56000137329102</v>
       </c>
-      <c r="F49">
+      <c r="F44" t="n">
         <v>15005300</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
-      <c r="A50">
+    <row r="45">
+      <c r="A45" t="n">
         <v>54.5099983215332</v>
       </c>
-      <c r="B50">
+      <c r="B45" t="n">
         <v>54.77000045776367</v>
       </c>
-      <c r="C50">
+      <c r="C45" t="n">
         <v>52.54999923706055</v>
       </c>
-      <c r="D50">
+      <c r="D45" t="n">
         <v>53.47000122070312</v>
       </c>
-      <c r="E50">
+      <c r="E45" t="n">
         <v>53.47000122070312</v>
       </c>
-      <c r="F50">
+      <c r="F45" t="n">
         <v>13069900</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
-      <c r="A51">
+    <row r="46">
+      <c r="A46" t="n">
         <v>53.93000030517578</v>
       </c>
-      <c r="B51">
+      <c r="B46" t="n">
         <v>53.93000030517578</v>
       </c>
-      <c r="C51">
+      <c r="C46" t="n">
         <v>50.7599983215332</v>
       </c>
-      <c r="D51">
+      <c r="D46" t="n">
         <v>51.31999969482422</v>
       </c>
-      <c r="E51">
+      <c r="E46" t="n">
         <v>51.31999969482422</v>
       </c>
-      <c r="F51">
+      <c r="F46" t="n">
         <v>18095000</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
-      <c r="A52">
+    <row r="47">
+      <c r="A47" t="n">
         <v>51.52000045776367</v>
       </c>
-      <c r="B52">
+      <c r="B47" t="n">
         <v>51.52000045776367</v>
       </c>
-      <c r="C52">
+      <c r="C47" t="n">
         <v>47.45999908447266</v>
       </c>
-      <c r="D52">
+      <c r="D47" t="n">
         <v>49.2599983215332</v>
       </c>
-      <c r="E52">
+      <c r="E47" t="n">
         <v>49.2599983215332</v>
       </c>
-      <c r="F52">
+      <c r="F47" t="n">
         <v>34273700</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
-      <c r="A53">
+    <row r="48">
+      <c r="A48" t="n">
         <v>48.56999969482422</v>
       </c>
-      <c r="B53">
+      <c r="B48" t="n">
         <v>51.02999877929688</v>
       </c>
-      <c r="C53">
+      <c r="C48" t="n">
         <v>47.86000061035156</v>
       </c>
-      <c r="D53">
+      <c r="D48" t="n">
         <v>50.66999816894531</v>
       </c>
-      <c r="E53">
+      <c r="E48" t="n">
         <v>50.66999816894531</v>
       </c>
-      <c r="F53">
+      <c r="F48" t="n">
         <v>21262500</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
-      <c r="A54">
+    <row r="49">
+      <c r="A49" t="n">
         <v>49</v>
       </c>
-      <c r="B54">
+      <c r="B49" t="n">
         <v>50.27000045776367</v>
       </c>
-      <c r="C54">
+      <c r="C49" t="n">
         <v>48.79999923706055</v>
       </c>
-      <c r="D54">
+      <c r="D49" t="n">
         <v>49.65999984741211</v>
       </c>
-      <c r="E54">
+      <c r="E49" t="n">
         <v>49.65999984741211</v>
       </c>
-      <c r="F54">
+      <c r="F49" t="n">
         <v>14813900</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
-      <c r="A55">
+    <row r="50">
+      <c r="A50" t="n">
         <v>48.77000045776367</v>
       </c>
-      <c r="B55">
+      <c r="B50" t="n">
         <v>50.25</v>
       </c>
-      <c r="C55">
+      <c r="C50" t="n">
         <v>48.56999969482422</v>
       </c>
-      <c r="D55">
+      <c r="D50" t="n">
         <v>49.7599983215332</v>
       </c>
-      <c r="E55">
+      <c r="E50" t="n">
         <v>49.7599983215332</v>
       </c>
-      <c r="F55">
+      <c r="F50" t="n">
         <v>10487300</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
-      <c r="A56">
+    <row r="51">
+      <c r="A51" t="n">
         <v>51.09999847412109</v>
       </c>
-      <c r="B56">
+      <c r="B51" t="n">
         <v>51.11999893188477</v>
       </c>
-      <c r="C56">
+      <c r="C51" t="n">
         <v>48.47999954223633</v>
       </c>
-      <c r="D56">
+      <c r="D51" t="n">
         <v>48.84999847412109</v>
       </c>
-      <c r="E56">
+      <c r="E51" t="n">
         <v>48.84999847412109</v>
       </c>
-      <c r="F56">
+      <c r="F51" t="n">
         <v>16171000</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
-      <c r="A57">
+    <row r="52">
+      <c r="A52" t="n">
         <v>48.77999877929688</v>
       </c>
-      <c r="B57">
+      <c r="B52" t="n">
         <v>49.40000152587891</v>
       </c>
-      <c r="C57">
+      <c r="C52" t="n">
         <v>46.29999923706055</v>
       </c>
-      <c r="D57">
+      <c r="D52" t="n">
         <v>47.61000061035156</v>
       </c>
-      <c r="E57">
+      <c r="E52" t="n">
         <v>47.61000061035156</v>
       </c>
-      <c r="F57">
+      <c r="F52" t="n">
         <v>25773000</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
-      <c r="A58">
+    <row r="53">
+      <c r="A53" t="n">
         <v>49.13000106811523</v>
       </c>
-      <c r="B58">
+      <c r="B53" t="n">
         <v>50.97999954223633</v>
       </c>
-      <c r="C58">
+      <c r="C53" t="n">
         <v>46.79999923706055</v>
       </c>
-      <c r="D58">
+      <c r="D53" t="n">
         <v>47.2599983215332</v>
       </c>
-      <c r="E58">
+      <c r="E53" t="n">
         <v>47.2599983215332</v>
       </c>
-      <c r="F58">
+      <c r="F53" t="n">
         <v>28507500</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
-      <c r="A59">
+    <row r="54">
+      <c r="A54" t="n">
         <v>47.2400016784668</v>
       </c>
-      <c r="B59">
+      <c r="B54" t="n">
         <v>48.29000091552734</v>
       </c>
-      <c r="C59">
+      <c r="C54" t="n">
         <v>46.5099983215332</v>
       </c>
-      <c r="D59">
+      <c r="D54" t="n">
         <v>47.90999984741211</v>
       </c>
-      <c r="E59">
+      <c r="E54" t="n">
         <v>47.90999984741211</v>
       </c>
-      <c r="F59">
+      <c r="F54" t="n">
         <v>14418100</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
-      <c r="A60">
+    <row r="55">
+      <c r="A55" t="n">
         <v>47.77000045776367</v>
       </c>
-      <c r="B60">
+      <c r="B55" t="n">
         <v>48.66999816894531</v>
       </c>
-      <c r="C60">
+      <c r="C55" t="n">
         <v>45.45999908447266</v>
       </c>
-      <c r="D60">
+      <c r="D55" t="n">
         <v>46.79000091552734</v>
       </c>
-      <c r="E60">
+      <c r="E55" t="n">
         <v>46.79000091552734</v>
       </c>
-      <c r="F60">
-        <v>19602400</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61">
+      <c r="F55" t="n">
+        <v>19611000</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
         <v>46.20999908447266</v>
       </c>
-      <c r="B61">
+      <c r="B56" t="n">
         <v>48.32500076293945</v>
       </c>
-      <c r="C61">
+      <c r="C56" t="n">
         <v>44.91999816894531</v>
       </c>
-      <c r="D61">
+      <c r="D56" t="n">
         <v>47.91999816894531</v>
       </c>
-      <c r="E61">
+      <c r="E56" t="n">
         <v>47.91999816894531</v>
       </c>
-      <c r="F61">
+      <c r="F56" t="n">
         <v>15738500</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
-      <c r="A62">
+    <row r="57">
+      <c r="A57" t="n">
         <v>49.375</v>
       </c>
-      <c r="B62">
+      <c r="B57" t="n">
         <v>51.68000030517578</v>
       </c>
-      <c r="C62">
+      <c r="C57" t="n">
         <v>49.29000091552734</v>
       </c>
-      <c r="D62">
+      <c r="D57" t="n">
         <v>50.40000152587891</v>
       </c>
-      <c r="E62">
+      <c r="E57" t="n">
         <v>50.40000152587891</v>
       </c>
-      <c r="F62">
+      <c r="F57" t="n">
         <v>20782600</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
-      <c r="A63">
+    <row r="58">
+      <c r="A58" t="n">
         <v>50.61999893188477</v>
       </c>
-      <c r="B63">
+      <c r="B58" t="n">
         <v>54.83499908447266</v>
       </c>
-      <c r="C63">
+      <c r="C58" t="n">
         <v>50.20000076293945</v>
       </c>
-      <c r="D63">
+      <c r="D58" t="n">
         <v>53.41999816894531</v>
       </c>
-      <c r="E63">
+      <c r="E58" t="n">
         <v>53.41999816894531</v>
       </c>
-      <c r="F63">
+      <c r="F58" t="n">
         <v>26768000</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
-      <c r="A64">
+    <row r="59">
+      <c r="A59" t="n">
         <v>52.79000091552734</v>
       </c>
-      <c r="B64">
+      <c r="B59" t="n">
         <v>54.88999938964844</v>
       </c>
-      <c r="C64">
+      <c r="C59" t="n">
         <v>52.11000061035156</v>
       </c>
-      <c r="D64">
+      <c r="D59" t="n">
         <v>52.36000061035156</v>
       </c>
-      <c r="E64">
+      <c r="E59" t="n">
         <v>52.36000061035156</v>
       </c>
-      <c r="F64">
+      <c r="F59" t="n">
         <v>19408100</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
-      <c r="A65">
+    <row r="60">
+      <c r="A60" t="n">
         <v>52.63000106811523</v>
       </c>
-      <c r="B65">
+      <c r="B60" t="n">
         <v>53.31000137329102</v>
       </c>
-      <c r="C65">
+      <c r="C60" t="n">
         <v>50.05500030517578</v>
       </c>
-      <c r="D65">
+      <c r="D60" t="n">
         <v>50.81999969482422</v>
       </c>
-      <c r="E65">
+      <c r="E60" t="n">
         <v>50.81999969482422</v>
       </c>
-      <c r="F65">
-        <v>13404800</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66">
+      <c r="F60" t="n">
+        <v>13416900</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
         <v>50.31999969482422</v>
       </c>
-      <c r="B66">
+      <c r="B61" t="n">
         <v>50.43999862670898</v>
       </c>
-      <c r="C66">
+      <c r="C61" t="n">
         <v>46.45999908447266</v>
       </c>
-      <c r="D66">
+      <c r="D61" t="n">
         <v>48.13999938964844</v>
       </c>
-      <c r="E66">
+      <c r="E61" t="n">
         <v>48.13999938964844</v>
       </c>
-      <c r="F66">
+      <c r="F61" t="n">
         <v>21235100</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
-      <c r="A67">
+    <row r="62">
+      <c r="A62" t="n">
         <v>47.59999847412109</v>
       </c>
-      <c r="B67">
+      <c r="B62" t="n">
         <v>48.31499862670898</v>
       </c>
-      <c r="C67">
+      <c r="C62" t="n">
         <v>46.38000106811523</v>
       </c>
-      <c r="D67">
+      <c r="D62" t="n">
         <v>46.84999847412109</v>
       </c>
-      <c r="E67">
+      <c r="E62" t="n">
         <v>46.84999847412109</v>
       </c>
-      <c r="F67">
+      <c r="F62" t="n">
         <v>16496600</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
-      <c r="A68">
+    <row r="63">
+      <c r="A63" t="n">
         <v>46.34999847412109</v>
       </c>
-      <c r="B68">
+      <c r="B63" t="n">
         <v>46.66999816894531</v>
       </c>
-      <c r="C68">
+      <c r="C63" t="n">
         <v>44.07699966430664</v>
       </c>
-      <c r="D68">
+      <c r="D63" t="n">
         <v>46.40999984741211</v>
       </c>
-      <c r="E68">
+      <c r="E63" t="n">
         <v>46.40999984741211</v>
       </c>
-      <c r="F68">
+      <c r="F63" t="n">
         <v>23804800</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
-      <c r="A69">
+    <row r="64">
+      <c r="A64" t="n">
         <v>47.40999984741211</v>
       </c>
-      <c r="B69">
+      <c r="B64" t="n">
         <v>48.02000045776367</v>
       </c>
-      <c r="C69">
+      <c r="C64" t="n">
         <v>44.06999969482422</v>
       </c>
-      <c r="D69">
+      <c r="D64" t="n">
         <v>44.70000076293945</v>
       </c>
-      <c r="E69">
+      <c r="E64" t="n">
         <v>44.70000076293945</v>
       </c>
-      <c r="F69">
+      <c r="F64" t="n">
         <v>21512200</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
-      <c r="A70">
+    <row r="65">
+      <c r="A65" t="n">
         <v>43.63999938964844</v>
       </c>
-      <c r="B70">
+      <c r="B65" t="n">
         <v>45.88999938964844</v>
       </c>
-      <c r="C70">
+      <c r="C65" t="n">
         <v>42.95999908447266</v>
       </c>
-      <c r="D70">
+      <c r="D65" t="n">
         <v>45.29000091552734</v>
       </c>
-      <c r="E70">
+      <c r="E65" t="n">
         <v>45.29000091552734</v>
       </c>
-      <c r="F70">
-        <v>22959700</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71">
+      <c r="F65" t="n">
+        <v>23105400</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
         <v>44.22000122070312</v>
       </c>
-      <c r="B71">
+      <c r="B66" t="n">
         <v>45.15000152587891</v>
       </c>
-      <c r="C71">
+      <c r="C66" t="n">
         <v>43.38000106811523</v>
       </c>
-      <c r="D71">
+      <c r="D66" t="n">
         <v>44.41999816894531</v>
       </c>
-      <c r="E71">
+      <c r="E66" t="n">
         <v>44.41999816894531</v>
       </c>
-      <c r="F71">
+      <c r="F66" t="n">
         <v>12921600</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
-      <c r="A72">
+    <row r="67">
+      <c r="A67" t="n">
         <v>44.88999938964844</v>
       </c>
-      <c r="B72">
+      <c r="B67" t="n">
         <v>46.20000076293945</v>
       </c>
-      <c r="C72">
+      <c r="C67" t="n">
         <v>43.90000152587891</v>
       </c>
-      <c r="D72">
+      <c r="D67" t="n">
         <v>46.09999847412109</v>
       </c>
-      <c r="E72">
+      <c r="E67" t="n">
         <v>46.09999847412109</v>
       </c>
-      <c r="F72">
+      <c r="F67" t="n">
         <v>15203200</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
-      <c r="A73">
+    <row r="68">
+      <c r="A68" t="n">
         <v>45.98500061035156</v>
       </c>
-      <c r="B73">
+      <c r="B68" t="n">
         <v>47.20999908447266</v>
       </c>
-      <c r="C73">
+      <c r="C68" t="n">
         <v>45.45999908447266</v>
       </c>
-      <c r="D73">
+      <c r="D68" t="n">
         <v>46.77000045776367</v>
       </c>
-      <c r="E73">
+      <c r="E68" t="n">
         <v>46.77000045776367</v>
       </c>
-      <c r="F73">
+      <c r="F68" t="n">
         <v>12055000</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
-      <c r="A74">
+    <row r="69">
+      <c r="A69" t="n">
         <v>47.34999847412109</v>
       </c>
-      <c r="B74">
+      <c r="B69" t="n">
         <v>49.06999969482422</v>
       </c>
-      <c r="C74">
+      <c r="C69" t="n">
         <v>45.95999908447266</v>
       </c>
-      <c r="D74">
+      <c r="D69" t="n">
         <v>48.68000030517578</v>
       </c>
-      <c r="E74">
+      <c r="E69" t="n">
         <v>48.68000030517578</v>
       </c>
-      <c r="F74">
+      <c r="F69" t="n">
         <v>18546400</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
-      <c r="A75">
+    <row r="70">
+      <c r="A70" t="n">
         <v>48.45000076293945</v>
       </c>
-      <c r="B75">
+      <c r="B70" t="n">
         <v>49.25</v>
       </c>
-      <c r="C75">
+      <c r="C70" t="n">
         <v>48.02000045776367</v>
       </c>
-      <c r="D75">
+      <c r="D70" t="n">
         <v>48.63999938964844</v>
       </c>
-      <c r="E75">
+      <c r="E70" t="n">
         <v>48.63999938964844</v>
       </c>
-      <c r="F75">
+      <c r="F70" t="n">
         <v>8163900</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
-      <c r="A76">
+    <row r="71">
+      <c r="A71" t="n">
         <v>48.5</v>
       </c>
-      <c r="B76">
+      <c r="B71" t="n">
         <v>49.22999954223633</v>
       </c>
-      <c r="C76">
+      <c r="C71" t="n">
         <v>47.43000030517578</v>
       </c>
-      <c r="D76">
+      <c r="D71" t="n">
         <v>47.70999908447266</v>
       </c>
-      <c r="E76">
+      <c r="E71" t="n">
         <v>47.70999908447266</v>
       </c>
-      <c r="F76">
+      <c r="F71" t="n">
         <v>8984500</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
-      <c r="A77">
+    <row r="72">
+      <c r="A72" t="n">
         <v>47.59500122070312</v>
       </c>
-      <c r="B77">
+      <c r="B72" t="n">
         <v>47.91999816894531</v>
       </c>
-      <c r="C77">
+      <c r="C72" t="n">
         <v>46.56000137329102</v>
       </c>
-      <c r="D77">
+      <c r="D72" t="n">
         <v>47.06000137329102</v>
       </c>
-      <c r="E77">
+      <c r="E72" t="n">
         <v>47.06000137329102</v>
       </c>
-      <c r="F77">
+      <c r="F72" t="n">
         <v>7693700</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
-      <c r="A78">
+    <row r="73">
+      <c r="A73" t="n">
         <v>46.81000137329102</v>
       </c>
-      <c r="B78">
+      <c r="B73" t="n">
         <v>48.7400016784668</v>
       </c>
-      <c r="C78">
+      <c r="C73" t="n">
         <v>46.81000137329102</v>
       </c>
-      <c r="D78">
+      <c r="D73" t="n">
         <v>48.02999877929688</v>
       </c>
-      <c r="E78">
+      <c r="E73" t="n">
         <v>48.02999877929688</v>
       </c>
-      <c r="F78">
+      <c r="F73" t="n">
         <v>10170200</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
-      <c r="A79">
+    <row r="74">
+      <c r="A74" t="n">
         <v>47.79999923706055</v>
       </c>
-      <c r="B79">
+      <c r="B74" t="n">
         <v>48.45000076293945</v>
       </c>
-      <c r="C79">
+      <c r="C74" t="n">
         <v>47.0099983215332</v>
       </c>
-      <c r="D79">
+      <c r="D74" t="n">
         <v>47.02999877929688</v>
       </c>
-      <c r="E79">
+      <c r="E74" t="n">
         <v>47.02999877929688</v>
       </c>
-      <c r="F79">
+      <c r="F74" t="n">
         <v>8310700</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
-      <c r="A80">
+    <row r="75">
+      <c r="A75" t="n">
         <v>47.63000106811523</v>
       </c>
-      <c r="B80">
+      <c r="B75" t="n">
         <v>47.70999908447266</v>
       </c>
-      <c r="C80">
+      <c r="C75" t="n">
         <v>45.9900016784668</v>
       </c>
-      <c r="D80">
+      <c r="D75" t="n">
         <v>46.59000015258789</v>
       </c>
-      <c r="E80">
+      <c r="E75" t="n">
         <v>46.59000015258789</v>
       </c>
-      <c r="F80">
+      <c r="F75" t="n">
         <v>7931400</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
-      <c r="A81">
+    <row r="76">
+      <c r="A76" t="n">
         <v>46.84999847412109</v>
       </c>
-      <c r="B81">
+      <c r="B76" t="n">
         <v>46.9900016784668</v>
       </c>
-      <c r="C81">
+      <c r="C76" t="n">
         <v>42.45999908447266</v>
       </c>
-      <c r="D81">
+      <c r="D76" t="n">
         <v>44.02999877929688</v>
       </c>
-      <c r="E81">
+      <c r="E76" t="n">
         <v>44.02999877929688</v>
       </c>
-      <c r="F81">
+      <c r="F76" t="n">
         <v>26659100</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
-      <c r="A82">
+    <row r="77">
+      <c r="A77" t="n">
         <v>43.5</v>
       </c>
-      <c r="B82">
+      <c r="B77" t="n">
         <v>44.4900016784668</v>
       </c>
-      <c r="C82">
+      <c r="C77" t="n">
         <v>41.0099983215332</v>
       </c>
-      <c r="D82">
+      <c r="D77" t="n">
         <v>41.33000183105469</v>
       </c>
-      <c r="E82">
+      <c r="E77" t="n">
         <v>41.33000183105469</v>
       </c>
-      <c r="F82">
+      <c r="F77" t="n">
         <v>22163300</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
-      <c r="A83">
+    <row r="78">
+      <c r="A78" t="n">
         <v>41.25</v>
       </c>
-      <c r="B83">
+      <c r="B78" t="n">
         <v>42.43000030517578</v>
       </c>
-      <c r="C83">
+      <c r="C78" t="n">
         <v>39.81999969482422</v>
       </c>
-      <c r="D83">
+      <c r="D78" t="n">
         <v>41.68000030517578</v>
       </c>
-      <c r="E83">
+      <c r="E78" t="n">
         <v>41.68000030517578</v>
       </c>
-      <c r="F83">
+      <c r="F78" t="n">
         <v>17882300</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
-      <c r="A84">
+    <row r="79">
+      <c r="A79" t="n">
         <v>41.54000091552734</v>
       </c>
-      <c r="B84">
+      <c r="B79" t="n">
         <v>43.27999877929688</v>
       </c>
-      <c r="C84">
+      <c r="C79" t="n">
         <v>41.04999923706055</v>
       </c>
-      <c r="D84">
+      <c r="D79" t="n">
         <v>41.36000061035156</v>
       </c>
-      <c r="E84">
+      <c r="E79" t="n">
         <v>41.36000061035156</v>
       </c>
-      <c r="F84">
-        <v>15710600</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85">
+      <c r="F79" t="n">
+        <v>15715900</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
         <v>40.7400016784668</v>
       </c>
-      <c r="B85">
+      <c r="B80" t="n">
         <v>41.77500152587891</v>
       </c>
-      <c r="C85">
+      <c r="C80" t="n">
         <v>38.5099983215332</v>
       </c>
-      <c r="D85">
+      <c r="D80" t="n">
         <v>41.70999908447266</v>
       </c>
-      <c r="E85">
+      <c r="E80" t="n">
         <v>41.70999908447266</v>
       </c>
-      <c r="F85">
+      <c r="F80" t="n">
         <v>20895900</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
-      <c r="A86">
+    <row r="81">
+      <c r="A81" t="n">
         <v>42.06000137329102</v>
       </c>
-      <c r="B86">
+      <c r="B81" t="n">
         <v>43.72000122070312</v>
       </c>
-      <c r="C86">
+      <c r="C81" t="n">
         <v>41.77999877929688</v>
       </c>
-      <c r="D86">
+      <c r="D81" t="n">
         <v>43.31000137329102</v>
       </c>
-      <c r="E86">
+      <c r="E81" t="n">
         <v>43.31000137329102</v>
       </c>
-      <c r="F86">
+      <c r="F81" t="n">
         <v>17386600</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
-      <c r="A87">
+    <row r="82">
+      <c r="A82" t="n">
         <v>43.81000137329102</v>
       </c>
-      <c r="B87">
+      <c r="B82" t="n">
         <v>44.34000015258789</v>
       </c>
-      <c r="C87">
+      <c r="C82" t="n">
         <v>42.06000137329102</v>
       </c>
-      <c r="D87">
+      <c r="D82" t="n">
         <v>42.72999954223633</v>
       </c>
-      <c r="E87">
+      <c r="E82" t="n">
         <v>42.72999954223633</v>
       </c>
-      <c r="F87">
+      <c r="F82" t="n">
         <v>12637500</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
-      <c r="A88">
+    <row r="83">
+      <c r="A83" t="n">
         <v>40.63999938964844</v>
       </c>
-      <c r="B88">
+      <c r="B83" t="n">
         <v>41.45999908447266</v>
       </c>
-      <c r="C88">
+      <c r="C83" t="n">
         <v>38.2599983215332</v>
       </c>
-      <c r="D88">
+      <c r="D83" t="n">
         <v>38.38000106811523</v>
       </c>
-      <c r="E88">
+      <c r="E83" t="n">
         <v>38.38000106811523</v>
       </c>
-      <c r="F88">
+      <c r="F83" t="n">
         <v>32180500</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
-      <c r="A89">
+    <row r="84">
+      <c r="A84" t="n">
         <v>37.72000122070312</v>
       </c>
-      <c r="B89">
+      <c r="B84" t="n">
         <v>38.33000183105469</v>
       </c>
-      <c r="C89">
+      <c r="C84" t="n">
         <v>36.56000137329102</v>
       </c>
-      <c r="D89">
+      <c r="D84" t="n">
         <v>38.04000091552734</v>
       </c>
-      <c r="E89">
+      <c r="E84" t="n">
         <v>38.04000091552734</v>
       </c>
-      <c r="F89">
-        <v>25547000</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90">
+      <c r="F84" t="n">
+        <v>25556100</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
         <v>36.97999954223633</v>
       </c>
-      <c r="B90">
+      <c r="B85" t="n">
         <v>36.98500061035156</v>
       </c>
-      <c r="C90">
+      <c r="C85" t="n">
         <v>35.61999893188477</v>
       </c>
-      <c r="D90">
+      <c r="D85" t="n">
         <v>35.70000076293945</v>
       </c>
-      <c r="E90">
+      <c r="E85" t="n">
         <v>35.70000076293945</v>
       </c>
-      <c r="F90">
+      <c r="F85" t="n">
         <v>37008100</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
-      <c r="A91">
+    <row r="86">
+      <c r="A86" t="n">
         <v>36.02999877929688</v>
       </c>
-      <c r="B91">
+      <c r="B86" t="n">
         <v>36.47999954223633</v>
       </c>
-      <c r="C91">
+      <c r="C86" t="n">
         <v>34.7599983215332</v>
       </c>
-      <c r="D91">
+      <c r="D86" t="n">
         <v>35.04999923706055</v>
       </c>
-      <c r="E91">
+      <c r="E86" t="n">
         <v>35.04999923706055</v>
       </c>
-      <c r="F91">
+      <c r="F86" t="n">
         <v>23942000</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
-      <c r="A92">
+    <row r="87">
+      <c r="A87" t="n">
         <v>35.79999923706055</v>
       </c>
-      <c r="B92">
+      <c r="B87" t="n">
         <v>37.10499954223633</v>
       </c>
-      <c r="C92">
+      <c r="C87" t="n">
         <v>34.91500091552734</v>
       </c>
-      <c r="D92">
+      <c r="D87" t="n">
         <v>34.9900016784668</v>
       </c>
-      <c r="E92">
+      <c r="E87" t="n">
         <v>34.9900016784668</v>
       </c>
-      <c r="F92">
+      <c r="F87" t="n">
         <v>21672700</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
-      <c r="A93">
+    <row r="88">
+      <c r="A88" t="n">
         <v>34</v>
       </c>
-      <c r="B93">
+      <c r="B88" t="n">
         <v>34.61999893188477</v>
       </c>
-      <c r="C93">
+      <c r="C88" t="n">
         <v>32</v>
       </c>
-      <c r="D93">
+      <c r="D88" t="n">
         <v>32.11999893188477</v>
       </c>
-      <c r="E93">
+      <c r="E88" t="n">
         <v>32.11999893188477</v>
       </c>
-      <c r="F93">
+      <c r="F88" t="n">
         <v>37648400</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
-      <c r="A94">
+    <row r="89">
+      <c r="A89" t="n">
         <v>30.15999984741211</v>
       </c>
-      <c r="B94">
+      <c r="B89" t="n">
         <v>31.80999946594238</v>
       </c>
-      <c r="C94">
+      <c r="C89" t="n">
         <v>28.02000045776367</v>
       </c>
-      <c r="D94">
+      <c r="D89" t="n">
         <v>31.79999923706055</v>
       </c>
-      <c r="E94">
+      <c r="E89" t="n">
         <v>31.79999923706055</v>
       </c>
-      <c r="F94">
+      <c r="F89" t="n">
         <v>46502200</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
-      <c r="A95">
+    <row r="90">
+      <c r="A90" t="n">
         <v>31.01000022888184</v>
       </c>
-      <c r="B95">
+      <c r="B90" t="n">
         <v>32.09000015258789</v>
       </c>
-      <c r="C95">
+      <c r="C90" t="n">
         <v>30.08499908447266</v>
       </c>
-      <c r="D95">
+      <c r="D90" t="n">
         <v>30.65999984741211</v>
       </c>
-      <c r="E95">
+      <c r="E90" t="n">
         <v>30.65999984741211</v>
       </c>
-      <c r="F95">
+      <c r="F90" t="n">
         <v>26893800</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
-      <c r="A96">
+    <row r="91">
+      <c r="A91" t="n">
         <v>31.3799991607666</v>
       </c>
-      <c r="B96">
+      <c r="B91" t="n">
         <v>31.90999984741211</v>
       </c>
-      <c r="C96">
+      <c r="C91" t="n">
         <v>28.15999984741211</v>
       </c>
-      <c r="D96">
+      <c r="D91" t="n">
         <v>28.6299991607666</v>
       </c>
-      <c r="E96">
+      <c r="E91" t="n">
         <v>28.6299991607666</v>
       </c>
-      <c r="F96">
+      <c r="F91" t="n">
         <v>35467300</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
-      <c r="A97">
+    <row r="92">
+      <c r="A92" t="n">
         <v>29.6299991607666</v>
       </c>
-      <c r="B97">
+      <c r="B92" t="n">
         <v>30.67000007629395</v>
       </c>
-      <c r="C97">
+      <c r="C92" t="n">
         <v>28.17000007629395</v>
       </c>
-      <c r="D97">
+      <c r="D92" t="n">
         <v>28.29999923706055</v>
       </c>
-      <c r="E97">
+      <c r="E92" t="n">
         <v>28.29999923706055</v>
       </c>
-      <c r="F97">
+      <c r="F92" t="n">
         <v>35331900</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
-      <c r="A98">
+    <row r="93">
+      <c r="A93" t="n">
         <v>28.6299991607666</v>
       </c>
-      <c r="B98">
+      <c r="B93" t="n">
         <v>30.47999954223633</v>
       </c>
-      <c r="C98">
+      <c r="C93" t="n">
         <v>28.1299991607666</v>
       </c>
-      <c r="D98">
+      <c r="D93" t="n">
         <v>30.42000007629395</v>
       </c>
-      <c r="E98">
+      <c r="E93" t="n">
         <v>30.42000007629395</v>
       </c>
-      <c r="F98">
+      <c r="F93" t="n">
         <v>28380500</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
-      <c r="A99">
+    <row r="94">
+      <c r="A94" t="n">
         <v>30.64999961853027</v>
       </c>
-      <c r="B99">
+      <c r="B94" t="n">
         <v>32.63000106811523</v>
       </c>
-      <c r="C99">
+      <c r="C94" t="n">
         <v>30.64999961853027</v>
       </c>
-      <c r="D99">
+      <c r="D94" t="n">
         <v>32.54000091552734</v>
       </c>
-      <c r="E99">
+      <c r="E94" t="n">
         <v>32.54000091552734</v>
       </c>
-      <c r="F99">
+      <c r="F94" t="n">
         <v>25872900</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
-      <c r="A100">
+    <row r="95">
+      <c r="A95" t="n">
         <v>34.13000106811523</v>
       </c>
-      <c r="B100">
+      <c r="B95" t="n">
         <v>34.20000076293945</v>
       </c>
-      <c r="C100">
+      <c r="C95" t="n">
         <v>32.20999908447266</v>
       </c>
-      <c r="D100">
+      <c r="D95" t="n">
         <v>33.65999984741211</v>
       </c>
-      <c r="E100">
+      <c r="E95" t="n">
         <v>33.65999984741211</v>
       </c>
-      <c r="F100">
+      <c r="F95" t="n">
         <v>28108900</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
-      <c r="A101">
+    <row r="96">
+      <c r="A96" t="n">
         <v>34.15000152587891</v>
       </c>
-      <c r="B101">
+      <c r="B96" t="n">
         <v>34.24499893188477</v>
       </c>
-      <c r="C101">
+      <c r="C96" t="n">
         <v>31.72999954223633</v>
       </c>
-      <c r="D101">
+      <c r="D96" t="n">
         <v>32.06999969482422</v>
       </c>
-      <c r="E101">
+      <c r="E96" t="n">
         <v>32.06999969482422</v>
       </c>
-      <c r="F101">
+      <c r="F96" t="n">
         <v>41654600</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
-      <c r="A102">
+    <row r="97">
+      <c r="A97" t="n">
         <v>25.73999977111816</v>
       </c>
-      <c r="B102">
+      <c r="B97" t="n">
         <v>26.48999977111816</v>
       </c>
-      <c r="C102">
+      <c r="C97" t="n">
         <v>24.31999969482422</v>
       </c>
-      <c r="D102">
+      <c r="D97" t="n">
         <v>24.5</v>
       </c>
-      <c r="E102">
+      <c r="E97" t="n">
         <v>24.5</v>
       </c>
-      <c r="F102">
+      <c r="F97" t="n">
         <v>149336000</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
-      <c r="A103">
+    <row r="98">
+      <c r="A98" t="n">
         <v>35.27000045776367</v>
       </c>
-      <c r="B103">
+      <c r="B98" t="n">
         <v>40.65000152587891</v>
       </c>
-      <c r="C103">
+      <c r="C98" t="n">
         <v>34.09999847412109</v>
       </c>
-      <c r="D103">
+      <c r="D98" t="n">
         <v>38.90999984741211</v>
       </c>
-      <c r="E103">
+      <c r="E98" t="n">
         <v>38.90999984741211</v>
       </c>
-      <c r="F103">
-        <v>308020500</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104">
+      <c r="F98" t="n">
+        <v>308602500</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
         <v>38.5099983215332</v>
       </c>
-      <c r="B104">
+      <c r="B99" t="n">
         <v>39.59000015258789</v>
       </c>
-      <c r="C104">
+      <c r="C99" t="n">
         <v>37.52000045776367</v>
       </c>
-      <c r="D104">
+      <c r="D99" t="n">
         <v>37.88000106811523</v>
       </c>
-      <c r="E104">
+      <c r="E99" t="n">
         <v>37.88000106811523</v>
       </c>
-      <c r="F104">
+      <c r="F99" t="n">
         <v>96743300</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
-      <c r="A105">
+    <row r="100">
+      <c r="A100" t="n">
         <v>35.5099983215332</v>
       </c>
-      <c r="B105">
+      <c r="B100" t="n">
         <v>37.7599983215332</v>
       </c>
-      <c r="C105">
+      <c r="C100" t="n">
         <v>34.86999893188477</v>
       </c>
-      <c r="D105">
+      <c r="D100" t="n">
         <v>37.56000137329102</v>
       </c>
-      <c r="E105">
+      <c r="E100" t="n">
         <v>37.56000137329102</v>
       </c>
-      <c r="F105">
+      <c r="F100" t="n">
         <v>85621100</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
-      <c r="A106">
+    <row r="101">
+      <c r="A101" t="n">
         <v>37.7400016784668</v>
       </c>
-      <c r="B106">
+      <c r="B101" t="n">
         <v>40.33000183105469</v>
       </c>
-      <c r="C106">
+      <c r="C101" t="n">
         <v>37.11000061035156</v>
       </c>
-      <c r="D106">
+      <c r="D101" t="n">
         <v>40.27999877929688</v>
       </c>
-      <c r="E106">
+      <c r="E101" t="n">
         <v>40.27999877929688</v>
       </c>
-      <c r="F106">
+      <c r="F101" t="n">
         <v>67166800</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
-      <c r="A107">
+    <row r="102">
+      <c r="A102" t="n">
         <v>38.5099983215332</v>
       </c>
-      <c r="B107">
+      <c r="B102" t="n">
         <v>41.97000122070312</v>
       </c>
-      <c r="C107">
+      <c r="C102" t="n">
         <v>38.50500106811523</v>
       </c>
-      <c r="D107">
+      <c r="D102" t="n">
         <v>40.61999893188477</v>
       </c>
-      <c r="E107">
+      <c r="E102" t="n">
         <v>40.61999893188477</v>
       </c>
-      <c r="F107">
+      <c r="F102" t="n">
         <v>65264300</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
-      <c r="A108">
+    <row r="103">
+      <c r="A103" t="n">
         <v>40.38000106811523</v>
       </c>
-      <c r="B108">
+      <c r="B103" t="n">
         <v>41.97000122070312</v>
       </c>
-      <c r="C108">
+      <c r="C103" t="n">
         <v>39.06999969482422</v>
       </c>
-      <c r="D108">
+      <c r="D103" t="n">
         <v>39.4900016784668</v>
       </c>
-      <c r="E108">
+      <c r="E103" t="n">
         <v>39.4900016784668</v>
       </c>
-      <c r="F108">
-        <v>42721700</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109">
+      <c r="F103" t="n">
+        <v>42826900</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
         <v>39.95999908447266</v>
       </c>
-      <c r="B109">
+      <c r="B104" t="n">
         <v>41.88999938964844</v>
       </c>
-      <c r="C109">
+      <c r="C104" t="n">
         <v>39.5</v>
       </c>
-      <c r="D109">
+      <c r="D104" t="n">
         <v>39.61999893188477</v>
       </c>
-      <c r="E109">
+      <c r="E104" t="n">
         <v>39.61999893188477</v>
       </c>
-      <c r="F109">
+      <c r="F104" t="n">
         <v>37579800</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
-      <c r="A110">
+    <row r="105">
+      <c r="A105" t="n">
         <v>40.15999984741211</v>
       </c>
-      <c r="B110">
+      <c r="B105" t="n">
         <v>41.45999908447266</v>
       </c>
-      <c r="C110">
+      <c r="C105" t="n">
         <v>39.93999862670898</v>
       </c>
-      <c r="D110">
+      <c r="D105" t="n">
         <v>41.43000030517578</v>
       </c>
-      <c r="E110">
+      <c r="E105" t="n">
         <v>41.43000030517578</v>
       </c>
-      <c r="F110">
+      <c r="F105" t="n">
         <v>26091600</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
-      <c r="A111">
+    <row r="106">
+      <c r="A106" t="n">
         <v>38.95999908447266</v>
       </c>
-      <c r="B111">
+      <c r="B106" t="n">
         <v>40.59999847412109</v>
       </c>
-      <c r="C111">
+      <c r="C106" t="n">
         <v>38.95999908447266</v>
       </c>
-      <c r="D111">
+      <c r="D106" t="n">
         <v>40.0099983215332</v>
       </c>
-      <c r="E111">
+      <c r="E106" t="n">
         <v>40.0099983215332</v>
       </c>
-      <c r="F111">
+      <c r="F106" t="n">
         <v>35643500</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
-      <c r="A112">
+    <row r="107">
+      <c r="A107" t="n">
         <v>40.45000076293945</v>
       </c>
-      <c r="B112">
+      <c r="B107" t="n">
         <v>40.81999969482422</v>
       </c>
-      <c r="C112">
+      <c r="C107" t="n">
         <v>39.16999816894531</v>
       </c>
-      <c r="D112">
+      <c r="D107" t="n">
         <v>39.45000076293945</v>
       </c>
-      <c r="E112">
+      <c r="E107" t="n">
         <v>39.45000076293945</v>
       </c>
-      <c r="F112">
+      <c r="F107" t="n">
         <v>24624400</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
-      <c r="A113">
+    <row r="108">
+      <c r="A108" t="n">
         <v>39.61000061035156</v>
       </c>
-      <c r="B113">
+      <c r="B108" t="n">
         <v>40.40000152587891</v>
       </c>
-      <c r="C113">
+      <c r="C108" t="n">
         <v>37.93999862670898</v>
       </c>
-      <c r="D113">
+      <c r="D108" t="n">
         <v>38.0099983215332</v>
       </c>
-      <c r="E113">
+      <c r="E108" t="n">
         <v>38.0099983215332</v>
       </c>
-      <c r="F113">
+      <c r="F108" t="n">
         <v>23064200</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
-      <c r="A114">
+    <row r="109">
+      <c r="A109" t="n">
         <v>37.75</v>
       </c>
-      <c r="B114">
+      <c r="B109" t="n">
         <v>38.47000122070312</v>
       </c>
-      <c r="C114">
+      <c r="C109" t="n">
         <v>36.36999893188477</v>
       </c>
-      <c r="D114">
+      <c r="D109" t="n">
         <v>36.86999893188477</v>
       </c>
-      <c r="E114">
+      <c r="E109" t="n">
         <v>36.86999893188477</v>
       </c>
-      <c r="F114">
+      <c r="F109" t="n">
         <v>25433100</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
-      <c r="A115">
+    <row r="110">
+      <c r="A110" t="n">
         <v>37.18999862670898</v>
       </c>
-      <c r="B115">
+      <c r="B110" t="n">
         <v>38.15000152587891</v>
       </c>
-      <c r="C115">
+      <c r="C110" t="n">
         <v>36.15999984741211</v>
       </c>
-      <c r="D115">
+      <c r="D110" t="n">
         <v>36.97999954223633</v>
       </c>
-      <c r="E115">
+      <c r="E110" t="n">
         <v>36.97999954223633</v>
       </c>
-      <c r="F115">
+      <c r="F110" t="n">
         <v>24429900</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
-      <c r="A116">
+    <row r="111">
+      <c r="A111" t="n">
         <v>34.95000076293945</v>
       </c>
-      <c r="B116">
+      <c r="B111" t="n">
         <v>39.04999923706055</v>
       </c>
-      <c r="C116">
+      <c r="C111" t="n">
         <v>34.95000076293945</v>
       </c>
-      <c r="D116">
+      <c r="D111" t="n">
         <v>38.83000183105469</v>
       </c>
-      <c r="E116">
+      <c r="E111" t="n">
         <v>38.83000183105469</v>
       </c>
-      <c r="F116">
+      <c r="F111" t="n">
         <v>26703600</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
-      <c r="A117">
+    <row r="112">
+      <c r="A112" t="n">
         <v>38.84000015258789</v>
       </c>
-      <c r="B117">
+      <c r="B112" t="n">
         <v>39.56499862670898</v>
       </c>
-      <c r="C117">
+      <c r="C112" t="n">
         <v>38.09999847412109</v>
       </c>
-      <c r="D117">
+      <c r="D112" t="n">
         <v>39.15000152587891</v>
       </c>
-      <c r="E117">
+      <c r="E112" t="n">
         <v>39.15000152587891</v>
       </c>
-      <c r="F117">
+      <c r="F112" t="n">
         <v>19173500</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
-      <c r="A118">
+    <row r="113">
+      <c r="A113" t="n">
         <v>39.4900016784668</v>
       </c>
-      <c r="B118">
+      <c r="B113" t="n">
         <v>40.95999908447266</v>
       </c>
-      <c r="C118">
+      <c r="C113" t="n">
         <v>38.84000015258789</v>
       </c>
-      <c r="D118">
+      <c r="D113" t="n">
         <v>39.93999862670898</v>
       </c>
-      <c r="E118">
+      <c r="E113" t="n">
         <v>39.93999862670898</v>
       </c>
-      <c r="F118">
+      <c r="F113" t="n">
         <v>23393000</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
-      <c r="A119">
+    <row r="114">
+      <c r="A114" t="n">
         <v>39.81000137329102</v>
       </c>
-      <c r="B119">
+      <c r="B114" t="n">
         <v>41.31999969482422</v>
       </c>
-      <c r="C119">
+      <c r="C114" t="n">
         <v>37.45999908447266</v>
       </c>
-      <c r="D119">
+      <c r="D114" t="n">
         <v>37.84000015258789</v>
       </c>
-      <c r="E119">
+      <c r="E114" t="n">
         <v>37.84000015258789</v>
       </c>
-      <c r="F119">
+      <c r="F114" t="n">
         <v>28341900</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
-      <c r="A120">
+    <row r="115">
+      <c r="A115" t="n">
         <v>38.11999893188477</v>
       </c>
-      <c r="B120">
+      <c r="B115" t="n">
         <v>38.11999893188477</v>
       </c>
-      <c r="C120">
+      <c r="C115" t="n">
         <v>35.75</v>
       </c>
-      <c r="D120">
+      <c r="D115" t="n">
         <v>37.36999893188477</v>
       </c>
-      <c r="E120">
+      <c r="E115" t="n">
         <v>37.36999893188477</v>
       </c>
-      <c r="F120">
+      <c r="F115" t="n">
         <v>30985500</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
-      <c r="A121">
+    <row r="116">
+      <c r="A116" t="n">
         <v>37.29999923706055</v>
       </c>
-      <c r="B121">
+      <c r="B116" t="n">
         <v>37.41999816894531</v>
       </c>
-      <c r="C121">
+      <c r="C116" t="n">
         <v>35.0099983215332</v>
       </c>
-      <c r="D121">
+      <c r="D116" t="n">
         <v>35.65999984741211</v>
       </c>
-      <c r="E121">
+      <c r="E116" t="n">
         <v>35.65999984741211</v>
       </c>
-      <c r="F121">
+      <c r="F116" t="n">
         <v>23087700</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
-      <c r="A122">
+    <row r="117">
+      <c r="A117" t="n">
         <v>36.38999938964844</v>
       </c>
-      <c r="B122">
+      <c r="B117" t="n">
         <v>36.72000122070312</v>
       </c>
-      <c r="C122">
+      <c r="C117" t="n">
         <v>32.88999938964844</v>
       </c>
-      <c r="D122">
+      <c r="D117" t="n">
         <v>33.09000015258789</v>
       </c>
-      <c r="E122">
+      <c r="E117" t="n">
         <v>33.09000015258789</v>
       </c>
-      <c r="F122">
+      <c r="F117" t="n">
         <v>22212700</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
-      <c r="A123">
+    <row r="118">
+      <c r="A118" t="n">
         <v>33.15000152587891</v>
       </c>
-      <c r="B123">
+      <c r="B118" t="n">
         <v>33.34000015258789</v>
       </c>
-      <c r="C123">
+      <c r="C118" t="n">
         <v>30.19000053405762</v>
       </c>
-      <c r="D123">
+      <c r="D118" t="n">
         <v>30.21999931335449</v>
       </c>
-      <c r="E123">
+      <c r="E118" t="n">
         <v>30.21999931335449</v>
       </c>
-      <c r="F123">
+      <c r="F118" t="n">
         <v>32356700</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
-      <c r="A124">
+    <row r="119">
+      <c r="A119" t="n">
         <v>30.01000022888184</v>
       </c>
-      <c r="B124">
+      <c r="B119" t="n">
         <v>32.72000122070312</v>
       </c>
-      <c r="C124">
+      <c r="C119" t="n">
         <v>29.57999992370605</v>
       </c>
-      <c r="D124">
+      <c r="D119" t="n">
         <v>31.21999931335449</v>
       </c>
-      <c r="E124">
+      <c r="E119" t="n">
         <v>31.21999931335449</v>
       </c>
-      <c r="F124">
+      <c r="F119" t="n">
         <v>28109600</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
-      <c r="A125">
+    <row r="120">
+      <c r="A120" t="n">
         <v>32</v>
       </c>
-      <c r="B125">
+      <c r="B120" t="n">
         <v>34.22999954223633</v>
       </c>
-      <c r="C125">
+      <c r="C120" t="n">
         <v>31.78000068664551</v>
       </c>
-      <c r="D125">
+      <c r="D120" t="n">
         <v>33.68000030517578</v>
       </c>
-      <c r="E125">
+      <c r="E120" t="n">
         <v>33.68000030517578</v>
       </c>
-      <c r="F125">
+      <c r="F120" t="n">
         <v>26986400</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
-      <c r="A126">
+    <row r="121">
+      <c r="A121" t="n">
         <v>32.75</v>
       </c>
-      <c r="B126">
+      <c r="B121" t="n">
         <v>32.7599983215332</v>
       </c>
-      <c r="C126">
+      <c r="C121" t="n">
         <v>31.05999946594238</v>
       </c>
-      <c r="D126">
+      <c r="D121" t="n">
         <v>31.73999977111816</v>
       </c>
-      <c r="E126">
+      <c r="E121" t="n">
         <v>31.73999977111816</v>
       </c>
-      <c r="F126">
+      <c r="F121" t="n">
         <v>21145700</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
-      <c r="A127">
+    <row r="122">
+      <c r="A122" t="n">
         <v>32.38000106811523</v>
       </c>
-      <c r="B127">
+      <c r="B122" t="n">
         <v>32.40999984741211</v>
       </c>
-      <c r="C127">
+      <c r="C122" t="n">
         <v>29.7450008392334</v>
       </c>
-      <c r="D127">
+      <c r="D122" t="n">
         <v>30.04999923706055</v>
       </c>
-      <c r="E127">
+      <c r="E122" t="n">
         <v>30.04999923706055</v>
       </c>
-      <c r="F127">
-        <v>22871932</v>
+      <c r="F122" t="n">
+        <v>23167200</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>29.53000068664551</v>
+      </c>
+      <c r="B123" t="n">
+        <v>30.13999938964844</v>
+      </c>
+      <c r="C123" t="n">
+        <v>27.67000007629395</v>
+      </c>
+      <c r="D123" t="n">
+        <v>28</v>
+      </c>
+      <c r="E123" t="n">
+        <v>28</v>
+      </c>
+      <c r="F123" t="n">
+        <v>32917800</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>28.85000038146973</v>
+      </c>
+      <c r="B124" t="n">
+        <v>30.15800094604492</v>
+      </c>
+      <c r="C124" t="n">
+        <v>28.57600021362305</v>
+      </c>
+      <c r="D124" t="n">
+        <v>29.57999992370605</v>
+      </c>
+      <c r="E124" t="n">
+        <v>29.57999992370605</v>
+      </c>
+      <c r="F124" t="n">
+        <v>38242700</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>30.86000061035156</v>
+      </c>
+      <c r="B125" t="n">
+        <v>32.61999893188477</v>
+      </c>
+      <c r="C125" t="n">
+        <v>30.22999954223633</v>
+      </c>
+      <c r="D125" t="n">
+        <v>32.56000137329102</v>
+      </c>
+      <c r="E125" t="n">
+        <v>32.56000137329102</v>
+      </c>
+      <c r="F125" t="n">
+        <v>34041900</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>31.17000007629395</v>
+      </c>
+      <c r="B126" t="n">
+        <v>34.31999969482422</v>
+      </c>
+      <c r="C126" t="n">
+        <v>30.92000007629395</v>
+      </c>
+      <c r="D126" t="n">
+        <v>33.97000122070312</v>
+      </c>
+      <c r="E126" t="n">
+        <v>33.97000122070312</v>
+      </c>
+      <c r="F126" t="n">
+        <v>25439800</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>33.20999908447266</v>
+      </c>
+      <c r="B127" t="n">
+        <v>36.02999877929688</v>
+      </c>
+      <c r="C127" t="n">
+        <v>33.02000045776367</v>
+      </c>
+      <c r="D127" t="n">
+        <v>36</v>
+      </c>
+      <c r="E127" t="n">
+        <v>36</v>
+      </c>
+      <c r="F127" t="n">
+        <v>28385500</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>